--- a/Samochody.xlsx
+++ b/Samochody.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NASA\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NASA\PracaInz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E3E0CA-4FE7-49B3-ACB6-2821B736C8CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{829A34EE-05FD-4D80-9C70-7A3E61752A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3375" yWindow="1545" windowWidth="24300" windowHeight="12285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1710" yWindow="1020" windowWidth="24300" windowHeight="12285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -90,9 +90,6 @@
     <t>Porsche 911 Carrera Cabriolet</t>
   </si>
   <si>
-    <t>Porsche 911 (993) Carrera S</t>
-  </si>
-  <si>
     <t>Ford GT</t>
   </si>
   <si>
@@ -754,6 +751,9 @@
   </si>
   <si>
     <t>przyspieszenie 0-100km/h [s]</t>
+  </si>
+  <si>
+    <t>Porsche 911 (997) Carrera S</t>
   </si>
 </sst>
 </file>
@@ -1074,11 +1074,12 @@
   <dimension ref="A1:S241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="J81" sqref="J81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="7" customWidth="1"/>
     <col min="2" max="2" width="45.7109375" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
@@ -1108,10 +1109,10 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E1" t="s">
         <v>231</v>
-      </c>
-      <c r="E1" t="s">
-        <v>232</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -1120,37 +1121,37 @@
         <v>3</v>
       </c>
       <c r="H1" t="s">
+        <v>232</v>
+      </c>
+      <c r="I1" t="s">
         <v>233</v>
-      </c>
-      <c r="I1" t="s">
-        <v>234</v>
       </c>
       <c r="J1" t="s">
         <v>4</v>
       </c>
       <c r="K1" t="s">
+        <v>234</v>
+      </c>
+      <c r="L1" t="s">
         <v>235</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>236</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>237</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>238</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q1" t="s">
         <v>239</v>
       </c>
-      <c r="P1" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>240</v>
-      </c>
-      <c r="R1" t="s">
-        <v>241</v>
       </c>
       <c r="S1" t="s">
         <v>6</v>
@@ -1187,6 +1188,9 @@
       <c r="B4" t="s">
         <v>9</v>
       </c>
+      <c r="J4">
+        <v>2019</v>
+      </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -1196,6 +1200,9 @@
       <c r="B5" t="s">
         <v>10</v>
       </c>
+      <c r="J5">
+        <v>2011</v>
+      </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -1217,6 +1224,9 @@
       <c r="B7" t="s">
         <v>12</v>
       </c>
+      <c r="J7">
+        <v>2013</v>
+      </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -1250,6 +1260,9 @@
       <c r="B10" t="s">
         <v>15</v>
       </c>
+      <c r="J10">
+        <v>1984</v>
+      </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -1271,6 +1284,9 @@
       <c r="B12" t="s">
         <v>17</v>
       </c>
+      <c r="J12">
+        <v>2019</v>
+      </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -1278,7 +1294,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>242</v>
+      </c>
+      <c r="J13">
+        <v>2007</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -1289,6 +1308,9 @@
       <c r="B14" t="s">
         <v>18</v>
       </c>
+      <c r="J14">
+        <v>1986</v>
+      </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -1298,6 +1320,9 @@
       <c r="B15" t="s">
         <v>19</v>
       </c>
+      <c r="J15">
+        <v>2016</v>
+      </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -1307,6 +1332,9 @@
       <c r="B16" t="s">
         <v>20</v>
       </c>
+      <c r="J16">
+        <v>1997</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
@@ -1314,7 +1342,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J17">
         <v>2006</v>
@@ -1326,7 +1354,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="J18">
+        <v>2004</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1335,7 +1366,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="J19">
+        <v>2020</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1344,7 +1378,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="J20">
+        <v>1998</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1353,7 +1390,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J21">
         <v>2010</v>
@@ -1365,7 +1402,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="J22">
+        <v>2017</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1374,7 +1414,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="J23">
+        <v>2010</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -1383,7 +1426,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="J24">
+        <v>2010</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1392,7 +1438,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="J25">
+        <v>2004</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -1401,7 +1450,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="J26">
+        <v>2015</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -1410,7 +1462,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="J27">
+        <v>2010</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -1419,7 +1474,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J28">
         <v>1965</v>
@@ -1431,7 +1486,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="J29">
+        <v>2008</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -1440,7 +1498,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="J30">
+        <v>1980</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -1449,7 +1510,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="J31">
+        <v>1999</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -1458,7 +1522,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J32">
         <v>2010</v>
@@ -1470,7 +1534,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="J33">
+        <v>2002</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -1479,7 +1546,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J34">
         <v>2001</v>
@@ -1491,7 +1558,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="J35">
+        <v>2002</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -1500,7 +1570,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J36">
         <v>1955</v>
@@ -1512,7 +1582,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J37">
         <v>1982</v>
@@ -1524,7 +1594,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J38">
         <v>2008</v>
@@ -1536,7 +1606,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="J39">
+        <v>1976</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -1545,7 +1618,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>45</v>
+        <v>44</v>
+      </c>
+      <c r="J40">
+        <v>2014</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -1554,7 +1630,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J41">
         <v>1970</v>
@@ -1566,7 +1642,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J42">
         <v>2007</v>
@@ -1578,7 +1654,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="J43">
+        <v>2014</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -1587,7 +1666,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>49</v>
+        <v>48</v>
+      </c>
+      <c r="J44">
+        <v>2014</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -1596,7 +1678,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>50</v>
+        <v>49</v>
+      </c>
+      <c r="J45">
+        <v>2006</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -1605,7 +1690,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J46">
         <v>2009</v>
@@ -1617,7 +1702,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>52</v>
+        <v>51</v>
+      </c>
+      <c r="J47">
+        <v>2012</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -1626,7 +1714,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>53</v>
+        <v>52</v>
+      </c>
+      <c r="J48">
+        <v>2003</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -1635,7 +1726,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J49">
         <v>2006</v>
@@ -1647,7 +1738,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J50">
         <v>2010</v>
@@ -1659,7 +1750,10 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+      <c r="J51">
+        <v>2017</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -1668,7 +1762,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J52">
         <v>2002</v>
@@ -1680,7 +1774,10 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>58</v>
+        <v>57</v>
+      </c>
+      <c r="J53">
+        <v>1991</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -1689,7 +1786,10 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="J54">
+        <v>2016</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -1698,7 +1798,10 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>60</v>
+        <v>59</v>
+      </c>
+      <c r="J55">
+        <v>2003</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -1707,7 +1810,10 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>61</v>
+        <v>60</v>
+      </c>
+      <c r="J56">
+        <v>2002</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -1716,7 +1822,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J57">
         <v>2008</v>
@@ -1728,7 +1834,10 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+      <c r="J58">
+        <v>2023</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
@@ -1737,7 +1846,10 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>64</v>
+        <v>63</v>
+      </c>
+      <c r="J59">
+        <v>2012</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
@@ -1746,7 +1858,10 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>65</v>
+        <v>64</v>
+      </c>
+      <c r="J60">
+        <v>2019</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
@@ -1755,7 +1870,10 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>66</v>
+        <v>65</v>
+      </c>
+      <c r="J61">
+        <v>2008</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
@@ -1764,7 +1882,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J62">
         <v>2003</v>
@@ -1776,7 +1894,10 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>68</v>
+        <v>67</v>
+      </c>
+      <c r="J63">
+        <v>2002</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
@@ -1785,7 +1906,10 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+      <c r="J64">
+        <v>2004</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
@@ -1794,7 +1918,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J65">
         <v>1969</v>
@@ -1818,7 +1942,10 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>70</v>
+        <v>69</v>
+      </c>
+      <c r="J67">
+        <v>1982</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
@@ -1827,7 +1954,10 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>71</v>
+        <v>70</v>
+      </c>
+      <c r="J68">
+        <v>2006</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
@@ -1836,7 +1966,10 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>72</v>
+        <v>71</v>
+      </c>
+      <c r="J69">
+        <v>2007</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
@@ -1845,7 +1978,10 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>73</v>
+        <v>72</v>
+      </c>
+      <c r="J70">
+        <v>1999</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
@@ -1854,7 +1990,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J71">
         <v>1999</v>
@@ -1866,7 +2002,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J72">
         <v>1965</v>
@@ -1878,7 +2014,10 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>75</v>
+        <v>74</v>
+      </c>
+      <c r="J73">
+        <v>2005</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
@@ -1887,7 +2026,10 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>50</v>
+        <v>49</v>
+      </c>
+      <c r="J74">
+        <v>2018</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
@@ -1896,7 +2038,10 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>76</v>
+        <v>75</v>
+      </c>
+      <c r="J75">
+        <v>2008</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
@@ -1905,7 +2050,10 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>77</v>
+        <v>76</v>
+      </c>
+      <c r="J76">
+        <v>2017</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
@@ -1914,7 +2062,10 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>78</v>
+        <v>77</v>
+      </c>
+      <c r="J77">
+        <v>2018</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
@@ -1923,7 +2074,10 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>79</v>
+        <v>78</v>
+      </c>
+      <c r="J78">
+        <v>2011</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
@@ -1932,7 +2086,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J79">
         <v>2015</v>
@@ -1944,7 +2098,10 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>80</v>
+        <v>79</v>
+      </c>
+      <c r="J80">
+        <v>2015</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
@@ -1953,7 +2110,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
@@ -1962,7 +2119,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
@@ -1971,7 +2128,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
@@ -1980,7 +2137,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
@@ -1989,7 +2146,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
@@ -1998,7 +2155,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
@@ -2007,7 +2164,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
@@ -2016,7 +2173,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
@@ -2025,7 +2182,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J89">
         <v>2003</v>
@@ -2037,7 +2194,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
@@ -2046,7 +2203,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
@@ -2055,7 +2212,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J92">
         <v>2012</v>
@@ -2067,7 +2224,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
@@ -2076,7 +2233,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
@@ -2097,7 +2254,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
@@ -2106,7 +2263,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
@@ -2115,7 +2272,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
@@ -2124,7 +2281,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
@@ -2133,7 +2290,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
@@ -2142,7 +2299,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J101">
         <v>1967</v>
@@ -2154,7 +2311,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J102">
         <v>1957</v>
@@ -2166,7 +2323,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
@@ -2175,7 +2332,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
@@ -2184,7 +2341,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
@@ -2193,7 +2350,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
@@ -2202,7 +2359,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
@@ -2211,7 +2368,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
@@ -2220,7 +2377,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J109">
         <v>1963</v>
@@ -2232,7 +2389,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
@@ -2241,7 +2398,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
@@ -2250,7 +2407,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -2259,7 +2416,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -2268,7 +2425,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -2277,7 +2434,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -2286,7 +2443,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -2295,7 +2452,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -2304,7 +2461,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -2313,7 +2470,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -2322,7 +2479,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -2331,7 +2488,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -2340,7 +2497,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -2349,7 +2506,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -2358,7 +2515,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -2367,7 +2524,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -2376,7 +2533,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -2385,7 +2542,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -2394,7 +2551,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
@@ -2403,7 +2560,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
@@ -2412,7 +2569,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
@@ -2421,7 +2578,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
@@ -2430,7 +2587,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
@@ -2439,7 +2596,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
@@ -2448,7 +2605,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J134">
         <v>2010</v>
@@ -2460,7 +2617,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
@@ -2469,7 +2626,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
@@ -2478,10 +2635,10 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C137" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J137">
         <v>2016</v>
@@ -2493,7 +2650,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
@@ -2502,7 +2659,7 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
@@ -2511,7 +2668,7 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
@@ -2520,7 +2677,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
@@ -2529,7 +2686,7 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
@@ -2538,7 +2695,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
@@ -2547,7 +2704,7 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J144">
         <v>1965</v>
@@ -2559,7 +2716,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
@@ -2568,7 +2725,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
@@ -2577,7 +2734,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
@@ -2586,7 +2743,7 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
@@ -2595,7 +2752,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J149">
         <v>2017</v>
@@ -2607,7 +2764,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
@@ -2616,7 +2773,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
@@ -2625,7 +2782,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J152">
         <v>2014</v>
@@ -2637,7 +2794,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
@@ -2646,7 +2803,7 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
@@ -2655,7 +2812,7 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
@@ -2664,7 +2821,7 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
@@ -2673,7 +2830,7 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
@@ -2682,7 +2839,7 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
@@ -2691,7 +2848,7 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
@@ -2700,7 +2857,7 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J160">
         <v>2016</v>
@@ -2712,7 +2869,7 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
@@ -2721,7 +2878,7 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
@@ -2730,7 +2887,7 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J163">
         <v>1969</v>
@@ -2742,7 +2899,7 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
@@ -2751,7 +2908,7 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J165">
         <v>1963</v>
@@ -2763,7 +2920,7 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J166">
         <v>1971</v>
@@ -2775,7 +2932,7 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
@@ -2784,7 +2941,7 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
@@ -2793,7 +2950,7 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J169">
         <v>2012</v>
@@ -2805,7 +2962,7 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J170">
         <v>1963</v>
@@ -2817,7 +2974,7 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
@@ -2826,7 +2983,7 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
@@ -2835,7 +2992,7 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
@@ -2844,7 +3001,7 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
@@ -2853,7 +3010,7 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
@@ -2862,7 +3019,7 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
@@ -2871,7 +3028,7 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J177">
         <v>1972</v>
@@ -2883,7 +3040,7 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
@@ -2892,7 +3049,7 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
@@ -2901,7 +3058,7 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
@@ -2910,7 +3067,7 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
@@ -2919,7 +3076,7 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
@@ -2928,7 +3085,7 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
@@ -2937,7 +3094,7 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
@@ -2946,7 +3103,7 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
@@ -2955,7 +3112,7 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
@@ -2964,7 +3121,7 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J187">
         <v>1967</v>
@@ -2976,7 +3133,7 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
@@ -2985,7 +3142,7 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
@@ -2994,7 +3151,7 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.25">
@@ -3003,7 +3160,7 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J191">
         <v>2021</v>
@@ -3015,7 +3172,7 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J192">
         <v>2017</v>
@@ -3027,7 +3184,7 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.25">
@@ -3036,7 +3193,7 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J194">
         <v>1995</v>
@@ -3048,7 +3205,7 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.25">
@@ -3057,7 +3214,7 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.25">
@@ -3066,7 +3223,7 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J197">
         <v>1978</v>
@@ -3078,7 +3235,7 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.25">
@@ -3087,7 +3244,7 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.25">
@@ -3096,7 +3253,7 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.25">
@@ -3105,7 +3262,7 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.25">
@@ -3114,7 +3271,7 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.25">
@@ -3123,7 +3280,7 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.25">
@@ -3132,7 +3289,7 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.25">
@@ -3141,7 +3298,7 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.25">
@@ -3150,7 +3307,7 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J206">
         <v>2017</v>
@@ -3162,7 +3319,7 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J207">
         <v>2009</v>
@@ -3174,7 +3331,7 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J208">
         <v>2020</v>
@@ -3186,7 +3343,7 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J209">
         <v>2009</v>
@@ -3198,7 +3355,7 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J210">
         <v>2020</v>
@@ -3210,7 +3367,7 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J211">
         <v>2007</v>
@@ -3222,7 +3379,7 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.25">
@@ -3231,7 +3388,7 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J213">
         <v>2020</v>
@@ -3243,7 +3400,7 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.25">
@@ -3252,7 +3409,7 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J215">
         <v>2007</v>
@@ -3264,7 +3421,7 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J216">
         <v>2010</v>
@@ -3276,7 +3433,7 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J217">
         <v>2013</v>
@@ -3288,7 +3445,7 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J218">
         <v>2015</v>
@@ -3300,7 +3457,7 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J219">
         <v>2003</v>
@@ -3312,7 +3469,7 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.25">
@@ -3321,7 +3478,7 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.25">
@@ -3330,7 +3487,7 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J222">
         <v>2018</v>
@@ -3342,7 +3499,7 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.25">
@@ -3351,7 +3508,7 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J224">
         <v>2007</v>
@@ -3363,7 +3520,7 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.25">
@@ -3372,7 +3529,7 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.25">
@@ -3381,7 +3538,7 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J227">
         <v>2014</v>
@@ -3393,7 +3550,7 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.25">
@@ -3402,7 +3559,7 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.25">
@@ -3411,7 +3568,7 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J230">
         <v>1971</v>
@@ -3423,7 +3580,7 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.25">
@@ -3432,7 +3589,7 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.25">
@@ -3441,7 +3598,7 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.25">
@@ -3450,7 +3607,7 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J234">
         <v>2016</v>
@@ -3462,7 +3619,7 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.25">
@@ -3471,7 +3628,7 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.25">
@@ -3480,7 +3637,7 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.25">
@@ -3489,7 +3646,7 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.25">
@@ -3498,7 +3655,7 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.25">
@@ -3507,7 +3664,7 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
@@ -3516,7 +3673,7 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>

--- a/Samochody.xlsx
+++ b/Samochody.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NASA\PracaInz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{829A34EE-05FD-4D80-9C70-7A3E61752A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75DB2EBB-726D-4008-A747-DD6D1487B77B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1710" yWindow="1020" windowWidth="24300" windowHeight="12285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="17715" windowHeight="12285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Kompletne dane" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="244">
   <si>
     <t>Nazwa</t>
   </si>
@@ -336,9 +336,6 @@
     <t>Ford Focus ST</t>
   </si>
   <si>
-    <t>Ford Capri 1969</t>
-  </si>
-  <si>
     <t>Jaguar XJ220</t>
   </si>
   <si>
@@ -402,9 +399,6 @@
     <t>Alfa Romeo 4C</t>
   </si>
   <si>
-    <t>Lamborgini Gallardo LP560-7</t>
-  </si>
-  <si>
     <t>Aston Martin Vantage</t>
   </si>
   <si>
@@ -423,9 +417,6 @@
     <t xml:space="preserve">Chevrolet Corvette C7.R </t>
   </si>
   <si>
-    <t>Ford Crown Vctoria Police Interceptor</t>
-  </si>
-  <si>
     <t>BMW 120i</t>
   </si>
   <si>
@@ -573,9 +564,6 @@
     <t>Lamborghini Countach LPI 800-4</t>
   </si>
   <si>
-    <t>Lamborghini Murcielago LP640</t>
-  </si>
-  <si>
     <t>Jaguar XE SV Project 8</t>
   </si>
   <si>
@@ -609,9 +597,6 @@
     <t>Bugatti Chiron SuperSport</t>
   </si>
   <si>
-    <t>Nissan Skyline GTR R34</t>
-  </si>
-  <si>
     <t>Porsche 918 Spyder</t>
   </si>
   <si>
@@ -754,6 +739,24 @@
   </si>
   <si>
     <t>Porsche 911 (997) Carrera S</t>
+  </si>
+  <si>
+    <t>Ford Capri</t>
+  </si>
+  <si>
+    <t>Lamborgini Gallardo LP560-4</t>
+  </si>
+  <si>
+    <t>Mitsubishi Lancer Evolution VIII</t>
+  </si>
+  <si>
+    <t>Ford Crown Victoria Police Interceptor</t>
+  </si>
+  <si>
+    <t>Lamborghini Murcielago LP 640</t>
+  </si>
+  <si>
+    <t>Nissan Skyline GTR R34 V-Spec</t>
   </si>
 </sst>
 </file>
@@ -1074,7 +1077,7 @@
   <dimension ref="A1:S241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J81" sqref="J81"/>
+      <selection activeCell="J242" sqref="J242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1109,10 +1112,10 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="E1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -1121,37 +1124,37 @@
         <v>3</v>
       </c>
       <c r="H1" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="I1" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="J1" t="s">
         <v>4</v>
       </c>
       <c r="K1" t="s">
+        <v>229</v>
+      </c>
+      <c r="L1" t="s">
+        <v>230</v>
+      </c>
+      <c r="M1" t="s">
+        <v>231</v>
+      </c>
+      <c r="N1" t="s">
+        <v>232</v>
+      </c>
+      <c r="O1" t="s">
+        <v>233</v>
+      </c>
+      <c r="P1" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q1" t="s">
         <v>234</v>
       </c>
-      <c r="L1" t="s">
+      <c r="R1" t="s">
         <v>235</v>
-      </c>
-      <c r="M1" t="s">
-        <v>236</v>
-      </c>
-      <c r="N1" t="s">
-        <v>237</v>
-      </c>
-      <c r="O1" t="s">
-        <v>238</v>
-      </c>
-      <c r="P1" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>239</v>
-      </c>
-      <c r="R1" t="s">
-        <v>240</v>
       </c>
       <c r="S1" t="s">
         <v>6</v>
@@ -1294,7 +1297,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="J13">
         <v>2007</v>
@@ -1522,7 +1525,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J32">
         <v>2010</v>
@@ -2101,7 +2104,7 @@
         <v>79</v>
       </c>
       <c r="J80">
-        <v>2015</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
@@ -2112,6 +2115,9 @@
       <c r="B81" t="s">
         <v>80</v>
       </c>
+      <c r="J81">
+        <v>2017</v>
+      </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82">
@@ -2121,6 +2127,9 @@
       <c r="B82" t="s">
         <v>81</v>
       </c>
+      <c r="J82">
+        <v>2005</v>
+      </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83">
@@ -2130,6 +2139,9 @@
       <c r="B83" t="s">
         <v>82</v>
       </c>
+      <c r="J83">
+        <v>2014</v>
+      </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84">
@@ -2139,6 +2151,9 @@
       <c r="B84" t="s">
         <v>83</v>
       </c>
+      <c r="J84">
+        <v>2020</v>
+      </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85">
@@ -2148,6 +2163,9 @@
       <c r="B85" t="s">
         <v>84</v>
       </c>
+      <c r="J85">
+        <v>2014</v>
+      </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86">
@@ -2157,6 +2175,9 @@
       <c r="B86" t="s">
         <v>85</v>
       </c>
+      <c r="J86">
+        <v>2008</v>
+      </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87">
@@ -2166,6 +2187,9 @@
       <c r="B87" t="s">
         <v>86</v>
       </c>
+      <c r="J87">
+        <v>2017</v>
+      </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88">
@@ -2175,6 +2199,9 @@
       <c r="B88" t="s">
         <v>87</v>
       </c>
+      <c r="J88">
+        <v>2014</v>
+      </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89">
@@ -2196,6 +2223,9 @@
       <c r="B90" t="s">
         <v>89</v>
       </c>
+      <c r="J90">
+        <v>2023</v>
+      </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91">
@@ -2205,6 +2235,9 @@
       <c r="B91" t="s">
         <v>90</v>
       </c>
+      <c r="J91">
+        <v>2017</v>
+      </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92">
@@ -2226,6 +2259,9 @@
       <c r="B93" t="s">
         <v>92</v>
       </c>
+      <c r="J93">
+        <v>2015</v>
+      </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94">
@@ -2235,6 +2271,9 @@
       <c r="B94" t="s">
         <v>93</v>
       </c>
+      <c r="J94">
+        <v>2005</v>
+      </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95">
@@ -2256,6 +2295,9 @@
       <c r="B96" t="s">
         <v>94</v>
       </c>
+      <c r="J96">
+        <v>2009</v>
+      </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97">
@@ -2265,6 +2307,9 @@
       <c r="B97" t="s">
         <v>95</v>
       </c>
+      <c r="J97">
+        <v>2018</v>
+      </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98">
@@ -2274,6 +2319,9 @@
       <c r="B98" t="s">
         <v>96</v>
       </c>
+      <c r="J98">
+        <v>2007</v>
+      </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99">
@@ -2283,6 +2331,9 @@
       <c r="B99" t="s">
         <v>97</v>
       </c>
+      <c r="J99">
+        <v>2009</v>
+      </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100">
@@ -2292,6 +2343,9 @@
       <c r="B100" t="s">
         <v>98</v>
       </c>
+      <c r="J100">
+        <v>1989</v>
+      </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101">
@@ -2325,6 +2379,9 @@
       <c r="B103" t="s">
         <v>99</v>
       </c>
+      <c r="J103">
+        <v>1963</v>
+      </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104">
@@ -2334,6 +2391,9 @@
       <c r="B104" t="s">
         <v>100</v>
       </c>
+      <c r="J104">
+        <v>1991</v>
+      </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105">
@@ -2343,6 +2403,9 @@
       <c r="B105" t="s">
         <v>101</v>
       </c>
+      <c r="J105">
+        <v>2019</v>
+      </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106">
@@ -2352,6 +2415,9 @@
       <c r="B106" t="s">
         <v>102</v>
       </c>
+      <c r="J106">
+        <v>2007</v>
+      </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107">
@@ -2359,7 +2425,10 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>103</v>
+        <v>238</v>
+      </c>
+      <c r="J107">
+        <v>1969</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
@@ -2368,7 +2437,10 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>104</v>
+        <v>103</v>
+      </c>
+      <c r="J108">
+        <v>1993</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
@@ -2377,7 +2449,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J109">
         <v>1963</v>
@@ -2389,7 +2461,10 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>106</v>
+        <v>105</v>
+      </c>
+      <c r="J110">
+        <v>1994</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
@@ -2398,7 +2473,10 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>107</v>
+        <v>106</v>
+      </c>
+      <c r="J111">
+        <v>1983</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
@@ -2407,151 +2485,202 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
+        <v>107</v>
+      </c>
+      <c r="J112">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <f t="shared" si="1"/>
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113">
-        <f t="shared" si="1"/>
+      <c r="J113">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <f t="shared" si="1"/>
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>109</v>
+      </c>
+      <c r="J114">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <f t="shared" si="1"/>
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>110</v>
+      </c>
+      <c r="J115">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <f t="shared" si="1"/>
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>111</v>
+      </c>
+      <c r="J116">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <f t="shared" si="1"/>
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
         <v>112</v>
       </c>
-      <c r="B113" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114">
-        <f t="shared" si="1"/>
+      <c r="J117">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <f t="shared" si="1"/>
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
         <v>113</v>
       </c>
-      <c r="B114" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115">
-        <f t="shared" si="1"/>
+      <c r="J118">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <f t="shared" si="1"/>
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
         <v>114</v>
       </c>
-      <c r="B115" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116">
-        <f t="shared" si="1"/>
+      <c r="J119">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <f t="shared" si="1"/>
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
         <v>115</v>
       </c>
-      <c r="B116" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117">
-        <f t="shared" si="1"/>
+      <c r="J120">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
         <v>116</v>
       </c>
-      <c r="B117" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118">
-        <f t="shared" si="1"/>
+      <c r="J121">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <f t="shared" si="1"/>
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
         <v>117</v>
       </c>
-      <c r="B118" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119">
-        <f t="shared" si="1"/>
+      <c r="J122">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <f t="shared" si="1"/>
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
         <v>118</v>
       </c>
-      <c r="B119" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120">
-        <f t="shared" si="1"/>
+      <c r="J123">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <f t="shared" si="1"/>
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
         <v>119</v>
       </c>
-      <c r="B120" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121">
-        <f t="shared" si="1"/>
+      <c r="J124">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <f t="shared" si="1"/>
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
         <v>120</v>
       </c>
-      <c r="B121" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122">
-        <f t="shared" si="1"/>
+      <c r="J125">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <f t="shared" si="1"/>
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
         <v>121</v>
       </c>
-      <c r="B122" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123">
-        <f t="shared" si="1"/>
+      <c r="J126">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <f t="shared" si="1"/>
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
         <v>122</v>
       </c>
-      <c r="B123" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124">
-        <f t="shared" si="1"/>
+      <c r="J127">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <f t="shared" si="1"/>
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
         <v>123</v>
       </c>
-      <c r="B124" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125">
-        <f t="shared" si="1"/>
-        <v>124</v>
-      </c>
-      <c r="B125" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126">
-        <f t="shared" si="1"/>
-        <v>125</v>
-      </c>
-      <c r="B126" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127">
-        <f t="shared" si="1"/>
-        <v>126</v>
-      </c>
-      <c r="B127" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128">
-        <f t="shared" si="1"/>
-        <v>127</v>
-      </c>
-      <c r="B128" t="s">
-        <v>124</v>
+      <c r="J128">
+        <v>2018</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
@@ -2560,7 +2689,10 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>125</v>
+        <v>239</v>
+      </c>
+      <c r="J129">
+        <v>2010</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
@@ -2569,7 +2701,10 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>60</v>
+        <v>240</v>
+      </c>
+      <c r="J130">
+        <v>2004</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
@@ -2578,7 +2713,10 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>126</v>
+        <v>124</v>
+      </c>
+      <c r="J131">
+        <v>2022</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
@@ -2587,7 +2725,10 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>127</v>
+        <v>125</v>
+      </c>
+      <c r="J132">
+        <v>2010</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
@@ -2598,6 +2739,9 @@
       <c r="B133" t="s">
         <v>53</v>
       </c>
+      <c r="J133">
+        <v>2010</v>
+      </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134">
@@ -2605,7 +2749,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J134">
         <v>2010</v>
@@ -2617,7 +2761,10 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>129</v>
+        <v>127</v>
+      </c>
+      <c r="J135">
+        <v>1996</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
@@ -2628,6 +2775,9 @@
       <c r="B136" t="s">
         <v>61</v>
       </c>
+      <c r="J136">
+        <v>2016</v>
+      </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137">
@@ -2635,10 +2785,10 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C137" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J137">
         <v>2016</v>
@@ -2650,7 +2800,10 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>132</v>
+        <v>241</v>
+      </c>
+      <c r="J138">
+        <v>2004</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
@@ -2659,7 +2812,10 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>133</v>
+        <v>130</v>
+      </c>
+      <c r="J139">
+        <v>2006</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
@@ -2668,7 +2824,10 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>134</v>
+        <v>131</v>
+      </c>
+      <c r="J140">
+        <v>2005</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
@@ -2677,7 +2836,10 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>135</v>
+        <v>132</v>
+      </c>
+      <c r="J141">
+        <v>2004</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
@@ -2686,7 +2848,10 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>136</v>
+        <v>133</v>
+      </c>
+      <c r="J142">
+        <v>2004</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
@@ -2695,7 +2860,10 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>137</v>
+        <v>134</v>
+      </c>
+      <c r="J143">
+        <v>1967</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
@@ -2704,7 +2872,7 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J144">
         <v>1965</v>
@@ -2716,7 +2884,10 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>139</v>
+        <v>136</v>
+      </c>
+      <c r="J145">
+        <v>1992</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
@@ -2725,7 +2896,10 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>140</v>
+        <v>137</v>
+      </c>
+      <c r="J146">
+        <v>2021</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
@@ -2734,7 +2908,10 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>141</v>
+        <v>138</v>
+      </c>
+      <c r="J147">
+        <v>2005</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
@@ -2745,6 +2922,9 @@
       <c r="B148" t="s">
         <v>93</v>
       </c>
+      <c r="J148">
+        <v>2022</v>
+      </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149">
@@ -2752,7 +2932,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J149">
         <v>2017</v>
@@ -2764,7 +2944,10 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>143</v>
+        <v>140</v>
+      </c>
+      <c r="J150">
+        <v>2021</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
@@ -2773,7 +2956,10 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>144</v>
+        <v>141</v>
+      </c>
+      <c r="J151">
+        <v>2010</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
@@ -2782,7 +2968,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J152">
         <v>2014</v>
@@ -2794,7 +2980,10 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>147</v>
+        <v>144</v>
+      </c>
+      <c r="J153">
+        <v>2020</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
@@ -2803,7 +2992,10 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>148</v>
+        <v>145</v>
+      </c>
+      <c r="J154">
+        <v>2006</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
@@ -2812,7 +3004,10 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>149</v>
+        <v>146</v>
+      </c>
+      <c r="J155">
+        <v>1998</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
@@ -2821,7 +3016,10 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>150</v>
+        <v>147</v>
+      </c>
+      <c r="J156">
+        <v>2009</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
@@ -2830,7 +3028,10 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>151</v>
+        <v>148</v>
+      </c>
+      <c r="J157">
+        <v>2007</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
@@ -2839,7 +3040,10 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>152</v>
+        <v>149</v>
+      </c>
+      <c r="J158">
+        <v>2020</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
@@ -2848,7 +3052,10 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>153</v>
+        <v>150</v>
+      </c>
+      <c r="J159">
+        <v>2023</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
@@ -2857,7 +3064,7 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J160">
         <v>2016</v>
@@ -2869,7 +3076,10 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>155</v>
+        <v>152</v>
+      </c>
+      <c r="J161">
+        <v>1966</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
@@ -2878,7 +3088,10 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>156</v>
+        <v>153</v>
+      </c>
+      <c r="J162">
+        <v>2000</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
@@ -2887,7 +3100,7 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J163">
         <v>1969</v>
@@ -2899,7 +3112,10 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>158</v>
+        <v>155</v>
+      </c>
+      <c r="J164">
+        <v>2018</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
@@ -2908,7 +3124,7 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J165">
         <v>1963</v>
@@ -2920,7 +3136,7 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="J166">
         <v>1971</v>
@@ -2934,6 +3150,9 @@
       <c r="B167" t="s">
         <v>79</v>
       </c>
+      <c r="J167">
+        <v>2015</v>
+      </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168">
@@ -2941,7 +3160,10 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>161</v>
+        <v>158</v>
+      </c>
+      <c r="J168">
+        <v>2017</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
@@ -2950,7 +3172,7 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J169">
         <v>2012</v>
@@ -2962,7 +3184,7 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J170">
         <v>1963</v>
@@ -2974,7 +3196,10 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>164</v>
+        <v>161</v>
+      </c>
+      <c r="J171">
+        <v>2010</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
@@ -2983,7 +3208,10 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>165</v>
+        <v>162</v>
+      </c>
+      <c r="J172">
+        <v>2007</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
@@ -2992,7 +3220,10 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>166</v>
+        <v>163</v>
+      </c>
+      <c r="J173">
+        <v>2023</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
@@ -3001,7 +3232,10 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>167</v>
+        <v>164</v>
+      </c>
+      <c r="J174">
+        <v>2018</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
@@ -3010,7 +3244,10 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>168</v>
+        <v>165</v>
+      </c>
+      <c r="J175">
+        <v>1997</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
@@ -3019,7 +3256,10 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>169</v>
+        <v>166</v>
+      </c>
+      <c r="J176">
+        <v>2007</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
@@ -3028,7 +3268,7 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J177">
         <v>1972</v>
@@ -3040,7 +3280,10 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>171</v>
+        <v>168</v>
+      </c>
+      <c r="J178">
+        <v>2014</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
@@ -3049,7 +3292,10 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>172</v>
+        <v>169</v>
+      </c>
+      <c r="J179">
+        <v>2022</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
@@ -3058,7 +3304,10 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>173</v>
+        <v>170</v>
+      </c>
+      <c r="J180">
+        <v>2018</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
@@ -3067,7 +3316,10 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>174</v>
+        <v>171</v>
+      </c>
+      <c r="J181">
+        <v>1973</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
@@ -3076,7 +3328,10 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>175</v>
+        <v>172</v>
+      </c>
+      <c r="J182">
+        <v>2001</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
@@ -3085,7 +3340,10 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>176</v>
+        <v>173</v>
+      </c>
+      <c r="J183">
+        <v>1977</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
@@ -3094,7 +3352,10 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>177</v>
+        <v>174</v>
+      </c>
+      <c r="J184">
+        <v>2005</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
@@ -3103,7 +3364,10 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>178</v>
+        <v>175</v>
+      </c>
+      <c r="J185">
+        <v>2018</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
@@ -3112,7 +3376,10 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>179</v>
+        <v>176</v>
+      </c>
+      <c r="J186">
+        <v>2013</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
@@ -3121,7 +3388,7 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="J187">
         <v>1967</v>
@@ -3133,7 +3400,10 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>181</v>
+        <v>178</v>
+      </c>
+      <c r="J188">
+        <v>2022</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
@@ -3142,7 +3412,10 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>182</v>
+        <v>242</v>
+      </c>
+      <c r="J189">
+        <v>2009</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
@@ -3151,7 +3424,10 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>183</v>
+        <v>179</v>
+      </c>
+      <c r="J190">
+        <v>2019</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.25">
@@ -3160,7 +3436,7 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="J191">
         <v>2021</v>
@@ -3184,7 +3460,10 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>185</v>
+        <v>181</v>
+      </c>
+      <c r="J193">
+        <v>2022</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.25">
@@ -3193,7 +3472,7 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="J194">
         <v>1995</v>
@@ -3205,7 +3484,10 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>187</v>
+        <v>183</v>
+      </c>
+      <c r="J195">
+        <v>2016</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.25">
@@ -3214,7 +3496,10 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>188</v>
+        <v>184</v>
+      </c>
+      <c r="J196">
+        <v>2020</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.25">
@@ -3235,7 +3520,10 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>189</v>
+        <v>185</v>
+      </c>
+      <c r="J198">
+        <v>2020</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.25">
@@ -3244,7 +3532,10 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>190</v>
+        <v>186</v>
+      </c>
+      <c r="J199">
+        <v>2014</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.25">
@@ -3253,7 +3544,10 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>191</v>
+        <v>187</v>
+      </c>
+      <c r="J200">
+        <v>2012</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.25">
@@ -3262,7 +3556,10 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>192</v>
+        <v>188</v>
+      </c>
+      <c r="J201">
+        <v>2021</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.25">
@@ -3271,7 +3568,10 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>193</v>
+        <v>189</v>
+      </c>
+      <c r="J202">
+        <v>2019</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.25">
@@ -3280,7 +3580,10 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>194</v>
+        <v>243</v>
+      </c>
+      <c r="J203">
+        <v>2000</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.25">
@@ -3289,7 +3592,10 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>195</v>
+        <v>190</v>
+      </c>
+      <c r="J204">
+        <v>2013</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.25">
@@ -3298,7 +3604,10 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>196</v>
+        <v>191</v>
+      </c>
+      <c r="J205">
+        <v>2018</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.25">
@@ -3307,7 +3616,7 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="J206">
         <v>2017</v>
@@ -3319,7 +3628,7 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="J207">
         <v>2009</v>
@@ -3331,7 +3640,7 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="J208">
         <v>2020</v>
@@ -3343,7 +3652,7 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="J209">
         <v>2009</v>
@@ -3355,7 +3664,7 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="J210">
         <v>2020</v>
@@ -3367,7 +3676,7 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="J211">
         <v>2007</v>
@@ -3379,7 +3688,10 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>203</v>
+        <v>198</v>
+      </c>
+      <c r="J212">
+        <v>2001</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.25">
@@ -3388,7 +3700,7 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="J213">
         <v>2020</v>
@@ -3400,7 +3712,10 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>205</v>
+        <v>200</v>
+      </c>
+      <c r="J214">
+        <v>2016</v>
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.25">
@@ -3409,7 +3724,7 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="J215">
         <v>2007</v>
@@ -3421,7 +3736,7 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J216">
         <v>2010</v>
@@ -3433,7 +3748,7 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="J217">
         <v>2013</v>
@@ -3445,7 +3760,7 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="J218">
         <v>2015</v>
@@ -3457,7 +3772,7 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="J219">
         <v>2003</v>
@@ -3469,7 +3784,10 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>210</v>
+        <v>205</v>
+      </c>
+      <c r="J220">
+        <v>2017</v>
       </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.25">
@@ -3478,7 +3796,10 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>211</v>
+        <v>206</v>
+      </c>
+      <c r="J221">
+        <v>2011</v>
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.25">
@@ -3487,7 +3808,7 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="J222">
         <v>2018</v>
@@ -3499,7 +3820,10 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>213</v>
+        <v>208</v>
+      </c>
+      <c r="J223">
+        <v>2014</v>
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.25">
@@ -3508,7 +3832,7 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="J224">
         <v>2007</v>
@@ -3520,7 +3844,10 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>215</v>
+        <v>210</v>
+      </c>
+      <c r="J225">
+        <v>2005</v>
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.25">
@@ -3529,7 +3856,10 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>153</v>
+        <v>150</v>
+      </c>
+      <c r="J226">
+        <v>2016</v>
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.25">
@@ -3538,7 +3868,7 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="J227">
         <v>2014</v>
@@ -3550,7 +3880,10 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>217</v>
+        <v>212</v>
+      </c>
+      <c r="J228">
+        <v>2021</v>
       </c>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.25">
@@ -3559,7 +3892,10 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>218</v>
+        <v>213</v>
+      </c>
+      <c r="J229">
+        <v>2023</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.25">
@@ -3568,7 +3904,7 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="J230">
         <v>1971</v>
@@ -3580,7 +3916,10 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>220</v>
+        <v>215</v>
+      </c>
+      <c r="J231">
+        <v>2015</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.25">
@@ -3589,7 +3928,10 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>221</v>
+        <v>216</v>
+      </c>
+      <c r="J232">
+        <v>2012</v>
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.25">
@@ -3598,7 +3940,10 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>222</v>
+        <v>217</v>
+      </c>
+      <c r="J233">
+        <v>2012</v>
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.25">
@@ -3607,7 +3952,7 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="J234">
         <v>2016</v>
@@ -3619,7 +3964,10 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>224</v>
+        <v>219</v>
+      </c>
+      <c r="J235">
+        <v>2015</v>
       </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.25">
@@ -3630,6 +3978,9 @@
       <c r="B236" t="s">
         <v>59</v>
       </c>
+      <c r="J236">
+        <v>2022</v>
+      </c>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A237">
@@ -3637,7 +3988,10 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>225</v>
+        <v>220</v>
+      </c>
+      <c r="J237">
+        <v>2018</v>
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.25">
@@ -3646,7 +4000,10 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>226</v>
+        <v>221</v>
+      </c>
+      <c r="J238">
+        <v>2020</v>
       </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.25">
@@ -3655,7 +4012,10 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>227</v>
+        <v>222</v>
+      </c>
+      <c r="J239">
+        <v>2023</v>
       </c>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.25">
@@ -3664,16 +4024,22 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+      <c r="J240">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A241">
         <f t="shared" si="3"/>
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>229</v>
+        <v>224</v>
+      </c>
+      <c r="J241">
+        <v>2006</v>
       </c>
     </row>
   </sheetData>

--- a/Samochody.xlsx
+++ b/Samochody.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NASA\PracaInz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75DB2EBB-726D-4008-A747-DD6D1487B77B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE58639B-959F-4E02-B983-2024A27BFD13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="17715" windowHeight="12285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="465" yWindow="75" windowWidth="27900" windowHeight="12285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kompletne dane" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="251">
   <si>
     <t>Nazwa</t>
   </si>
@@ -411,9 +411,6 @@
     <t>Ferrari 456GT</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t xml:space="preserve">Chevrolet Corvette C7.R </t>
   </si>
   <si>
@@ -732,12 +729,6 @@
     <t>masa [kg]</t>
   </si>
   <si>
-    <t>prędkość maksymalna [km]</t>
-  </si>
-  <si>
-    <t>przyspieszenie 0-100km/h [s]</t>
-  </si>
-  <si>
     <t>Porsche 911 (997) Carrera S</t>
   </si>
   <si>
@@ -757,6 +748,36 @@
   </si>
   <si>
     <t>Nissan Skyline GTR R34 V-Spec</t>
+  </si>
+  <si>
+    <t>prędkość maksymalna [km/h]</t>
+  </si>
+  <si>
+    <t>przyspieszenie 0-100 km/h [s]</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
 </sst>
 </file>
@@ -1077,13 +1098,14 @@
   <dimension ref="A1:S241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J242" sqref="J242"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
     <col min="2" max="2" width="45.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" customWidth="1"/>
@@ -1095,8 +1117,8 @@
     <col min="13" max="13" width="13.28515625" customWidth="1"/>
     <col min="14" max="14" width="21.7109375" customWidth="1"/>
     <col min="15" max="15" width="15.28515625" customWidth="1"/>
-    <col min="16" max="16" width="26.28515625" customWidth="1"/>
-    <col min="18" max="18" width="24.42578125" customWidth="1"/>
+    <col min="16" max="16" width="26.85546875" customWidth="1"/>
+    <col min="18" max="18" width="26.5703125" customWidth="1"/>
     <col min="19" max="19" width="15.140625" customWidth="1"/>
     <col min="20" max="20" width="9.28515625" customWidth="1"/>
   </cols>
@@ -1112,10 +1134,10 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E1" t="s">
         <v>225</v>
-      </c>
-      <c r="E1" t="s">
-        <v>226</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -1124,37 +1146,37 @@
         <v>3</v>
       </c>
       <c r="H1" t="s">
+        <v>226</v>
+      </c>
+      <c r="I1" t="s">
         <v>227</v>
-      </c>
-      <c r="I1" t="s">
-        <v>228</v>
       </c>
       <c r="J1" t="s">
         <v>4</v>
       </c>
       <c r="K1" t="s">
+        <v>228</v>
+      </c>
+      <c r="L1" t="s">
         <v>229</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>230</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>231</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>232</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q1" t="s">
         <v>233</v>
       </c>
-      <c r="P1" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>234</v>
-      </c>
       <c r="R1" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="S1" t="s">
         <v>6</v>
@@ -1166,6 +1188,9 @@
       </c>
       <c r="B2" t="s">
         <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>243</v>
       </c>
       <c r="J2">
         <v>2016</v>
@@ -1179,6 +1204,9 @@
       <c r="B3" t="s">
         <v>8</v>
       </c>
+      <c r="C3" t="s">
+        <v>243</v>
+      </c>
       <c r="J3">
         <v>2011</v>
       </c>
@@ -1191,6 +1219,9 @@
       <c r="B4" t="s">
         <v>9</v>
       </c>
+      <c r="C4" t="s">
+        <v>248</v>
+      </c>
       <c r="J4">
         <v>2019</v>
       </c>
@@ -1203,6 +1234,9 @@
       <c r="B5" t="s">
         <v>10</v>
       </c>
+      <c r="C5" t="s">
+        <v>244</v>
+      </c>
       <c r="J5">
         <v>2011</v>
       </c>
@@ -1215,6 +1249,9 @@
       <c r="B6" t="s">
         <v>11</v>
       </c>
+      <c r="C6" t="s">
+        <v>248</v>
+      </c>
       <c r="J6">
         <v>1967</v>
       </c>
@@ -1227,6 +1264,9 @@
       <c r="B7" t="s">
         <v>12</v>
       </c>
+      <c r="C7" t="s">
+        <v>249</v>
+      </c>
       <c r="J7">
         <v>2013</v>
       </c>
@@ -1239,6 +1279,9 @@
       <c r="B8" t="s">
         <v>13</v>
       </c>
+      <c r="C8" t="s">
+        <v>248</v>
+      </c>
       <c r="J8">
         <v>1970</v>
       </c>
@@ -1251,6 +1294,9 @@
       <c r="B9" t="s">
         <v>14</v>
       </c>
+      <c r="C9" t="s">
+        <v>244</v>
+      </c>
       <c r="J9">
         <v>1966</v>
       </c>
@@ -1263,6 +1309,9 @@
       <c r="B10" t="s">
         <v>15</v>
       </c>
+      <c r="C10" t="s">
+        <v>248</v>
+      </c>
       <c r="J10">
         <v>1984</v>
       </c>
@@ -1275,6 +1324,9 @@
       <c r="B11" t="s">
         <v>16</v>
       </c>
+      <c r="C11" t="s">
+        <v>248</v>
+      </c>
       <c r="J11">
         <v>1967</v>
       </c>
@@ -1287,6 +1339,9 @@
       <c r="B12" t="s">
         <v>17</v>
       </c>
+      <c r="C12" t="s">
+        <v>244</v>
+      </c>
       <c r="J12">
         <v>2019</v>
       </c>
@@ -1297,7 +1352,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>237</v>
+        <v>234</v>
+      </c>
+      <c r="C13" t="s">
+        <v>244</v>
       </c>
       <c r="J13">
         <v>2007</v>
@@ -1311,6 +1369,9 @@
       <c r="B14" t="s">
         <v>18</v>
       </c>
+      <c r="C14" t="s">
+        <v>244</v>
+      </c>
       <c r="J14">
         <v>1986</v>
       </c>
@@ -1323,6 +1384,9 @@
       <c r="B15" t="s">
         <v>19</v>
       </c>
+      <c r="C15" t="s">
+        <v>244</v>
+      </c>
       <c r="J15">
         <v>2016</v>
       </c>
@@ -1335,6 +1399,9 @@
       <c r="B16" t="s">
         <v>20</v>
       </c>
+      <c r="C16" t="s">
+        <v>244</v>
+      </c>
       <c r="J16">
         <v>1997</v>
       </c>
@@ -1347,6 +1414,9 @@
       <c r="B17" t="s">
         <v>21</v>
       </c>
+      <c r="C17" t="s">
+        <v>244</v>
+      </c>
       <c r="J17">
         <v>2006</v>
       </c>
@@ -1359,6 +1429,9 @@
       <c r="B18" t="s">
         <v>22</v>
       </c>
+      <c r="C18" t="s">
+        <v>243</v>
+      </c>
       <c r="J18">
         <v>2004</v>
       </c>
@@ -1371,6 +1444,9 @@
       <c r="B19" t="s">
         <v>23</v>
       </c>
+      <c r="C19" t="s">
+        <v>244</v>
+      </c>
       <c r="J19">
         <v>2020</v>
       </c>
@@ -1383,6 +1459,9 @@
       <c r="B20" t="s">
         <v>24</v>
       </c>
+      <c r="C20" t="s">
+        <v>247</v>
+      </c>
       <c r="J20">
         <v>1998</v>
       </c>
@@ -1395,6 +1474,9 @@
       <c r="B21" t="s">
         <v>25</v>
       </c>
+      <c r="C21" t="s">
+        <v>246</v>
+      </c>
       <c r="J21">
         <v>2010</v>
       </c>
@@ -1407,6 +1489,9 @@
       <c r="B22" t="s">
         <v>26</v>
       </c>
+      <c r="C22" t="s">
+        <v>248</v>
+      </c>
       <c r="J22">
         <v>2017</v>
       </c>
@@ -1419,6 +1504,9 @@
       <c r="B23" t="s">
         <v>27</v>
       </c>
+      <c r="C23" t="s">
+        <v>244</v>
+      </c>
       <c r="J23">
         <v>2010</v>
       </c>
@@ -1431,6 +1519,9 @@
       <c r="B24" t="s">
         <v>28</v>
       </c>
+      <c r="C24" t="s">
+        <v>244</v>
+      </c>
       <c r="J24">
         <v>2010</v>
       </c>
@@ -1443,6 +1534,9 @@
       <c r="B25" t="s">
         <v>29</v>
       </c>
+      <c r="C25" t="s">
+        <v>247</v>
+      </c>
       <c r="J25">
         <v>2004</v>
       </c>
@@ -1455,6 +1549,9 @@
       <c r="B26" t="s">
         <v>30</v>
       </c>
+      <c r="C26" t="s">
+        <v>243</v>
+      </c>
       <c r="J26">
         <v>2015</v>
       </c>
@@ -1467,6 +1564,9 @@
       <c r="B27" t="s">
         <v>31</v>
       </c>
+      <c r="C27" t="s">
+        <v>244</v>
+      </c>
       <c r="J27">
         <v>2010</v>
       </c>
@@ -1479,6 +1579,9 @@
       <c r="B28" t="s">
         <v>32</v>
       </c>
+      <c r="C28" t="s">
+        <v>248</v>
+      </c>
       <c r="J28">
         <v>1965</v>
       </c>
@@ -1491,6 +1594,9 @@
       <c r="B29" t="s">
         <v>33</v>
       </c>
+      <c r="C29" t="s">
+        <v>247</v>
+      </c>
       <c r="J29">
         <v>2008</v>
       </c>
@@ -1503,6 +1609,9 @@
       <c r="B30" t="s">
         <v>34</v>
       </c>
+      <c r="C30" t="s">
+        <v>244</v>
+      </c>
       <c r="J30">
         <v>1980</v>
       </c>
@@ -1515,6 +1624,9 @@
       <c r="B31" t="s">
         <v>35</v>
       </c>
+      <c r="C31" t="s">
+        <v>248</v>
+      </c>
       <c r="J31">
         <v>1999</v>
       </c>
@@ -1525,7 +1637,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>143</v>
+        <v>142</v>
+      </c>
+      <c r="C32" t="s">
+        <v>248</v>
       </c>
       <c r="J32">
         <v>2010</v>
@@ -1539,6 +1654,9 @@
       <c r="B33" t="s">
         <v>36</v>
       </c>
+      <c r="C33" t="s">
+        <v>246</v>
+      </c>
       <c r="J33">
         <v>2002</v>
       </c>
@@ -1551,6 +1669,9 @@
       <c r="B34" t="s">
         <v>37</v>
       </c>
+      <c r="C34" t="s">
+        <v>248</v>
+      </c>
       <c r="J34">
         <v>2001</v>
       </c>
@@ -1563,6 +1684,9 @@
       <c r="B35" t="s">
         <v>38</v>
       </c>
+      <c r="C35" t="s">
+        <v>248</v>
+      </c>
       <c r="J35">
         <v>2002</v>
       </c>
@@ -1575,6 +1699,9 @@
       <c r="B36" t="s">
         <v>39</v>
       </c>
+      <c r="C36" t="s">
+        <v>244</v>
+      </c>
       <c r="J36">
         <v>1955</v>
       </c>
@@ -1587,6 +1714,9 @@
       <c r="B37" t="s">
         <v>41</v>
       </c>
+      <c r="C37" t="s">
+        <v>244</v>
+      </c>
       <c r="J37">
         <v>1982</v>
       </c>
@@ -1599,6 +1729,9 @@
       <c r="B38" t="s">
         <v>42</v>
       </c>
+      <c r="C38" t="s">
+        <v>247</v>
+      </c>
       <c r="J38">
         <v>2008</v>
       </c>
@@ -1611,6 +1744,9 @@
       <c r="B39" t="s">
         <v>43</v>
       </c>
+      <c r="C39" t="s">
+        <v>244</v>
+      </c>
       <c r="J39">
         <v>1976</v>
       </c>
@@ -1623,6 +1759,9 @@
       <c r="B40" t="s">
         <v>44</v>
       </c>
+      <c r="C40" t="s">
+        <v>244</v>
+      </c>
       <c r="J40">
         <v>2014</v>
       </c>
@@ -1635,6 +1774,9 @@
       <c r="B41" t="s">
         <v>45</v>
       </c>
+      <c r="C41" t="s">
+        <v>248</v>
+      </c>
       <c r="J41">
         <v>1970</v>
       </c>
@@ -1647,6 +1789,9 @@
       <c r="B42" t="s">
         <v>46</v>
       </c>
+      <c r="C42" t="s">
+        <v>247</v>
+      </c>
       <c r="J42">
         <v>2007</v>
       </c>
@@ -1659,6 +1804,9 @@
       <c r="B43" t="s">
         <v>47</v>
       </c>
+      <c r="C43" t="s">
+        <v>244</v>
+      </c>
       <c r="J43">
         <v>2014</v>
       </c>
@@ -1671,6 +1819,9 @@
       <c r="B44" t="s">
         <v>48</v>
       </c>
+      <c r="C44" t="s">
+        <v>244</v>
+      </c>
       <c r="J44">
         <v>2014</v>
       </c>
@@ -1683,6 +1834,9 @@
       <c r="B45" t="s">
         <v>49</v>
       </c>
+      <c r="C45" t="s">
+        <v>247</v>
+      </c>
       <c r="J45">
         <v>2006</v>
       </c>
@@ -1695,6 +1849,9 @@
       <c r="B46" t="s">
         <v>50</v>
       </c>
+      <c r="C46" t="s">
+        <v>247</v>
+      </c>
       <c r="J46">
         <v>2009</v>
       </c>
@@ -1707,6 +1864,9 @@
       <c r="B47" t="s">
         <v>51</v>
       </c>
+      <c r="C47" t="s">
+        <v>246</v>
+      </c>
       <c r="J47">
         <v>2012</v>
       </c>
@@ -1719,6 +1879,9 @@
       <c r="B48" t="s">
         <v>52</v>
       </c>
+      <c r="C48" t="s">
+        <v>247</v>
+      </c>
       <c r="J48">
         <v>2003</v>
       </c>
@@ -1731,6 +1894,9 @@
       <c r="B49" t="s">
         <v>53</v>
       </c>
+      <c r="C49" t="s">
+        <v>248</v>
+      </c>
       <c r="J49">
         <v>2006</v>
       </c>
@@ -1743,6 +1909,9 @@
       <c r="B50" t="s">
         <v>54</v>
       </c>
+      <c r="C50" t="s">
+        <v>244</v>
+      </c>
       <c r="J50">
         <v>2010</v>
       </c>
@@ -1755,6 +1924,9 @@
       <c r="B51" t="s">
         <v>55</v>
       </c>
+      <c r="C51" t="s">
+        <v>244</v>
+      </c>
       <c r="J51">
         <v>2017</v>
       </c>
@@ -1767,6 +1939,9 @@
       <c r="B52" t="s">
         <v>56</v>
       </c>
+      <c r="C52" t="s">
+        <v>247</v>
+      </c>
       <c r="J52">
         <v>2002</v>
       </c>
@@ -1779,6 +1954,9 @@
       <c r="B53" t="s">
         <v>57</v>
       </c>
+      <c r="C53" t="s">
+        <v>244</v>
+      </c>
       <c r="J53">
         <v>1991</v>
       </c>
@@ -1791,6 +1969,9 @@
       <c r="B54" t="s">
         <v>58</v>
       </c>
+      <c r="C54" t="s">
+        <v>244</v>
+      </c>
       <c r="J54">
         <v>2016</v>
       </c>
@@ -1803,6 +1984,9 @@
       <c r="B55" t="s">
         <v>59</v>
       </c>
+      <c r="C55" t="s">
+        <v>244</v>
+      </c>
       <c r="J55">
         <v>2003</v>
       </c>
@@ -1815,6 +1999,9 @@
       <c r="B56" t="s">
         <v>60</v>
       </c>
+      <c r="C56" t="s">
+        <v>247</v>
+      </c>
       <c r="J56">
         <v>2002</v>
       </c>
@@ -1827,6 +2014,9 @@
       <c r="B57" t="s">
         <v>61</v>
       </c>
+      <c r="C57" t="s">
+        <v>247</v>
+      </c>
       <c r="J57">
         <v>2008</v>
       </c>
@@ -1839,6 +2029,9 @@
       <c r="B58" t="s">
         <v>62</v>
       </c>
+      <c r="C58" t="s">
+        <v>244</v>
+      </c>
       <c r="J58">
         <v>2023</v>
       </c>
@@ -1851,6 +2044,9 @@
       <c r="B59" t="s">
         <v>63</v>
       </c>
+      <c r="C59" t="s">
+        <v>244</v>
+      </c>
       <c r="J59">
         <v>2012</v>
       </c>
@@ -1863,6 +2059,9 @@
       <c r="B60" t="s">
         <v>64</v>
       </c>
+      <c r="C60" t="s">
+        <v>246</v>
+      </c>
       <c r="J60">
         <v>2019</v>
       </c>
@@ -1875,6 +2074,9 @@
       <c r="B61" t="s">
         <v>65</v>
       </c>
+      <c r="C61" t="s">
+        <v>248</v>
+      </c>
       <c r="J61">
         <v>2008</v>
       </c>
@@ -1887,6 +2089,9 @@
       <c r="B62" t="s">
         <v>66</v>
       </c>
+      <c r="C62" t="s">
+        <v>247</v>
+      </c>
       <c r="J62">
         <v>2003</v>
       </c>
@@ -1899,6 +2104,9 @@
       <c r="B63" t="s">
         <v>67</v>
       </c>
+      <c r="C63" t="s">
+        <v>247</v>
+      </c>
       <c r="J63">
         <v>2002</v>
       </c>
@@ -1911,6 +2119,9 @@
       <c r="B64" t="s">
         <v>68</v>
       </c>
+      <c r="C64" t="s">
+        <v>247</v>
+      </c>
       <c r="J64">
         <v>2004</v>
       </c>
@@ -1923,6 +2134,9 @@
       <c r="B65" t="s">
         <v>32</v>
       </c>
+      <c r="C65" t="s">
+        <v>248</v>
+      </c>
       <c r="J65">
         <v>1969</v>
       </c>
@@ -1935,6 +2149,9 @@
       <c r="B66" t="s">
         <v>13</v>
       </c>
+      <c r="C66" t="s">
+        <v>248</v>
+      </c>
       <c r="J66">
         <v>1999</v>
       </c>
@@ -1946,6 +2163,9 @@
       </c>
       <c r="B67" t="s">
         <v>69</v>
+      </c>
+      <c r="C67" t="s">
+        <v>247</v>
       </c>
       <c r="J67">
         <v>1982</v>
@@ -1959,6 +2179,9 @@
       <c r="B68" t="s">
         <v>70</v>
       </c>
+      <c r="C68" t="s">
+        <v>249</v>
+      </c>
       <c r="J68">
         <v>2006</v>
       </c>
@@ -1971,6 +2194,9 @@
       <c r="B69" t="s">
         <v>71</v>
       </c>
+      <c r="C69" t="s">
+        <v>247</v>
+      </c>
       <c r="J69">
         <v>2007</v>
       </c>
@@ -1983,6 +2209,9 @@
       <c r="B70" t="s">
         <v>72</v>
       </c>
+      <c r="C70" t="s">
+        <v>244</v>
+      </c>
       <c r="J70">
         <v>1999</v>
       </c>
@@ -1995,6 +2224,9 @@
       <c r="B71" t="s">
         <v>40</v>
       </c>
+      <c r="C71" t="s">
+        <v>244</v>
+      </c>
       <c r="J71">
         <v>1999</v>
       </c>
@@ -2007,6 +2239,9 @@
       <c r="B72" t="s">
         <v>73</v>
       </c>
+      <c r="C72" t="s">
+        <v>250</v>
+      </c>
       <c r="J72">
         <v>1965</v>
       </c>
@@ -2019,6 +2254,9 @@
       <c r="B73" t="s">
         <v>74</v>
       </c>
+      <c r="C73" t="s">
+        <v>244</v>
+      </c>
       <c r="J73">
         <v>2005</v>
       </c>
@@ -2031,6 +2269,9 @@
       <c r="B74" t="s">
         <v>49</v>
       </c>
+      <c r="C74" t="s">
+        <v>247</v>
+      </c>
       <c r="J74">
         <v>2018</v>
       </c>
@@ -2043,6 +2284,9 @@
       <c r="B75" t="s">
         <v>75</v>
       </c>
+      <c r="C75" t="s">
+        <v>244</v>
+      </c>
       <c r="J75">
         <v>2008</v>
       </c>
@@ -2055,6 +2299,9 @@
       <c r="B76" t="s">
         <v>76</v>
       </c>
+      <c r="C76" t="s">
+        <v>244</v>
+      </c>
       <c r="J76">
         <v>2017</v>
       </c>
@@ -2067,6 +2314,9 @@
       <c r="B77" t="s">
         <v>77</v>
       </c>
+      <c r="C77" t="s">
+        <v>244</v>
+      </c>
       <c r="J77">
         <v>2018</v>
       </c>
@@ -2079,6 +2329,9 @@
       <c r="B78" t="s">
         <v>78</v>
       </c>
+      <c r="C78" t="s">
+        <v>248</v>
+      </c>
       <c r="J78">
         <v>2011</v>
       </c>
@@ -2091,6 +2344,9 @@
       <c r="B79" t="s">
         <v>53</v>
       </c>
+      <c r="C79" t="s">
+        <v>248</v>
+      </c>
       <c r="J79">
         <v>2015</v>
       </c>
@@ -2103,6 +2359,9 @@
       <c r="B80" t="s">
         <v>79</v>
       </c>
+      <c r="C80" t="s">
+        <v>247</v>
+      </c>
       <c r="J80">
         <v>2012</v>
       </c>
@@ -2115,6 +2374,9 @@
       <c r="B81" t="s">
         <v>80</v>
       </c>
+      <c r="C81" t="s">
+        <v>248</v>
+      </c>
       <c r="J81">
         <v>2017</v>
       </c>
@@ -2127,6 +2389,9 @@
       <c r="B82" t="s">
         <v>81</v>
       </c>
+      <c r="C82" t="s">
+        <v>244</v>
+      </c>
       <c r="J82">
         <v>2005</v>
       </c>
@@ -2139,6 +2404,9 @@
       <c r="B83" t="s">
         <v>82</v>
       </c>
+      <c r="C83" t="s">
+        <v>244</v>
+      </c>
       <c r="J83">
         <v>2014</v>
       </c>
@@ -2151,6 +2419,9 @@
       <c r="B84" t="s">
         <v>83</v>
       </c>
+      <c r="C84" t="s">
+        <v>244</v>
+      </c>
       <c r="J84">
         <v>2020</v>
       </c>
@@ -2163,6 +2434,9 @@
       <c r="B85" t="s">
         <v>84</v>
       </c>
+      <c r="C85" t="s">
+        <v>244</v>
+      </c>
       <c r="J85">
         <v>2014</v>
       </c>
@@ -2175,6 +2449,9 @@
       <c r="B86" t="s">
         <v>85</v>
       </c>
+      <c r="C86" t="s">
+        <v>244</v>
+      </c>
       <c r="J86">
         <v>2008</v>
       </c>
@@ -2187,6 +2464,9 @@
       <c r="B87" t="s">
         <v>86</v>
       </c>
+      <c r="C87" t="s">
+        <v>244</v>
+      </c>
       <c r="J87">
         <v>2017</v>
       </c>
@@ -2199,6 +2479,9 @@
       <c r="B88" t="s">
         <v>87</v>
       </c>
+      <c r="C88" t="s">
+        <v>244</v>
+      </c>
       <c r="J88">
         <v>2014</v>
       </c>
@@ -2211,6 +2494,9 @@
       <c r="B89" t="s">
         <v>88</v>
       </c>
+      <c r="C89" t="s">
+        <v>244</v>
+      </c>
       <c r="J89">
         <v>2003</v>
       </c>
@@ -2223,6 +2509,9 @@
       <c r="B90" t="s">
         <v>89</v>
       </c>
+      <c r="C90" t="s">
+        <v>243</v>
+      </c>
       <c r="J90">
         <v>2023</v>
       </c>
@@ -2235,6 +2524,9 @@
       <c r="B91" t="s">
         <v>90</v>
       </c>
+      <c r="C91" t="s">
+        <v>244</v>
+      </c>
       <c r="J91">
         <v>2017</v>
       </c>
@@ -2247,6 +2539,9 @@
       <c r="B92" t="s">
         <v>91</v>
       </c>
+      <c r="C92" t="s">
+        <v>244</v>
+      </c>
       <c r="J92">
         <v>2012</v>
       </c>
@@ -2259,6 +2554,9 @@
       <c r="B93" t="s">
         <v>92</v>
       </c>
+      <c r="C93" t="s">
+        <v>247</v>
+      </c>
       <c r="J93">
         <v>2015</v>
       </c>
@@ -2271,6 +2569,9 @@
       <c r="B94" t="s">
         <v>93</v>
       </c>
+      <c r="C94" t="s">
+        <v>247</v>
+      </c>
       <c r="J94">
         <v>2005</v>
       </c>
@@ -2283,6 +2584,9 @@
       <c r="B95" t="s">
         <v>13</v>
       </c>
+      <c r="C95" t="s">
+        <v>248</v>
+      </c>
       <c r="J95">
         <v>1964</v>
       </c>
@@ -2295,6 +2599,9 @@
       <c r="B96" t="s">
         <v>94</v>
       </c>
+      <c r="C96" t="s">
+        <v>244</v>
+      </c>
       <c r="J96">
         <v>2009</v>
       </c>
@@ -2307,6 +2614,9 @@
       <c r="B97" t="s">
         <v>95</v>
       </c>
+      <c r="C97" t="s">
+        <v>244</v>
+      </c>
       <c r="J97">
         <v>2018</v>
       </c>
@@ -2319,6 +2629,9 @@
       <c r="B98" t="s">
         <v>96</v>
       </c>
+      <c r="C98" t="s">
+        <v>244</v>
+      </c>
       <c r="J98">
         <v>2007</v>
       </c>
@@ -2331,6 +2644,9 @@
       <c r="B99" t="s">
         <v>97</v>
       </c>
+      <c r="C99" t="s">
+        <v>247</v>
+      </c>
       <c r="J99">
         <v>2009</v>
       </c>
@@ -2343,6 +2659,9 @@
       <c r="B100" t="s">
         <v>98</v>
       </c>
+      <c r="C100" t="s">
+        <v>244</v>
+      </c>
       <c r="J100">
         <v>1989</v>
       </c>
@@ -2355,6 +2674,9 @@
       <c r="B101" t="s">
         <v>37</v>
       </c>
+      <c r="C101" t="s">
+        <v>248</v>
+      </c>
       <c r="J101">
         <v>1967</v>
       </c>
@@ -2367,6 +2689,9 @@
       <c r="B102" t="s">
         <v>40</v>
       </c>
+      <c r="C102" t="s">
+        <v>244</v>
+      </c>
       <c r="J102">
         <v>1957</v>
       </c>
@@ -2379,6 +2704,9 @@
       <c r="B103" t="s">
         <v>99</v>
       </c>
+      <c r="C103" t="s">
+        <v>244</v>
+      </c>
       <c r="J103">
         <v>1963</v>
       </c>
@@ -2391,6 +2719,9 @@
       <c r="B104" t="s">
         <v>100</v>
       </c>
+      <c r="C104" t="s">
+        <v>244</v>
+      </c>
       <c r="J104">
         <v>1991</v>
       </c>
@@ -2403,6 +2734,9 @@
       <c r="B105" t="s">
         <v>101</v>
       </c>
+      <c r="C105" t="s">
+        <v>248</v>
+      </c>
       <c r="J105">
         <v>2019</v>
       </c>
@@ -2415,6 +2749,9 @@
       <c r="B106" t="s">
         <v>102</v>
       </c>
+      <c r="C106" t="s">
+        <v>247</v>
+      </c>
       <c r="J106">
         <v>2007</v>
       </c>
@@ -2425,7 +2762,10 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>238</v>
+        <v>235</v>
+      </c>
+      <c r="C107" t="s">
+        <v>247</v>
       </c>
       <c r="J107">
         <v>1969</v>
@@ -2439,6 +2779,9 @@
       <c r="B108" t="s">
         <v>103</v>
       </c>
+      <c r="C108" t="s">
+        <v>244</v>
+      </c>
       <c r="J108">
         <v>1993</v>
       </c>
@@ -2451,6 +2794,9 @@
       <c r="B109" t="s">
         <v>104</v>
       </c>
+      <c r="C109" t="s">
+        <v>248</v>
+      </c>
       <c r="J109">
         <v>1963</v>
       </c>
@@ -2463,6 +2809,9 @@
       <c r="B110" t="s">
         <v>105</v>
       </c>
+      <c r="C110" t="s">
+        <v>247</v>
+      </c>
       <c r="J110">
         <v>1994</v>
       </c>
@@ -2475,6 +2824,9 @@
       <c r="B111" t="s">
         <v>106</v>
       </c>
+      <c r="C111" t="s">
+        <v>244</v>
+      </c>
       <c r="J111">
         <v>1983</v>
       </c>
@@ -2487,6 +2839,9 @@
       <c r="B112" t="s">
         <v>107</v>
       </c>
+      <c r="C112" t="s">
+        <v>243</v>
+      </c>
       <c r="J112">
         <v>2017</v>
       </c>
@@ -2499,6 +2854,9 @@
       <c r="B113" t="s">
         <v>108</v>
       </c>
+      <c r="C113" t="s">
+        <v>244</v>
+      </c>
       <c r="J113">
         <v>1996</v>
       </c>
@@ -2511,6 +2869,9 @@
       <c r="B114" t="s">
         <v>109</v>
       </c>
+      <c r="C114" t="s">
+        <v>244</v>
+      </c>
       <c r="J114">
         <v>2013</v>
       </c>
@@ -2523,6 +2884,9 @@
       <c r="B115" t="s">
         <v>110</v>
       </c>
+      <c r="C115" t="s">
+        <v>244</v>
+      </c>
       <c r="J115">
         <v>2012</v>
       </c>
@@ -2535,6 +2899,9 @@
       <c r="B116" t="s">
         <v>111</v>
       </c>
+      <c r="C116" t="s">
+        <v>244</v>
+      </c>
       <c r="J116">
         <v>2003</v>
       </c>
@@ -2547,6 +2914,9 @@
       <c r="B117" t="s">
         <v>112</v>
       </c>
+      <c r="C117" t="s">
+        <v>244</v>
+      </c>
       <c r="J117">
         <v>2023</v>
       </c>
@@ -2559,6 +2929,9 @@
       <c r="B118" t="s">
         <v>113</v>
       </c>
+      <c r="C118" t="s">
+        <v>244</v>
+      </c>
       <c r="J118">
         <v>2019</v>
       </c>
@@ -2571,6 +2944,9 @@
       <c r="B119" t="s">
         <v>114</v>
       </c>
+      <c r="C119" t="s">
+        <v>244</v>
+      </c>
       <c r="J119">
         <v>2018</v>
       </c>
@@ -2583,6 +2959,9 @@
       <c r="B120" t="s">
         <v>115</v>
       </c>
+      <c r="C120" t="s">
+        <v>244</v>
+      </c>
       <c r="J120">
         <v>2017</v>
       </c>
@@ -2595,6 +2974,9 @@
       <c r="B121" t="s">
         <v>116</v>
       </c>
+      <c r="C121" t="s">
+        <v>244</v>
+      </c>
       <c r="J121">
         <v>2023</v>
       </c>
@@ -2607,6 +2989,9 @@
       <c r="B122" t="s">
         <v>117</v>
       </c>
+      <c r="C122" t="s">
+        <v>243</v>
+      </c>
       <c r="J122">
         <v>2013</v>
       </c>
@@ -2619,6 +3004,9 @@
       <c r="B123" t="s">
         <v>118</v>
       </c>
+      <c r="C123" t="s">
+        <v>249</v>
+      </c>
       <c r="J123">
         <v>2002</v>
       </c>
@@ -2631,6 +3019,9 @@
       <c r="B124" t="s">
         <v>119</v>
       </c>
+      <c r="C124" t="s">
+        <v>247</v>
+      </c>
       <c r="J124">
         <v>2013</v>
       </c>
@@ -2643,6 +3034,9 @@
       <c r="B125" t="s">
         <v>120</v>
       </c>
+      <c r="C125" t="s">
+        <v>244</v>
+      </c>
       <c r="J125">
         <v>2019</v>
       </c>
@@ -2655,6 +3049,9 @@
       <c r="B126" t="s">
         <v>121</v>
       </c>
+      <c r="C126" t="s">
+        <v>244</v>
+      </c>
       <c r="J126">
         <v>1993</v>
       </c>
@@ -2667,6 +3064,9 @@
       <c r="B127" t="s">
         <v>122</v>
       </c>
+      <c r="C127" t="s">
+        <v>244</v>
+      </c>
       <c r="J127">
         <v>2012</v>
       </c>
@@ -2679,6 +3079,9 @@
       <c r="B128" t="s">
         <v>123</v>
       </c>
+      <c r="C128" t="s">
+        <v>244</v>
+      </c>
       <c r="J128">
         <v>2018</v>
       </c>
@@ -2689,7 +3092,10 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>239</v>
+        <v>236</v>
+      </c>
+      <c r="C129" t="s">
+        <v>244</v>
       </c>
       <c r="J129">
         <v>2010</v>
@@ -2701,7 +3107,10 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>240</v>
+        <v>237</v>
+      </c>
+      <c r="C130" t="s">
+        <v>247</v>
       </c>
       <c r="J130">
         <v>2004</v>
@@ -2714,6 +3123,9 @@
       </c>
       <c r="B131" t="s">
         <v>124</v>
+      </c>
+      <c r="C131" t="s">
+        <v>247</v>
       </c>
       <c r="J131">
         <v>2022</v>
@@ -2727,6 +3139,9 @@
       <c r="B132" t="s">
         <v>125</v>
       </c>
+      <c r="C132" t="s">
+        <v>243</v>
+      </c>
       <c r="J132">
         <v>2010</v>
       </c>
@@ -2739,6 +3154,9 @@
       <c r="B133" t="s">
         <v>53</v>
       </c>
+      <c r="C133" t="s">
+        <v>248</v>
+      </c>
       <c r="J133">
         <v>2010</v>
       </c>
@@ -2751,6 +3169,9 @@
       <c r="B134" t="s">
         <v>126</v>
       </c>
+      <c r="C134" t="s">
+        <v>244</v>
+      </c>
       <c r="J134">
         <v>2010</v>
       </c>
@@ -2763,6 +3184,9 @@
       <c r="B135" t="s">
         <v>127</v>
       </c>
+      <c r="C135" t="s">
+        <v>244</v>
+      </c>
       <c r="J135">
         <v>1996</v>
       </c>
@@ -2775,6 +3199,9 @@
       <c r="B136" t="s">
         <v>61</v>
       </c>
+      <c r="C136" t="s">
+        <v>247</v>
+      </c>
       <c r="J136">
         <v>2016</v>
       </c>
@@ -2785,10 +3212,10 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C137" t="s">
-        <v>128</v>
+        <v>244</v>
       </c>
       <c r="J137">
         <v>2016</v>
@@ -2800,7 +3227,10 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>241</v>
+        <v>238</v>
+      </c>
+      <c r="C138" t="s">
+        <v>250</v>
       </c>
       <c r="J138">
         <v>2004</v>
@@ -2812,7 +3242,10 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>130</v>
+        <v>129</v>
+      </c>
+      <c r="C139" t="s">
+        <v>247</v>
       </c>
       <c r="J139">
         <v>2006</v>
@@ -2824,7 +3257,10 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>131</v>
+        <v>130</v>
+      </c>
+      <c r="C140" t="s">
+        <v>248</v>
       </c>
       <c r="J140">
         <v>2005</v>
@@ -2836,7 +3272,10 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>132</v>
+        <v>131</v>
+      </c>
+      <c r="C141" t="s">
+        <v>243</v>
       </c>
       <c r="J141">
         <v>2004</v>
@@ -2848,7 +3287,10 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>133</v>
+        <v>132</v>
+      </c>
+      <c r="C142" t="s">
+        <v>248</v>
       </c>
       <c r="J142">
         <v>2004</v>
@@ -2860,7 +3302,10 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>134</v>
+        <v>133</v>
+      </c>
+      <c r="C143" t="s">
+        <v>245</v>
       </c>
       <c r="J143">
         <v>1967</v>
@@ -2872,7 +3317,10 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>135</v>
+        <v>134</v>
+      </c>
+      <c r="C144" t="s">
+        <v>244</v>
       </c>
       <c r="J144">
         <v>1965</v>
@@ -2884,7 +3332,10 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>136</v>
+        <v>135</v>
+      </c>
+      <c r="C145" t="s">
+        <v>248</v>
       </c>
       <c r="J145">
         <v>1992</v>
@@ -2896,7 +3347,10 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>137</v>
+        <v>136</v>
+      </c>
+      <c r="C146" t="s">
+        <v>247</v>
       </c>
       <c r="J146">
         <v>2021</v>
@@ -2908,7 +3362,10 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>138</v>
+        <v>137</v>
+      </c>
+      <c r="C147" t="s">
+        <v>244</v>
       </c>
       <c r="J147">
         <v>2005</v>
@@ -2922,6 +3379,9 @@
       <c r="B148" t="s">
         <v>93</v>
       </c>
+      <c r="C148" t="s">
+        <v>247</v>
+      </c>
       <c r="J148">
         <v>2022</v>
       </c>
@@ -2932,7 +3392,10 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>139</v>
+        <v>138</v>
+      </c>
+      <c r="C149" t="s">
+        <v>243</v>
       </c>
       <c r="J149">
         <v>2017</v>
@@ -2944,7 +3407,10 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>140</v>
+        <v>139</v>
+      </c>
+      <c r="C150" t="s">
+        <v>244</v>
       </c>
       <c r="J150">
         <v>2021</v>
@@ -2956,7 +3422,10 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>141</v>
+        <v>140</v>
+      </c>
+      <c r="C151" t="s">
+        <v>244</v>
       </c>
       <c r="J151">
         <v>2010</v>
@@ -2968,7 +3437,10 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>142</v>
+        <v>141</v>
+      </c>
+      <c r="C152" t="s">
+        <v>248</v>
       </c>
       <c r="J152">
         <v>2014</v>
@@ -2980,7 +3452,10 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>144</v>
+        <v>143</v>
+      </c>
+      <c r="C153" t="s">
+        <v>248</v>
       </c>
       <c r="J153">
         <v>2020</v>
@@ -2992,7 +3467,10 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>145</v>
+        <v>144</v>
+      </c>
+      <c r="C154" t="s">
+        <v>244</v>
       </c>
       <c r="J154">
         <v>2006</v>
@@ -3004,7 +3482,10 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>146</v>
+        <v>145</v>
+      </c>
+      <c r="C155" t="s">
+        <v>244</v>
       </c>
       <c r="J155">
         <v>1998</v>
@@ -3016,7 +3497,10 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>147</v>
+        <v>146</v>
+      </c>
+      <c r="C156" t="s">
+        <v>244</v>
       </c>
       <c r="J156">
         <v>2009</v>
@@ -3028,7 +3512,10 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>148</v>
+        <v>147</v>
+      </c>
+      <c r="C157" t="s">
+        <v>244</v>
       </c>
       <c r="J157">
         <v>2007</v>
@@ -3040,7 +3527,10 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>149</v>
+        <v>148</v>
+      </c>
+      <c r="C158" t="s">
+        <v>244</v>
       </c>
       <c r="J158">
         <v>2020</v>
@@ -3052,7 +3542,10 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>150</v>
+        <v>149</v>
+      </c>
+      <c r="C159" t="s">
+        <v>248</v>
       </c>
       <c r="J159">
         <v>2023</v>
@@ -3064,7 +3557,10 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>151</v>
+        <v>150</v>
+      </c>
+      <c r="C160" t="s">
+        <v>244</v>
       </c>
       <c r="J160">
         <v>2016</v>
@@ -3076,7 +3572,10 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>152</v>
+        <v>151</v>
+      </c>
+      <c r="C161" t="s">
+        <v>244</v>
       </c>
       <c r="J161">
         <v>1966</v>
@@ -3088,7 +3587,10 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>153</v>
+        <v>152</v>
+      </c>
+      <c r="C162" t="s">
+        <v>244</v>
       </c>
       <c r="J162">
         <v>2000</v>
@@ -3100,7 +3602,10 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>154</v>
+        <v>153</v>
+      </c>
+      <c r="C163" t="s">
+        <v>248</v>
       </c>
       <c r="J163">
         <v>1969</v>
@@ -3112,7 +3617,10 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>155</v>
+        <v>154</v>
+      </c>
+      <c r="C164" t="s">
+        <v>244</v>
       </c>
       <c r="J164">
         <v>2018</v>
@@ -3124,7 +3632,10 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>156</v>
+        <v>155</v>
+      </c>
+      <c r="C165" t="s">
+        <v>244</v>
       </c>
       <c r="J165">
         <v>1963</v>
@@ -3136,7 +3647,10 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>157</v>
+        <v>156</v>
+      </c>
+      <c r="C166" t="s">
+        <v>248</v>
       </c>
       <c r="J166">
         <v>1971</v>
@@ -3150,6 +3664,9 @@
       <c r="B167" t="s">
         <v>79</v>
       </c>
+      <c r="C167" t="s">
+        <v>247</v>
+      </c>
       <c r="J167">
         <v>2015</v>
       </c>
@@ -3160,7 +3677,10 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>158</v>
+        <v>157</v>
+      </c>
+      <c r="C168" t="s">
+        <v>244</v>
       </c>
       <c r="J168">
         <v>2017</v>
@@ -3172,7 +3692,10 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>159</v>
+        <v>158</v>
+      </c>
+      <c r="C169" t="s">
+        <v>244</v>
       </c>
       <c r="J169">
         <v>2012</v>
@@ -3184,7 +3707,10 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>160</v>
+        <v>159</v>
+      </c>
+      <c r="C170" t="s">
+        <v>244</v>
       </c>
       <c r="J170">
         <v>1963</v>
@@ -3196,7 +3722,10 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>161</v>
+        <v>160</v>
+      </c>
+      <c r="C171" t="s">
+        <v>248</v>
       </c>
       <c r="J171">
         <v>2010</v>
@@ -3208,7 +3737,10 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>162</v>
+        <v>161</v>
+      </c>
+      <c r="C172" t="s">
+        <v>243</v>
       </c>
       <c r="J172">
         <v>2007</v>
@@ -3220,7 +3752,10 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>163</v>
+        <v>162</v>
+      </c>
+      <c r="C173" t="s">
+        <v>243</v>
       </c>
       <c r="J173">
         <v>2023</v>
@@ -3232,7 +3767,10 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>164</v>
+        <v>163</v>
+      </c>
+      <c r="C174" t="s">
+        <v>244</v>
       </c>
       <c r="J174">
         <v>2018</v>
@@ -3244,7 +3782,10 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>165</v>
+        <v>164</v>
+      </c>
+      <c r="C175" t="s">
+        <v>244</v>
       </c>
       <c r="J175">
         <v>1997</v>
@@ -3256,7 +3797,10 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>166</v>
+        <v>165</v>
+      </c>
+      <c r="C176" t="s">
+        <v>248</v>
       </c>
       <c r="J176">
         <v>2007</v>
@@ -3268,7 +3812,10 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>167</v>
+        <v>166</v>
+      </c>
+      <c r="C177" t="s">
+        <v>248</v>
       </c>
       <c r="J177">
         <v>1972</v>
@@ -3280,7 +3827,10 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>168</v>
+        <v>167</v>
+      </c>
+      <c r="C178" t="s">
+        <v>250</v>
       </c>
       <c r="J178">
         <v>2014</v>
@@ -3292,7 +3842,10 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>169</v>
+        <v>168</v>
+      </c>
+      <c r="C179" t="s">
+        <v>243</v>
       </c>
       <c r="J179">
         <v>2022</v>
@@ -3304,7 +3857,10 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>170</v>
+        <v>169</v>
+      </c>
+      <c r="C180" t="s">
+        <v>244</v>
       </c>
       <c r="J180">
         <v>2018</v>
@@ -3316,7 +3872,10 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>171</v>
+        <v>170</v>
+      </c>
+      <c r="C181" t="s">
+        <v>244</v>
       </c>
       <c r="J181">
         <v>1973</v>
@@ -3328,7 +3887,10 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>172</v>
+        <v>171</v>
+      </c>
+      <c r="C182" t="s">
+        <v>244</v>
       </c>
       <c r="J182">
         <v>2001</v>
@@ -3340,7 +3902,10 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>173</v>
+        <v>172</v>
+      </c>
+      <c r="C183" t="s">
+        <v>244</v>
       </c>
       <c r="J183">
         <v>1977</v>
@@ -3352,7 +3917,10 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>174</v>
+        <v>173</v>
+      </c>
+      <c r="C184" t="s">
+        <v>250</v>
       </c>
       <c r="J184">
         <v>2005</v>
@@ -3364,7 +3932,10 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>175</v>
+        <v>174</v>
+      </c>
+      <c r="C185" t="s">
+        <v>244</v>
       </c>
       <c r="J185">
         <v>2018</v>
@@ -3376,7 +3947,10 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>176</v>
+        <v>175</v>
+      </c>
+      <c r="C186" t="s">
+        <v>247</v>
       </c>
       <c r="J186">
         <v>2013</v>
@@ -3388,7 +3962,10 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>177</v>
+        <v>176</v>
+      </c>
+      <c r="C187" t="s">
+        <v>250</v>
       </c>
       <c r="J187">
         <v>1967</v>
@@ -3400,7 +3977,10 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>178</v>
+        <v>177</v>
+      </c>
+      <c r="C188" t="s">
+        <v>244</v>
       </c>
       <c r="J188">
         <v>2022</v>
@@ -3412,7 +3992,10 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>242</v>
+        <v>239</v>
+      </c>
+      <c r="C189" t="s">
+        <v>244</v>
       </c>
       <c r="J189">
         <v>2009</v>
@@ -3424,7 +4007,10 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>179</v>
+        <v>178</v>
+      </c>
+      <c r="C190" t="s">
+        <v>248</v>
       </c>
       <c r="J190">
         <v>2019</v>
@@ -3436,7 +4022,10 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>180</v>
+        <v>179</v>
+      </c>
+      <c r="C191" t="s">
+        <v>244</v>
       </c>
       <c r="J191">
         <v>2021</v>
@@ -3450,6 +4039,9 @@
       <c r="B192" t="s">
         <v>21</v>
       </c>
+      <c r="C192" t="s">
+        <v>244</v>
+      </c>
       <c r="J192">
         <v>2017</v>
       </c>
@@ -3460,7 +4052,10 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>181</v>
+        <v>180</v>
+      </c>
+      <c r="C193" t="s">
+        <v>243</v>
       </c>
       <c r="J193">
         <v>2022</v>
@@ -3472,7 +4067,10 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>182</v>
+        <v>181</v>
+      </c>
+      <c r="C194" t="s">
+        <v>244</v>
       </c>
       <c r="J194">
         <v>1995</v>
@@ -3484,7 +4082,10 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>183</v>
+        <v>182</v>
+      </c>
+      <c r="C195" t="s">
+        <v>244</v>
       </c>
       <c r="J195">
         <v>2016</v>
@@ -3496,7 +4097,10 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>184</v>
+        <v>183</v>
+      </c>
+      <c r="C196" t="s">
+        <v>244</v>
       </c>
       <c r="J196">
         <v>2020</v>
@@ -3510,6 +4114,9 @@
       <c r="B197" t="s">
         <v>37</v>
       </c>
+      <c r="C197" t="s">
+        <v>248</v>
+      </c>
       <c r="J197">
         <v>1978</v>
       </c>
@@ -3520,7 +4127,10 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>185</v>
+        <v>184</v>
+      </c>
+      <c r="C198" t="s">
+        <v>244</v>
       </c>
       <c r="J198">
         <v>2020</v>
@@ -3532,7 +4142,10 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>186</v>
+        <v>185</v>
+      </c>
+      <c r="C199" t="s">
+        <v>244</v>
       </c>
       <c r="J199">
         <v>2014</v>
@@ -3544,7 +4157,10 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>187</v>
+        <v>186</v>
+      </c>
+      <c r="C200" t="s">
+        <v>244</v>
       </c>
       <c r="J200">
         <v>2012</v>
@@ -3556,7 +4172,10 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>188</v>
+        <v>187</v>
+      </c>
+      <c r="C201" t="s">
+        <v>244</v>
       </c>
       <c r="J201">
         <v>2021</v>
@@ -3568,7 +4187,10 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>189</v>
+        <v>188</v>
+      </c>
+      <c r="C202" t="s">
+        <v>244</v>
       </c>
       <c r="J202">
         <v>2019</v>
@@ -3580,7 +4202,10 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>243</v>
+        <v>240</v>
+      </c>
+      <c r="C203" t="s">
+        <v>244</v>
       </c>
       <c r="J203">
         <v>2000</v>
@@ -3592,7 +4217,10 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>190</v>
+        <v>189</v>
+      </c>
+      <c r="C204" t="s">
+        <v>244</v>
       </c>
       <c r="J204">
         <v>2013</v>
@@ -3604,7 +4232,10 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>191</v>
+        <v>190</v>
+      </c>
+      <c r="C205" t="s">
+        <v>244</v>
       </c>
       <c r="J205">
         <v>2018</v>
@@ -3616,7 +4247,10 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>192</v>
+        <v>191</v>
+      </c>
+      <c r="C206" t="s">
+        <v>247</v>
       </c>
       <c r="J206">
         <v>2017</v>
@@ -3628,7 +4262,10 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>193</v>
+        <v>192</v>
+      </c>
+      <c r="C207" t="s">
+        <v>244</v>
       </c>
       <c r="J207">
         <v>2009</v>
@@ -3640,7 +4277,10 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>194</v>
+        <v>193</v>
+      </c>
+      <c r="C208" t="s">
+        <v>244</v>
       </c>
       <c r="J208">
         <v>2020</v>
@@ -3652,7 +4292,10 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>195</v>
+        <v>194</v>
+      </c>
+      <c r="C209" t="s">
+        <v>248</v>
       </c>
       <c r="J209">
         <v>2009</v>
@@ -3664,7 +4307,10 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>196</v>
+        <v>195</v>
+      </c>
+      <c r="C210" t="s">
+        <v>244</v>
       </c>
       <c r="J210">
         <v>2020</v>
@@ -3676,7 +4322,10 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>197</v>
+        <v>196</v>
+      </c>
+      <c r="C211" t="s">
+        <v>244</v>
       </c>
       <c r="J211">
         <v>2007</v>
@@ -3688,7 +4337,10 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+      <c r="C212" t="s">
+        <v>244</v>
       </c>
       <c r="J212">
         <v>2001</v>
@@ -3700,7 +4352,10 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>199</v>
+        <v>198</v>
+      </c>
+      <c r="C213" t="s">
+        <v>248</v>
       </c>
       <c r="J213">
         <v>2020</v>
@@ -3712,7 +4367,10 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>200</v>
+        <v>199</v>
+      </c>
+      <c r="C214" t="s">
+        <v>244</v>
       </c>
       <c r="J214">
         <v>2016</v>
@@ -3724,7 +4382,10 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>201</v>
+        <v>200</v>
+      </c>
+      <c r="C215" t="s">
+        <v>248</v>
       </c>
       <c r="J215">
         <v>2007</v>
@@ -3736,7 +4397,10 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>151</v>
+        <v>150</v>
+      </c>
+      <c r="C216" t="s">
+        <v>244</v>
       </c>
       <c r="J216">
         <v>2010</v>
@@ -3748,7 +4412,10 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>202</v>
+        <v>201</v>
+      </c>
+      <c r="C217" t="s">
+        <v>244</v>
       </c>
       <c r="J217">
         <v>2013</v>
@@ -3760,7 +4427,10 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>203</v>
+        <v>202</v>
+      </c>
+      <c r="C218" t="s">
+        <v>244</v>
       </c>
       <c r="J218">
         <v>2015</v>
@@ -3772,7 +4442,10 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>204</v>
+        <v>203</v>
+      </c>
+      <c r="C219" t="s">
+        <v>247</v>
       </c>
       <c r="J219">
         <v>2003</v>
@@ -3784,7 +4457,10 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>205</v>
+        <v>204</v>
+      </c>
+      <c r="C220" t="s">
+        <v>244</v>
       </c>
       <c r="J220">
         <v>2017</v>
@@ -3796,7 +4472,10 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>206</v>
+        <v>205</v>
+      </c>
+      <c r="C221" t="s">
+        <v>244</v>
       </c>
       <c r="J221">
         <v>2011</v>
@@ -3808,7 +4487,10 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>207</v>
+        <v>206</v>
+      </c>
+      <c r="C222" t="s">
+        <v>248</v>
       </c>
       <c r="J222">
         <v>2018</v>
@@ -3820,7 +4502,10 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>208</v>
+        <v>207</v>
+      </c>
+      <c r="C223" t="s">
+        <v>244</v>
       </c>
       <c r="J223">
         <v>2014</v>
@@ -3832,7 +4517,10 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>209</v>
+        <v>208</v>
+      </c>
+      <c r="C224" t="s">
+        <v>247</v>
       </c>
       <c r="J224">
         <v>2007</v>
@@ -3844,7 +4532,10 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>210</v>
+        <v>209</v>
+      </c>
+      <c r="C225" t="s">
+        <v>244</v>
       </c>
       <c r="J225">
         <v>2005</v>
@@ -3856,7 +4547,10 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>150</v>
+        <v>149</v>
+      </c>
+      <c r="C226" t="s">
+        <v>248</v>
       </c>
       <c r="J226">
         <v>2016</v>
@@ -3868,7 +4562,10 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>211</v>
+        <v>210</v>
+      </c>
+      <c r="C227" t="s">
+        <v>244</v>
       </c>
       <c r="J227">
         <v>2014</v>
@@ -3880,7 +4577,10 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>212</v>
+        <v>211</v>
+      </c>
+      <c r="C228" t="s">
+        <v>244</v>
       </c>
       <c r="J228">
         <v>2021</v>
@@ -3892,7 +4592,10 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>213</v>
+        <v>212</v>
+      </c>
+      <c r="C229" t="s">
+        <v>244</v>
       </c>
       <c r="J229">
         <v>2023</v>
@@ -3904,7 +4607,10 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>214</v>
+        <v>213</v>
+      </c>
+      <c r="C230" t="s">
+        <v>244</v>
       </c>
       <c r="J230">
         <v>1971</v>
@@ -3916,7 +4622,10 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>215</v>
+        <v>214</v>
+      </c>
+      <c r="C231" t="s">
+        <v>244</v>
       </c>
       <c r="J231">
         <v>2015</v>
@@ -3928,7 +4637,10 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>216</v>
+        <v>215</v>
+      </c>
+      <c r="C232" t="s">
+        <v>244</v>
       </c>
       <c r="J232">
         <v>2012</v>
@@ -3940,7 +4652,10 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>217</v>
+        <v>216</v>
+      </c>
+      <c r="C233" t="s">
+        <v>244</v>
       </c>
       <c r="J233">
         <v>2012</v>
@@ -3952,7 +4667,10 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>218</v>
+        <v>217</v>
+      </c>
+      <c r="C234" t="s">
+        <v>244</v>
       </c>
       <c r="J234">
         <v>2016</v>
@@ -3964,7 +4682,10 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>219</v>
+        <v>218</v>
+      </c>
+      <c r="C235" t="s">
+        <v>244</v>
       </c>
       <c r="J235">
         <v>2015</v>
@@ -3978,6 +4699,9 @@
       <c r="B236" t="s">
         <v>59</v>
       </c>
+      <c r="C236" t="s">
+        <v>244</v>
+      </c>
       <c r="J236">
         <v>2022</v>
       </c>
@@ -3988,7 +4712,10 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>220</v>
+        <v>219</v>
+      </c>
+      <c r="C237" t="s">
+        <v>247</v>
       </c>
       <c r="J237">
         <v>2018</v>
@@ -4000,7 +4727,10 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>221</v>
+        <v>220</v>
+      </c>
+      <c r="C238" t="s">
+        <v>244</v>
       </c>
       <c r="J238">
         <v>2020</v>
@@ -4012,7 +4742,10 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>222</v>
+        <v>221</v>
+      </c>
+      <c r="C239" t="s">
+        <v>244</v>
       </c>
       <c r="J239">
         <v>2023</v>
@@ -4024,7 +4757,10 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>223</v>
+        <v>222</v>
+      </c>
+      <c r="C240" t="s">
+        <v>247</v>
       </c>
       <c r="J240">
         <v>2008</v>
@@ -4036,7 +4772,10 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>224</v>
+        <v>223</v>
+      </c>
+      <c r="C241" t="s">
+        <v>247</v>
       </c>
       <c r="J241">
         <v>2006</v>

--- a/Samochody.xlsx
+++ b/Samochody.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NASA\PracaInz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC53D55-A478-4D05-8C3F-6E0CCF266685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7973468-50E2-4F24-81E2-93EC8589CCFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -192,9 +192,6 @@
     <t>Pagani Huayra</t>
   </si>
   <si>
-    <t>Subaru Impreza WRX STI</t>
-  </si>
-  <si>
     <t>Ferrari F40</t>
   </si>
   <si>
@@ -784,6 +781,9 @@
   </si>
   <si>
     <t>Bentley Continental Supersport Convertible</t>
+  </si>
+  <si>
+    <t>Subaru Impreza WRX</t>
   </si>
 </sst>
 </file>
@@ -1103,8 +1103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T242"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="H61" sqref="H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1143,13 +1143,13 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F1" t="s">
         <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H1" t="s">
         <v>3</v>
@@ -1158,37 +1158,37 @@
         <v>2</v>
       </c>
       <c r="J1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M1" t="s">
+        <v>230</v>
+      </c>
+      <c r="N1" t="s">
+        <v>228</v>
+      </c>
+      <c r="O1" t="s">
+        <v>250</v>
+      </c>
+      <c r="P1" t="s">
         <v>225</v>
       </c>
-      <c r="M1" t="s">
-        <v>231</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
+        <v>226</v>
+      </c>
+      <c r="R1" t="s">
+        <v>227</v>
+      </c>
+      <c r="S1" t="s">
         <v>229</v>
       </c>
-      <c r="O1" t="s">
-        <v>251</v>
-      </c>
-      <c r="P1" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>227</v>
-      </c>
-      <c r="R1" t="s">
-        <v>228</v>
-      </c>
-      <c r="S1" t="s">
-        <v>230</v>
-      </c>
       <c r="T1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -1202,7 +1202,7 @@
         <v>2016</v>
       </c>
       <c r="D2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E2">
         <v>5.7</v>
@@ -1265,7 +1265,7 @@
         <v>2011</v>
       </c>
       <c r="D3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E3">
         <v>6.2</v>
@@ -1328,7 +1328,7 @@
         <v>2019</v>
       </c>
       <c r="D4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E4">
         <v>3.3</v>
@@ -1391,7 +1391,7 @@
         <v>2011</v>
       </c>
       <c r="D5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E5">
         <v>4.8</v>
@@ -1454,7 +1454,7 @@
         <v>1967</v>
       </c>
       <c r="D6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E6">
         <v>4.9000000000000004</v>
@@ -1517,7 +1517,7 @@
         <v>2013</v>
       </c>
       <c r="D7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E7">
         <v>4.3</v>
@@ -1580,7 +1580,7 @@
         <v>1970</v>
       </c>
       <c r="D8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E8">
         <v>4.9000000000000004</v>
@@ -1643,7 +1643,7 @@
         <v>1966</v>
       </c>
       <c r="D9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E9">
         <v>7</v>
@@ -1706,7 +1706,7 @@
         <v>1984</v>
       </c>
       <c r="D10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E10">
         <v>2.1</v>
@@ -1769,7 +1769,7 @@
         <v>1967</v>
       </c>
       <c r="D11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E11">
         <v>7</v>
@@ -1832,7 +1832,7 @@
         <v>2019</v>
       </c>
       <c r="D12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E12">
         <v>4</v>
@@ -1889,13 +1889,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C13">
         <v>2007</v>
       </c>
       <c r="D13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E13">
         <v>3.8</v>
@@ -1958,7 +1958,7 @@
         <v>1986</v>
       </c>
       <c r="D14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E14">
         <v>2.9</v>
@@ -2021,7 +2021,7 @@
         <v>2016</v>
       </c>
       <c r="D15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E15">
         <v>3.8</v>
@@ -2084,7 +2084,7 @@
         <v>1997</v>
       </c>
       <c r="D16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E16">
         <v>3.6</v>
@@ -2147,7 +2147,7 @@
         <v>2006</v>
       </c>
       <c r="D17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E17">
         <v>5.4</v>
@@ -2210,7 +2210,7 @@
         <v>2004</v>
       </c>
       <c r="D18" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E18">
         <v>4.3</v>
@@ -2273,7 +2273,7 @@
         <v>2020</v>
       </c>
       <c r="D19" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E19">
         <v>6</v>
@@ -2336,7 +2336,7 @@
         <v>1998</v>
       </c>
       <c r="D20" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E20">
         <v>2.8</v>
@@ -2399,7 +2399,7 @@
         <v>2010</v>
       </c>
       <c r="D21" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E21">
         <v>1.4</v>
@@ -2462,7 +2462,7 @@
         <v>2017</v>
       </c>
       <c r="D22" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E22">
         <v>4</v>
@@ -2519,13 +2519,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C23">
         <v>2010</v>
       </c>
       <c r="D23" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E23">
         <v>6</v>
@@ -2588,7 +2588,7 @@
         <v>2010</v>
       </c>
       <c r="D24" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E24">
         <v>4.7</v>
@@ -2651,7 +2651,7 @@
         <v>2004</v>
       </c>
       <c r="D25" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E25">
         <v>2</v>
@@ -2714,7 +2714,7 @@
         <v>2015</v>
       </c>
       <c r="D26" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E26">
         <v>4.4000000000000004</v>
@@ -2777,7 +2777,7 @@
         <v>2010</v>
       </c>
       <c r="D27" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E27">
         <v>4.2</v>
@@ -2840,7 +2840,7 @@
         <v>1965</v>
       </c>
       <c r="D28" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E28">
         <v>6.4</v>
@@ -2903,7 +2903,7 @@
         <v>2008</v>
       </c>
       <c r="D29" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E29">
         <v>3.2</v>
@@ -2966,7 +2966,55 @@
         <v>1980</v>
       </c>
       <c r="D30" t="s">
-        <v>242</v>
+        <v>241</v>
+      </c>
+      <c r="E30">
+        <v>3.5</v>
+      </c>
+      <c r="F30">
+        <v>6</v>
+      </c>
+      <c r="G30">
+        <v>277</v>
+      </c>
+      <c r="H30">
+        <v>2</v>
+      </c>
+      <c r="I30">
+        <v>2</v>
+      </c>
+      <c r="J30">
+        <v>5.6</v>
+      </c>
+      <c r="K30">
+        <v>262</v>
+      </c>
+      <c r="L30">
+        <v>330</v>
+      </c>
+      <c r="M30">
+        <v>1300</v>
+      </c>
+      <c r="N30">
+        <v>153</v>
+      </c>
+      <c r="O30">
+        <v>116</v>
+      </c>
+      <c r="P30">
+        <v>436</v>
+      </c>
+      <c r="Q30">
+        <v>182</v>
+      </c>
+      <c r="R30">
+        <v>114</v>
+      </c>
+      <c r="S30">
+        <v>256</v>
+      </c>
+      <c r="T30">
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
@@ -2981,7 +3029,55 @@
         <v>1999</v>
       </c>
       <c r="D31" t="s">
-        <v>246</v>
+        <v>245</v>
+      </c>
+      <c r="E31">
+        <v>2.8</v>
+      </c>
+      <c r="F31">
+        <v>6</v>
+      </c>
+      <c r="G31">
+        <v>193</v>
+      </c>
+      <c r="H31">
+        <v>5</v>
+      </c>
+      <c r="I31">
+        <v>4</v>
+      </c>
+      <c r="J31">
+        <v>7</v>
+      </c>
+      <c r="K31">
+        <v>240</v>
+      </c>
+      <c r="L31">
+        <v>280</v>
+      </c>
+      <c r="M31">
+        <v>1395</v>
+      </c>
+      <c r="N31">
+        <v>440</v>
+      </c>
+      <c r="O31">
+        <v>63</v>
+      </c>
+      <c r="P31">
+        <v>447</v>
+      </c>
+      <c r="Q31">
+        <v>174</v>
+      </c>
+      <c r="R31">
+        <v>142</v>
+      </c>
+      <c r="S31">
+        <v>273</v>
+      </c>
+      <c r="T31">
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
@@ -2990,16 +3086,64 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C32">
         <v>2010</v>
       </c>
       <c r="D32" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+      <c r="E32">
+        <v>3.6</v>
+      </c>
+      <c r="F32">
+        <v>6</v>
+      </c>
+      <c r="G32">
+        <v>304</v>
+      </c>
+      <c r="H32">
+        <v>4</v>
+      </c>
+      <c r="I32">
+        <v>2</v>
+      </c>
+      <c r="J32">
+        <v>6</v>
+      </c>
+      <c r="K32">
+        <v>235</v>
+      </c>
+      <c r="L32">
+        <v>371</v>
+      </c>
+      <c r="M32">
+        <v>1695</v>
+      </c>
+      <c r="N32">
+        <v>320</v>
+      </c>
+      <c r="O32">
+        <v>72</v>
+      </c>
+      <c r="P32">
+        <v>484</v>
+      </c>
+      <c r="Q32">
+        <v>192</v>
+      </c>
+      <c r="R32">
+        <v>138</v>
+      </c>
+      <c r="S32">
+        <v>285</v>
+      </c>
+      <c r="T32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -3011,10 +3155,58 @@
         <v>2002</v>
       </c>
       <c r="D33" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>6</v>
+      </c>
+      <c r="G33">
+        <v>226</v>
+      </c>
+      <c r="H33">
+        <v>2</v>
+      </c>
+      <c r="I33">
+        <v>3</v>
+      </c>
+      <c r="J33">
+        <v>6.4</v>
+      </c>
+      <c r="K33">
+        <v>235</v>
+      </c>
+      <c r="L33">
+        <v>300</v>
+      </c>
+      <c r="M33">
+        <v>1335</v>
+      </c>
+      <c r="N33">
+        <v>65</v>
+      </c>
+      <c r="O33">
+        <v>61</v>
+      </c>
+      <c r="P33">
+        <v>380</v>
+      </c>
+      <c r="Q33">
+        <v>181</v>
+      </c>
+      <c r="R33">
+        <v>136</v>
+      </c>
+      <c r="S33">
+        <v>251</v>
+      </c>
+      <c r="T33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -3026,10 +3218,58 @@
         <v>2001</v>
       </c>
       <c r="D34" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+      <c r="E34">
+        <v>5.7</v>
+      </c>
+      <c r="F34">
+        <v>8</v>
+      </c>
+      <c r="G34">
+        <v>329</v>
+      </c>
+      <c r="H34">
+        <v>4</v>
+      </c>
+      <c r="I34">
+        <v>2</v>
+      </c>
+      <c r="J34">
+        <v>6</v>
+      </c>
+      <c r="K34">
+        <v>250</v>
+      </c>
+      <c r="L34">
+        <v>475</v>
+      </c>
+      <c r="M34">
+        <v>1635</v>
+      </c>
+      <c r="N34">
+        <v>215</v>
+      </c>
+      <c r="O34">
+        <v>63</v>
+      </c>
+      <c r="P34">
+        <v>492</v>
+      </c>
+      <c r="Q34">
+        <v>189</v>
+      </c>
+      <c r="R34">
+        <v>133</v>
+      </c>
+      <c r="S34">
+        <v>257</v>
+      </c>
+      <c r="T34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -3041,10 +3281,58 @@
         <v>2002</v>
       </c>
       <c r="D35" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>6</v>
+      </c>
+      <c r="G35">
+        <v>218</v>
+      </c>
+      <c r="H35">
+        <v>5</v>
+      </c>
+      <c r="I35">
+        <v>4</v>
+      </c>
+      <c r="J35">
+        <v>7.6</v>
+      </c>
+      <c r="K35">
+        <v>232</v>
+      </c>
+      <c r="L35">
+        <v>295</v>
+      </c>
+      <c r="M35">
+        <v>1565</v>
+      </c>
+      <c r="N35">
+        <v>283</v>
+      </c>
+      <c r="O35">
+        <v>70</v>
+      </c>
+      <c r="P35">
+        <v>449</v>
+      </c>
+      <c r="Q35">
+        <v>172</v>
+      </c>
+      <c r="R35">
+        <v>141</v>
+      </c>
+      <c r="S35">
+        <v>167</v>
+      </c>
+      <c r="T35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -3056,10 +3344,58 @@
         <v>1955</v>
       </c>
       <c r="D36" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>6</v>
+      </c>
+      <c r="G36">
+        <v>215</v>
+      </c>
+      <c r="H36">
+        <v>2</v>
+      </c>
+      <c r="I36">
+        <v>2</v>
+      </c>
+      <c r="J36">
+        <v>10</v>
+      </c>
+      <c r="K36">
+        <v>260</v>
+      </c>
+      <c r="L36">
+        <v>275</v>
+      </c>
+      <c r="M36">
+        <v>1295</v>
+      </c>
+      <c r="N36">
+        <v>237</v>
+      </c>
+      <c r="O36">
+        <v>100</v>
+      </c>
+      <c r="P36">
+        <v>452</v>
+      </c>
+      <c r="Q36">
+        <v>179</v>
+      </c>
+      <c r="R36">
+        <v>130</v>
+      </c>
+      <c r="S36">
+        <v>240</v>
+      </c>
+      <c r="T36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -3071,10 +3407,58 @@
         <v>1982</v>
       </c>
       <c r="D37" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="E37">
+        <v>5.7</v>
+      </c>
+      <c r="F37">
+        <v>8</v>
+      </c>
+      <c r="G37">
+        <v>230</v>
+      </c>
+      <c r="H37">
+        <v>2</v>
+      </c>
+      <c r="I37">
+        <v>3</v>
+      </c>
+      <c r="J37">
+        <v>6.7</v>
+      </c>
+      <c r="K37">
+        <v>204</v>
+      </c>
+      <c r="L37">
+        <v>373</v>
+      </c>
+      <c r="M37">
+        <v>1596</v>
+      </c>
+      <c r="N37">
+        <v>286</v>
+      </c>
+      <c r="O37">
+        <v>90</v>
+      </c>
+      <c r="P37">
+        <v>470</v>
+      </c>
+      <c r="Q37">
+        <v>175</v>
+      </c>
+      <c r="R37">
+        <v>122</v>
+      </c>
+      <c r="S37">
+        <v>249</v>
+      </c>
+      <c r="T37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -3086,10 +3470,58 @@
         <v>2008</v>
       </c>
       <c r="D38" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+      <c r="F38">
+        <v>4</v>
+      </c>
+      <c r="G38">
+        <v>359</v>
+      </c>
+      <c r="H38">
+        <v>5</v>
+      </c>
+      <c r="I38">
+        <v>4</v>
+      </c>
+      <c r="J38">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="K38">
+        <v>250</v>
+      </c>
+      <c r="L38">
+        <v>363</v>
+      </c>
+      <c r="M38">
+        <v>1560</v>
+      </c>
+      <c r="N38">
+        <v>390</v>
+      </c>
+      <c r="O38">
+        <v>55</v>
+      </c>
+      <c r="P38">
+        <v>451</v>
+      </c>
+      <c r="Q38">
+        <v>181</v>
+      </c>
+      <c r="R38">
+        <v>148</v>
+      </c>
+      <c r="S38">
+        <v>265</v>
+      </c>
+      <c r="T38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -3101,10 +3533,58 @@
         <v>1976</v>
       </c>
       <c r="D39" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="E39">
+        <v>3</v>
+      </c>
+      <c r="F39">
+        <v>6</v>
+      </c>
+      <c r="G39">
+        <v>260</v>
+      </c>
+      <c r="H39">
+        <v>4</v>
+      </c>
+      <c r="I39">
+        <v>2</v>
+      </c>
+      <c r="J39">
+        <v>5.5</v>
+      </c>
+      <c r="K39">
+        <v>250</v>
+      </c>
+      <c r="L39">
+        <v>343</v>
+      </c>
+      <c r="M39">
+        <v>1140</v>
+      </c>
+      <c r="N39">
+        <v>184</v>
+      </c>
+      <c r="O39">
+        <v>80</v>
+      </c>
+      <c r="P39">
+        <v>429</v>
+      </c>
+      <c r="Q39">
+        <v>178</v>
+      </c>
+      <c r="R39">
+        <v>130</v>
+      </c>
+      <c r="S39">
+        <v>227</v>
+      </c>
+      <c r="T39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -3116,10 +3596,58 @@
         <v>2014</v>
       </c>
       <c r="D40" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="E40">
+        <v>4.7</v>
+      </c>
+      <c r="F40">
+        <v>8</v>
+      </c>
+      <c r="G40">
+        <v>435</v>
+      </c>
+      <c r="H40">
+        <v>2</v>
+      </c>
+      <c r="I40">
+        <v>2</v>
+      </c>
+      <c r="J40">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="K40">
+        <v>250</v>
+      </c>
+      <c r="L40">
+        <v>700</v>
+      </c>
+      <c r="M40">
+        <v>1785</v>
+      </c>
+      <c r="N40">
+        <v>241</v>
+      </c>
+      <c r="O40">
+        <v>65</v>
+      </c>
+      <c r="P40">
+        <v>461</v>
+      </c>
+      <c r="Q40">
+        <v>188</v>
+      </c>
+      <c r="R40">
+        <v>131</v>
+      </c>
+      <c r="S40">
+        <v>259</v>
+      </c>
+      <c r="T40">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -3131,10 +3659,58 @@
         <v>1970</v>
       </c>
       <c r="D41" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+      <c r="E41">
+        <v>5.6</v>
+      </c>
+      <c r="F41">
+        <v>8</v>
+      </c>
+      <c r="G41">
+        <v>275</v>
+      </c>
+      <c r="H41">
+        <v>5</v>
+      </c>
+      <c r="I41">
+        <v>2</v>
+      </c>
+      <c r="J41">
+        <v>6.5</v>
+      </c>
+      <c r="K41">
+        <v>201</v>
+      </c>
+      <c r="L41">
+        <v>468</v>
+      </c>
+      <c r="M41">
+        <v>1454</v>
+      </c>
+      <c r="N41">
+        <v>234</v>
+      </c>
+      <c r="O41">
+        <v>54</v>
+      </c>
+      <c r="P41">
+        <v>486</v>
+      </c>
+      <c r="Q41">
+        <v>193</v>
+      </c>
+      <c r="R41">
+        <v>129</v>
+      </c>
+      <c r="S41">
+        <v>279</v>
+      </c>
+      <c r="T41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -3146,10 +3722,58 @@
         <v>2007</v>
       </c>
       <c r="D42" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+      <c r="E42">
+        <v>3.8</v>
+      </c>
+      <c r="F42">
+        <v>6</v>
+      </c>
+      <c r="G42">
+        <v>265</v>
+      </c>
+      <c r="H42">
+        <v>4</v>
+      </c>
+      <c r="I42">
+        <v>3</v>
+      </c>
+      <c r="J42">
+        <v>7.1</v>
+      </c>
+      <c r="K42">
+        <v>240</v>
+      </c>
+      <c r="L42">
+        <v>329</v>
+      </c>
+      <c r="M42">
+        <v>1665</v>
+      </c>
+      <c r="N42">
+        <v>263</v>
+      </c>
+      <c r="O42">
+        <v>67</v>
+      </c>
+      <c r="P42">
+        <v>457</v>
+      </c>
+      <c r="Q42">
+        <v>183</v>
+      </c>
+      <c r="R42">
+        <v>138</v>
+      </c>
+      <c r="S42">
+        <v>258</v>
+      </c>
+      <c r="T42">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -3158,13 +3782,61 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D43" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="E43">
+        <v>6.2</v>
+      </c>
+      <c r="F43">
+        <v>8</v>
+      </c>
+      <c r="G43">
+        <v>571</v>
+      </c>
+      <c r="H43">
+        <v>2</v>
+      </c>
+      <c r="I43">
+        <v>2</v>
+      </c>
+      <c r="J43">
+        <v>3.8</v>
+      </c>
+      <c r="K43">
+        <v>317</v>
+      </c>
+      <c r="L43">
+        <v>650</v>
+      </c>
+      <c r="M43">
+        <v>1620</v>
+      </c>
+      <c r="N43">
+        <v>176</v>
+      </c>
+      <c r="O43">
+        <v>85</v>
+      </c>
+      <c r="P43">
+        <v>463</v>
+      </c>
+      <c r="Q43">
+        <v>193</v>
+      </c>
+      <c r="R43">
+        <v>207</v>
+      </c>
+      <c r="S43">
+        <v>268</v>
+      </c>
+      <c r="T43">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -3176,10 +3848,58 @@
         <v>2014</v>
       </c>
       <c r="D44" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="E44">
+        <v>3.8</v>
+      </c>
+      <c r="F44">
+        <v>6</v>
+      </c>
+      <c r="G44">
+        <v>400</v>
+      </c>
+      <c r="H44">
+        <v>4</v>
+      </c>
+      <c r="I44">
+        <v>2</v>
+      </c>
+      <c r="J44">
+        <v>4.5</v>
+      </c>
+      <c r="K44">
+        <v>304</v>
+      </c>
+      <c r="L44">
+        <v>440</v>
+      </c>
+      <c r="M44">
+        <v>1415</v>
+      </c>
+      <c r="N44">
+        <v>340</v>
+      </c>
+      <c r="O44">
+        <v>64</v>
+      </c>
+      <c r="P44">
+        <v>449</v>
+      </c>
+      <c r="Q44">
+        <v>181</v>
+      </c>
+      <c r="R44">
+        <v>130</v>
+      </c>
+      <c r="S44">
+        <v>245</v>
+      </c>
+      <c r="T44">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -3191,10 +3911,58 @@
         <v>2006</v>
       </c>
       <c r="D45" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+      <c r="E45">
+        <v>2</v>
+      </c>
+      <c r="F45">
+        <v>4</v>
+      </c>
+      <c r="G45">
+        <v>200</v>
+      </c>
+      <c r="H45">
+        <v>5</v>
+      </c>
+      <c r="I45">
+        <v>3</v>
+      </c>
+      <c r="J45">
+        <v>7.2</v>
+      </c>
+      <c r="K45">
+        <v>243</v>
+      </c>
+      <c r="L45">
+        <v>280</v>
+      </c>
+      <c r="M45">
+        <v>1336</v>
+      </c>
+      <c r="N45">
+        <v>350</v>
+      </c>
+      <c r="O45">
+        <v>55</v>
+      </c>
+      <c r="P45">
+        <v>422</v>
+      </c>
+      <c r="Q45">
+        <v>176</v>
+      </c>
+      <c r="R45">
+        <v>147</v>
+      </c>
+      <c r="S45">
+        <v>258</v>
+      </c>
+      <c r="T45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -3206,10 +3974,58 @@
         <v>2009</v>
       </c>
       <c r="D46" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+      <c r="E46">
+        <v>3.7</v>
+      </c>
+      <c r="F46">
+        <v>6</v>
+      </c>
+      <c r="G46">
+        <v>328</v>
+      </c>
+      <c r="H46">
+        <v>2</v>
+      </c>
+      <c r="I46">
+        <v>3</v>
+      </c>
+      <c r="J46">
+        <v>5.3</v>
+      </c>
+      <c r="K46">
+        <v>275</v>
+      </c>
+      <c r="L46">
+        <v>363</v>
+      </c>
+      <c r="M46">
+        <v>1496</v>
+      </c>
+      <c r="N46">
+        <v>235</v>
+      </c>
+      <c r="O46">
+        <v>72</v>
+      </c>
+      <c r="P46">
+        <v>425</v>
+      </c>
+      <c r="Q46">
+        <v>185</v>
+      </c>
+      <c r="R46">
+        <v>131</v>
+      </c>
+      <c r="S46">
+        <v>255</v>
+      </c>
+      <c r="T46">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -3221,10 +4037,58 @@
         <v>2012</v>
       </c>
       <c r="D47" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+      <c r="E47">
+        <v>1.4</v>
+      </c>
+      <c r="F47">
+        <v>4</v>
+      </c>
+      <c r="G47">
+        <v>180</v>
+      </c>
+      <c r="H47">
+        <v>5</v>
+      </c>
+      <c r="I47">
+        <v>3</v>
+      </c>
+      <c r="J47">
+        <v>6.9</v>
+      </c>
+      <c r="K47">
+        <v>229</v>
+      </c>
+      <c r="L47">
+        <v>250</v>
+      </c>
+      <c r="M47">
+        <v>1194</v>
+      </c>
+      <c r="N47">
+        <v>204</v>
+      </c>
+      <c r="O47">
+        <v>45</v>
+      </c>
+      <c r="P47">
+        <v>398</v>
+      </c>
+      <c r="Q47">
+        <v>168</v>
+      </c>
+      <c r="R47">
+        <v>190</v>
+      </c>
+      <c r="S47">
+        <v>247</v>
+      </c>
+      <c r="T47">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -3236,10 +4100,58 @@
         <v>2003</v>
       </c>
       <c r="D48" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+      <c r="E48">
+        <v>2</v>
+      </c>
+      <c r="F48">
+        <v>4</v>
+      </c>
+      <c r="G48">
+        <v>220</v>
+      </c>
+      <c r="H48">
+        <v>4</v>
+      </c>
+      <c r="I48">
+        <v>3</v>
+      </c>
+      <c r="J48">
+        <v>6.3</v>
+      </c>
+      <c r="K48">
+        <v>214</v>
+      </c>
+      <c r="L48">
+        <v>206</v>
+      </c>
+      <c r="M48">
+        <v>1170</v>
+      </c>
+      <c r="N48">
+        <v>504</v>
+      </c>
+      <c r="O48">
+        <v>50</v>
+      </c>
+      <c r="P48">
+        <v>439</v>
+      </c>
+      <c r="Q48">
+        <v>170</v>
+      </c>
+      <c r="R48">
+        <v>138</v>
+      </c>
+      <c r="S48">
+        <v>257</v>
+      </c>
+      <c r="T48">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -3251,10 +4163,58 @@
         <v>2006</v>
       </c>
       <c r="D49" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+      <c r="E49">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F49">
+        <v>8</v>
+      </c>
+      <c r="G49">
+        <v>304</v>
+      </c>
+      <c r="H49">
+        <v>4</v>
+      </c>
+      <c r="I49">
+        <v>2</v>
+      </c>
+      <c r="J49">
+        <v>5.5</v>
+      </c>
+      <c r="K49">
+        <v>230</v>
+      </c>
+      <c r="L49">
+        <v>427</v>
+      </c>
+      <c r="M49">
+        <v>1565</v>
+      </c>
+      <c r="N49">
+        <v>350</v>
+      </c>
+      <c r="O49">
+        <v>61</v>
+      </c>
+      <c r="P49">
+        <v>477</v>
+      </c>
+      <c r="Q49">
+        <v>188</v>
+      </c>
+      <c r="R49">
+        <v>139</v>
+      </c>
+      <c r="S49">
+        <v>272</v>
+      </c>
+      <c r="T49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -3266,10 +4226,58 @@
         <v>2010</v>
       </c>
       <c r="D50" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="E50">
+        <v>7</v>
+      </c>
+      <c r="F50">
+        <v>8</v>
+      </c>
+      <c r="G50">
+        <v>590</v>
+      </c>
+      <c r="H50">
+        <v>2</v>
+      </c>
+      <c r="I50">
+        <v>2</v>
+      </c>
+      <c r="J50">
+        <v>3.2</v>
+      </c>
+      <c r="K50">
+        <v>310</v>
+      </c>
+      <c r="L50">
+        <v>640</v>
+      </c>
+      <c r="M50">
+        <v>1245</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <v>110</v>
+      </c>
+      <c r="P50">
+        <v>448</v>
+      </c>
+      <c r="Q50">
+        <v>200</v>
+      </c>
+      <c r="R50">
+        <v>117</v>
+      </c>
+      <c r="S50">
+        <v>289</v>
+      </c>
+      <c r="T50">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -3281,202 +4289,394 @@
         <v>2017</v>
       </c>
       <c r="D51" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="E51">
+        <v>6</v>
+      </c>
+      <c r="F51">
+        <v>12</v>
+      </c>
+      <c r="G51">
+        <v>730</v>
+      </c>
+      <c r="H51">
+        <v>2</v>
+      </c>
+      <c r="I51">
+        <v>2</v>
+      </c>
+      <c r="J51">
+        <v>3.3</v>
+      </c>
+      <c r="K51">
+        <v>360</v>
+      </c>
+      <c r="L51">
+        <v>1000</v>
+      </c>
+      <c r="M51">
+        <v>1350</v>
+      </c>
+      <c r="N51">
+        <v>156</v>
+      </c>
+      <c r="O51">
+        <v>100</v>
+      </c>
+      <c r="P51">
+        <v>460</v>
+      </c>
+      <c r="Q51">
+        <v>204</v>
+      </c>
+      <c r="R51">
+        <v>117</v>
+      </c>
+      <c r="S51">
+        <v>280</v>
+      </c>
+      <c r="T51">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>55</v>
+        <v>252</v>
       </c>
       <c r="C52">
         <v>2002</v>
       </c>
       <c r="D52" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+      <c r="E52">
+        <v>2</v>
+      </c>
+      <c r="F52">
+        <v>4</v>
+      </c>
+      <c r="G52">
+        <v>218</v>
+      </c>
+      <c r="H52">
+        <v>5</v>
+      </c>
+      <c r="I52">
+        <v>4</v>
+      </c>
+      <c r="J52">
+        <v>6.2</v>
+      </c>
+      <c r="K52">
+        <v>230</v>
+      </c>
+      <c r="L52">
+        <v>292</v>
+      </c>
+      <c r="M52">
+        <v>1470</v>
+      </c>
+      <c r="N52">
+        <v>401</v>
+      </c>
+      <c r="O52">
+        <v>60</v>
+      </c>
+      <c r="P52">
+        <v>441</v>
+      </c>
+      <c r="Q52">
+        <v>173</v>
+      </c>
+      <c r="R52">
+        <v>144</v>
+      </c>
+      <c r="S52">
+        <v>253</v>
+      </c>
+      <c r="T52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C53">
         <v>1991</v>
       </c>
       <c r="D53" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="E53">
+        <v>2.9</v>
+      </c>
+      <c r="F53">
+        <v>8</v>
+      </c>
+      <c r="G53">
+        <v>478</v>
+      </c>
+      <c r="H53">
+        <v>2</v>
+      </c>
+      <c r="I53">
+        <v>2</v>
+      </c>
+      <c r="J53">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="K53">
+        <v>324</v>
+      </c>
+      <c r="L53">
+        <v>577</v>
+      </c>
+      <c r="M53">
+        <v>1235</v>
+      </c>
+      <c r="N53">
+        <v>123</v>
+      </c>
+      <c r="O53">
+        <v>120</v>
+      </c>
+      <c r="P53">
+        <v>436</v>
+      </c>
+      <c r="Q53">
+        <v>197</v>
+      </c>
+      <c r="R53">
+        <v>113</v>
+      </c>
+      <c r="S53">
+        <v>245</v>
+      </c>
+      <c r="T53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C54">
         <v>2016</v>
       </c>
       <c r="D54" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="E54">
+        <v>3.8</v>
+      </c>
+      <c r="F54">
+        <v>8</v>
+      </c>
+      <c r="G54">
+        <v>675</v>
+      </c>
+      <c r="H54">
+        <v>2</v>
+      </c>
+      <c r="I54">
+        <v>2</v>
+      </c>
+      <c r="J54">
+        <v>2.9</v>
+      </c>
+      <c r="K54">
+        <v>330</v>
+      </c>
+      <c r="L54">
+        <v>700</v>
+      </c>
+      <c r="M54">
+        <v>1328</v>
+      </c>
+      <c r="N54">
+        <v>145</v>
+      </c>
+      <c r="O54">
+        <v>72</v>
+      </c>
+      <c r="P54">
+        <v>451</v>
+      </c>
+      <c r="Q54">
+        <v>191</v>
+      </c>
+      <c r="R54">
+        <v>120</v>
+      </c>
+      <c r="S54">
+        <v>267</v>
+      </c>
+      <c r="T54">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C55">
         <v>2003</v>
       </c>
       <c r="D55" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C56">
         <v>2002</v>
       </c>
       <c r="D56" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C57">
         <v>2008</v>
       </c>
       <c r="D57" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C58">
         <v>2023</v>
       </c>
       <c r="D58" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C59">
         <v>2012</v>
       </c>
       <c r="D59" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C60">
         <v>2019</v>
       </c>
       <c r="D60" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C61">
         <v>2008</v>
       </c>
       <c r="D61" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C62">
         <v>2003</v>
       </c>
       <c r="D62" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C63">
         <v>2002</v>
       </c>
       <c r="D63" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C64">
         <v>2004</v>
       </c>
       <c r="D64" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -3491,7 +4691,7 @@
         <v>1969</v>
       </c>
       <c r="D65" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -3506,7 +4706,7 @@
         <v>1999</v>
       </c>
       <c r="D66" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -3515,13 +4715,13 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C67">
         <v>1982</v>
       </c>
       <c r="D67" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -3530,13 +4730,13 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C68">
         <v>2006</v>
       </c>
       <c r="D68" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -3545,13 +4745,13 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C69">
         <v>2007</v>
       </c>
       <c r="D69" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -3560,13 +4760,13 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C70">
         <v>1999</v>
       </c>
       <c r="D70" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -3581,7 +4781,7 @@
         <v>1999</v>
       </c>
       <c r="D71" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -3590,13 +4790,13 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C72">
         <v>1965</v>
       </c>
       <c r="D72" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -3605,13 +4805,13 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C73">
         <v>2005</v>
       </c>
       <c r="D73" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -3626,7 +4826,7 @@
         <v>2018</v>
       </c>
       <c r="D74" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -3635,13 +4835,13 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C75">
         <v>2008</v>
       </c>
       <c r="D75" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -3650,13 +4850,13 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C76">
         <v>2017</v>
       </c>
       <c r="D76" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -3665,13 +4865,13 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C77">
         <v>2018</v>
       </c>
       <c r="D77" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -3680,13 +4880,13 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C78">
         <v>2011</v>
       </c>
       <c r="D78" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -3701,7 +4901,7 @@
         <v>2015</v>
       </c>
       <c r="D79" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -3710,13 +4910,13 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C80">
         <v>2012</v>
       </c>
       <c r="D80" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -3725,13 +4925,13 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C81">
         <v>2017</v>
       </c>
       <c r="D81" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -3740,13 +4940,13 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C82">
         <v>2005</v>
       </c>
       <c r="D82" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -3755,13 +4955,13 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C83">
         <v>2014</v>
       </c>
       <c r="D83" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -3770,13 +4970,13 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C84">
         <v>2020</v>
       </c>
       <c r="D84" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -3785,13 +4985,13 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C85">
         <v>2014</v>
       </c>
       <c r="D85" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -3800,13 +5000,13 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C86">
         <v>2008</v>
       </c>
       <c r="D86" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -3815,13 +5015,13 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C87">
         <v>2017</v>
       </c>
       <c r="D87" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -3830,13 +5030,13 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C88">
         <v>2014</v>
       </c>
       <c r="D88" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -3845,13 +5045,13 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C89">
         <v>2003</v>
       </c>
       <c r="D89" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -3860,13 +5060,13 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C90">
         <v>2023</v>
       </c>
       <c r="D90" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -3875,13 +5075,13 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C91">
         <v>2017</v>
       </c>
       <c r="D91" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -3890,13 +5090,13 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C92">
         <v>2012</v>
       </c>
       <c r="D92" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -3905,13 +5105,13 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C93">
         <v>2015</v>
       </c>
       <c r="D93" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -3920,13 +5120,13 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C94">
         <v>2005</v>
       </c>
       <c r="D94" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -3941,7 +5141,7 @@
         <v>1964</v>
       </c>
       <c r="D95" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -3950,13 +5150,13 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C96">
         <v>2009</v>
       </c>
       <c r="D96" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -3965,13 +5165,13 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C97">
         <v>2018</v>
       </c>
       <c r="D97" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -3980,13 +5180,13 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C98">
         <v>2007</v>
       </c>
       <c r="D98" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -3995,13 +5195,13 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C99">
         <v>2009</v>
       </c>
       <c r="D99" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -4010,13 +5210,13 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C100">
         <v>1989</v>
       </c>
       <c r="D100" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -4031,7 +5231,7 @@
         <v>1967</v>
       </c>
       <c r="D101" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -4046,7 +5246,7 @@
         <v>1957</v>
       </c>
       <c r="D102" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -4055,13 +5255,13 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C103">
         <v>1963</v>
       </c>
       <c r="D103" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -4070,13 +5270,13 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C104">
         <v>1991</v>
       </c>
       <c r="D104" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -4085,13 +5285,13 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C105">
         <v>2019</v>
       </c>
       <c r="D105" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -4100,13 +5300,13 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C106">
         <v>2007</v>
       </c>
       <c r="D106" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -4115,13 +5315,13 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C107">
         <v>1969</v>
       </c>
       <c r="D107" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -4130,13 +5330,13 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C108">
         <v>1993</v>
       </c>
       <c r="D108" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -4145,13 +5345,13 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C109">
         <v>1963</v>
       </c>
       <c r="D109" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -4160,13 +5360,13 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C110">
         <v>1994</v>
       </c>
       <c r="D110" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -4175,13 +5375,13 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C111">
         <v>1983</v>
       </c>
       <c r="D111" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -4190,13 +5390,13 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C112">
         <v>2017</v>
       </c>
       <c r="D112" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -4205,13 +5405,13 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C113">
         <v>1996</v>
       </c>
       <c r="D113" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -4220,13 +5420,13 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C114">
         <v>2013</v>
       </c>
       <c r="D114" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -4235,13 +5435,13 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C115">
         <v>2012</v>
       </c>
       <c r="D115" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -4250,13 +5450,13 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C116">
         <v>2003</v>
       </c>
       <c r="D116" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -4265,13 +5465,13 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C117">
         <v>2023</v>
       </c>
       <c r="D117" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -4280,13 +5480,13 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C118">
         <v>2019</v>
       </c>
       <c r="D118" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -4295,13 +5495,13 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C119">
         <v>2018</v>
       </c>
       <c r="D119" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -4310,13 +5510,13 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C120">
         <v>2017</v>
       </c>
       <c r="D120" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -4325,13 +5525,13 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C121">
         <v>2023</v>
       </c>
       <c r="D121" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -4340,13 +5540,13 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C122">
         <v>2013</v>
       </c>
       <c r="D122" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -4355,13 +5555,13 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C123">
         <v>2002</v>
       </c>
       <c r="D123" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -4370,13 +5570,13 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C124">
         <v>2013</v>
       </c>
       <c r="D124" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -4385,13 +5585,13 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C125">
         <v>2019</v>
       </c>
       <c r="D125" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -4400,13 +5600,13 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C126">
         <v>1993</v>
       </c>
       <c r="D126" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -4415,13 +5615,13 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C127">
         <v>2012</v>
       </c>
       <c r="D127" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -4430,13 +5630,13 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C128">
         <v>2018</v>
       </c>
       <c r="D128" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -4445,13 +5645,13 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C129">
         <v>2010</v>
       </c>
       <c r="D129" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -4460,13 +5660,13 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C130">
         <v>2004</v>
       </c>
       <c r="D130" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -4475,13 +5675,13 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C131">
         <v>2022</v>
       </c>
       <c r="D131" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -4490,13 +5690,13 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C132">
         <v>2010</v>
       </c>
       <c r="D132" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -4511,7 +5711,7 @@
         <v>2010</v>
       </c>
       <c r="D133" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -4520,13 +5720,13 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C134">
         <v>2010</v>
       </c>
       <c r="D134" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -4535,13 +5735,13 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C135">
         <v>1996</v>
       </c>
       <c r="D135" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -4550,13 +5750,13 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C136">
         <v>2016</v>
       </c>
       <c r="D136" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -4565,13 +5765,13 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C137">
         <v>2016</v>
       </c>
       <c r="D137" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -4580,13 +5780,13 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C138">
         <v>2004</v>
       </c>
       <c r="D138" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -4595,13 +5795,13 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C139">
         <v>2006</v>
       </c>
       <c r="D139" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
@@ -4610,13 +5810,13 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C140">
         <v>2005</v>
       </c>
       <c r="D140" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -4625,13 +5825,13 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C141">
         <v>2004</v>
       </c>
       <c r="D141" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -4640,13 +5840,13 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C142">
         <v>2004</v>
       </c>
       <c r="D142" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -4655,13 +5855,13 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C143">
         <v>1967</v>
       </c>
       <c r="D143" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -4670,13 +5870,13 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C144">
         <v>1965</v>
       </c>
       <c r="D144" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -4685,13 +5885,13 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C145">
         <v>1992</v>
       </c>
       <c r="D145" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -4700,13 +5900,13 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C146">
         <v>2021</v>
       </c>
       <c r="D146" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -4715,13 +5915,13 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C147">
         <v>2005</v>
       </c>
       <c r="D147" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -4730,13 +5930,13 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C148">
         <v>2022</v>
       </c>
       <c r="D148" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -4745,13 +5945,13 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C149">
         <v>2017</v>
       </c>
       <c r="D149" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -4760,13 +5960,13 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C150">
         <v>2021</v>
       </c>
       <c r="D150" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
@@ -4775,13 +5975,13 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C151">
         <v>2010</v>
       </c>
       <c r="D151" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -4790,13 +5990,13 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C152">
         <v>2014</v>
       </c>
       <c r="D152" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -4805,13 +6005,13 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C153">
         <v>2020</v>
       </c>
       <c r="D153" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -4820,13 +6020,13 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C154">
         <v>2006</v>
       </c>
       <c r="D154" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -4835,13 +6035,13 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C155">
         <v>1998</v>
       </c>
       <c r="D155" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -4850,13 +6050,13 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C156">
         <v>2009</v>
       </c>
       <c r="D156" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -4865,13 +6065,13 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C157">
         <v>2007</v>
       </c>
       <c r="D157" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -4880,13 +6080,13 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C158">
         <v>2020</v>
       </c>
       <c r="D158" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -4895,13 +6095,13 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C159">
         <v>2023</v>
       </c>
       <c r="D159" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
@@ -4910,13 +6110,13 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C160">
         <v>2016</v>
       </c>
       <c r="D160" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -4925,13 +6125,13 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C161">
         <v>1966</v>
       </c>
       <c r="D161" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
@@ -4940,13 +6140,13 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C162">
         <v>2000</v>
       </c>
       <c r="D162" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
@@ -4955,13 +6155,13 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C163">
         <v>1969</v>
       </c>
       <c r="D163" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
@@ -4970,13 +6170,13 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C164">
         <v>2018</v>
       </c>
       <c r="D164" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
@@ -4985,13 +6185,13 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C165">
         <v>1963</v>
       </c>
       <c r="D165" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
@@ -5000,13 +6200,13 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C166">
         <v>1971</v>
       </c>
       <c r="D166" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -5015,13 +6215,13 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C167">
         <v>2015</v>
       </c>
       <c r="D167" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
@@ -5030,13 +6230,13 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C168">
         <v>2017</v>
       </c>
       <c r="D168" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
@@ -5045,13 +6245,13 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C169">
         <v>2012</v>
       </c>
       <c r="D169" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
@@ -5060,13 +6260,13 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C170">
         <v>1963</v>
       </c>
       <c r="D170" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
@@ -5075,13 +6275,13 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C171">
         <v>2010</v>
       </c>
       <c r="D171" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -5090,13 +6290,13 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C172">
         <v>2007</v>
       </c>
       <c r="D172" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
@@ -5105,13 +6305,13 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C173">
         <v>2023</v>
       </c>
       <c r="D173" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
@@ -5120,13 +6320,13 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C174">
         <v>2018</v>
       </c>
       <c r="D174" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
@@ -5135,13 +6335,13 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C175">
         <v>1997</v>
       </c>
       <c r="D175" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
@@ -5150,13 +6350,13 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C176">
         <v>2007</v>
       </c>
       <c r="D176" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
@@ -5165,13 +6365,13 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C177">
         <v>1972</v>
       </c>
       <c r="D177" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
@@ -5180,13 +6380,13 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C178">
         <v>2014</v>
       </c>
       <c r="D178" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
@@ -5195,13 +6395,13 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C179">
         <v>2022</v>
       </c>
       <c r="D179" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
@@ -5210,13 +6410,13 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C180">
         <v>2018</v>
       </c>
       <c r="D180" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
@@ -5225,13 +6425,13 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C181">
         <v>1973</v>
       </c>
       <c r="D181" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
@@ -5240,13 +6440,13 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C182">
         <v>2001</v>
       </c>
       <c r="D182" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
@@ -5255,13 +6455,13 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C183">
         <v>1977</v>
       </c>
       <c r="D183" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
@@ -5270,13 +6470,13 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C184">
         <v>2005</v>
       </c>
       <c r="D184" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
@@ -5285,13 +6485,13 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C185">
         <v>2018</v>
       </c>
       <c r="D185" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
@@ -5300,13 +6500,13 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C186">
         <v>2013</v>
       </c>
       <c r="D186" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
@@ -5315,13 +6515,13 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C187">
         <v>1967</v>
       </c>
       <c r="D187" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
@@ -5330,13 +6530,13 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C188">
         <v>2022</v>
       </c>
       <c r="D188" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
@@ -5345,13 +6545,13 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C189">
         <v>2009</v>
       </c>
       <c r="D189" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
@@ -5360,13 +6560,13 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C190">
         <v>2019</v>
       </c>
       <c r="D190" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
@@ -5375,13 +6575,13 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C191">
         <v>2021</v>
       </c>
       <c r="D191" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
@@ -5396,7 +6596,7 @@
         <v>2017</v>
       </c>
       <c r="D192" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
@@ -5405,13 +6605,13 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C193">
         <v>2022</v>
       </c>
       <c r="D193" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
@@ -5420,13 +6620,13 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C194">
         <v>1995</v>
       </c>
       <c r="D194" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
@@ -5435,13 +6635,13 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C195">
         <v>2016</v>
       </c>
       <c r="D195" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
@@ -5450,13 +6650,13 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C196">
         <v>2020</v>
       </c>
       <c r="D196" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
@@ -5471,7 +6671,7 @@
         <v>1978</v>
       </c>
       <c r="D197" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
@@ -5480,13 +6680,13 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C198">
         <v>2020</v>
       </c>
       <c r="D198" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
@@ -5495,13 +6695,13 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C199">
         <v>2014</v>
       </c>
       <c r="D199" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
@@ -5510,13 +6710,13 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C200">
         <v>2012</v>
       </c>
       <c r="D200" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
@@ -5525,13 +6725,13 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C201">
         <v>2021</v>
       </c>
       <c r="D201" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
@@ -5540,13 +6740,13 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C202">
         <v>2019</v>
       </c>
       <c r="D202" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
@@ -5555,13 +6755,13 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C203">
         <v>2000</v>
       </c>
       <c r="D203" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
@@ -5570,13 +6770,13 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C204">
         <v>2013</v>
       </c>
       <c r="D204" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
@@ -5585,13 +6785,13 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C205">
         <v>2018</v>
       </c>
       <c r="D205" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
@@ -5600,13 +6800,13 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C206">
         <v>2017</v>
       </c>
       <c r="D206" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
@@ -5615,13 +6815,13 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C207">
         <v>2009</v>
       </c>
       <c r="D207" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
@@ -5630,13 +6830,13 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C208">
         <v>2020</v>
       </c>
       <c r="D208" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
@@ -5645,13 +6845,13 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C209">
         <v>2009</v>
       </c>
       <c r="D209" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
@@ -5660,13 +6860,13 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C210">
         <v>2020</v>
       </c>
       <c r="D210" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
@@ -5675,13 +6875,13 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C211">
         <v>2007</v>
       </c>
       <c r="D211" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
@@ -5690,13 +6890,13 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C212">
         <v>2001</v>
       </c>
       <c r="D212" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
@@ -5705,13 +6905,13 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C213">
         <v>2020</v>
       </c>
       <c r="D213" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
@@ -5720,13 +6920,13 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C214">
         <v>2016</v>
       </c>
       <c r="D214" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
@@ -5735,13 +6935,13 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C215">
         <v>2007</v>
       </c>
       <c r="D215" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
@@ -5750,13 +6950,13 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C216">
         <v>2010</v>
       </c>
       <c r="D216" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
@@ -5765,13 +6965,13 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C217">
         <v>2013</v>
       </c>
       <c r="D217" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
@@ -5780,13 +6980,13 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C218">
         <v>2015</v>
       </c>
       <c r="D218" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
@@ -5795,13 +6995,13 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C219">
         <v>2003</v>
       </c>
       <c r="D219" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
@@ -5810,13 +7010,13 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C220">
         <v>2017</v>
       </c>
       <c r="D220" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
@@ -5825,13 +7025,13 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C221">
         <v>2011</v>
       </c>
       <c r="D221" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
@@ -5840,13 +7040,13 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C222">
         <v>2018</v>
       </c>
       <c r="D222" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
@@ -5855,13 +7055,13 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C223">
         <v>2014</v>
       </c>
       <c r="D223" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
@@ -5870,13 +7070,13 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C224">
         <v>2007</v>
       </c>
       <c r="D224" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
@@ -5885,13 +7085,13 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C225">
         <v>2005</v>
       </c>
       <c r="D225" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
@@ -5900,13 +7100,13 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C226">
         <v>2016</v>
       </c>
       <c r="D226" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
@@ -5915,13 +7115,13 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C227">
         <v>2014</v>
       </c>
       <c r="D227" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
@@ -5930,13 +7130,13 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C228">
         <v>2021</v>
       </c>
       <c r="D228" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
@@ -5945,13 +7145,13 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C229">
         <v>2023</v>
       </c>
       <c r="D229" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
@@ -5960,13 +7160,13 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C230">
         <v>1971</v>
       </c>
       <c r="D230" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
@@ -5975,13 +7175,13 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C231">
         <v>2015</v>
       </c>
       <c r="D231" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
@@ -5990,13 +7190,13 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C232">
         <v>2012</v>
       </c>
       <c r="D232" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
@@ -6005,13 +7205,13 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C233">
         <v>2012</v>
       </c>
       <c r="D233" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
@@ -6020,13 +7220,13 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C234">
         <v>2016</v>
       </c>
       <c r="D234" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
@@ -6035,13 +7235,13 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C235">
         <v>2015</v>
       </c>
       <c r="D235" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
@@ -6050,13 +7250,13 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C236">
         <v>2022</v>
       </c>
       <c r="D236" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
@@ -6065,13 +7265,13 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C237">
         <v>2018</v>
       </c>
       <c r="D237" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
@@ -6080,13 +7280,13 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C238">
         <v>2020</v>
       </c>
       <c r="D238" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
@@ -6095,13 +7295,13 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C239">
         <v>2023</v>
       </c>
       <c r="D239" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
@@ -6110,13 +7310,13 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C240">
         <v>2020</v>
       </c>
       <c r="D240" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
@@ -6125,13 +7325,13 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C241">
         <v>2008</v>
       </c>
       <c r="D241" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
@@ -6140,13 +7340,13 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C242">
         <v>2006</v>
       </c>
       <c r="D242" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>

--- a/Samochody.xlsx
+++ b/Samochody.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NASA\PracaInz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7973468-50E2-4F24-81E2-93EC8589CCFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9260C0D9-36D7-410D-BB35-460342D9BBCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1103,8 +1103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T242"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="H61" sqref="H61"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="J75" sqref="J75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4543,6 +4543,54 @@
       <c r="D55" t="s">
         <v>241</v>
       </c>
+      <c r="E55">
+        <v>3.6</v>
+      </c>
+      <c r="F55">
+        <v>6</v>
+      </c>
+      <c r="G55">
+        <v>320</v>
+      </c>
+      <c r="H55">
+        <v>4</v>
+      </c>
+      <c r="I55">
+        <v>2</v>
+      </c>
+      <c r="J55">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="K55">
+        <v>280</v>
+      </c>
+      <c r="L55">
+        <v>370</v>
+      </c>
+      <c r="M55">
+        <v>1495</v>
+      </c>
+      <c r="N55">
+        <v>100</v>
+      </c>
+      <c r="O55">
+        <v>64</v>
+      </c>
+      <c r="P55">
+        <v>444</v>
+      </c>
+      <c r="Q55">
+        <v>183</v>
+      </c>
+      <c r="R55">
+        <v>130</v>
+      </c>
+      <c r="S55">
+        <v>235</v>
+      </c>
+      <c r="T55">
+        <v>6</v>
+      </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56">
@@ -4558,6 +4606,54 @@
       <c r="D56" t="s">
         <v>244</v>
       </c>
+      <c r="E56">
+        <v>2</v>
+      </c>
+      <c r="F56">
+        <v>4</v>
+      </c>
+      <c r="G56">
+        <v>280</v>
+      </c>
+      <c r="H56">
+        <v>5</v>
+      </c>
+      <c r="I56">
+        <v>4</v>
+      </c>
+      <c r="J56">
+        <v>6.1</v>
+      </c>
+      <c r="K56">
+        <v>250</v>
+      </c>
+      <c r="L56">
+        <v>383</v>
+      </c>
+      <c r="M56">
+        <v>1380</v>
+      </c>
+      <c r="N56">
+        <v>430</v>
+      </c>
+      <c r="O56">
+        <v>55</v>
+      </c>
+      <c r="P56">
+        <v>446</v>
+      </c>
+      <c r="Q56">
+        <v>177</v>
+      </c>
+      <c r="R56">
+        <v>145</v>
+      </c>
+      <c r="S56">
+        <v>263</v>
+      </c>
+      <c r="T56">
+        <v>5</v>
+      </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57">
@@ -4573,6 +4669,54 @@
       <c r="D57" t="s">
         <v>244</v>
       </c>
+      <c r="E57">
+        <v>3.2</v>
+      </c>
+      <c r="F57">
+        <v>6</v>
+      </c>
+      <c r="G57">
+        <v>250</v>
+      </c>
+      <c r="H57">
+        <v>4</v>
+      </c>
+      <c r="I57">
+        <v>2</v>
+      </c>
+      <c r="J57">
+        <v>5.9</v>
+      </c>
+      <c r="K57">
+        <v>250</v>
+      </c>
+      <c r="L57">
+        <v>320</v>
+      </c>
+      <c r="M57">
+        <v>1410</v>
+      </c>
+      <c r="N57">
+        <v>290</v>
+      </c>
+      <c r="O57">
+        <v>60</v>
+      </c>
+      <c r="P57">
+        <v>418</v>
+      </c>
+      <c r="Q57">
+        <v>184</v>
+      </c>
+      <c r="R57">
+        <v>135</v>
+      </c>
+      <c r="S57">
+        <v>247</v>
+      </c>
+      <c r="T57">
+        <v>6</v>
+      </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58">
@@ -4588,6 +4732,54 @@
       <c r="D58" t="s">
         <v>241</v>
       </c>
+      <c r="E58">
+        <v>4</v>
+      </c>
+      <c r="F58">
+        <v>8</v>
+      </c>
+      <c r="G58">
+        <v>620</v>
+      </c>
+      <c r="H58">
+        <v>4</v>
+      </c>
+      <c r="I58">
+        <v>2</v>
+      </c>
+      <c r="J58">
+        <v>3.1</v>
+      </c>
+      <c r="K58">
+        <v>326</v>
+      </c>
+      <c r="L58">
+        <v>630</v>
+      </c>
+      <c r="M58">
+        <v>1530</v>
+      </c>
+      <c r="N58">
+        <v>150</v>
+      </c>
+      <c r="O58">
+        <v>72</v>
+      </c>
+      <c r="P58">
+        <v>468</v>
+      </c>
+      <c r="Q58">
+        <v>210</v>
+      </c>
+      <c r="R58">
+        <v>121</v>
+      </c>
+      <c r="S58">
+        <v>268</v>
+      </c>
+      <c r="T58">
+        <v>7</v>
+      </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59">
@@ -4603,6 +4795,54 @@
       <c r="D59" t="s">
         <v>241</v>
       </c>
+      <c r="E59">
+        <v>5.2</v>
+      </c>
+      <c r="F59">
+        <v>8</v>
+      </c>
+      <c r="G59">
+        <v>560</v>
+      </c>
+      <c r="H59">
+        <v>2</v>
+      </c>
+      <c r="I59">
+        <v>2</v>
+      </c>
+      <c r="J59">
+        <v>3.6</v>
+      </c>
+      <c r="K59">
+        <v>320</v>
+      </c>
+      <c r="L59">
+        <v>540</v>
+      </c>
+      <c r="M59">
+        <v>1525</v>
+      </c>
+      <c r="N59">
+        <v>100</v>
+      </c>
+      <c r="O59">
+        <v>90</v>
+      </c>
+      <c r="P59">
+        <v>443</v>
+      </c>
+      <c r="Q59">
+        <v>193</v>
+      </c>
+      <c r="R59">
+        <v>125</v>
+      </c>
+      <c r="S59">
+        <v>265</v>
+      </c>
+      <c r="T59">
+        <v>6</v>
+      </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60">
@@ -4613,10 +4853,58 @@
         <v>62</v>
       </c>
       <c r="C60">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D60" t="s">
         <v>243</v>
+      </c>
+      <c r="E60">
+        <v>1.6</v>
+      </c>
+      <c r="F60">
+        <v>4</v>
+      </c>
+      <c r="G60">
+        <v>200</v>
+      </c>
+      <c r="H60">
+        <v>5</v>
+      </c>
+      <c r="I60">
+        <v>5</v>
+      </c>
+      <c r="J60">
+        <v>6.7</v>
+      </c>
+      <c r="K60">
+        <v>230</v>
+      </c>
+      <c r="L60">
+        <v>260</v>
+      </c>
+      <c r="M60">
+        <v>1204</v>
+      </c>
+      <c r="N60">
+        <v>300</v>
+      </c>
+      <c r="O60">
+        <v>45</v>
+      </c>
+      <c r="P60">
+        <v>406</v>
+      </c>
+      <c r="Q60">
+        <v>173</v>
+      </c>
+      <c r="R60">
+        <v>145</v>
+      </c>
+      <c r="S60">
+        <v>259</v>
+      </c>
+      <c r="T60">
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
@@ -4633,6 +4921,54 @@
       <c r="D61" t="s">
         <v>245</v>
       </c>
+      <c r="E61">
+        <v>2.5</v>
+      </c>
+      <c r="F61">
+        <v>5</v>
+      </c>
+      <c r="G61">
+        <v>230</v>
+      </c>
+      <c r="H61">
+        <v>4</v>
+      </c>
+      <c r="I61">
+        <v>2</v>
+      </c>
+      <c r="J61">
+        <v>7.6</v>
+      </c>
+      <c r="K61">
+        <v>240</v>
+      </c>
+      <c r="L61">
+        <v>320</v>
+      </c>
+      <c r="M61">
+        <v>1651</v>
+      </c>
+      <c r="N61">
+        <v>200</v>
+      </c>
+      <c r="O61">
+        <v>62</v>
+      </c>
+      <c r="P61">
+        <v>458</v>
+      </c>
+      <c r="Q61">
+        <v>177</v>
+      </c>
+      <c r="R61">
+        <v>140</v>
+      </c>
+      <c r="S61">
+        <v>264</v>
+      </c>
+      <c r="T61">
+        <v>6</v>
+      </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62">
@@ -4648,6 +4984,54 @@
       <c r="D62" t="s">
         <v>244</v>
       </c>
+      <c r="E62">
+        <v>2</v>
+      </c>
+      <c r="F62">
+        <v>4</v>
+      </c>
+      <c r="G62">
+        <v>200</v>
+      </c>
+      <c r="H62">
+        <v>2</v>
+      </c>
+      <c r="I62">
+        <v>2</v>
+      </c>
+      <c r="J62">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="K62">
+        <v>243</v>
+      </c>
+      <c r="L62">
+        <v>262</v>
+      </c>
+      <c r="M62">
+        <v>930</v>
+      </c>
+      <c r="N62">
+        <v>206</v>
+      </c>
+      <c r="O62">
+        <v>36</v>
+      </c>
+      <c r="P62">
+        <v>379</v>
+      </c>
+      <c r="Q62">
+        <v>171</v>
+      </c>
+      <c r="R62">
+        <v>112</v>
+      </c>
+      <c r="S62">
+        <v>233</v>
+      </c>
+      <c r="T62">
+        <v>5</v>
+      </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63">
@@ -4663,6 +5047,54 @@
       <c r="D63" t="s">
         <v>244</v>
       </c>
+      <c r="E63">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F63">
+        <v>5</v>
+      </c>
+      <c r="G63">
+        <v>170</v>
+      </c>
+      <c r="H63">
+        <v>5</v>
+      </c>
+      <c r="I63">
+        <v>5</v>
+      </c>
+      <c r="J63">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="K63">
+        <v>224</v>
+      </c>
+      <c r="L63">
+        <v>220</v>
+      </c>
+      <c r="M63">
+        <v>1249</v>
+      </c>
+      <c r="N63">
+        <v>330</v>
+      </c>
+      <c r="O63">
+        <v>55</v>
+      </c>
+      <c r="P63">
+        <v>415</v>
+      </c>
+      <c r="Q63">
+        <v>174</v>
+      </c>
+      <c r="R63">
+        <v>144</v>
+      </c>
+      <c r="S63">
+        <v>251</v>
+      </c>
+      <c r="T63">
+        <v>5</v>
+      </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64">
@@ -4678,8 +5110,56 @@
       <c r="D64" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E64">
+        <v>1.8</v>
+      </c>
+      <c r="F64">
+        <v>4</v>
+      </c>
+      <c r="G64">
+        <v>190</v>
+      </c>
+      <c r="H64">
+        <v>4</v>
+      </c>
+      <c r="I64">
+        <v>2</v>
+      </c>
+      <c r="J64">
+        <v>7.4</v>
+      </c>
+      <c r="K64">
+        <v>234</v>
+      </c>
+      <c r="L64">
+        <v>240</v>
+      </c>
+      <c r="M64">
+        <v>1280</v>
+      </c>
+      <c r="N64">
+        <v>270</v>
+      </c>
+      <c r="O64">
+        <v>55</v>
+      </c>
+      <c r="P64">
+        <v>404</v>
+      </c>
+      <c r="Q64">
+        <v>176</v>
+      </c>
+      <c r="R64">
+        <v>135</v>
+      </c>
+      <c r="S64">
+        <v>242</v>
+      </c>
+      <c r="T64">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -4693,8 +5173,56 @@
       <c r="D65" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E65">
+        <v>6.6</v>
+      </c>
+      <c r="F65">
+        <v>8</v>
+      </c>
+      <c r="G65">
+        <v>269</v>
+      </c>
+      <c r="H65">
+        <v>4</v>
+      </c>
+      <c r="I65">
+        <v>2</v>
+      </c>
+      <c r="J65">
+        <v>7</v>
+      </c>
+      <c r="K65">
+        <v>182</v>
+      </c>
+      <c r="L65">
+        <v>538</v>
+      </c>
+      <c r="M65">
+        <v>1397</v>
+      </c>
+      <c r="N65">
+        <v>467</v>
+      </c>
+      <c r="O65">
+        <v>81</v>
+      </c>
+      <c r="P65">
+        <v>510</v>
+      </c>
+      <c r="Q65">
+        <v>190</v>
+      </c>
+      <c r="R65">
+        <v>133</v>
+      </c>
+      <c r="S65">
+        <v>284</v>
+      </c>
+      <c r="T65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -4708,8 +5236,56 @@
       <c r="D66" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E66">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F66">
+        <v>8</v>
+      </c>
+      <c r="G66">
+        <v>263</v>
+      </c>
+      <c r="H66">
+        <v>4</v>
+      </c>
+      <c r="I66">
+        <v>2</v>
+      </c>
+      <c r="J66">
+        <v>5.5</v>
+      </c>
+      <c r="K66">
+        <v>222</v>
+      </c>
+      <c r="L66">
+        <v>302</v>
+      </c>
+      <c r="M66">
+        <v>1530</v>
+      </c>
+      <c r="N66">
+        <v>310</v>
+      </c>
+      <c r="O66">
+        <v>59</v>
+      </c>
+      <c r="P66">
+        <v>466</v>
+      </c>
+      <c r="Q66">
+        <v>186</v>
+      </c>
+      <c r="R66">
+        <v>136</v>
+      </c>
+      <c r="S66">
+        <v>257</v>
+      </c>
+      <c r="T66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -4723,8 +5299,56 @@
       <c r="D67" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E67">
+        <v>1.6</v>
+      </c>
+      <c r="F67">
+        <v>4</v>
+      </c>
+      <c r="G67">
+        <v>110</v>
+      </c>
+      <c r="H67">
+        <v>5</v>
+      </c>
+      <c r="I67">
+        <v>5</v>
+      </c>
+      <c r="J67">
+        <v>9</v>
+      </c>
+      <c r="K67">
+        <v>180</v>
+      </c>
+      <c r="L67">
+        <v>140</v>
+      </c>
+      <c r="M67">
+        <v>830</v>
+      </c>
+      <c r="N67">
+        <v>368</v>
+      </c>
+      <c r="O67">
+        <v>40</v>
+      </c>
+      <c r="P67">
+        <v>372</v>
+      </c>
+      <c r="Q67">
+        <v>161</v>
+      </c>
+      <c r="R67">
+        <v>141</v>
+      </c>
+      <c r="S67">
+        <v>240</v>
+      </c>
+      <c r="T67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68">
         <f t="shared" ref="A68:A131" si="1">A67+1</f>
         <v>67</v>
@@ -4738,8 +5362,56 @@
       <c r="D68" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E68">
+        <v>1.8</v>
+      </c>
+      <c r="F68">
+        <v>4</v>
+      </c>
+      <c r="G68">
+        <v>140</v>
+      </c>
+      <c r="H68">
+        <v>2</v>
+      </c>
+      <c r="I68">
+        <v>2</v>
+      </c>
+      <c r="J68">
+        <v>7.9</v>
+      </c>
+      <c r="K68">
+        <v>210</v>
+      </c>
+      <c r="L68">
+        <v>172</v>
+      </c>
+      <c r="M68">
+        <v>1050</v>
+      </c>
+      <c r="N68">
+        <v>90</v>
+      </c>
+      <c r="O68">
+        <v>48</v>
+      </c>
+      <c r="P68">
+        <v>389</v>
+      </c>
+      <c r="Q68">
+        <v>170</v>
+      </c>
+      <c r="R68">
+        <v>124</v>
+      </c>
+      <c r="S68">
+        <v>245</v>
+      </c>
+      <c r="T68">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -4753,8 +5425,56 @@
       <c r="D69" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E69">
+        <v>3.5</v>
+      </c>
+      <c r="F69">
+        <v>6</v>
+      </c>
+      <c r="G69">
+        <v>272</v>
+      </c>
+      <c r="H69">
+        <v>2</v>
+      </c>
+      <c r="I69">
+        <v>2</v>
+      </c>
+      <c r="J69">
+        <v>5.6</v>
+      </c>
+      <c r="K69">
+        <v>250</v>
+      </c>
+      <c r="L69">
+        <v>350</v>
+      </c>
+      <c r="M69">
+        <v>1390</v>
+      </c>
+      <c r="N69">
+        <v>208</v>
+      </c>
+      <c r="O69">
+        <v>70</v>
+      </c>
+      <c r="P69">
+        <v>409</v>
+      </c>
+      <c r="Q69">
+        <v>179</v>
+      </c>
+      <c r="R69">
+        <v>130</v>
+      </c>
+      <c r="S69">
+        <v>243</v>
+      </c>
+      <c r="T69">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -4768,8 +5488,56 @@
       <c r="D70" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E70">
+        <v>4.2</v>
+      </c>
+      <c r="F70">
+        <v>8</v>
+      </c>
+      <c r="G70">
+        <v>405</v>
+      </c>
+      <c r="H70">
+        <v>2</v>
+      </c>
+      <c r="I70">
+        <v>2</v>
+      </c>
+      <c r="J70">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="K70">
+        <v>250</v>
+      </c>
+      <c r="L70">
+        <v>522</v>
+      </c>
+      <c r="M70">
+        <v>1769</v>
+      </c>
+      <c r="N70">
+        <v>329</v>
+      </c>
+      <c r="O70">
+        <v>68</v>
+      </c>
+      <c r="P70">
+        <v>428</v>
+      </c>
+      <c r="Q70">
+        <v>183</v>
+      </c>
+      <c r="R70">
+        <v>125</v>
+      </c>
+      <c r="S70">
+        <v>276</v>
+      </c>
+      <c r="T70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -4784,7 +5552,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -4799,7 +5567,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -4814,7 +5582,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -4829,7 +5597,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -4844,7 +5612,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -4859,7 +5627,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -4874,7 +5642,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -4889,7 +5657,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -4904,7 +5672,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80">
         <f t="shared" si="1"/>
         <v>79</v>

--- a/Samochody.xlsx
+++ b/Samochody.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NASA\PracaInz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9260C0D9-36D7-410D-BB35-460342D9BBCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F585C7-53B7-4D37-B5CB-199E63EB4391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1103,8 +1103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T242"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="J75" sqref="J75"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5551,6 +5551,54 @@
       <c r="D71" t="s">
         <v>241</v>
       </c>
+      <c r="E71">
+        <v>5.7</v>
+      </c>
+      <c r="F71">
+        <v>8</v>
+      </c>
+      <c r="G71">
+        <v>350</v>
+      </c>
+      <c r="H71">
+        <v>2</v>
+      </c>
+      <c r="I71">
+        <v>2</v>
+      </c>
+      <c r="J71">
+        <v>4.7</v>
+      </c>
+      <c r="K71">
+        <v>280</v>
+      </c>
+      <c r="L71">
+        <v>475</v>
+      </c>
+      <c r="M71">
+        <v>1460</v>
+      </c>
+      <c r="N71">
+        <v>355</v>
+      </c>
+      <c r="O71">
+        <v>72</v>
+      </c>
+      <c r="P71">
+        <v>456</v>
+      </c>
+      <c r="Q71">
+        <v>187</v>
+      </c>
+      <c r="R71">
+        <v>121</v>
+      </c>
+      <c r="S71">
+        <v>266</v>
+      </c>
+      <c r="T71">
+        <v>6</v>
+      </c>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72">
@@ -5566,6 +5614,54 @@
       <c r="D72" t="s">
         <v>247</v>
       </c>
+      <c r="E72">
+        <v>7</v>
+      </c>
+      <c r="F72">
+        <v>8</v>
+      </c>
+      <c r="G72">
+        <v>345</v>
+      </c>
+      <c r="H72">
+        <v>5</v>
+      </c>
+      <c r="I72">
+        <v>2</v>
+      </c>
+      <c r="J72">
+        <v>8</v>
+      </c>
+      <c r="K72">
+        <v>185</v>
+      </c>
+      <c r="L72">
+        <v>603</v>
+      </c>
+      <c r="M72">
+        <v>1831</v>
+      </c>
+      <c r="N72">
+        <v>289</v>
+      </c>
+      <c r="O72">
+        <v>76</v>
+      </c>
+      <c r="P72">
+        <v>528</v>
+      </c>
+      <c r="Q72">
+        <v>194</v>
+      </c>
+      <c r="R72">
+        <v>135</v>
+      </c>
+      <c r="S72">
+        <v>298</v>
+      </c>
+      <c r="T72">
+        <v>3</v>
+      </c>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73">
@@ -5581,6 +5677,54 @@
       <c r="D73" t="s">
         <v>241</v>
       </c>
+      <c r="E73">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F73">
+        <v>8</v>
+      </c>
+      <c r="G73">
+        <v>333</v>
+      </c>
+      <c r="H73">
+        <v>4</v>
+      </c>
+      <c r="I73">
+        <v>2</v>
+      </c>
+      <c r="J73">
+        <v>6.1</v>
+      </c>
+      <c r="K73">
+        <v>250</v>
+      </c>
+      <c r="L73">
+        <v>450</v>
+      </c>
+      <c r="M73">
+        <v>1815</v>
+      </c>
+      <c r="N73">
+        <v>300</v>
+      </c>
+      <c r="O73">
+        <v>70</v>
+      </c>
+      <c r="P73">
+        <v>482</v>
+      </c>
+      <c r="Q73">
+        <v>186</v>
+      </c>
+      <c r="R73">
+        <v>137</v>
+      </c>
+      <c r="S73">
+        <v>278</v>
+      </c>
+      <c r="T73">
+        <v>6</v>
+      </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74">
@@ -5596,6 +5740,54 @@
       <c r="D74" t="s">
         <v>244</v>
       </c>
+      <c r="E74">
+        <v>2</v>
+      </c>
+      <c r="F74">
+        <v>4</v>
+      </c>
+      <c r="G74">
+        <v>230</v>
+      </c>
+      <c r="H74">
+        <v>5</v>
+      </c>
+      <c r="I74">
+        <v>5</v>
+      </c>
+      <c r="J74">
+        <v>6.4</v>
+      </c>
+      <c r="K74">
+        <v>250</v>
+      </c>
+      <c r="L74">
+        <v>350</v>
+      </c>
+      <c r="M74">
+        <v>1289</v>
+      </c>
+      <c r="N74">
+        <v>380</v>
+      </c>
+      <c r="O74">
+        <v>50</v>
+      </c>
+      <c r="P74">
+        <v>436</v>
+      </c>
+      <c r="Q74">
+        <v>180</v>
+      </c>
+      <c r="R74">
+        <v>148</v>
+      </c>
+      <c r="S74">
+        <v>263</v>
+      </c>
+      <c r="T74">
+        <v>6</v>
+      </c>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75">
@@ -5611,6 +5803,54 @@
       <c r="D75" t="s">
         <v>241</v>
       </c>
+      <c r="E75">
+        <v>4.7</v>
+      </c>
+      <c r="F75">
+        <v>8</v>
+      </c>
+      <c r="G75">
+        <v>450</v>
+      </c>
+      <c r="H75">
+        <v>2</v>
+      </c>
+      <c r="I75">
+        <v>2</v>
+      </c>
+      <c r="J75">
+        <v>4</v>
+      </c>
+      <c r="K75">
+        <v>306</v>
+      </c>
+      <c r="L75">
+        <v>480</v>
+      </c>
+      <c r="M75">
+        <v>1585</v>
+      </c>
+      <c r="N75">
+        <v>90</v>
+      </c>
+      <c r="O75">
+        <v>88</v>
+      </c>
+      <c r="P75">
+        <v>438</v>
+      </c>
+      <c r="Q75">
+        <v>189</v>
+      </c>
+      <c r="R75">
+        <v>134</v>
+      </c>
+      <c r="S75">
+        <v>264</v>
+      </c>
+      <c r="T75">
+        <v>6</v>
+      </c>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76">
@@ -5626,6 +5866,54 @@
       <c r="D76" t="s">
         <v>241</v>
       </c>
+      <c r="E76">
+        <v>6.2</v>
+      </c>
+      <c r="F76">
+        <v>8</v>
+      </c>
+      <c r="G76">
+        <v>466</v>
+      </c>
+      <c r="H76">
+        <v>2</v>
+      </c>
+      <c r="I76">
+        <v>2</v>
+      </c>
+      <c r="J76">
+        <v>4.2</v>
+      </c>
+      <c r="K76">
+        <v>290</v>
+      </c>
+      <c r="L76">
+        <v>630</v>
+      </c>
+      <c r="M76">
+        <v>1588</v>
+      </c>
+      <c r="N76">
+        <v>287</v>
+      </c>
+      <c r="O76">
+        <v>70</v>
+      </c>
+      <c r="P76">
+        <v>451</v>
+      </c>
+      <c r="Q76">
+        <v>197</v>
+      </c>
+      <c r="R76">
+        <v>124</v>
+      </c>
+      <c r="S76">
+        <v>271</v>
+      </c>
+      <c r="T76">
+        <v>7</v>
+      </c>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77">
@@ -5641,6 +5929,54 @@
       <c r="D77" t="s">
         <v>241</v>
       </c>
+      <c r="E77">
+        <v>1.5</v>
+      </c>
+      <c r="F77">
+        <v>3</v>
+      </c>
+      <c r="G77">
+        <v>374</v>
+      </c>
+      <c r="H77">
+        <v>4</v>
+      </c>
+      <c r="I77">
+        <v>2</v>
+      </c>
+      <c r="J77">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="K77">
+        <v>255</v>
+      </c>
+      <c r="L77">
+        <v>570</v>
+      </c>
+      <c r="M77">
+        <v>1535</v>
+      </c>
+      <c r="N77">
+        <v>154</v>
+      </c>
+      <c r="O77">
+        <v>30</v>
+      </c>
+      <c r="P77">
+        <v>469</v>
+      </c>
+      <c r="Q77">
+        <v>194</v>
+      </c>
+      <c r="R77">
+        <v>129</v>
+      </c>
+      <c r="S77">
+        <v>280</v>
+      </c>
+      <c r="T77">
+        <v>6</v>
+      </c>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78">
@@ -5656,6 +5992,54 @@
       <c r="D78" t="s">
         <v>245</v>
       </c>
+      <c r="E78">
+        <v>3.2</v>
+      </c>
+      <c r="F78">
+        <v>6</v>
+      </c>
+      <c r="G78">
+        <v>265</v>
+      </c>
+      <c r="H78">
+        <v>4</v>
+      </c>
+      <c r="I78">
+        <v>2</v>
+      </c>
+      <c r="J78">
+        <v>6.4</v>
+      </c>
+      <c r="K78">
+        <v>250</v>
+      </c>
+      <c r="L78">
+        <v>330</v>
+      </c>
+      <c r="M78">
+        <v>1575</v>
+      </c>
+      <c r="N78">
+        <v>455</v>
+      </c>
+      <c r="O78">
+        <v>64</v>
+      </c>
+      <c r="P78">
+        <v>463</v>
+      </c>
+      <c r="Q78">
+        <v>185</v>
+      </c>
+      <c r="R78">
+        <v>137</v>
+      </c>
+      <c r="S78">
+        <v>275</v>
+      </c>
+      <c r="T78">
+        <v>6</v>
+      </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79">
@@ -5671,6 +6055,54 @@
       <c r="D79" t="s">
         <v>245</v>
       </c>
+      <c r="E79">
+        <v>5</v>
+      </c>
+      <c r="F79">
+        <v>8</v>
+      </c>
+      <c r="G79">
+        <v>426</v>
+      </c>
+      <c r="H79">
+        <v>4</v>
+      </c>
+      <c r="I79">
+        <v>2</v>
+      </c>
+      <c r="J79">
+        <v>4.8</v>
+      </c>
+      <c r="K79">
+        <v>260</v>
+      </c>
+      <c r="L79">
+        <v>529</v>
+      </c>
+      <c r="M79">
+        <v>1681</v>
+      </c>
+      <c r="N79">
+        <v>382</v>
+      </c>
+      <c r="O79">
+        <v>60</v>
+      </c>
+      <c r="P79">
+        <v>478</v>
+      </c>
+      <c r="Q79">
+        <v>192</v>
+      </c>
+      <c r="R79">
+        <v>138</v>
+      </c>
+      <c r="S79">
+        <v>272</v>
+      </c>
+      <c r="T79">
+        <v>6</v>
+      </c>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80">
@@ -5681,13 +6113,61 @@
         <v>77</v>
       </c>
       <c r="C80">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="D80" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E80">
+        <v>2.5</v>
+      </c>
+      <c r="F80">
+        <v>4</v>
+      </c>
+      <c r="G80">
+        <v>300</v>
+      </c>
+      <c r="H80">
+        <v>5</v>
+      </c>
+      <c r="I80">
+        <v>4</v>
+      </c>
+      <c r="J80">
+        <v>5.2</v>
+      </c>
+      <c r="K80">
+        <v>250</v>
+      </c>
+      <c r="L80">
+        <v>407</v>
+      </c>
+      <c r="M80">
+        <v>1505</v>
+      </c>
+      <c r="N80">
+        <v>445</v>
+      </c>
+      <c r="O80">
+        <v>60</v>
+      </c>
+      <c r="P80">
+        <v>458</v>
+      </c>
+      <c r="Q80">
+        <v>180</v>
+      </c>
+      <c r="R80">
+        <v>148</v>
+      </c>
+      <c r="S80">
+        <v>263</v>
+      </c>
+      <c r="T80">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -5701,8 +6181,56 @@
       <c r="D81" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E81">
+        <v>5</v>
+      </c>
+      <c r="F81">
+        <v>8</v>
+      </c>
+      <c r="G81">
+        <v>467</v>
+      </c>
+      <c r="H81">
+        <v>4</v>
+      </c>
+      <c r="I81">
+        <v>2</v>
+      </c>
+      <c r="J81">
+        <v>4.5</v>
+      </c>
+      <c r="K81">
+        <v>270</v>
+      </c>
+      <c r="L81">
+        <v>527</v>
+      </c>
+      <c r="M81">
+        <v>1795</v>
+      </c>
+      <c r="N81">
+        <v>286</v>
+      </c>
+      <c r="O81">
+        <v>66</v>
+      </c>
+      <c r="P81">
+        <v>471</v>
+      </c>
+      <c r="Q81">
+        <v>185</v>
+      </c>
+      <c r="R81">
+        <v>139</v>
+      </c>
+      <c r="S81">
+        <v>273</v>
+      </c>
+      <c r="T81">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -5716,8 +6244,56 @@
       <c r="D82" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E82">
+        <v>6.2</v>
+      </c>
+      <c r="F82">
+        <v>12</v>
+      </c>
+      <c r="G82">
+        <v>580</v>
+      </c>
+      <c r="H82">
+        <v>2</v>
+      </c>
+      <c r="I82">
+        <v>2</v>
+      </c>
+      <c r="J82">
+        <v>3.9</v>
+      </c>
+      <c r="K82">
+        <v>330</v>
+      </c>
+      <c r="L82">
+        <v>650</v>
+      </c>
+      <c r="M82">
+        <v>1650</v>
+      </c>
+      <c r="N82">
+        <v>140</v>
+      </c>
+      <c r="O82">
+        <v>100</v>
+      </c>
+      <c r="P82">
+        <v>458</v>
+      </c>
+      <c r="Q82">
+        <v>205</v>
+      </c>
+      <c r="R82">
+        <v>114</v>
+      </c>
+      <c r="S82">
+        <v>267</v>
+      </c>
+      <c r="T82">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -5731,8 +6307,56 @@
       <c r="D83" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E83">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F83">
+        <v>8</v>
+      </c>
+      <c r="G83">
+        <v>500</v>
+      </c>
+      <c r="H83">
+        <v>2</v>
+      </c>
+      <c r="I83">
+        <v>2</v>
+      </c>
+      <c r="J83">
+        <v>3.6</v>
+      </c>
+      <c r="K83">
+        <v>283</v>
+      </c>
+      <c r="L83">
+        <v>480</v>
+      </c>
+      <c r="M83">
+        <v>1150</v>
+      </c>
+      <c r="N83">
+        <v>0</v>
+      </c>
+      <c r="O83">
+        <v>55</v>
+      </c>
+      <c r="P83">
+        <v>440</v>
+      </c>
+      <c r="Q83">
+        <v>201</v>
+      </c>
+      <c r="R83">
+        <v>121</v>
+      </c>
+      <c r="S83">
+        <v>251</v>
+      </c>
+      <c r="T83">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -5746,8 +6370,56 @@
       <c r="D84" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E84">
+        <v>4</v>
+      </c>
+      <c r="F84">
+        <v>8</v>
+      </c>
+      <c r="G84">
+        <v>585</v>
+      </c>
+      <c r="H84">
+        <v>2</v>
+      </c>
+      <c r="I84">
+        <v>2</v>
+      </c>
+      <c r="J84">
+        <v>3.6</v>
+      </c>
+      <c r="K84">
+        <v>318</v>
+      </c>
+      <c r="L84">
+        <v>700</v>
+      </c>
+      <c r="M84">
+        <v>1555</v>
+      </c>
+      <c r="N84">
+        <v>175</v>
+      </c>
+      <c r="O84">
+        <v>65</v>
+      </c>
+      <c r="P84">
+        <v>455</v>
+      </c>
+      <c r="Q84">
+        <v>208</v>
+      </c>
+      <c r="R84">
+        <v>128</v>
+      </c>
+      <c r="S84">
+        <v>263</v>
+      </c>
+      <c r="T84">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -5761,8 +6433,56 @@
       <c r="D85" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E85">
+        <v>6.5</v>
+      </c>
+      <c r="F85">
+        <v>12</v>
+      </c>
+      <c r="G85">
+        <v>750</v>
+      </c>
+      <c r="H85">
+        <v>2</v>
+      </c>
+      <c r="I85">
+        <v>2</v>
+      </c>
+      <c r="J85">
+        <v>2.9</v>
+      </c>
+      <c r="K85">
+        <v>335</v>
+      </c>
+      <c r="L85">
+        <v>690</v>
+      </c>
+      <c r="M85">
+        <v>1490</v>
+      </c>
+      <c r="N85">
+        <v>60</v>
+      </c>
+      <c r="O85">
+        <v>90</v>
+      </c>
+      <c r="P85">
+        <v>502</v>
+      </c>
+      <c r="Q85">
+        <v>208</v>
+      </c>
+      <c r="R85">
+        <v>117</v>
+      </c>
+      <c r="S85">
+        <v>270</v>
+      </c>
+      <c r="T85">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -5776,8 +6496,56 @@
       <c r="D86" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E86">
+        <v>3.4</v>
+      </c>
+      <c r="F86">
+        <v>6</v>
+      </c>
+      <c r="G86">
+        <v>295</v>
+      </c>
+      <c r="H86">
+        <v>2</v>
+      </c>
+      <c r="I86">
+        <v>2</v>
+      </c>
+      <c r="J86">
+        <v>5.4</v>
+      </c>
+      <c r="K86">
+        <v>275</v>
+      </c>
+      <c r="L86">
+        <v>340</v>
+      </c>
+      <c r="M86">
+        <v>1350</v>
+      </c>
+      <c r="N86">
+        <v>260</v>
+      </c>
+      <c r="O86">
+        <v>64</v>
+      </c>
+      <c r="P86">
+        <v>434</v>
+      </c>
+      <c r="Q86">
+        <v>180</v>
+      </c>
+      <c r="R86">
+        <v>131</v>
+      </c>
+      <c r="S86">
+        <v>242</v>
+      </c>
+      <c r="T86">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -5791,8 +6559,56 @@
       <c r="D87" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E87">
+        <v>8</v>
+      </c>
+      <c r="F87">
+        <v>16</v>
+      </c>
+      <c r="G87">
+        <v>1500</v>
+      </c>
+      <c r="H87">
+        <v>2</v>
+      </c>
+      <c r="I87">
+        <v>2</v>
+      </c>
+      <c r="J87">
+        <v>2.5</v>
+      </c>
+      <c r="K87">
+        <v>420</v>
+      </c>
+      <c r="L87">
+        <v>1600</v>
+      </c>
+      <c r="M87">
+        <v>1995</v>
+      </c>
+      <c r="N87">
+        <v>37</v>
+      </c>
+      <c r="O87">
+        <v>100</v>
+      </c>
+      <c r="P87">
+        <v>454</v>
+      </c>
+      <c r="Q87">
+        <v>204</v>
+      </c>
+      <c r="R87">
+        <v>121</v>
+      </c>
+      <c r="S87">
+        <v>271</v>
+      </c>
+      <c r="T87">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -5806,8 +6622,56 @@
       <c r="D88" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E88">
+        <v>4.7</v>
+      </c>
+      <c r="F88">
+        <v>8</v>
+      </c>
+      <c r="G88">
+        <v>460</v>
+      </c>
+      <c r="H88">
+        <v>4</v>
+      </c>
+      <c r="I88">
+        <v>2</v>
+      </c>
+      <c r="J88">
+        <v>4.5</v>
+      </c>
+      <c r="K88">
+        <v>303</v>
+      </c>
+      <c r="L88">
+        <v>460</v>
+      </c>
+      <c r="M88">
+        <v>1800</v>
+      </c>
+      <c r="N88">
+        <v>260</v>
+      </c>
+      <c r="O88">
+        <v>90</v>
+      </c>
+      <c r="P88">
+        <v>493</v>
+      </c>
+      <c r="Q88">
+        <v>192</v>
+      </c>
+      <c r="R88">
+        <v>134</v>
+      </c>
+      <c r="S88">
+        <v>294</v>
+      </c>
+      <c r="T88">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A89">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -5821,8 +6685,56 @@
       <c r="D89" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E89">
+        <v>1.8</v>
+      </c>
+      <c r="F89">
+        <v>4</v>
+      </c>
+      <c r="G89">
+        <v>160</v>
+      </c>
+      <c r="H89">
+        <v>2</v>
+      </c>
+      <c r="I89">
+        <v>2</v>
+      </c>
+      <c r="J89">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="K89">
+        <v>212</v>
+      </c>
+      <c r="L89">
+        <v>175</v>
+      </c>
+      <c r="M89">
+        <v>805</v>
+      </c>
+      <c r="N89">
+        <v>115</v>
+      </c>
+      <c r="O89">
+        <v>38</v>
+      </c>
+      <c r="P89">
+        <v>379</v>
+      </c>
+      <c r="Q89">
+        <v>172</v>
+      </c>
+      <c r="R89">
+        <v>114</v>
+      </c>
+      <c r="S89">
+        <v>230</v>
+      </c>
+      <c r="T89">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A90">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -5836,8 +6748,56 @@
       <c r="D90" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E90">
+        <v>4</v>
+      </c>
+      <c r="F90">
+        <v>8</v>
+      </c>
+      <c r="G90">
+        <v>600</v>
+      </c>
+      <c r="H90">
+        <v>5</v>
+      </c>
+      <c r="I90">
+        <v>5</v>
+      </c>
+      <c r="J90">
+        <v>3.6</v>
+      </c>
+      <c r="K90">
+        <v>305</v>
+      </c>
+      <c r="L90">
+        <v>800</v>
+      </c>
+      <c r="M90">
+        <v>2065</v>
+      </c>
+      <c r="N90">
+        <v>535</v>
+      </c>
+      <c r="O90">
+        <v>73</v>
+      </c>
+      <c r="P90">
+        <v>501</v>
+      </c>
+      <c r="Q90">
+        <v>195</v>
+      </c>
+      <c r="R90">
+        <v>142</v>
+      </c>
+      <c r="S90">
+        <v>293</v>
+      </c>
+      <c r="T90">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A91">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -5851,8 +6811,56 @@
       <c r="D91" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E91">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F91">
+        <v>8</v>
+      </c>
+      <c r="G91">
+        <v>580</v>
+      </c>
+      <c r="H91">
+        <v>2</v>
+      </c>
+      <c r="I91">
+        <v>2</v>
+      </c>
+      <c r="J91">
+        <v>4.2</v>
+      </c>
+      <c r="K91">
+        <v>280</v>
+      </c>
+      <c r="L91">
+        <v>510</v>
+      </c>
+      <c r="M91">
+        <v>1300</v>
+      </c>
+      <c r="N91">
+        <v>0</v>
+      </c>
+      <c r="O91">
+        <v>120</v>
+      </c>
+      <c r="P91">
+        <v>494</v>
+      </c>
+      <c r="Q91">
+        <v>205</v>
+      </c>
+      <c r="R91">
+        <v>121</v>
+      </c>
+      <c r="S91">
+        <v>291</v>
+      </c>
+      <c r="T91">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A92">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -5866,8 +6874,56 @@
       <c r="D92" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E92">
+        <v>6</v>
+      </c>
+      <c r="F92">
+        <v>12</v>
+      </c>
+      <c r="G92">
+        <v>626</v>
+      </c>
+      <c r="H92">
+        <v>4</v>
+      </c>
+      <c r="I92">
+        <v>2</v>
+      </c>
+      <c r="J92">
+        <v>4.2</v>
+      </c>
+      <c r="K92">
+        <v>331</v>
+      </c>
+      <c r="L92">
+        <v>820</v>
+      </c>
+      <c r="M92">
+        <v>2320</v>
+      </c>
+      <c r="N92">
+        <v>358</v>
+      </c>
+      <c r="O92">
+        <v>90</v>
+      </c>
+      <c r="P92">
+        <v>481</v>
+      </c>
+      <c r="Q92">
+        <v>194</v>
+      </c>
+      <c r="R92">
+        <v>139</v>
+      </c>
+      <c r="S92">
+        <v>275</v>
+      </c>
+      <c r="T92">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A93">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -5881,8 +6937,56 @@
       <c r="D93" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E93">
+        <v>1.8</v>
+      </c>
+      <c r="F93">
+        <v>4</v>
+      </c>
+      <c r="G93">
+        <v>235</v>
+      </c>
+      <c r="H93">
+        <v>5</v>
+      </c>
+      <c r="I93">
+        <v>5</v>
+      </c>
+      <c r="J93">
+        <v>6.8</v>
+      </c>
+      <c r="K93">
+        <v>242</v>
+      </c>
+      <c r="L93">
+        <v>300</v>
+      </c>
+      <c r="M93">
+        <v>1365</v>
+      </c>
+      <c r="N93">
+        <v>350</v>
+      </c>
+      <c r="O93">
+        <v>60</v>
+      </c>
+      <c r="P93">
+        <v>435</v>
+      </c>
+      <c r="Q93">
+        <v>180</v>
+      </c>
+      <c r="R93">
+        <v>147</v>
+      </c>
+      <c r="S93">
+        <v>263</v>
+      </c>
+      <c r="T93">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A94">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -5896,8 +7000,56 @@
       <c r="D94" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E94">
+        <v>3</v>
+      </c>
+      <c r="F94">
+        <v>6</v>
+      </c>
+      <c r="G94">
+        <v>231</v>
+      </c>
+      <c r="H94">
+        <v>2</v>
+      </c>
+      <c r="I94">
+        <v>2</v>
+      </c>
+      <c r="J94">
+        <v>5.9</v>
+      </c>
+      <c r="K94">
+        <v>244</v>
+      </c>
+      <c r="L94">
+        <v>300</v>
+      </c>
+      <c r="M94">
+        <v>1365</v>
+      </c>
+      <c r="N94">
+        <v>300</v>
+      </c>
+      <c r="O94">
+        <v>55</v>
+      </c>
+      <c r="P94">
+        <v>409</v>
+      </c>
+      <c r="Q94">
+        <v>178</v>
+      </c>
+      <c r="R94">
+        <v>130</v>
+      </c>
+      <c r="S94">
+        <v>250</v>
+      </c>
+      <c r="T94">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A95">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -5911,8 +7063,56 @@
       <c r="D95" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E95">
+        <v>4.7</v>
+      </c>
+      <c r="F95">
+        <v>8</v>
+      </c>
+      <c r="G95">
+        <v>271</v>
+      </c>
+      <c r="H95">
+        <v>4</v>
+      </c>
+      <c r="I95">
+        <v>2</v>
+      </c>
+      <c r="J95">
+        <v>8.1</v>
+      </c>
+      <c r="K95">
+        <v>202</v>
+      </c>
+      <c r="L95">
+        <v>423</v>
+      </c>
+      <c r="M95">
+        <v>1116</v>
+      </c>
+      <c r="N95">
+        <v>241</v>
+      </c>
+      <c r="O95">
+        <v>60</v>
+      </c>
+      <c r="P95">
+        <v>461</v>
+      </c>
+      <c r="Q95">
+        <v>173</v>
+      </c>
+      <c r="R95">
+        <v>130</v>
+      </c>
+      <c r="S95">
+        <v>274</v>
+      </c>
+      <c r="T95">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A96">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -5926,8 +7126,56 @@
       <c r="D96" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E96">
+        <v>8.4</v>
+      </c>
+      <c r="F96">
+        <v>10</v>
+      </c>
+      <c r="G96">
+        <v>600</v>
+      </c>
+      <c r="H96">
+        <v>2</v>
+      </c>
+      <c r="I96">
+        <v>2</v>
+      </c>
+      <c r="J96">
+        <v>3.9</v>
+      </c>
+      <c r="K96">
+        <v>325</v>
+      </c>
+      <c r="L96">
+        <v>760</v>
+      </c>
+      <c r="M96">
+        <v>1560</v>
+      </c>
+      <c r="N96">
+        <v>240</v>
+      </c>
+      <c r="O96">
+        <v>70</v>
+      </c>
+      <c r="P96">
+        <v>446</v>
+      </c>
+      <c r="Q96">
+        <v>191</v>
+      </c>
+      <c r="R96">
+        <v>121</v>
+      </c>
+      <c r="S96">
+        <v>251</v>
+      </c>
+      <c r="T96">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A97">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -5941,8 +7189,56 @@
       <c r="D97" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E97">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F97">
+        <v>8</v>
+      </c>
+      <c r="G97">
+        <v>560</v>
+      </c>
+      <c r="H97">
+        <v>4</v>
+      </c>
+      <c r="I97">
+        <v>2</v>
+      </c>
+      <c r="J97">
+        <v>4.2</v>
+      </c>
+      <c r="K97">
+        <v>322</v>
+      </c>
+      <c r="L97">
+        <v>680</v>
+      </c>
+      <c r="M97">
+        <v>1850</v>
+      </c>
+      <c r="N97">
+        <v>460</v>
+      </c>
+      <c r="O97">
+        <v>80</v>
+      </c>
+      <c r="P97">
+        <v>490</v>
+      </c>
+      <c r="Q97">
+        <v>190</v>
+      </c>
+      <c r="R97">
+        <v>137</v>
+      </c>
+      <c r="S97">
+        <v>285</v>
+      </c>
+      <c r="T97">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A98">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -5956,8 +7252,56 @@
       <c r="D98" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E98">
+        <v>3.4</v>
+      </c>
+      <c r="F98">
+        <v>6</v>
+      </c>
+      <c r="G98">
+        <v>295</v>
+      </c>
+      <c r="H98">
+        <v>2</v>
+      </c>
+      <c r="I98">
+        <v>2</v>
+      </c>
+      <c r="J98">
+        <v>5.4</v>
+      </c>
+      <c r="K98">
+        <v>272</v>
+      </c>
+      <c r="L98">
+        <v>340</v>
+      </c>
+      <c r="M98">
+        <v>1355</v>
+      </c>
+      <c r="N98">
+        <v>130</v>
+      </c>
+      <c r="O98">
+        <v>64</v>
+      </c>
+      <c r="P98">
+        <v>433</v>
+      </c>
+      <c r="Q98">
+        <v>180</v>
+      </c>
+      <c r="R98">
+        <v>129</v>
+      </c>
+      <c r="S98">
+        <v>242</v>
+      </c>
+      <c r="T98">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A99">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -5971,8 +7315,56 @@
       <c r="D99" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E99">
+        <v>2</v>
+      </c>
+      <c r="F99">
+        <v>4</v>
+      </c>
+      <c r="G99">
+        <v>210</v>
+      </c>
+      <c r="H99">
+        <v>4</v>
+      </c>
+      <c r="I99">
+        <v>2</v>
+      </c>
+      <c r="J99">
+        <v>7.8</v>
+      </c>
+      <c r="K99">
+        <v>236</v>
+      </c>
+      <c r="L99">
+        <v>280</v>
+      </c>
+      <c r="M99">
+        <v>1497</v>
+      </c>
+      <c r="N99">
+        <v>205</v>
+      </c>
+      <c r="O99">
+        <v>55</v>
+      </c>
+      <c r="P99">
+        <v>441</v>
+      </c>
+      <c r="Q99">
+        <v>179</v>
+      </c>
+      <c r="R99">
+        <v>144</v>
+      </c>
+      <c r="S99">
+        <v>259</v>
+      </c>
+      <c r="T99">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A100">
         <f t="shared" si="1"/>
         <v>99</v>
@@ -5981,13 +7373,61 @@
         <v>96</v>
       </c>
       <c r="C100">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="D100" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E100">
+        <v>2.8</v>
+      </c>
+      <c r="F100">
+        <v>6</v>
+      </c>
+      <c r="G100">
+        <v>450</v>
+      </c>
+      <c r="H100">
+        <v>4</v>
+      </c>
+      <c r="I100">
+        <v>2</v>
+      </c>
+      <c r="J100">
+        <v>3.9</v>
+      </c>
+      <c r="K100">
+        <v>315</v>
+      </c>
+      <c r="L100">
+        <v>500</v>
+      </c>
+      <c r="M100">
+        <v>1450</v>
+      </c>
+      <c r="N100">
+        <v>220</v>
+      </c>
+      <c r="O100">
+        <v>84</v>
+      </c>
+      <c r="P100">
+        <v>426</v>
+      </c>
+      <c r="Q100">
+        <v>184</v>
+      </c>
+      <c r="R100">
+        <v>128</v>
+      </c>
+      <c r="S100">
+        <v>230</v>
+      </c>
+      <c r="T100">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A101">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -6001,8 +7441,56 @@
       <c r="D101" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E101">
+        <v>5.3</v>
+      </c>
+      <c r="F101">
+        <v>8</v>
+      </c>
+      <c r="G101">
+        <v>258</v>
+      </c>
+      <c r="H101">
+        <v>4</v>
+      </c>
+      <c r="I101">
+        <v>2</v>
+      </c>
+      <c r="J101">
+        <v>6.4</v>
+      </c>
+      <c r="K101">
+        <v>193</v>
+      </c>
+      <c r="L101">
+        <v>452</v>
+      </c>
+      <c r="M101">
+        <v>1474</v>
+      </c>
+      <c r="N101">
+        <v>235</v>
+      </c>
+      <c r="O101">
+        <v>70</v>
+      </c>
+      <c r="P101">
+        <v>480</v>
+      </c>
+      <c r="Q101">
+        <v>184</v>
+      </c>
+      <c r="R101">
+        <v>131</v>
+      </c>
+      <c r="S101">
+        <v>275</v>
+      </c>
+      <c r="T101">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A102">
         <f t="shared" si="1"/>
         <v>101</v>
@@ -6017,7 +7505,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A103">
         <f t="shared" si="1"/>
         <v>102</v>
@@ -6032,7 +7520,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A104">
         <f t="shared" si="1"/>
         <v>103</v>
@@ -6047,7 +7535,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A105">
         <f t="shared" si="1"/>
         <v>104</v>
@@ -6062,7 +7550,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A106">
         <f t="shared" si="1"/>
         <v>105</v>
@@ -6077,7 +7565,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A107">
         <f t="shared" si="1"/>
         <v>106</v>
@@ -6092,7 +7580,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A108">
         <f t="shared" si="1"/>
         <v>107</v>
@@ -6107,7 +7595,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A109">
         <f t="shared" si="1"/>
         <v>108</v>
@@ -6122,7 +7610,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A110">
         <f t="shared" si="1"/>
         <v>109</v>
@@ -6137,7 +7625,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A111">
         <f t="shared" si="1"/>
         <v>110</v>
@@ -6152,7 +7640,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A112">
         <f t="shared" si="1"/>
         <v>111</v>

--- a/Samochody.xlsx
+++ b/Samochody.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NASA\PracaInz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F585C7-53B7-4D37-B5CB-199E63EB4391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C341E55E-B62A-4A87-89FB-73B31B5B14FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1103,8 +1103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T242"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="J130" sqref="J130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7504,6 +7504,54 @@
       <c r="D102" t="s">
         <v>241</v>
       </c>
+      <c r="E102">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F102">
+        <v>8</v>
+      </c>
+      <c r="G102">
+        <v>274</v>
+      </c>
+      <c r="H102">
+        <v>2</v>
+      </c>
+      <c r="I102">
+        <v>2</v>
+      </c>
+      <c r="J102">
+        <v>8</v>
+      </c>
+      <c r="K102">
+        <v>190</v>
+      </c>
+      <c r="L102">
+        <v>393</v>
+      </c>
+      <c r="M102">
+        <v>1292</v>
+      </c>
+      <c r="N102">
+        <v>339</v>
+      </c>
+      <c r="O102">
+        <v>90</v>
+      </c>
+      <c r="P102">
+        <v>450</v>
+      </c>
+      <c r="Q102">
+        <v>185</v>
+      </c>
+      <c r="R102">
+        <v>132</v>
+      </c>
+      <c r="S102">
+        <v>259</v>
+      </c>
+      <c r="T102">
+        <v>4</v>
+      </c>
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A103">
@@ -7519,6 +7567,54 @@
       <c r="D103" t="s">
         <v>241</v>
       </c>
+      <c r="E103">
+        <v>3</v>
+      </c>
+      <c r="F103">
+        <v>12</v>
+      </c>
+      <c r="G103">
+        <v>300</v>
+      </c>
+      <c r="H103">
+        <v>2</v>
+      </c>
+      <c r="I103">
+        <v>2</v>
+      </c>
+      <c r="J103">
+        <v>6.2</v>
+      </c>
+      <c r="K103">
+        <v>265</v>
+      </c>
+      <c r="L103">
+        <v>343</v>
+      </c>
+      <c r="M103">
+        <v>1000</v>
+      </c>
+      <c r="N103">
+        <v>246</v>
+      </c>
+      <c r="O103">
+        <v>133</v>
+      </c>
+      <c r="P103">
+        <v>441</v>
+      </c>
+      <c r="Q103">
+        <v>168</v>
+      </c>
+      <c r="R103">
+        <v>124</v>
+      </c>
+      <c r="S103">
+        <v>240</v>
+      </c>
+      <c r="T103">
+        <v>5</v>
+      </c>
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A104">
@@ -7534,6 +7630,54 @@
       <c r="D104" t="s">
         <v>241</v>
       </c>
+      <c r="E104">
+        <v>3.4</v>
+      </c>
+      <c r="F104">
+        <v>8</v>
+      </c>
+      <c r="G104">
+        <v>300</v>
+      </c>
+      <c r="H104">
+        <v>2</v>
+      </c>
+      <c r="I104">
+        <v>2</v>
+      </c>
+      <c r="J104">
+        <v>5.6</v>
+      </c>
+      <c r="K104">
+        <v>275</v>
+      </c>
+      <c r="L104">
+        <v>324</v>
+      </c>
+      <c r="M104">
+        <v>1393</v>
+      </c>
+      <c r="N104">
+        <v>200</v>
+      </c>
+      <c r="O104">
+        <v>95</v>
+      </c>
+      <c r="P104">
+        <v>423</v>
+      </c>
+      <c r="Q104">
+        <v>189</v>
+      </c>
+      <c r="R104">
+        <v>117</v>
+      </c>
+      <c r="S104">
+        <v>245</v>
+      </c>
+      <c r="T104">
+        <v>5</v>
+      </c>
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A105">
@@ -7549,6 +7693,54 @@
       <c r="D105" t="s">
         <v>245</v>
       </c>
+      <c r="E105">
+        <v>4</v>
+      </c>
+      <c r="F105">
+        <v>8</v>
+      </c>
+      <c r="G105">
+        <v>500</v>
+      </c>
+      <c r="H105">
+        <v>2</v>
+      </c>
+      <c r="I105">
+        <v>2</v>
+      </c>
+      <c r="J105">
+        <v>2.8</v>
+      </c>
+      <c r="K105">
+        <v>300</v>
+      </c>
+      <c r="L105">
+        <v>500</v>
+      </c>
+      <c r="M105">
+        <v>1120</v>
+      </c>
+      <c r="N105">
+        <v>0</v>
+      </c>
+      <c r="O105">
+        <v>121</v>
+      </c>
+      <c r="P105">
+        <v>500</v>
+      </c>
+      <c r="Q105">
+        <v>196</v>
+      </c>
+      <c r="R105">
+        <v>114</v>
+      </c>
+      <c r="S105">
+        <v>274</v>
+      </c>
+      <c r="T105">
+        <v>6</v>
+      </c>
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A106">
@@ -7564,6 +7756,54 @@
       <c r="D106" t="s">
         <v>244</v>
       </c>
+      <c r="E106">
+        <v>2.5</v>
+      </c>
+      <c r="F106">
+        <v>5</v>
+      </c>
+      <c r="G106">
+        <v>225</v>
+      </c>
+      <c r="H106">
+        <v>5</v>
+      </c>
+      <c r="I106">
+        <v>3</v>
+      </c>
+      <c r="J106">
+        <v>6.8</v>
+      </c>
+      <c r="K106">
+        <v>241</v>
+      </c>
+      <c r="L106">
+        <v>320</v>
+      </c>
+      <c r="M106">
+        <v>1392</v>
+      </c>
+      <c r="N106">
+        <v>385</v>
+      </c>
+      <c r="O106">
+        <v>55</v>
+      </c>
+      <c r="P106">
+        <v>436</v>
+      </c>
+      <c r="Q106">
+        <v>184</v>
+      </c>
+      <c r="R106">
+        <v>145</v>
+      </c>
+      <c r="S106">
+        <v>264</v>
+      </c>
+      <c r="T106">
+        <v>6</v>
+      </c>
     </row>
     <row r="107" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A107">
@@ -7577,7 +7817,55 @@
         <v>1969</v>
       </c>
       <c r="D107" t="s">
-        <v>244</v>
+        <v>245</v>
+      </c>
+      <c r="E107">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F107">
+        <v>6</v>
+      </c>
+      <c r="G107">
+        <v>125</v>
+      </c>
+      <c r="H107">
+        <v>4</v>
+      </c>
+      <c r="I107">
+        <v>2</v>
+      </c>
+      <c r="J107">
+        <v>10</v>
+      </c>
+      <c r="K107">
+        <v>186</v>
+      </c>
+      <c r="L107">
+        <v>176</v>
+      </c>
+      <c r="M107">
+        <v>931</v>
+      </c>
+      <c r="N107">
+        <v>260</v>
+      </c>
+      <c r="O107">
+        <v>58</v>
+      </c>
+      <c r="P107">
+        <v>426</v>
+      </c>
+      <c r="Q107">
+        <v>165</v>
+      </c>
+      <c r="R107">
+        <v>128</v>
+      </c>
+      <c r="S107">
+        <v>256</v>
+      </c>
+      <c r="T107">
+        <v>4</v>
       </c>
     </row>
     <row r="108" spans="1:20" x14ac:dyDescent="0.25">
@@ -7594,6 +7882,54 @@
       <c r="D108" t="s">
         <v>241</v>
       </c>
+      <c r="E108">
+        <v>3.5</v>
+      </c>
+      <c r="F108">
+        <v>6</v>
+      </c>
+      <c r="G108">
+        <v>542</v>
+      </c>
+      <c r="H108">
+        <v>2</v>
+      </c>
+      <c r="I108">
+        <v>2</v>
+      </c>
+      <c r="J108">
+        <v>3.8</v>
+      </c>
+      <c r="K108">
+        <v>342</v>
+      </c>
+      <c r="L108">
+        <v>640</v>
+      </c>
+      <c r="M108">
+        <v>1350</v>
+      </c>
+      <c r="N108">
+        <v>110</v>
+      </c>
+      <c r="O108">
+        <v>120</v>
+      </c>
+      <c r="P108">
+        <v>493</v>
+      </c>
+      <c r="Q108">
+        <v>200</v>
+      </c>
+      <c r="R108">
+        <v>115</v>
+      </c>
+      <c r="S108">
+        <v>264</v>
+      </c>
+      <c r="T108">
+        <v>5</v>
+      </c>
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A109">
@@ -7609,6 +7945,54 @@
       <c r="D109" t="s">
         <v>245</v>
       </c>
+      <c r="E109">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F109">
+        <v>6</v>
+      </c>
+      <c r="G109">
+        <v>150</v>
+      </c>
+      <c r="H109">
+        <v>2</v>
+      </c>
+      <c r="I109">
+        <v>2</v>
+      </c>
+      <c r="J109">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="K109">
+        <v>200</v>
+      </c>
+      <c r="L109">
+        <v>196</v>
+      </c>
+      <c r="M109">
+        <v>1295</v>
+      </c>
+      <c r="N109">
+        <v>340</v>
+      </c>
+      <c r="O109">
+        <v>65</v>
+      </c>
+      <c r="P109">
+        <v>429</v>
+      </c>
+      <c r="Q109">
+        <v>176</v>
+      </c>
+      <c r="R109">
+        <v>129</v>
+      </c>
+      <c r="S109">
+        <v>240</v>
+      </c>
+      <c r="T109">
+        <v>5</v>
+      </c>
     </row>
     <row r="110" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A110">
@@ -7624,6 +8008,54 @@
       <c r="D110" t="s">
         <v>244</v>
       </c>
+      <c r="E110">
+        <v>1.6</v>
+      </c>
+      <c r="F110">
+        <v>4</v>
+      </c>
+      <c r="G110">
+        <v>160</v>
+      </c>
+      <c r="H110">
+        <v>5</v>
+      </c>
+      <c r="I110">
+        <v>3</v>
+      </c>
+      <c r="J110">
+        <v>7.3</v>
+      </c>
+      <c r="K110">
+        <v>215</v>
+      </c>
+      <c r="L110">
+        <v>150</v>
+      </c>
+      <c r="M110">
+        <v>1080</v>
+      </c>
+      <c r="N110">
+        <v>190</v>
+      </c>
+      <c r="O110">
+        <v>45</v>
+      </c>
+      <c r="P110">
+        <v>408</v>
+      </c>
+      <c r="Q110">
+        <v>170</v>
+      </c>
+      <c r="R110">
+        <v>135</v>
+      </c>
+      <c r="S110">
+        <v>257</v>
+      </c>
+      <c r="T110">
+        <v>5</v>
+      </c>
     </row>
     <row r="111" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A111">
@@ -7639,6 +8071,54 @@
       <c r="D111" t="s">
         <v>241</v>
       </c>
+      <c r="E111">
+        <v>4.8</v>
+      </c>
+      <c r="F111">
+        <v>12</v>
+      </c>
+      <c r="G111">
+        <v>375</v>
+      </c>
+      <c r="H111">
+        <v>2</v>
+      </c>
+      <c r="I111">
+        <v>2</v>
+      </c>
+      <c r="J111">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="K111">
+        <v>298</v>
+      </c>
+      <c r="L111">
+        <v>410</v>
+      </c>
+      <c r="M111">
+        <v>1480</v>
+      </c>
+      <c r="N111">
+        <v>240</v>
+      </c>
+      <c r="O111">
+        <v>120</v>
+      </c>
+      <c r="P111">
+        <v>414</v>
+      </c>
+      <c r="Q111">
+        <v>200</v>
+      </c>
+      <c r="R111">
+        <v>107</v>
+      </c>
+      <c r="S111">
+        <v>245</v>
+      </c>
+      <c r="T111">
+        <v>5</v>
+      </c>
     </row>
     <row r="112" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A112">
@@ -7654,8 +8134,56 @@
       <c r="D112" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E112">
+        <v>4</v>
+      </c>
+      <c r="F112">
+        <v>8</v>
+      </c>
+      <c r="G112">
+        <v>560</v>
+      </c>
+      <c r="H112">
+        <v>5</v>
+      </c>
+      <c r="I112">
+        <v>5</v>
+      </c>
+      <c r="J112">
+        <v>3.9</v>
+      </c>
+      <c r="K112">
+        <v>305</v>
+      </c>
+      <c r="L112">
+        <v>700</v>
+      </c>
+      <c r="M112">
+        <v>1950</v>
+      </c>
+      <c r="N112">
+        <v>565</v>
+      </c>
+      <c r="O112">
+        <v>65</v>
+      </c>
+      <c r="P112">
+        <v>498</v>
+      </c>
+      <c r="Q112">
+        <v>194</v>
+      </c>
+      <c r="R112">
+        <v>146</v>
+      </c>
+      <c r="S112">
+        <v>292</v>
+      </c>
+      <c r="T112">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A113">
         <f t="shared" si="1"/>
         <v>112</v>
@@ -7669,8 +8197,56 @@
       <c r="D113" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E113">
+        <v>4.7</v>
+      </c>
+      <c r="F113">
+        <v>12</v>
+      </c>
+      <c r="G113">
+        <v>520</v>
+      </c>
+      <c r="H113">
+        <v>2</v>
+      </c>
+      <c r="I113">
+        <v>2</v>
+      </c>
+      <c r="J113">
+        <v>3.9</v>
+      </c>
+      <c r="K113">
+        <v>325</v>
+      </c>
+      <c r="L113">
+        <v>471</v>
+      </c>
+      <c r="M113">
+        <v>1230</v>
+      </c>
+      <c r="N113">
+        <v>57</v>
+      </c>
+      <c r="O113">
+        <v>105</v>
+      </c>
+      <c r="P113">
+        <v>448</v>
+      </c>
+      <c r="Q113">
+        <v>199</v>
+      </c>
+      <c r="R113">
+        <v>112</v>
+      </c>
+      <c r="S113">
+        <v>258</v>
+      </c>
+      <c r="T113">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A114">
         <f t="shared" si="1"/>
         <v>113</v>
@@ -7684,8 +8260,56 @@
       <c r="D114" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E114">
+        <v>3.4</v>
+      </c>
+      <c r="F114">
+        <v>8</v>
+      </c>
+      <c r="G114">
+        <v>767</v>
+      </c>
+      <c r="H114">
+        <v>2</v>
+      </c>
+      <c r="I114">
+        <v>2</v>
+      </c>
+      <c r="J114">
+        <v>3</v>
+      </c>
+      <c r="K114">
+        <v>322</v>
+      </c>
+      <c r="L114">
+        <v>1280</v>
+      </c>
+      <c r="M114">
+        <v>1490</v>
+      </c>
+      <c r="N114">
+        <v>110</v>
+      </c>
+      <c r="O114">
+        <v>70</v>
+      </c>
+      <c r="P114">
+        <v>464</v>
+      </c>
+      <c r="Q114">
+        <v>194</v>
+      </c>
+      <c r="R114">
+        <v>117</v>
+      </c>
+      <c r="S114">
+        <v>273</v>
+      </c>
+      <c r="T114">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A115">
         <f t="shared" si="1"/>
         <v>114</v>
@@ -7699,8 +8323,56 @@
       <c r="D115" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E115">
+        <v>5.2</v>
+      </c>
+      <c r="F115">
+        <v>10</v>
+      </c>
+      <c r="G115">
+        <v>570</v>
+      </c>
+      <c r="H115">
+        <v>2</v>
+      </c>
+      <c r="I115">
+        <v>2</v>
+      </c>
+      <c r="J115">
+        <v>3.4</v>
+      </c>
+      <c r="K115">
+        <v>320</v>
+      </c>
+      <c r="L115">
+        <v>540</v>
+      </c>
+      <c r="M115">
+        <v>1430</v>
+      </c>
+      <c r="N115">
+        <v>110</v>
+      </c>
+      <c r="O115">
+        <v>70</v>
+      </c>
+      <c r="P115">
+        <v>439</v>
+      </c>
+      <c r="Q115">
+        <v>190</v>
+      </c>
+      <c r="R115">
+        <v>117</v>
+      </c>
+      <c r="S115">
+        <v>256</v>
+      </c>
+      <c r="T115">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A116">
         <f t="shared" si="1"/>
         <v>115</v>
@@ -7714,8 +8386,56 @@
       <c r="D116" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E116">
+        <v>2</v>
+      </c>
+      <c r="F116">
+        <v>4</v>
+      </c>
+      <c r="G116">
+        <v>240</v>
+      </c>
+      <c r="H116">
+        <v>2</v>
+      </c>
+      <c r="I116">
+        <v>2</v>
+      </c>
+      <c r="J116">
+        <v>6.2</v>
+      </c>
+      <c r="K116">
+        <v>240</v>
+      </c>
+      <c r="L116">
+        <v>208</v>
+      </c>
+      <c r="M116">
+        <v>1270</v>
+      </c>
+      <c r="N116">
+        <v>143</v>
+      </c>
+      <c r="O116">
+        <v>50</v>
+      </c>
+      <c r="P116">
+        <v>414</v>
+      </c>
+      <c r="Q116">
+        <v>175</v>
+      </c>
+      <c r="R116">
+        <v>127</v>
+      </c>
+      <c r="S116">
+        <v>240</v>
+      </c>
+      <c r="T116">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A117">
         <f t="shared" si="1"/>
         <v>116</v>
@@ -7729,8 +8449,56 @@
       <c r="D117" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E117">
+        <v>4</v>
+      </c>
+      <c r="F117">
+        <v>8</v>
+      </c>
+      <c r="G117">
+        <v>720</v>
+      </c>
+      <c r="H117">
+        <v>2</v>
+      </c>
+      <c r="I117">
+        <v>2</v>
+      </c>
+      <c r="J117">
+        <v>2.9</v>
+      </c>
+      <c r="K117">
+        <v>341</v>
+      </c>
+      <c r="L117">
+        <v>770</v>
+      </c>
+      <c r="M117">
+        <v>1419</v>
+      </c>
+      <c r="N117">
+        <v>360</v>
+      </c>
+      <c r="O117">
+        <v>72</v>
+      </c>
+      <c r="P117">
+        <v>354</v>
+      </c>
+      <c r="Q117">
+        <v>193</v>
+      </c>
+      <c r="R117">
+        <v>120</v>
+      </c>
+      <c r="S117">
+        <v>267</v>
+      </c>
+      <c r="T117">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A118">
         <f t="shared" si="1"/>
         <v>117</v>
@@ -7744,8 +8512,56 @@
       <c r="D118" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E118">
+        <v>4</v>
+      </c>
+      <c r="F118">
+        <v>8</v>
+      </c>
+      <c r="G118">
+        <v>522</v>
+      </c>
+      <c r="H118">
+        <v>2</v>
+      </c>
+      <c r="I118">
+        <v>2</v>
+      </c>
+      <c r="J118">
+        <v>3.8</v>
+      </c>
+      <c r="K118">
+        <v>310</v>
+      </c>
+      <c r="L118">
+        <v>670</v>
+      </c>
+      <c r="M118">
+        <v>1570</v>
+      </c>
+      <c r="N118">
+        <v>285</v>
+      </c>
+      <c r="O118">
+        <v>65</v>
+      </c>
+      <c r="P118">
+        <v>454</v>
+      </c>
+      <c r="Q118">
+        <v>207</v>
+      </c>
+      <c r="R118">
+        <v>129</v>
+      </c>
+      <c r="S118">
+        <v>263</v>
+      </c>
+      <c r="T118">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A119">
         <f t="shared" si="1"/>
         <v>118</v>
@@ -7759,8 +8575,56 @@
       <c r="D119" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E119">
+        <v>3.9</v>
+      </c>
+      <c r="F119">
+        <v>8</v>
+      </c>
+      <c r="G119">
+        <v>670</v>
+      </c>
+      <c r="H119">
+        <v>2</v>
+      </c>
+      <c r="I119">
+        <v>2</v>
+      </c>
+      <c r="J119">
+        <v>3</v>
+      </c>
+      <c r="K119">
+        <v>325</v>
+      </c>
+      <c r="L119">
+        <v>760</v>
+      </c>
+      <c r="M119">
+        <v>1420</v>
+      </c>
+      <c r="N119">
+        <v>230</v>
+      </c>
+      <c r="O119">
+        <v>78</v>
+      </c>
+      <c r="P119">
+        <v>457</v>
+      </c>
+      <c r="Q119">
+        <v>195</v>
+      </c>
+      <c r="R119">
+        <v>121</v>
+      </c>
+      <c r="S119">
+        <v>265</v>
+      </c>
+      <c r="T119">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A120">
         <f t="shared" si="1"/>
         <v>119</v>
@@ -7774,8 +8638,56 @@
       <c r="D120" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E120">
+        <v>3.8</v>
+      </c>
+      <c r="F120">
+        <v>6</v>
+      </c>
+      <c r="G120">
+        <v>570</v>
+      </c>
+      <c r="H120">
+        <v>4</v>
+      </c>
+      <c r="I120">
+        <v>2</v>
+      </c>
+      <c r="J120">
+        <v>2.8</v>
+      </c>
+      <c r="K120">
+        <v>315</v>
+      </c>
+      <c r="L120">
+        <v>637</v>
+      </c>
+      <c r="M120">
+        <v>1752</v>
+      </c>
+      <c r="N120">
+        <v>315</v>
+      </c>
+      <c r="O120">
+        <v>74</v>
+      </c>
+      <c r="P120">
+        <v>471</v>
+      </c>
+      <c r="Q120">
+        <v>190</v>
+      </c>
+      <c r="R120">
+        <v>137</v>
+      </c>
+      <c r="S120">
+        <v>178</v>
+      </c>
+      <c r="T120">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A121">
         <f t="shared" si="1"/>
         <v>120</v>
@@ -7789,8 +8701,56 @@
       <c r="D121" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E121">
+        <v>5.2</v>
+      </c>
+      <c r="F121">
+        <v>12</v>
+      </c>
+      <c r="G121">
+        <v>725</v>
+      </c>
+      <c r="H121">
+        <v>4</v>
+      </c>
+      <c r="I121">
+        <v>2</v>
+      </c>
+      <c r="J121">
+        <v>3.4</v>
+      </c>
+      <c r="K121">
+        <v>340</v>
+      </c>
+      <c r="L121">
+        <v>900</v>
+      </c>
+      <c r="M121">
+        <v>1693</v>
+      </c>
+      <c r="N121">
+        <v>186</v>
+      </c>
+      <c r="O121">
+        <v>78</v>
+      </c>
+      <c r="P121">
+        <v>471</v>
+      </c>
+      <c r="Q121">
+        <v>194</v>
+      </c>
+      <c r="R121">
+        <v>128</v>
+      </c>
+      <c r="S121">
+        <v>281</v>
+      </c>
+      <c r="T121">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A122">
         <f t="shared" si="1"/>
         <v>121</v>
@@ -7804,8 +8764,56 @@
       <c r="D122" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E122">
+        <v>3</v>
+      </c>
+      <c r="F122">
+        <v>6</v>
+      </c>
+      <c r="G122">
+        <v>310</v>
+      </c>
+      <c r="H122">
+        <v>5</v>
+      </c>
+      <c r="I122">
+        <v>5</v>
+      </c>
+      <c r="J122">
+        <v>5.6</v>
+      </c>
+      <c r="K122">
+        <v>275</v>
+      </c>
+      <c r="L122">
+        <v>440</v>
+      </c>
+      <c r="M122">
+        <v>1785</v>
+      </c>
+      <c r="N122">
+        <v>535</v>
+      </c>
+      <c r="O122">
+        <v>65</v>
+      </c>
+      <c r="P122">
+        <v>497</v>
+      </c>
+      <c r="Q122">
+        <v>191</v>
+      </c>
+      <c r="R122">
+        <v>142</v>
+      </c>
+      <c r="S122">
+        <v>291</v>
+      </c>
+      <c r="T122">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A123">
         <f t="shared" si="1"/>
         <v>122</v>
@@ -7819,8 +8827,56 @@
       <c r="D123" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E123">
+        <v>1.8</v>
+      </c>
+      <c r="F123">
+        <v>4</v>
+      </c>
+      <c r="G123">
+        <v>192</v>
+      </c>
+      <c r="H123">
+        <v>4</v>
+      </c>
+      <c r="I123">
+        <v>2</v>
+      </c>
+      <c r="J123">
+        <v>7.4</v>
+      </c>
+      <c r="K123">
+        <v>225</v>
+      </c>
+      <c r="L123">
+        <v>180</v>
+      </c>
+      <c r="M123">
+        <v>1215</v>
+      </c>
+      <c r="N123">
+        <v>365</v>
+      </c>
+      <c r="O123">
+        <v>55</v>
+      </c>
+      <c r="P123">
+        <v>434</v>
+      </c>
+      <c r="Q123">
+        <v>174</v>
+      </c>
+      <c r="R123">
+        <v>132</v>
+      </c>
+      <c r="S123">
+        <v>260</v>
+      </c>
+      <c r="T123">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A124">
         <f t="shared" si="1"/>
         <v>123</v>
@@ -7834,8 +8890,56 @@
       <c r="D124" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E124">
+        <v>2</v>
+      </c>
+      <c r="F124">
+        <v>4</v>
+      </c>
+      <c r="G124">
+        <v>210</v>
+      </c>
+      <c r="H124">
+        <v>4</v>
+      </c>
+      <c r="I124">
+        <v>3</v>
+      </c>
+      <c r="J124">
+        <v>6.9</v>
+      </c>
+      <c r="K124">
+        <v>240</v>
+      </c>
+      <c r="L124">
+        <v>280</v>
+      </c>
+      <c r="M124">
+        <v>1298</v>
+      </c>
+      <c r="N124">
+        <v>312</v>
+      </c>
+      <c r="O124">
+        <v>55</v>
+      </c>
+      <c r="P124">
+        <v>426</v>
+      </c>
+      <c r="Q124">
+        <v>181</v>
+      </c>
+      <c r="R124">
+        <v>140</v>
+      </c>
+      <c r="S124">
+        <v>258</v>
+      </c>
+      <c r="T124">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A125">
         <f t="shared" si="1"/>
         <v>124</v>
@@ -7849,8 +8953,56 @@
       <c r="D125" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E125">
+        <v>3</v>
+      </c>
+      <c r="F125">
+        <v>6</v>
+      </c>
+      <c r="G125">
+        <v>591</v>
+      </c>
+      <c r="H125">
+        <v>4</v>
+      </c>
+      <c r="I125">
+        <v>2</v>
+      </c>
+      <c r="J125">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="K125">
+        <v>259</v>
+      </c>
+      <c r="L125">
+        <v>500</v>
+      </c>
+      <c r="M125">
+        <v>1540</v>
+      </c>
+      <c r="N125">
+        <v>0</v>
+      </c>
+      <c r="O125">
+        <v>51</v>
+      </c>
+      <c r="P125">
+        <v>438</v>
+      </c>
+      <c r="Q125">
+        <v>185</v>
+      </c>
+      <c r="R125">
+        <v>129</v>
+      </c>
+      <c r="S125">
+        <v>247</v>
+      </c>
+      <c r="T125">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A126">
         <f t="shared" si="1"/>
         <v>125</v>
@@ -7864,8 +9016,56 @@
       <c r="D126" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E126">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F126">
+        <v>12</v>
+      </c>
+      <c r="G126">
+        <v>426</v>
+      </c>
+      <c r="H126">
+        <v>2</v>
+      </c>
+      <c r="I126">
+        <v>2</v>
+      </c>
+      <c r="J126">
+        <v>4.8</v>
+      </c>
+      <c r="K126">
+        <v>314</v>
+      </c>
+      <c r="L126">
+        <v>491</v>
+      </c>
+      <c r="M126">
+        <v>1590</v>
+      </c>
+      <c r="N126">
+        <v>249</v>
+      </c>
+      <c r="O126">
+        <v>100</v>
+      </c>
+      <c r="P126">
+        <v>448</v>
+      </c>
+      <c r="Q126">
+        <v>198</v>
+      </c>
+      <c r="R126">
+        <v>114</v>
+      </c>
+      <c r="S126">
+        <v>255</v>
+      </c>
+      <c r="T126">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A127">
         <f t="shared" si="1"/>
         <v>126</v>
@@ -7880,7 +9080,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A128">
         <f t="shared" si="1"/>
         <v>127</v>

--- a/Samochody.xlsx
+++ b/Samochody.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NASA\PracaInz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C341E55E-B62A-4A87-89FB-73B31B5B14FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C97BD6-110D-44DD-B62C-B3FFE94354EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1103,8 +1103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T242"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="J130" sqref="J130"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="F130" sqref="F130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9094,6 +9094,54 @@
       <c r="D128" t="s">
         <v>241</v>
       </c>
+      <c r="E128">
+        <v>1.7</v>
+      </c>
+      <c r="F128">
+        <v>4</v>
+      </c>
+      <c r="G128">
+        <v>240</v>
+      </c>
+      <c r="H128">
+        <v>2</v>
+      </c>
+      <c r="I128">
+        <v>2</v>
+      </c>
+      <c r="J128">
+        <v>3.5</v>
+      </c>
+      <c r="K128">
+        <v>258</v>
+      </c>
+      <c r="L128">
+        <v>350</v>
+      </c>
+      <c r="M128">
+        <v>1118</v>
+      </c>
+      <c r="N128">
+        <v>105</v>
+      </c>
+      <c r="O128">
+        <v>40</v>
+      </c>
+      <c r="P128">
+        <v>399</v>
+      </c>
+      <c r="Q128">
+        <v>187</v>
+      </c>
+      <c r="R128">
+        <v>118</v>
+      </c>
+      <c r="S128">
+        <v>238</v>
+      </c>
+      <c r="T128">
+        <v>6</v>
+      </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129">

--- a/Samochody.xlsx
+++ b/Samochody.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NASA\PracaInz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C97BD6-110D-44DD-B62C-B3FFE94354EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C06B745F-6201-4661-9C74-9399F75D0EBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1103,8 +1103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T242"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="F130" sqref="F130"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9079,6 +9079,54 @@
       <c r="D127" t="s">
         <v>241</v>
       </c>
+      <c r="E127">
+        <v>4</v>
+      </c>
+      <c r="F127">
+        <v>8</v>
+      </c>
+      <c r="G127">
+        <v>480</v>
+      </c>
+      <c r="H127">
+        <v>2</v>
+      </c>
+      <c r="I127">
+        <v>2</v>
+      </c>
+      <c r="J127">
+        <v>3</v>
+      </c>
+      <c r="K127">
+        <v>300</v>
+      </c>
+      <c r="L127">
+        <v>500</v>
+      </c>
+      <c r="M127">
+        <v>1100</v>
+      </c>
+      <c r="N127">
+        <v>0</v>
+      </c>
+      <c r="O127">
+        <v>120</v>
+      </c>
+      <c r="P127">
+        <v>478</v>
+      </c>
+      <c r="Q127">
+        <v>195</v>
+      </c>
+      <c r="R127">
+        <v>120</v>
+      </c>
+      <c r="S127">
+        <v>275</v>
+      </c>
+      <c r="T127">
+        <v>6</v>
+      </c>
     </row>
     <row r="128" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A128">
@@ -9143,7 +9191,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A129">
         <f t="shared" si="1"/>
         <v>128</v>
@@ -9157,8 +9205,56 @@
       <c r="D129" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E129">
+        <v>5.2</v>
+      </c>
+      <c r="F129">
+        <v>10</v>
+      </c>
+      <c r="G129">
+        <v>560</v>
+      </c>
+      <c r="H129">
+        <v>2</v>
+      </c>
+      <c r="I129">
+        <v>2</v>
+      </c>
+      <c r="J129">
+        <v>3.7</v>
+      </c>
+      <c r="K129">
+        <v>325</v>
+      </c>
+      <c r="L129">
+        <v>540</v>
+      </c>
+      <c r="M129">
+        <v>1520</v>
+      </c>
+      <c r="N129">
+        <v>110</v>
+      </c>
+      <c r="O129">
+        <v>90</v>
+      </c>
+      <c r="P129">
+        <v>435</v>
+      </c>
+      <c r="Q129">
+        <v>190</v>
+      </c>
+      <c r="R129">
+        <v>117</v>
+      </c>
+      <c r="S129">
+        <v>256</v>
+      </c>
+      <c r="T129">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A130">
         <f t="shared" si="1"/>
         <v>129</v>
@@ -9172,8 +9268,56 @@
       <c r="D130" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E130">
+        <v>2</v>
+      </c>
+      <c r="F130">
+        <v>4</v>
+      </c>
+      <c r="G130">
+        <v>280</v>
+      </c>
+      <c r="H130">
+        <v>5</v>
+      </c>
+      <c r="I130">
+        <v>4</v>
+      </c>
+      <c r="J130">
+        <v>5.9</v>
+      </c>
+      <c r="K130">
+        <v>250</v>
+      </c>
+      <c r="L130">
+        <v>383</v>
+      </c>
+      <c r="M130">
+        <v>1320</v>
+      </c>
+      <c r="N130">
+        <v>430</v>
+      </c>
+      <c r="O130">
+        <v>55</v>
+      </c>
+      <c r="P130">
+        <v>449</v>
+      </c>
+      <c r="Q130">
+        <v>177</v>
+      </c>
+      <c r="R130">
+        <v>145</v>
+      </c>
+      <c r="S130">
+        <v>263</v>
+      </c>
+      <c r="T130">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A131">
         <f t="shared" si="1"/>
         <v>130</v>
@@ -9187,8 +9331,56 @@
       <c r="D131" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E131">
+        <v>4</v>
+      </c>
+      <c r="F131">
+        <v>8</v>
+      </c>
+      <c r="G131">
+        <v>510</v>
+      </c>
+      <c r="H131">
+        <v>2</v>
+      </c>
+      <c r="I131">
+        <v>2</v>
+      </c>
+      <c r="J131">
+        <v>3.6</v>
+      </c>
+      <c r="K131">
+        <v>314</v>
+      </c>
+      <c r="L131">
+        <v>685</v>
+      </c>
+      <c r="M131">
+        <v>1530</v>
+      </c>
+      <c r="N131">
+        <v>350</v>
+      </c>
+      <c r="O131">
+        <v>73</v>
+      </c>
+      <c r="P131">
+        <v>447</v>
+      </c>
+      <c r="Q131">
+        <v>194</v>
+      </c>
+      <c r="R131">
+        <v>127</v>
+      </c>
+      <c r="S131">
+        <v>270</v>
+      </c>
+      <c r="T131">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A132">
         <f t="shared" ref="A132:A195" si="2">A131+1</f>
         <v>131</v>
@@ -9202,8 +9394,56 @@
       <c r="D132" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E132">
+        <v>4.2</v>
+      </c>
+      <c r="F132">
+        <v>8</v>
+      </c>
+      <c r="G132">
+        <v>298</v>
+      </c>
+      <c r="H132">
+        <v>4</v>
+      </c>
+      <c r="I132">
+        <v>2</v>
+      </c>
+      <c r="J132">
+        <v>6.2</v>
+      </c>
+      <c r="K132">
+        <v>250</v>
+      </c>
+      <c r="L132">
+        <v>411</v>
+      </c>
+      <c r="M132">
+        <v>1645</v>
+      </c>
+      <c r="N132">
+        <v>300</v>
+      </c>
+      <c r="O132">
+        <v>71</v>
+      </c>
+      <c r="P132">
+        <v>479</v>
+      </c>
+      <c r="Q132">
+        <v>189</v>
+      </c>
+      <c r="R132">
+        <v>132</v>
+      </c>
+      <c r="S132">
+        <v>275</v>
+      </c>
+      <c r="T132">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A133">
         <f t="shared" si="2"/>
         <v>132</v>
@@ -9217,8 +9457,56 @@
       <c r="D133" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E133">
+        <v>5</v>
+      </c>
+      <c r="F133">
+        <v>8</v>
+      </c>
+      <c r="G133">
+        <v>412</v>
+      </c>
+      <c r="H133">
+        <v>4</v>
+      </c>
+      <c r="I133">
+        <v>2</v>
+      </c>
+      <c r="J133">
+        <v>4.5</v>
+      </c>
+      <c r="K133">
+        <v>250</v>
+      </c>
+      <c r="L133">
+        <v>529</v>
+      </c>
+      <c r="M133">
+        <v>1635</v>
+      </c>
+      <c r="N133">
+        <v>379</v>
+      </c>
+      <c r="O133">
+        <v>61</v>
+      </c>
+      <c r="P133">
+        <v>478</v>
+      </c>
+      <c r="Q133">
+        <v>188</v>
+      </c>
+      <c r="R133">
+        <v>142</v>
+      </c>
+      <c r="S133">
+        <v>272</v>
+      </c>
+      <c r="T133">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A134">
         <f t="shared" si="2"/>
         <v>133</v>
@@ -9232,8 +9520,56 @@
       <c r="D134" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E134">
+        <v>4.2</v>
+      </c>
+      <c r="F134">
+        <v>8</v>
+      </c>
+      <c r="G134">
+        <v>650</v>
+      </c>
+      <c r="H134">
+        <v>2</v>
+      </c>
+      <c r="I134">
+        <v>2</v>
+      </c>
+      <c r="J134">
+        <v>3</v>
+      </c>
+      <c r="K134">
+        <v>370</v>
+      </c>
+      <c r="L134">
+        <v>850</v>
+      </c>
+      <c r="M134">
+        <v>1468</v>
+      </c>
+      <c r="N134">
+        <v>100</v>
+      </c>
+      <c r="O134">
+        <v>120</v>
+      </c>
+      <c r="P134">
+        <v>446</v>
+      </c>
+      <c r="Q134">
+        <v>200</v>
+      </c>
+      <c r="R134">
+        <v>111</v>
+      </c>
+      <c r="S134">
+        <v>270</v>
+      </c>
+      <c r="T134">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A135">
         <f t="shared" si="2"/>
         <v>134</v>
@@ -9247,8 +9583,56 @@
       <c r="D135" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E135">
+        <v>5.5</v>
+      </c>
+      <c r="F135">
+        <v>12</v>
+      </c>
+      <c r="G135">
+        <v>442</v>
+      </c>
+      <c r="H135">
+        <v>4</v>
+      </c>
+      <c r="I135">
+        <v>2</v>
+      </c>
+      <c r="J135">
+        <v>5.2</v>
+      </c>
+      <c r="K135">
+        <v>302</v>
+      </c>
+      <c r="L135">
+        <v>550</v>
+      </c>
+      <c r="M135">
+        <v>1690</v>
+      </c>
+      <c r="N135">
+        <v>316</v>
+      </c>
+      <c r="O135">
+        <v>110</v>
+      </c>
+      <c r="P135">
+        <v>473</v>
+      </c>
+      <c r="Q135">
+        <v>192</v>
+      </c>
+      <c r="R135">
+        <v>130</v>
+      </c>
+      <c r="S135">
+        <v>260</v>
+      </c>
+      <c r="T135">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A136">
         <f t="shared" si="2"/>
         <v>135</v>
@@ -9262,8 +9646,56 @@
       <c r="D136" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E136">
+        <v>2</v>
+      </c>
+      <c r="F136">
+        <v>4</v>
+      </c>
+      <c r="G136">
+        <v>230</v>
+      </c>
+      <c r="H136">
+        <v>4</v>
+      </c>
+      <c r="I136">
+        <v>2</v>
+      </c>
+      <c r="J136">
+        <v>5.3</v>
+      </c>
+      <c r="K136">
+        <v>250</v>
+      </c>
+      <c r="L136">
+        <v>370</v>
+      </c>
+      <c r="M136">
+        <v>1335</v>
+      </c>
+      <c r="N136">
+        <v>305</v>
+      </c>
+      <c r="O136">
+        <v>55</v>
+      </c>
+      <c r="P136">
+        <v>418</v>
+      </c>
+      <c r="Q136">
+        <v>183</v>
+      </c>
+      <c r="R136">
+        <v>135</v>
+      </c>
+      <c r="S136">
+        <v>251</v>
+      </c>
+      <c r="T136">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A137">
         <f t="shared" si="2"/>
         <v>136</v>
@@ -9277,8 +9709,56 @@
       <c r="D137" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E137">
+        <v>5.5</v>
+      </c>
+      <c r="F137">
+        <v>8</v>
+      </c>
+      <c r="G137">
+        <v>491</v>
+      </c>
+      <c r="H137">
+        <v>2</v>
+      </c>
+      <c r="I137">
+        <v>2</v>
+      </c>
+      <c r="J137">
+        <v>3.2</v>
+      </c>
+      <c r="K137">
+        <v>295</v>
+      </c>
+      <c r="L137">
+        <v>658</v>
+      </c>
+      <c r="M137">
+        <v>1110</v>
+      </c>
+      <c r="N137">
+        <v>0</v>
+      </c>
+      <c r="O137">
+        <v>85</v>
+      </c>
+      <c r="P137">
+        <v>450</v>
+      </c>
+      <c r="Q137">
+        <v>205</v>
+      </c>
+      <c r="R137">
+        <v>115</v>
+      </c>
+      <c r="S137">
+        <v>271</v>
+      </c>
+      <c r="T137">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A138">
         <f t="shared" si="2"/>
         <v>137</v>
@@ -9292,8 +9772,56 @@
       <c r="D138" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E138">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F138">
+        <v>8</v>
+      </c>
+      <c r="G138">
+        <v>232</v>
+      </c>
+      <c r="H138">
+        <v>6</v>
+      </c>
+      <c r="I138">
+        <v>4</v>
+      </c>
+      <c r="J138">
+        <v>7.9</v>
+      </c>
+      <c r="K138">
+        <v>200</v>
+      </c>
+      <c r="L138">
+        <v>389</v>
+      </c>
+      <c r="M138">
+        <v>1905</v>
+      </c>
+      <c r="N138">
+        <v>583</v>
+      </c>
+      <c r="O138">
+        <v>72</v>
+      </c>
+      <c r="P138">
+        <v>539</v>
+      </c>
+      <c r="Q138">
+        <v>199</v>
+      </c>
+      <c r="R138">
+        <v>144</v>
+      </c>
+      <c r="S138">
+        <v>291</v>
+      </c>
+      <c r="T138">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A139">
         <f t="shared" si="2"/>
         <v>138</v>
@@ -9307,8 +9835,56 @@
       <c r="D139" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E139">
+        <v>2</v>
+      </c>
+      <c r="F139">
+        <v>4</v>
+      </c>
+      <c r="G139">
+        <v>150</v>
+      </c>
+      <c r="H139">
+        <v>5</v>
+      </c>
+      <c r="I139">
+        <v>5</v>
+      </c>
+      <c r="J139">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="K139">
+        <v>217</v>
+      </c>
+      <c r="L139">
+        <v>200</v>
+      </c>
+      <c r="M139">
+        <v>1260</v>
+      </c>
+      <c r="N139">
+        <v>330</v>
+      </c>
+      <c r="O139">
+        <v>50</v>
+      </c>
+      <c r="P139">
+        <v>423</v>
+      </c>
+      <c r="Q139">
+        <v>175</v>
+      </c>
+      <c r="R139">
+        <v>143</v>
+      </c>
+      <c r="S139">
+        <v>266</v>
+      </c>
+      <c r="T139">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A140">
         <f t="shared" si="2"/>
         <v>139</v>
@@ -9322,8 +9898,56 @@
       <c r="D140" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E140">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F140">
+        <v>8</v>
+      </c>
+      <c r="G140">
+        <v>400</v>
+      </c>
+      <c r="H140">
+        <v>2</v>
+      </c>
+      <c r="I140">
+        <v>2</v>
+      </c>
+      <c r="J140">
+        <v>4.7</v>
+      </c>
+      <c r="K140">
+        <v>250</v>
+      </c>
+      <c r="L140">
+        <v>500</v>
+      </c>
+      <c r="M140">
+        <v>1660</v>
+      </c>
+      <c r="N140">
+        <v>203</v>
+      </c>
+      <c r="O140">
+        <v>73</v>
+      </c>
+      <c r="P140">
+        <v>440</v>
+      </c>
+      <c r="Q140">
+        <v>183</v>
+      </c>
+      <c r="R140">
+        <v>132</v>
+      </c>
+      <c r="S140">
+        <v>251</v>
+      </c>
+      <c r="T140">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A141">
         <f t="shared" si="2"/>
         <v>140</v>
@@ -9337,8 +9961,56 @@
       <c r="D141" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E141">
+        <v>4.2</v>
+      </c>
+      <c r="F141">
+        <v>8</v>
+      </c>
+      <c r="G141">
+        <v>298</v>
+      </c>
+      <c r="H141">
+        <v>4</v>
+      </c>
+      <c r="I141">
+        <v>2</v>
+      </c>
+      <c r="J141">
+        <v>6.6</v>
+      </c>
+      <c r="K141">
+        <v>250</v>
+      </c>
+      <c r="L141">
+        <v>411</v>
+      </c>
+      <c r="M141">
+        <v>1775</v>
+      </c>
+      <c r="N141">
+        <v>307</v>
+      </c>
+      <c r="O141">
+        <v>75</v>
+      </c>
+      <c r="P141">
+        <v>476</v>
+      </c>
+      <c r="Q141">
+        <v>183</v>
+      </c>
+      <c r="R141">
+        <v>131</v>
+      </c>
+      <c r="S141">
+        <v>259</v>
+      </c>
+      <c r="T141">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A142">
         <f t="shared" si="2"/>
         <v>141</v>
@@ -9352,8 +10024,56 @@
       <c r="D142" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E142">
+        <v>3</v>
+      </c>
+      <c r="F142">
+        <v>6</v>
+      </c>
+      <c r="G142">
+        <v>220</v>
+      </c>
+      <c r="H142">
+        <v>5</v>
+      </c>
+      <c r="I142">
+        <v>4</v>
+      </c>
+      <c r="J142">
+        <v>6.9</v>
+      </c>
+      <c r="K142">
+        <v>245</v>
+      </c>
+      <c r="L142">
+        <v>300</v>
+      </c>
+      <c r="M142">
+        <v>1425</v>
+      </c>
+      <c r="N142">
+        <v>445</v>
+      </c>
+      <c r="O142">
+        <v>70</v>
+      </c>
+      <c r="P142">
+        <v>455</v>
+      </c>
+      <c r="Q142">
+        <v>177</v>
+      </c>
+      <c r="R142">
+        <v>143</v>
+      </c>
+      <c r="S142">
+        <v>265</v>
+      </c>
+      <c r="T142">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A143">
         <f t="shared" si="2"/>
         <v>142</v>
@@ -9368,7 +10088,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A144">
         <f t="shared" si="2"/>
         <v>143</v>

--- a/Samochody.xlsx
+++ b/Samochody.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NASA\PracaInz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C06B745F-6201-4661-9C74-9399F75D0EBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4245915-626D-46A9-B579-9CB2B2021C6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1103,8 +1103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T242"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="E145" sqref="E145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3326,7 +3326,7 @@
         <v>141</v>
       </c>
       <c r="S35">
-        <v>167</v>
+        <v>267</v>
       </c>
       <c r="T35">
         <v>5</v>
@@ -10087,6 +10087,54 @@
       <c r="D143" t="s">
         <v>242</v>
       </c>
+      <c r="E143">
+        <v>1.3</v>
+      </c>
+      <c r="F143">
+        <v>4</v>
+      </c>
+      <c r="G143">
+        <v>76</v>
+      </c>
+      <c r="H143">
+        <v>4</v>
+      </c>
+      <c r="I143">
+        <v>3</v>
+      </c>
+      <c r="J143">
+        <v>12</v>
+      </c>
+      <c r="K143">
+        <v>154</v>
+      </c>
+      <c r="L143">
+        <v>107</v>
+      </c>
+      <c r="M143">
+        <v>655</v>
+      </c>
+      <c r="N143">
+        <v>165</v>
+      </c>
+      <c r="O143">
+        <v>50</v>
+      </c>
+      <c r="P143">
+        <v>305</v>
+      </c>
+      <c r="Q143">
+        <v>140</v>
+      </c>
+      <c r="R143">
+        <v>135</v>
+      </c>
+      <c r="S143">
+        <v>204</v>
+      </c>
+      <c r="T143">
+        <v>4</v>
+      </c>
     </row>
     <row r="144" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A144">
@@ -10102,6 +10150,54 @@
       <c r="D144" t="s">
         <v>241</v>
       </c>
+      <c r="E144">
+        <v>1.6</v>
+      </c>
+      <c r="F144">
+        <v>5</v>
+      </c>
+      <c r="G144">
+        <v>116</v>
+      </c>
+      <c r="H144">
+        <v>2</v>
+      </c>
+      <c r="I144">
+        <v>2</v>
+      </c>
+      <c r="J144">
+        <v>9</v>
+      </c>
+      <c r="K144">
+        <v>177</v>
+      </c>
+      <c r="L144">
+        <v>146</v>
+      </c>
+      <c r="M144">
+        <v>680</v>
+      </c>
+      <c r="N144">
+        <v>185</v>
+      </c>
+      <c r="O144">
+        <v>46</v>
+      </c>
+      <c r="P144">
+        <v>368</v>
+      </c>
+      <c r="Q144">
+        <v>142</v>
+      </c>
+      <c r="R144">
+        <v>116</v>
+      </c>
+      <c r="S144">
+        <v>213</v>
+      </c>
+      <c r="T144">
+        <v>4</v>
+      </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145">

--- a/Samochody.xlsx
+++ b/Samochody.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NASA\PracaInz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4245915-626D-46A9-B579-9CB2B2021C6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B1267F5-981D-4F3E-8CEF-03B358E9169C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1103,8 +1103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T242"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
-      <selection activeCell="E145" sqref="E145"/>
+    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
+      <selection activeCell="L157" sqref="L157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10199,7 +10199,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A145">
         <f t="shared" si="2"/>
         <v>144</v>
@@ -10208,13 +10208,61 @@
         <v>133</v>
       </c>
       <c r="C145">
-        <v>1992</v>
+        <v>1982</v>
       </c>
       <c r="D145" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E145">
+        <v>2</v>
+      </c>
+      <c r="F145">
+        <v>4</v>
+      </c>
+      <c r="G145">
+        <v>97</v>
+      </c>
+      <c r="H145">
+        <v>5</v>
+      </c>
+      <c r="I145">
+        <v>4</v>
+      </c>
+      <c r="J145">
+        <v>15</v>
+      </c>
+      <c r="K145">
+        <v>155</v>
+      </c>
+      <c r="L145">
+        <v>149</v>
+      </c>
+      <c r="M145">
+        <v>1270</v>
+      </c>
+      <c r="N145">
+        <v>395</v>
+      </c>
+      <c r="O145">
+        <v>60</v>
+      </c>
+      <c r="P145">
+        <v>482</v>
+      </c>
+      <c r="Q145">
+        <v>172</v>
+      </c>
+      <c r="R145">
+        <v>143</v>
+      </c>
+      <c r="S145">
+        <v>265</v>
+      </c>
+      <c r="T145">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A146">
         <f t="shared" si="2"/>
         <v>145</v>
@@ -10223,13 +10271,61 @@
         <v>134</v>
       </c>
       <c r="C146">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D146" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E146">
+        <v>2</v>
+      </c>
+      <c r="F146">
+        <v>4</v>
+      </c>
+      <c r="G146">
+        <v>320</v>
+      </c>
+      <c r="H146">
+        <v>4</v>
+      </c>
+      <c r="I146">
+        <v>5</v>
+      </c>
+      <c r="J146">
+        <v>5.8</v>
+      </c>
+      <c r="K146">
+        <v>272</v>
+      </c>
+      <c r="L146">
+        <v>400</v>
+      </c>
+      <c r="M146">
+        <v>1305</v>
+      </c>
+      <c r="N146">
+        <v>420</v>
+      </c>
+      <c r="O146">
+        <v>46</v>
+      </c>
+      <c r="P146">
+        <v>456</v>
+      </c>
+      <c r="Q146">
+        <v>188</v>
+      </c>
+      <c r="R146">
+        <v>143</v>
+      </c>
+      <c r="S146">
+        <v>270</v>
+      </c>
+      <c r="T146">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A147">
         <f t="shared" si="2"/>
         <v>146</v>
@@ -10243,8 +10339,56 @@
       <c r="D147" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E147">
+        <v>5</v>
+      </c>
+      <c r="F147">
+        <v>10</v>
+      </c>
+      <c r="G147">
+        <v>500</v>
+      </c>
+      <c r="H147">
+        <v>2</v>
+      </c>
+      <c r="I147">
+        <v>2</v>
+      </c>
+      <c r="J147">
+        <v>4.2</v>
+      </c>
+      <c r="K147">
+        <v>309</v>
+      </c>
+      <c r="L147">
+        <v>510</v>
+      </c>
+      <c r="M147">
+        <v>1612</v>
+      </c>
+      <c r="N147">
+        <v>110</v>
+      </c>
+      <c r="O147">
+        <v>90</v>
+      </c>
+      <c r="P147">
+        <v>430</v>
+      </c>
+      <c r="Q147">
+        <v>190</v>
+      </c>
+      <c r="R147">
+        <v>117</v>
+      </c>
+      <c r="S147">
+        <v>256</v>
+      </c>
+      <c r="T147">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A148">
         <f t="shared" si="2"/>
         <v>147</v>
@@ -10258,8 +10402,56 @@
       <c r="D148" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E148">
+        <v>3</v>
+      </c>
+      <c r="F148">
+        <v>6</v>
+      </c>
+      <c r="G148">
+        <v>340</v>
+      </c>
+      <c r="H148">
+        <v>2</v>
+      </c>
+      <c r="I148">
+        <v>2</v>
+      </c>
+      <c r="J148">
+        <v>4.5</v>
+      </c>
+      <c r="K148">
+        <v>268</v>
+      </c>
+      <c r="L148">
+        <v>500</v>
+      </c>
+      <c r="M148">
+        <v>1535</v>
+      </c>
+      <c r="N148">
+        <v>281</v>
+      </c>
+      <c r="O148">
+        <v>52</v>
+      </c>
+      <c r="P148">
+        <v>432</v>
+      </c>
+      <c r="Q148">
+        <v>186</v>
+      </c>
+      <c r="R148">
+        <v>130</v>
+      </c>
+      <c r="S148">
+        <v>247</v>
+      </c>
+      <c r="T148">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A149">
         <f t="shared" si="2"/>
         <v>148</v>
@@ -10273,8 +10465,56 @@
       <c r="D149" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E149">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F149">
+        <v>8</v>
+      </c>
+      <c r="G149">
+        <v>462</v>
+      </c>
+      <c r="H149">
+        <v>5</v>
+      </c>
+      <c r="I149">
+        <v>4</v>
+      </c>
+      <c r="J149">
+        <v>4</v>
+      </c>
+      <c r="K149">
+        <v>261</v>
+      </c>
+      <c r="L149">
+        <v>650</v>
+      </c>
+      <c r="M149">
+        <v>1810</v>
+      </c>
+      <c r="N149">
+        <v>530</v>
+      </c>
+      <c r="O149">
+        <v>68</v>
+      </c>
+      <c r="P149">
+        <v>496</v>
+      </c>
+      <c r="Q149">
+        <v>187</v>
+      </c>
+      <c r="R149">
+        <v>147</v>
+      </c>
+      <c r="S149">
+        <v>298</v>
+      </c>
+      <c r="T149">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A150">
         <f t="shared" si="2"/>
         <v>149</v>
@@ -10288,8 +10528,56 @@
       <c r="D150" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E150">
+        <v>6.5</v>
+      </c>
+      <c r="F150">
+        <v>12</v>
+      </c>
+      <c r="G150">
+        <v>770</v>
+      </c>
+      <c r="H150">
+        <v>2</v>
+      </c>
+      <c r="I150">
+        <v>2</v>
+      </c>
+      <c r="J150">
+        <v>2.8</v>
+      </c>
+      <c r="K150">
+        <v>350</v>
+      </c>
+      <c r="L150">
+        <v>720</v>
+      </c>
+      <c r="M150">
+        <v>1525</v>
+      </c>
+      <c r="N150">
+        <v>140</v>
+      </c>
+      <c r="O150">
+        <v>85</v>
+      </c>
+      <c r="P150">
+        <v>494</v>
+      </c>
+      <c r="Q150">
+        <v>210</v>
+      </c>
+      <c r="R150">
+        <v>114</v>
+      </c>
+      <c r="S150">
+        <v>270</v>
+      </c>
+      <c r="T150">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A151">
         <f t="shared" si="2"/>
         <v>150</v>
@@ -10303,8 +10591,56 @@
       <c r="D151" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E151">
+        <v>6.5</v>
+      </c>
+      <c r="F151">
+        <v>12</v>
+      </c>
+      <c r="G151">
+        <v>670</v>
+      </c>
+      <c r="H151">
+        <v>2</v>
+      </c>
+      <c r="I151">
+        <v>2</v>
+      </c>
+      <c r="J151">
+        <v>3.4</v>
+      </c>
+      <c r="K151">
+        <v>338</v>
+      </c>
+      <c r="L151">
+        <v>660</v>
+      </c>
+      <c r="M151">
+        <v>1830</v>
+      </c>
+      <c r="N151">
+        <v>140</v>
+      </c>
+      <c r="O151">
+        <v>100</v>
+      </c>
+      <c r="P151">
+        <v>461</v>
+      </c>
+      <c r="Q151">
+        <v>206</v>
+      </c>
+      <c r="R151">
+        <v>114</v>
+      </c>
+      <c r="S151">
+        <v>267</v>
+      </c>
+      <c r="T151">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A152">
         <f t="shared" si="2"/>
         <v>151</v>
@@ -10318,8 +10654,56 @@
       <c r="D152" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E152">
+        <v>6.2</v>
+      </c>
+      <c r="F152">
+        <v>8</v>
+      </c>
+      <c r="G152">
+        <v>426</v>
+      </c>
+      <c r="H152">
+        <v>4</v>
+      </c>
+      <c r="I152">
+        <v>2</v>
+      </c>
+      <c r="J152">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="K152">
+        <v>290</v>
+      </c>
+      <c r="L152">
+        <v>569</v>
+      </c>
+      <c r="M152">
+        <v>1773</v>
+      </c>
+      <c r="N152">
+        <v>320</v>
+      </c>
+      <c r="O152">
+        <v>72</v>
+      </c>
+      <c r="P152">
+        <v>484</v>
+      </c>
+      <c r="Q152">
+        <v>192</v>
+      </c>
+      <c r="R152">
+        <v>138</v>
+      </c>
+      <c r="S152">
+        <v>285</v>
+      </c>
+      <c r="T152">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A153">
         <f t="shared" si="2"/>
         <v>152</v>
@@ -10333,8 +10717,56 @@
       <c r="D153" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E153">
+        <v>4</v>
+      </c>
+      <c r="F153">
+        <v>8</v>
+      </c>
+      <c r="G153">
+        <v>510</v>
+      </c>
+      <c r="H153">
+        <v>4</v>
+      </c>
+      <c r="I153">
+        <v>2</v>
+      </c>
+      <c r="J153">
+        <v>3.9</v>
+      </c>
+      <c r="K153">
+        <v>290</v>
+      </c>
+      <c r="L153">
+        <v>700</v>
+      </c>
+      <c r="M153">
+        <v>1745</v>
+      </c>
+      <c r="N153">
+        <v>355</v>
+      </c>
+      <c r="O153">
+        <v>61</v>
+      </c>
+      <c r="P153">
+        <v>475</v>
+      </c>
+      <c r="Q153">
+        <v>188</v>
+      </c>
+      <c r="R153">
+        <v>140</v>
+      </c>
+      <c r="S153">
+        <v>184</v>
+      </c>
+      <c r="T153">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A154">
         <f t="shared" si="2"/>
         <v>153</v>
@@ -10343,13 +10775,61 @@
         <v>142</v>
       </c>
       <c r="C154">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="D154" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E154">
+        <v>5.4</v>
+      </c>
+      <c r="F154">
+        <v>8</v>
+      </c>
+      <c r="G154">
+        <v>626</v>
+      </c>
+      <c r="H154">
+        <v>2</v>
+      </c>
+      <c r="I154">
+        <v>2</v>
+      </c>
+      <c r="J154">
+        <v>3.8</v>
+      </c>
+      <c r="K154">
+        <v>332</v>
+      </c>
+      <c r="L154">
+        <v>780</v>
+      </c>
+      <c r="M154">
+        <v>1750</v>
+      </c>
+      <c r="N154">
+        <v>204</v>
+      </c>
+      <c r="O154">
+        <v>97</v>
+      </c>
+      <c r="P154">
+        <v>466</v>
+      </c>
+      <c r="Q154">
+        <v>191</v>
+      </c>
+      <c r="R154">
+        <v>128</v>
+      </c>
+      <c r="S154">
+        <v>170</v>
+      </c>
+      <c r="T154">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A155">
         <f t="shared" si="2"/>
         <v>154</v>
@@ -10358,13 +10838,61 @@
         <v>143</v>
       </c>
       <c r="C155">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="D155" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E155">
+        <v>6</v>
+      </c>
+      <c r="F155">
+        <v>12</v>
+      </c>
+      <c r="G155">
+        <v>530</v>
+      </c>
+      <c r="H155">
+        <v>2</v>
+      </c>
+      <c r="I155">
+        <v>2</v>
+      </c>
+      <c r="J155">
+        <v>3.9</v>
+      </c>
+      <c r="K155">
+        <v>320</v>
+      </c>
+      <c r="L155">
+        <v>605</v>
+      </c>
+      <c r="M155">
+        <v>1575</v>
+      </c>
+      <c r="N155">
+        <v>140</v>
+      </c>
+      <c r="O155">
+        <v>100</v>
+      </c>
+      <c r="P155">
+        <v>447</v>
+      </c>
+      <c r="Q155">
+        <v>204</v>
+      </c>
+      <c r="R155">
+        <v>112</v>
+      </c>
+      <c r="S155">
+        <v>265</v>
+      </c>
+      <c r="T155">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A156">
         <f t="shared" si="2"/>
         <v>155</v>
@@ -10378,8 +10906,56 @@
       <c r="D156" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E156">
+        <v>6.5</v>
+      </c>
+      <c r="F156">
+        <v>12</v>
+      </c>
+      <c r="G156">
+        <v>640</v>
+      </c>
+      <c r="H156">
+        <v>2</v>
+      </c>
+      <c r="I156">
+        <v>2</v>
+      </c>
+      <c r="J156">
+        <v>3.4</v>
+      </c>
+      <c r="K156">
+        <v>340</v>
+      </c>
+      <c r="L156">
+        <v>660</v>
+      </c>
+      <c r="M156">
+        <v>1665</v>
+      </c>
+      <c r="N156">
+        <v>140</v>
+      </c>
+      <c r="O156">
+        <v>100</v>
+      </c>
+      <c r="P156">
+        <v>470</v>
+      </c>
+      <c r="Q156">
+        <v>206</v>
+      </c>
+      <c r="R156">
+        <v>114</v>
+      </c>
+      <c r="S156">
+        <v>267</v>
+      </c>
+      <c r="T156">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A157">
         <f t="shared" si="2"/>
         <v>156</v>
@@ -10393,8 +10969,56 @@
       <c r="D157" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E157">
+        <v>1.3</v>
+      </c>
+      <c r="F157">
+        <v>2</v>
+      </c>
+      <c r="G157">
+        <v>240</v>
+      </c>
+      <c r="H157">
+        <v>4</v>
+      </c>
+      <c r="I157">
+        <v>4</v>
+      </c>
+      <c r="J157">
+        <v>6.5</v>
+      </c>
+      <c r="K157">
+        <v>240</v>
+      </c>
+      <c r="L157">
+        <v>216</v>
+      </c>
+      <c r="M157">
+        <v>1330</v>
+      </c>
+      <c r="N157">
+        <v>290</v>
+      </c>
+      <c r="O157">
+        <v>61</v>
+      </c>
+      <c r="P157">
+        <v>444</v>
+      </c>
+      <c r="Q157">
+        <v>177</v>
+      </c>
+      <c r="R157">
+        <v>134</v>
+      </c>
+      <c r="S157">
+        <v>270</v>
+      </c>
+      <c r="T157">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A158">
         <f t="shared" si="2"/>
         <v>157</v>
@@ -10408,8 +11032,56 @@
       <c r="D158" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E158">
+        <v>2</v>
+      </c>
+      <c r="F158">
+        <v>4</v>
+      </c>
+      <c r="G158">
+        <v>205</v>
+      </c>
+      <c r="H158">
+        <v>4</v>
+      </c>
+      <c r="I158">
+        <v>2</v>
+      </c>
+      <c r="J158">
+        <v>7.6</v>
+      </c>
+      <c r="K158">
+        <v>226</v>
+      </c>
+      <c r="L158">
+        <v>212</v>
+      </c>
+      <c r="M158">
+        <v>1258</v>
+      </c>
+      <c r="N158">
+        <v>195</v>
+      </c>
+      <c r="O158">
+        <v>50</v>
+      </c>
+      <c r="P158">
+        <v>423</v>
+      </c>
+      <c r="Q158">
+        <v>178</v>
+      </c>
+      <c r="R158">
+        <v>129</v>
+      </c>
+      <c r="S158">
+        <v>257</v>
+      </c>
+      <c r="T158">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A159">
         <f t="shared" si="2"/>
         <v>158</v>
@@ -10423,8 +11095,56 @@
       <c r="D159" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E159">
+        <v>3</v>
+      </c>
+      <c r="F159">
+        <v>6</v>
+      </c>
+      <c r="G159">
+        <v>480</v>
+      </c>
+      <c r="H159">
+        <v>4</v>
+      </c>
+      <c r="I159">
+        <v>2</v>
+      </c>
+      <c r="J159">
+        <v>4.2</v>
+      </c>
+      <c r="K159">
+        <v>280</v>
+      </c>
+      <c r="L159">
+        <v>550</v>
+      </c>
+      <c r="M159">
+        <v>1700</v>
+      </c>
+      <c r="N159">
+        <v>440</v>
+      </c>
+      <c r="O159">
+        <v>59</v>
+      </c>
+      <c r="P159">
+        <v>480</v>
+      </c>
+      <c r="Q159">
+        <v>189</v>
+      </c>
+      <c r="R159">
+        <v>139</v>
+      </c>
+      <c r="S159">
+        <v>286</v>
+      </c>
+      <c r="T159">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A160">
         <f t="shared" si="2"/>
         <v>159</v>
@@ -10438,8 +11158,56 @@
       <c r="D160" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E160">
+        <v>4</v>
+      </c>
+      <c r="F160">
+        <v>6</v>
+      </c>
+      <c r="G160">
+        <v>500</v>
+      </c>
+      <c r="H160">
+        <v>2</v>
+      </c>
+      <c r="I160">
+        <v>2</v>
+      </c>
+      <c r="J160">
+        <v>3.3</v>
+      </c>
+      <c r="K160">
+        <v>310</v>
+      </c>
+      <c r="L160">
+        <v>460</v>
+      </c>
+      <c r="M160">
+        <v>1420</v>
+      </c>
+      <c r="N160">
+        <v>125</v>
+      </c>
+      <c r="O160">
+        <v>64</v>
+      </c>
+      <c r="P160">
+        <v>455</v>
+      </c>
+      <c r="Q160">
+        <v>188</v>
+      </c>
+      <c r="R160">
+        <v>129</v>
+      </c>
+      <c r="S160">
+        <v>246</v>
+      </c>
+      <c r="T160">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="161" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A161">
         <f t="shared" si="2"/>
         <v>160</v>
@@ -10453,8 +11221,56 @@
       <c r="D161" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E161">
+        <v>7</v>
+      </c>
+      <c r="F161">
+        <v>8</v>
+      </c>
+      <c r="G161">
+        <v>485</v>
+      </c>
+      <c r="H161">
+        <v>2</v>
+      </c>
+      <c r="I161">
+        <v>2</v>
+      </c>
+      <c r="J161">
+        <v>3.8</v>
+      </c>
+      <c r="K161">
+        <v>298</v>
+      </c>
+      <c r="L161">
+        <v>651</v>
+      </c>
+      <c r="M161">
+        <v>1068</v>
+      </c>
+      <c r="N161">
+        <v>296</v>
+      </c>
+      <c r="O161">
+        <v>159</v>
+      </c>
+      <c r="P161">
+        <v>396</v>
+      </c>
+      <c r="Q161">
+        <v>173</v>
+      </c>
+      <c r="R161">
+        <v>122</v>
+      </c>
+      <c r="S161">
+        <v>229</v>
+      </c>
+      <c r="T161">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A162">
         <f t="shared" si="2"/>
         <v>161</v>
@@ -10468,8 +11284,56 @@
       <c r="D162" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E162">
+        <v>8</v>
+      </c>
+      <c r="F162">
+        <v>10</v>
+      </c>
+      <c r="G162">
+        <v>450</v>
+      </c>
+      <c r="H162">
+        <v>2</v>
+      </c>
+      <c r="I162">
+        <v>3</v>
+      </c>
+      <c r="J162">
+        <v>4.5</v>
+      </c>
+      <c r="K162">
+        <v>298</v>
+      </c>
+      <c r="L162">
+        <v>664</v>
+      </c>
+      <c r="M162">
+        <v>1569</v>
+      </c>
+      <c r="N162">
+        <v>334</v>
+      </c>
+      <c r="O162">
+        <v>70</v>
+      </c>
+      <c r="P162">
+        <v>449</v>
+      </c>
+      <c r="Q162">
+        <v>192</v>
+      </c>
+      <c r="R162">
+        <v>122</v>
+      </c>
+      <c r="S162">
+        <v>244</v>
+      </c>
+      <c r="T162">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="163" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A163">
         <f t="shared" si="2"/>
         <v>162</v>
@@ -10483,8 +11347,56 @@
       <c r="D163" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E163">
+        <v>7</v>
+      </c>
+      <c r="F163">
+        <v>8</v>
+      </c>
+      <c r="G163">
+        <v>375</v>
+      </c>
+      <c r="H163">
+        <v>2</v>
+      </c>
+      <c r="I163">
+        <v>4</v>
+      </c>
+      <c r="J163">
+        <v>5.8</v>
+      </c>
+      <c r="K163">
+        <v>226</v>
+      </c>
+      <c r="L163">
+        <v>610</v>
+      </c>
+      <c r="M163">
+        <v>1755</v>
+      </c>
+      <c r="N163">
+        <v>229</v>
+      </c>
+      <c r="O163">
+        <v>76</v>
+      </c>
+      <c r="P163">
+        <v>476</v>
+      </c>
+      <c r="Q163">
+        <v>181</v>
+      </c>
+      <c r="R163">
+        <v>130</v>
+      </c>
+      <c r="S163">
+        <v>274</v>
+      </c>
+      <c r="T163">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="164" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A164">
         <f t="shared" si="2"/>
         <v>163</v>
@@ -10498,8 +11410,56 @@
       <c r="D164" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E164">
+        <v>5.2</v>
+      </c>
+      <c r="F164">
+        <v>10</v>
+      </c>
+      <c r="G164">
+        <v>620</v>
+      </c>
+      <c r="H164">
+        <v>2</v>
+      </c>
+      <c r="I164">
+        <v>2</v>
+      </c>
+      <c r="J164">
+        <v>3.2</v>
+      </c>
+      <c r="K164">
+        <v>330</v>
+      </c>
+      <c r="L164">
+        <v>570</v>
+      </c>
+      <c r="M164">
+        <v>1270</v>
+      </c>
+      <c r="N164">
+        <v>0</v>
+      </c>
+      <c r="O164">
+        <v>118</v>
+      </c>
+      <c r="P164">
+        <v>446</v>
+      </c>
+      <c r="Q164">
+        <v>192</v>
+      </c>
+      <c r="R164">
+        <v>117</v>
+      </c>
+      <c r="S164">
+        <v>262</v>
+      </c>
+      <c r="T164">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="165" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A165">
         <f t="shared" si="2"/>
         <v>164</v>
@@ -10513,8 +11473,56 @@
       <c r="D165" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E165">
+        <v>4</v>
+      </c>
+      <c r="F165">
+        <v>6</v>
+      </c>
+      <c r="G165">
+        <v>286</v>
+      </c>
+      <c r="H165">
+        <v>4</v>
+      </c>
+      <c r="I165">
+        <v>2</v>
+      </c>
+      <c r="J165">
+        <v>7.3</v>
+      </c>
+      <c r="K165">
+        <v>225</v>
+      </c>
+      <c r="L165">
+        <v>380</v>
+      </c>
+      <c r="M165">
+        <v>1466</v>
+      </c>
+      <c r="N165">
+        <v>363</v>
+      </c>
+      <c r="O165">
+        <v>86</v>
+      </c>
+      <c r="P165">
+        <v>457</v>
+      </c>
+      <c r="Q165">
+        <v>168</v>
+      </c>
+      <c r="R165">
+        <v>135</v>
+      </c>
+      <c r="S165">
+        <v>249</v>
+      </c>
+      <c r="T165">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A166">
         <f t="shared" si="2"/>
         <v>165</v>
@@ -10523,13 +11531,61 @@
         <v>154</v>
       </c>
       <c r="C166">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="D166" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E166">
+        <v>7.4</v>
+      </c>
+      <c r="F166">
+        <v>8</v>
+      </c>
+      <c r="G166">
+        <v>456</v>
+      </c>
+      <c r="H166">
+        <v>4</v>
+      </c>
+      <c r="I166">
+        <v>2</v>
+      </c>
+      <c r="J166">
+        <v>5.4</v>
+      </c>
+      <c r="K166">
+        <v>215</v>
+      </c>
+      <c r="L166">
+        <v>678</v>
+      </c>
+      <c r="M166">
+        <v>1477</v>
+      </c>
+      <c r="N166">
+        <v>413</v>
+      </c>
+      <c r="O166">
+        <v>76</v>
+      </c>
+      <c r="P166">
+        <v>501</v>
+      </c>
+      <c r="Q166">
+        <v>192</v>
+      </c>
+      <c r="R166">
+        <v>134</v>
+      </c>
+      <c r="S166">
+        <v>285</v>
+      </c>
+      <c r="T166">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="167" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A167">
         <f t="shared" si="2"/>
         <v>166</v>
@@ -10544,7 +11600,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A168">
         <f t="shared" si="2"/>
         <v>167</v>
@@ -10559,7 +11615,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A169">
         <f t="shared" si="2"/>
         <v>168</v>
@@ -10574,7 +11630,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A170">
         <f t="shared" si="2"/>
         <v>169</v>
@@ -10589,7 +11645,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A171">
         <f t="shared" si="2"/>
         <v>170</v>
@@ -10604,7 +11660,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A172">
         <f t="shared" si="2"/>
         <v>171</v>
@@ -10619,7 +11675,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A173">
         <f t="shared" si="2"/>
         <v>172</v>
@@ -10634,7 +11690,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A174">
         <f t="shared" si="2"/>
         <v>173</v>
@@ -10649,7 +11705,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A175">
         <f t="shared" si="2"/>
         <v>174</v>
@@ -10664,7 +11720,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A176">
         <f t="shared" si="2"/>
         <v>175</v>

--- a/Samochody.xlsx
+++ b/Samochody.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NASA\PracaInz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B1267F5-981D-4F3E-8CEF-03B358E9169C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3750FB6-C9F1-4226-9C02-97EA00DED373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1103,8 +1103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T242"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
-      <selection activeCell="L157" sqref="L157"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11599,6 +11599,54 @@
       <c r="D167" t="s">
         <v>244</v>
       </c>
+      <c r="E167">
+        <v>2.5</v>
+      </c>
+      <c r="F167">
+        <v>4</v>
+      </c>
+      <c r="G167">
+        <v>300</v>
+      </c>
+      <c r="H167">
+        <v>5</v>
+      </c>
+      <c r="I167">
+        <v>4</v>
+      </c>
+      <c r="J167">
+        <v>5.2</v>
+      </c>
+      <c r="K167">
+        <v>255</v>
+      </c>
+      <c r="L167">
+        <v>407</v>
+      </c>
+      <c r="M167">
+        <v>1500</v>
+      </c>
+      <c r="N167">
+        <v>460</v>
+      </c>
+      <c r="O167">
+        <v>60</v>
+      </c>
+      <c r="P167">
+        <v>460</v>
+      </c>
+      <c r="Q167">
+        <v>180</v>
+      </c>
+      <c r="R167">
+        <v>148</v>
+      </c>
+      <c r="S167">
+        <v>265</v>
+      </c>
+      <c r="T167">
+        <v>6</v>
+      </c>
     </row>
     <row r="168" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A168">
@@ -11614,6 +11662,54 @@
       <c r="D168" t="s">
         <v>241</v>
       </c>
+      <c r="E168">
+        <v>4</v>
+      </c>
+      <c r="F168">
+        <v>8</v>
+      </c>
+      <c r="G168">
+        <v>600</v>
+      </c>
+      <c r="H168">
+        <v>2</v>
+      </c>
+      <c r="I168">
+        <v>2</v>
+      </c>
+      <c r="J168">
+        <v>3.7</v>
+      </c>
+      <c r="K168">
+        <v>304</v>
+      </c>
+      <c r="L168">
+        <v>750</v>
+      </c>
+      <c r="M168">
+        <v>2195</v>
+      </c>
+      <c r="N168">
+        <v>0</v>
+      </c>
+      <c r="O168">
+        <v>90</v>
+      </c>
+      <c r="P168">
+        <v>480</v>
+      </c>
+      <c r="Q168">
+        <v>194</v>
+      </c>
+      <c r="R168">
+        <v>139</v>
+      </c>
+      <c r="S168">
+        <v>275</v>
+      </c>
+      <c r="T168">
+        <v>8</v>
+      </c>
     </row>
     <row r="169" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A169">
@@ -11629,6 +11725,54 @@
       <c r="D169" t="s">
         <v>241</v>
       </c>
+      <c r="E169">
+        <v>3.5</v>
+      </c>
+      <c r="F169">
+        <v>6</v>
+      </c>
+      <c r="G169">
+        <v>350</v>
+      </c>
+      <c r="H169">
+        <v>2</v>
+      </c>
+      <c r="I169">
+        <v>2</v>
+      </c>
+      <c r="J169">
+        <v>4</v>
+      </c>
+      <c r="K169">
+        <v>274</v>
+      </c>
+      <c r="L169">
+        <v>400</v>
+      </c>
+      <c r="M169">
+        <v>1161</v>
+      </c>
+      <c r="N169">
+        <v>134</v>
+      </c>
+      <c r="O169">
+        <v>40</v>
+      </c>
+      <c r="P169">
+        <v>308</v>
+      </c>
+      <c r="Q169">
+        <v>180</v>
+      </c>
+      <c r="R169">
+        <v>113</v>
+      </c>
+      <c r="S169">
+        <v>237</v>
+      </c>
+      <c r="T169">
+        <v>6</v>
+      </c>
     </row>
     <row r="170" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A170">
@@ -11644,6 +11788,54 @@
       <c r="D170" t="s">
         <v>241</v>
       </c>
+      <c r="E170">
+        <v>5.4</v>
+      </c>
+      <c r="F170">
+        <v>8</v>
+      </c>
+      <c r="G170">
+        <v>305</v>
+      </c>
+      <c r="H170">
+        <v>2</v>
+      </c>
+      <c r="I170">
+        <v>2</v>
+      </c>
+      <c r="J170">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="K170">
+        <v>237</v>
+      </c>
+      <c r="L170">
+        <v>624</v>
+      </c>
+      <c r="M170">
+        <v>1525</v>
+      </c>
+      <c r="N170">
+        <v>297</v>
+      </c>
+      <c r="O170">
+        <v>76</v>
+      </c>
+      <c r="P170">
+        <v>445</v>
+      </c>
+      <c r="Q170">
+        <v>177</v>
+      </c>
+      <c r="R170">
+        <v>127</v>
+      </c>
+      <c r="S170">
+        <v>143</v>
+      </c>
+      <c r="T170">
+        <v>4</v>
+      </c>
     </row>
     <row r="171" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A171">
@@ -11659,6 +11851,54 @@
       <c r="D171" t="s">
         <v>245</v>
       </c>
+      <c r="E171">
+        <v>3.8</v>
+      </c>
+      <c r="F171">
+        <v>6</v>
+      </c>
+      <c r="G171">
+        <v>306</v>
+      </c>
+      <c r="H171">
+        <v>4</v>
+      </c>
+      <c r="I171">
+        <v>2</v>
+      </c>
+      <c r="J171">
+        <v>6</v>
+      </c>
+      <c r="K171">
+        <v>240</v>
+      </c>
+      <c r="L171">
+        <v>361</v>
+      </c>
+      <c r="M171">
+        <v>1560</v>
+      </c>
+      <c r="N171">
+        <v>332</v>
+      </c>
+      <c r="O171">
+        <v>65</v>
+      </c>
+      <c r="P171">
+        <v>463</v>
+      </c>
+      <c r="Q171">
+        <v>186</v>
+      </c>
+      <c r="R171">
+        <v>138</v>
+      </c>
+      <c r="S171">
+        <v>282</v>
+      </c>
+      <c r="T171">
+        <v>6</v>
+      </c>
     </row>
     <row r="172" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A172">
@@ -11674,6 +11914,54 @@
       <c r="D172" t="s">
         <v>240</v>
       </c>
+      <c r="E172">
+        <v>4.2</v>
+      </c>
+      <c r="F172">
+        <v>8</v>
+      </c>
+      <c r="G172">
+        <v>350</v>
+      </c>
+      <c r="H172">
+        <v>5</v>
+      </c>
+      <c r="I172">
+        <v>4</v>
+      </c>
+      <c r="J172">
+        <v>5.9</v>
+      </c>
+      <c r="K172">
+        <v>250</v>
+      </c>
+      <c r="L172">
+        <v>440</v>
+      </c>
+      <c r="M172">
+        <v>1770</v>
+      </c>
+      <c r="N172">
+        <v>546</v>
+      </c>
+      <c r="O172">
+        <v>80</v>
+      </c>
+      <c r="P172">
+        <v>492</v>
+      </c>
+      <c r="Q172">
+        <v>186</v>
+      </c>
+      <c r="R172">
+        <v>146</v>
+      </c>
+      <c r="S172">
+        <v>284</v>
+      </c>
+      <c r="T172">
+        <v>6</v>
+      </c>
     </row>
     <row r="173" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A173">
@@ -11689,6 +11977,54 @@
       <c r="D173" t="s">
         <v>240</v>
       </c>
+      <c r="E173">
+        <v>0</v>
+      </c>
+      <c r="F173">
+        <v>2</v>
+      </c>
+      <c r="G173">
+        <v>646</v>
+      </c>
+      <c r="H173">
+        <v>4</v>
+      </c>
+      <c r="I173">
+        <v>4</v>
+      </c>
+      <c r="J173">
+        <v>3.3</v>
+      </c>
+      <c r="K173">
+        <v>250</v>
+      </c>
+      <c r="L173">
+        <v>830</v>
+      </c>
+      <c r="M173">
+        <v>2347</v>
+      </c>
+      <c r="N173">
+        <v>350</v>
+      </c>
+      <c r="O173">
+        <v>0</v>
+      </c>
+      <c r="P173">
+        <v>499</v>
+      </c>
+      <c r="Q173">
+        <v>196</v>
+      </c>
+      <c r="R173">
+        <v>141</v>
+      </c>
+      <c r="S173">
+        <v>290</v>
+      </c>
+      <c r="T173">
+        <v>2</v>
+      </c>
     </row>
     <row r="174" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A174">
@@ -11704,6 +12040,54 @@
       <c r="D174" t="s">
         <v>241</v>
       </c>
+      <c r="E174">
+        <v>4</v>
+      </c>
+      <c r="F174">
+        <v>8</v>
+      </c>
+      <c r="G174">
+        <v>490</v>
+      </c>
+      <c r="H174">
+        <v>2</v>
+      </c>
+      <c r="I174">
+        <v>2</v>
+      </c>
+      <c r="J174">
+        <v>3.9</v>
+      </c>
+      <c r="K174">
+        <v>249</v>
+      </c>
+      <c r="L174">
+        <v>500</v>
+      </c>
+      <c r="M174">
+        <v>1113</v>
+      </c>
+      <c r="N174">
+        <v>0</v>
+      </c>
+      <c r="O174">
+        <v>120</v>
+      </c>
+      <c r="P174">
+        <v>501</v>
+      </c>
+      <c r="Q174">
+        <v>195</v>
+      </c>
+      <c r="R174">
+        <v>125</v>
+      </c>
+      <c r="S174">
+        <v>275</v>
+      </c>
+      <c r="T174">
+        <v>6</v>
+      </c>
     </row>
     <row r="175" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A175">
@@ -11719,6 +12103,54 @@
       <c r="D175" t="s">
         <v>241</v>
       </c>
+      <c r="E175">
+        <v>6</v>
+      </c>
+      <c r="F175">
+        <v>12</v>
+      </c>
+      <c r="G175">
+        <v>592</v>
+      </c>
+      <c r="H175">
+        <v>2</v>
+      </c>
+      <c r="I175">
+        <v>2</v>
+      </c>
+      <c r="J175">
+        <v>3.8</v>
+      </c>
+      <c r="K175">
+        <v>330</v>
+      </c>
+      <c r="L175">
+        <v>700</v>
+      </c>
+      <c r="M175">
+        <v>1000</v>
+      </c>
+      <c r="N175">
+        <v>0</v>
+      </c>
+      <c r="O175">
+        <v>90</v>
+      </c>
+      <c r="P175">
+        <v>486</v>
+      </c>
+      <c r="Q175">
+        <v>195</v>
+      </c>
+      <c r="R175">
+        <v>110</v>
+      </c>
+      <c r="S175">
+        <v>267</v>
+      </c>
+      <c r="T175">
+        <v>6</v>
+      </c>
     </row>
     <row r="176" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A176">
@@ -11734,8 +12166,56 @@
       <c r="D176" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E176">
+        <v>3</v>
+      </c>
+      <c r="F176">
+        <v>6</v>
+      </c>
+      <c r="G176">
+        <v>211</v>
+      </c>
+      <c r="H176">
+        <v>5</v>
+      </c>
+      <c r="I176">
+        <v>2</v>
+      </c>
+      <c r="J176">
+        <v>8.4</v>
+      </c>
+      <c r="K176">
+        <v>243</v>
+      </c>
+      <c r="L176">
+        <v>290</v>
+      </c>
+      <c r="M176">
+        <v>1687</v>
+      </c>
+      <c r="N176">
+        <v>400</v>
+      </c>
+      <c r="O176">
+        <v>67</v>
+      </c>
+      <c r="P176">
+        <v>482</v>
+      </c>
+      <c r="Q176">
+        <v>187</v>
+      </c>
+      <c r="R176">
+        <v>140</v>
+      </c>
+      <c r="S176">
+        <v>273</v>
+      </c>
+      <c r="T176">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="177" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A177">
         <f t="shared" si="2"/>
         <v>176</v>
@@ -11749,8 +12229,56 @@
       <c r="D177" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E177">
+        <v>7.5</v>
+      </c>
+      <c r="F177">
+        <v>8</v>
+      </c>
+      <c r="G177">
+        <v>305</v>
+      </c>
+      <c r="H177">
+        <v>2</v>
+      </c>
+      <c r="I177">
+        <v>2</v>
+      </c>
+      <c r="J177">
+        <v>6.1</v>
+      </c>
+      <c r="K177">
+        <v>176</v>
+      </c>
+      <c r="L177">
+        <v>563</v>
+      </c>
+      <c r="M177">
+        <v>1694</v>
+      </c>
+      <c r="N177">
+        <v>205</v>
+      </c>
+      <c r="O177">
+        <v>64</v>
+      </c>
+      <c r="P177">
+        <v>500</v>
+      </c>
+      <c r="Q177">
+        <v>185</v>
+      </c>
+      <c r="R177">
+        <v>128</v>
+      </c>
+      <c r="S177">
+        <v>275</v>
+      </c>
+      <c r="T177">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A178">
         <f t="shared" si="2"/>
         <v>177</v>
@@ -11764,8 +12292,56 @@
       <c r="D178" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E178">
+        <v>3.7</v>
+      </c>
+      <c r="F178">
+        <v>6</v>
+      </c>
+      <c r="G178">
+        <v>305</v>
+      </c>
+      <c r="H178">
+        <v>5</v>
+      </c>
+      <c r="I178">
+        <v>4</v>
+      </c>
+      <c r="J178">
+        <v>7.8</v>
+      </c>
+      <c r="K178">
+        <v>212</v>
+      </c>
+      <c r="L178">
+        <v>378</v>
+      </c>
+      <c r="M178">
+        <v>1821</v>
+      </c>
+      <c r="N178">
+        <v>569</v>
+      </c>
+      <c r="O178">
+        <v>60</v>
+      </c>
+      <c r="P178">
+        <v>515</v>
+      </c>
+      <c r="Q178">
+        <v>194</v>
+      </c>
+      <c r="R178">
+        <v>154</v>
+      </c>
+      <c r="S178">
+        <v>287</v>
+      </c>
+      <c r="T178">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="179" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A179">
         <f t="shared" si="2"/>
         <v>178</v>
@@ -11779,8 +12355,56 @@
       <c r="D179" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E179">
+        <v>0</v>
+      </c>
+      <c r="F179">
+        <v>2</v>
+      </c>
+      <c r="G179">
+        <v>761</v>
+      </c>
+      <c r="H179">
+        <v>4</v>
+      </c>
+      <c r="I179">
+        <v>4</v>
+      </c>
+      <c r="J179">
+        <v>2.8</v>
+      </c>
+      <c r="K179">
+        <v>260</v>
+      </c>
+      <c r="L179">
+        <v>1050</v>
+      </c>
+      <c r="M179">
+        <v>2295</v>
+      </c>
+      <c r="N179">
+        <v>366</v>
+      </c>
+      <c r="O179">
+        <v>0</v>
+      </c>
+      <c r="P179">
+        <v>496</v>
+      </c>
+      <c r="Q179">
+        <v>197</v>
+      </c>
+      <c r="R179">
+        <v>138</v>
+      </c>
+      <c r="S179">
+        <v>290</v>
+      </c>
+      <c r="T179">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A180">
         <f t="shared" si="2"/>
         <v>179</v>
@@ -11794,8 +12418,56 @@
       <c r="D180" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E180">
+        <v>3</v>
+      </c>
+      <c r="F180">
+        <v>6</v>
+      </c>
+      <c r="G180">
+        <v>380</v>
+      </c>
+      <c r="H180">
+        <v>2</v>
+      </c>
+      <c r="I180">
+        <v>2</v>
+      </c>
+      <c r="J180">
+        <v>5.5</v>
+      </c>
+      <c r="K180">
+        <v>275</v>
+      </c>
+      <c r="L180">
+        <v>460</v>
+      </c>
+      <c r="M180">
+        <v>1584</v>
+      </c>
+      <c r="N180">
+        <v>310</v>
+      </c>
+      <c r="O180">
+        <v>70</v>
+      </c>
+      <c r="P180">
+        <v>448</v>
+      </c>
+      <c r="Q180">
+        <v>192</v>
+      </c>
+      <c r="R180">
+        <v>131</v>
+      </c>
+      <c r="S180">
+        <v>262</v>
+      </c>
+      <c r="T180">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="181" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A181">
         <f t="shared" si="2"/>
         <v>180</v>
@@ -11809,8 +12481,56 @@
       <c r="D181" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E181">
+        <v>2.4</v>
+      </c>
+      <c r="F181">
+        <v>6</v>
+      </c>
+      <c r="G181">
+        <v>195</v>
+      </c>
+      <c r="H181">
+        <v>2</v>
+      </c>
+      <c r="I181">
+        <v>2</v>
+      </c>
+      <c r="J181">
+        <v>7.1</v>
+      </c>
+      <c r="K181">
+        <v>238</v>
+      </c>
+      <c r="L181">
+        <v>225</v>
+      </c>
+      <c r="M181">
+        <v>1080</v>
+      </c>
+      <c r="N181">
+        <v>300</v>
+      </c>
+      <c r="O181">
+        <v>65</v>
+      </c>
+      <c r="P181">
+        <v>424</v>
+      </c>
+      <c r="Q181">
+        <v>170</v>
+      </c>
+      <c r="R181">
+        <v>114</v>
+      </c>
+      <c r="S181">
+        <v>234</v>
+      </c>
+      <c r="T181">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="182" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A182">
         <f t="shared" si="2"/>
         <v>181</v>
@@ -11824,8 +12544,56 @@
       <c r="D182" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E182">
+        <v>2.7</v>
+      </c>
+      <c r="F182">
+        <v>6</v>
+      </c>
+      <c r="G182">
+        <v>220</v>
+      </c>
+      <c r="H182">
+        <v>2</v>
+      </c>
+      <c r="I182">
+        <v>2</v>
+      </c>
+      <c r="J182">
+        <v>6.6</v>
+      </c>
+      <c r="K182">
+        <v>250</v>
+      </c>
+      <c r="L182">
+        <v>260</v>
+      </c>
+      <c r="M182">
+        <v>1260</v>
+      </c>
+      <c r="N182">
+        <v>260</v>
+      </c>
+      <c r="O182">
+        <v>64</v>
+      </c>
+      <c r="P182">
+        <v>432</v>
+      </c>
+      <c r="Q182">
+        <v>178</v>
+      </c>
+      <c r="R182">
+        <v>129</v>
+      </c>
+      <c r="S182">
+        <v>242</v>
+      </c>
+      <c r="T182">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="183" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A183">
         <f t="shared" si="2"/>
         <v>182</v>
@@ -11839,8 +12607,56 @@
       <c r="D183" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E183">
+        <v>2</v>
+      </c>
+      <c r="F183">
+        <v>4</v>
+      </c>
+      <c r="G183">
+        <v>160</v>
+      </c>
+      <c r="H183">
+        <v>4</v>
+      </c>
+      <c r="I183">
+        <v>2</v>
+      </c>
+      <c r="J183">
+        <v>6.8</v>
+      </c>
+      <c r="K183">
+        <v>221</v>
+      </c>
+      <c r="L183">
+        <v>221</v>
+      </c>
+      <c r="M183">
+        <v>900</v>
+      </c>
+      <c r="N183">
+        <v>198</v>
+      </c>
+      <c r="O183">
+        <v>68</v>
+      </c>
+      <c r="P183">
+        <v>419</v>
+      </c>
+      <c r="Q183">
+        <v>186</v>
+      </c>
+      <c r="R183">
+        <v>111</v>
+      </c>
+      <c r="S183">
+        <v>244</v>
+      </c>
+      <c r="T183">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="184" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A184">
         <f t="shared" si="2"/>
         <v>183</v>
@@ -11854,8 +12670,56 @@
       <c r="D184" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E184">
+        <v>5</v>
+      </c>
+      <c r="F184">
+        <v>8</v>
+      </c>
+      <c r="G184">
+        <v>306</v>
+      </c>
+      <c r="H184">
+        <v>4</v>
+      </c>
+      <c r="I184">
+        <v>2</v>
+      </c>
+      <c r="J184">
+        <v>6.3</v>
+      </c>
+      <c r="K184">
+        <v>250</v>
+      </c>
+      <c r="L184">
+        <v>460</v>
+      </c>
+      <c r="M184">
+        <v>1810</v>
+      </c>
+      <c r="N184">
+        <v>450</v>
+      </c>
+      <c r="O184">
+        <v>88</v>
+      </c>
+      <c r="P184">
+        <v>499</v>
+      </c>
+      <c r="Q184">
+        <v>186</v>
+      </c>
+      <c r="R184">
+        <v>140</v>
+      </c>
+      <c r="S184">
+        <v>289</v>
+      </c>
+      <c r="T184">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="185" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A185">
         <f t="shared" si="2"/>
         <v>184</v>
@@ -11869,8 +12733,56 @@
       <c r="D185" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E185">
+        <v>2</v>
+      </c>
+      <c r="F185">
+        <v>4</v>
+      </c>
+      <c r="G185">
+        <v>300</v>
+      </c>
+      <c r="H185">
+        <v>2</v>
+      </c>
+      <c r="I185">
+        <v>2</v>
+      </c>
+      <c r="J185">
+        <v>5.3</v>
+      </c>
+      <c r="K185">
+        <v>275</v>
+      </c>
+      <c r="L185">
+        <v>380</v>
+      </c>
+      <c r="M185">
+        <v>1335</v>
+      </c>
+      <c r="N185">
+        <v>150</v>
+      </c>
+      <c r="O185">
+        <v>54</v>
+      </c>
+      <c r="P185">
+        <v>438</v>
+      </c>
+      <c r="Q185">
+        <v>180</v>
+      </c>
+      <c r="R185">
+        <v>128</v>
+      </c>
+      <c r="S185">
+        <v>248</v>
+      </c>
+      <c r="T185">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="186" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A186">
         <f t="shared" si="2"/>
         <v>185</v>
@@ -11884,8 +12796,56 @@
       <c r="D186" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E186">
+        <v>2</v>
+      </c>
+      <c r="F186">
+        <v>4</v>
+      </c>
+      <c r="G186">
+        <v>210</v>
+      </c>
+      <c r="H186">
+        <v>5</v>
+      </c>
+      <c r="I186">
+        <v>5</v>
+      </c>
+      <c r="J186">
+        <v>6.9</v>
+      </c>
+      <c r="K186">
+        <v>240</v>
+      </c>
+      <c r="L186">
+        <v>280</v>
+      </c>
+      <c r="M186">
+        <v>1318</v>
+      </c>
+      <c r="N186">
+        <v>350</v>
+      </c>
+      <c r="O186">
+        <v>55</v>
+      </c>
+      <c r="P186">
+        <v>421</v>
+      </c>
+      <c r="Q186">
+        <v>179</v>
+      </c>
+      <c r="R186">
+        <v>147</v>
+      </c>
+      <c r="S186">
+        <v>258</v>
+      </c>
+      <c r="T186">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="187" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A187">
         <f t="shared" si="2"/>
         <v>186</v>
@@ -11899,8 +12859,56 @@
       <c r="D187" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E187">
+        <v>7</v>
+      </c>
+      <c r="F187">
+        <v>8</v>
+      </c>
+      <c r="G187">
+        <v>385</v>
+      </c>
+      <c r="H187">
+        <v>5</v>
+      </c>
+      <c r="I187">
+        <v>4</v>
+      </c>
+      <c r="J187">
+        <v>6.5</v>
+      </c>
+      <c r="K187">
+        <v>215</v>
+      </c>
+      <c r="L187">
+        <v>610</v>
+      </c>
+      <c r="M187">
+        <v>1740</v>
+      </c>
+      <c r="N187">
+        <v>813</v>
+      </c>
+      <c r="O187">
+        <v>91</v>
+      </c>
+      <c r="P187">
+        <v>542</v>
+      </c>
+      <c r="Q187">
+        <v>203</v>
+      </c>
+      <c r="R187">
+        <v>138</v>
+      </c>
+      <c r="S187">
+        <v>302</v>
+      </c>
+      <c r="T187">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="188" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A188">
         <f t="shared" si="2"/>
         <v>187</v>
@@ -11914,8 +12922,56 @@
       <c r="D188" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E188">
+        <v>6.5</v>
+      </c>
+      <c r="F188">
+        <v>12</v>
+      </c>
+      <c r="G188">
+        <v>819</v>
+      </c>
+      <c r="H188">
+        <v>2</v>
+      </c>
+      <c r="I188">
+        <v>2</v>
+      </c>
+      <c r="J188">
+        <v>2.8</v>
+      </c>
+      <c r="K188">
+        <v>355</v>
+      </c>
+      <c r="L188">
+        <v>720</v>
+      </c>
+      <c r="M188">
+        <v>1595</v>
+      </c>
+      <c r="N188">
+        <v>63</v>
+      </c>
+      <c r="O188">
+        <v>70</v>
+      </c>
+      <c r="P188">
+        <v>487</v>
+      </c>
+      <c r="Q188">
+        <v>210</v>
+      </c>
+      <c r="R188">
+        <v>114</v>
+      </c>
+      <c r="S188">
+        <v>270</v>
+      </c>
+      <c r="T188">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="189" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A189">
         <f t="shared" si="2"/>
         <v>188</v>
@@ -11929,8 +12985,56 @@
       <c r="D189" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E189">
+        <v>6.5</v>
+      </c>
+      <c r="F189">
+        <v>12</v>
+      </c>
+      <c r="G189">
+        <v>640</v>
+      </c>
+      <c r="H189">
+        <v>2</v>
+      </c>
+      <c r="I189">
+        <v>2</v>
+      </c>
+      <c r="J189">
+        <v>3.4</v>
+      </c>
+      <c r="K189">
+        <v>338</v>
+      </c>
+      <c r="L189">
+        <v>660</v>
+      </c>
+      <c r="M189">
+        <v>1830</v>
+      </c>
+      <c r="N189">
+        <v>140</v>
+      </c>
+      <c r="O189">
+        <v>100</v>
+      </c>
+      <c r="P189">
+        <v>461</v>
+      </c>
+      <c r="Q189">
+        <v>206</v>
+      </c>
+      <c r="R189">
+        <v>114</v>
+      </c>
+      <c r="S189">
+        <v>267</v>
+      </c>
+      <c r="T189">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="190" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A190">
         <f t="shared" si="2"/>
         <v>189</v>
@@ -11944,8 +13048,56 @@
       <c r="D190" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E190">
+        <v>5</v>
+      </c>
+      <c r="F190">
+        <v>8</v>
+      </c>
+      <c r="G190">
+        <v>600</v>
+      </c>
+      <c r="H190">
+        <v>4</v>
+      </c>
+      <c r="I190">
+        <v>4</v>
+      </c>
+      <c r="J190">
+        <v>3.7</v>
+      </c>
+      <c r="K190">
+        <v>322</v>
+      </c>
+      <c r="L190">
+        <v>700</v>
+      </c>
+      <c r="M190">
+        <v>1745</v>
+      </c>
+      <c r="N190">
+        <v>450</v>
+      </c>
+      <c r="O190">
+        <v>75</v>
+      </c>
+      <c r="P190">
+        <v>471</v>
+      </c>
+      <c r="Q190">
+        <v>208</v>
+      </c>
+      <c r="R190">
+        <v>144</v>
+      </c>
+      <c r="S190">
+        <v>284</v>
+      </c>
+      <c r="T190">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="191" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A191">
         <f t="shared" si="2"/>
         <v>190</v>
@@ -11959,8 +13111,56 @@
       <c r="D191" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E191">
+        <v>6.2</v>
+      </c>
+      <c r="F191">
+        <v>8</v>
+      </c>
+      <c r="G191">
+        <v>462</v>
+      </c>
+      <c r="H191">
+        <v>2</v>
+      </c>
+      <c r="I191">
+        <v>2</v>
+      </c>
+      <c r="J191">
+        <v>3.5</v>
+      </c>
+      <c r="K191">
+        <v>296</v>
+      </c>
+      <c r="L191">
+        <v>613</v>
+      </c>
+      <c r="M191">
+        <v>1730</v>
+      </c>
+      <c r="N191">
+        <v>357</v>
+      </c>
+      <c r="O191">
+        <v>70</v>
+      </c>
+      <c r="P191">
+        <v>463</v>
+      </c>
+      <c r="Q191">
+        <v>193</v>
+      </c>
+      <c r="R191">
+        <v>124</v>
+      </c>
+      <c r="S191">
+        <v>272</v>
+      </c>
+      <c r="T191">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="192" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A192">
         <f t="shared" si="2"/>
         <v>191</v>
@@ -11974,8 +13174,56 @@
       <c r="D192" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E192">
+        <v>3.5</v>
+      </c>
+      <c r="F192">
+        <v>6</v>
+      </c>
+      <c r="G192">
+        <v>656</v>
+      </c>
+      <c r="H192">
+        <v>2</v>
+      </c>
+      <c r="I192">
+        <v>2</v>
+      </c>
+      <c r="J192">
+        <v>3.2</v>
+      </c>
+      <c r="K192">
+        <v>347</v>
+      </c>
+      <c r="L192">
+        <v>746</v>
+      </c>
+      <c r="M192">
+        <v>1385</v>
+      </c>
+      <c r="N192">
+        <v>501</v>
+      </c>
+      <c r="O192">
+        <v>57</v>
+      </c>
+      <c r="P192">
+        <v>476</v>
+      </c>
+      <c r="Q192">
+        <v>200</v>
+      </c>
+      <c r="R192">
+        <v>111</v>
+      </c>
+      <c r="S192">
+        <v>271</v>
+      </c>
+      <c r="T192">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="193" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A193">
         <f t="shared" si="2"/>
         <v>192</v>
@@ -11989,8 +13237,56 @@
       <c r="D193" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E193">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F193">
+        <v>8</v>
+      </c>
+      <c r="G193">
+        <v>625</v>
+      </c>
+      <c r="H193">
+        <v>4</v>
+      </c>
+      <c r="I193">
+        <v>2</v>
+      </c>
+      <c r="J193">
+        <v>3.2</v>
+      </c>
+      <c r="K193">
+        <v>304</v>
+      </c>
+      <c r="L193">
+        <v>750</v>
+      </c>
+      <c r="M193">
+        <v>1900</v>
+      </c>
+      <c r="N193">
+        <v>420</v>
+      </c>
+      <c r="O193">
+        <v>68</v>
+      </c>
+      <c r="P193">
+        <v>487</v>
+      </c>
+      <c r="Q193">
+        <v>191</v>
+      </c>
+      <c r="R193">
+        <v>214</v>
+      </c>
+      <c r="S193">
+        <v>283</v>
+      </c>
+      <c r="T193">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="194" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A194">
         <f t="shared" si="2"/>
         <v>193</v>
@@ -12004,8 +13300,56 @@
       <c r="D194" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E194">
+        <v>6</v>
+      </c>
+      <c r="F194">
+        <v>12</v>
+      </c>
+      <c r="G194">
+        <v>600</v>
+      </c>
+      <c r="H194">
+        <v>3</v>
+      </c>
+      <c r="I194">
+        <v>2</v>
+      </c>
+      <c r="J194">
+        <v>3</v>
+      </c>
+      <c r="K194">
+        <v>362</v>
+      </c>
+      <c r="L194">
+        <v>627</v>
+      </c>
+      <c r="M194">
+        <v>1060</v>
+      </c>
+      <c r="N194">
+        <v>285</v>
+      </c>
+      <c r="O194">
+        <v>90</v>
+      </c>
+      <c r="P194">
+        <v>429</v>
+      </c>
+      <c r="Q194">
+        <v>182</v>
+      </c>
+      <c r="R194">
+        <v>114</v>
+      </c>
+      <c r="S194">
+        <v>272</v>
+      </c>
+      <c r="T194">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="195" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A195">
         <f t="shared" si="2"/>
         <v>194</v>
@@ -12019,8 +13363,56 @@
       <c r="D195" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E195">
+        <v>7</v>
+      </c>
+      <c r="F195">
+        <v>12</v>
+      </c>
+      <c r="G195">
+        <v>811</v>
+      </c>
+      <c r="H195">
+        <v>2</v>
+      </c>
+      <c r="I195">
+        <v>2</v>
+      </c>
+      <c r="J195">
+        <v>3</v>
+      </c>
+      <c r="K195">
+        <v>360</v>
+      </c>
+      <c r="L195">
+        <v>800</v>
+      </c>
+      <c r="M195">
+        <v>1350</v>
+      </c>
+      <c r="N195">
+        <v>0</v>
+      </c>
+      <c r="O195">
+        <v>120</v>
+      </c>
+      <c r="P195">
+        <v>481</v>
+      </c>
+      <c r="Q195">
+        <v>206</v>
+      </c>
+      <c r="R195">
+        <v>124</v>
+      </c>
+      <c r="S195">
+        <v>280</v>
+      </c>
+      <c r="T195">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="196" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A196">
         <f t="shared" ref="A196:A238" si="3">A195+1</f>
         <v>195</v>
@@ -12034,8 +13426,56 @@
       <c r="D196" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E196">
+        <v>3.5</v>
+      </c>
+      <c r="F196">
+        <v>6</v>
+      </c>
+      <c r="G196">
+        <v>573</v>
+      </c>
+      <c r="H196">
+        <v>2</v>
+      </c>
+      <c r="I196">
+        <v>2</v>
+      </c>
+      <c r="J196">
+        <v>3.8</v>
+      </c>
+      <c r="K196">
+        <v>307</v>
+      </c>
+      <c r="L196">
+        <v>550</v>
+      </c>
+      <c r="M196">
+        <v>1725</v>
+      </c>
+      <c r="N196">
+        <v>110</v>
+      </c>
+      <c r="O196">
+        <v>59</v>
+      </c>
+      <c r="P196">
+        <v>447</v>
+      </c>
+      <c r="Q196">
+        <v>223</v>
+      </c>
+      <c r="R196">
+        <v>121</v>
+      </c>
+      <c r="S196">
+        <v>263</v>
+      </c>
+      <c r="T196">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="197" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A197">
         <f t="shared" si="3"/>
         <v>196</v>
@@ -12049,8 +13489,56 @@
       <c r="D197" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E197">
+        <v>5.7</v>
+      </c>
+      <c r="F197">
+        <v>8</v>
+      </c>
+      <c r="G197">
+        <v>157</v>
+      </c>
+      <c r="H197">
+        <v>4</v>
+      </c>
+      <c r="I197">
+        <v>2</v>
+      </c>
+      <c r="J197">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="K197">
+        <v>190</v>
+      </c>
+      <c r="L197">
+        <v>353</v>
+      </c>
+      <c r="M197">
+        <v>1626</v>
+      </c>
+      <c r="N197">
+        <v>312</v>
+      </c>
+      <c r="O197">
+        <v>79</v>
+      </c>
+      <c r="P197">
+        <v>500</v>
+      </c>
+      <c r="Q197">
+        <v>186</v>
+      </c>
+      <c r="R197">
+        <v>125</v>
+      </c>
+      <c r="S197">
+        <v>175</v>
+      </c>
+      <c r="T197">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A198">
         <f t="shared" si="3"/>
         <v>197</v>
@@ -12059,13 +13547,61 @@
         <v>182</v>
       </c>
       <c r="C198">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D198" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E198">
+        <v>3.8</v>
+      </c>
+      <c r="F198">
+        <v>6</v>
+      </c>
+      <c r="G198">
+        <v>700</v>
+      </c>
+      <c r="H198">
+        <v>2</v>
+      </c>
+      <c r="I198">
+        <v>2</v>
+      </c>
+      <c r="J198">
+        <v>2.8</v>
+      </c>
+      <c r="K198">
+        <v>340</v>
+      </c>
+      <c r="L198">
+        <v>700</v>
+      </c>
+      <c r="M198">
+        <v>1470</v>
+      </c>
+      <c r="N198">
+        <v>115</v>
+      </c>
+      <c r="O198">
+        <v>64</v>
+      </c>
+      <c r="P198">
+        <v>455</v>
+      </c>
+      <c r="Q198">
+        <v>188</v>
+      </c>
+      <c r="R198">
+        <v>130</v>
+      </c>
+      <c r="S198">
+        <v>245</v>
+      </c>
+      <c r="T198">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="199" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A199">
         <f t="shared" si="3"/>
         <v>198</v>
@@ -12079,8 +13615,56 @@
       <c r="D199" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E199">
+        <v>4.5</v>
+      </c>
+      <c r="F199">
+        <v>8</v>
+      </c>
+      <c r="G199">
+        <v>570</v>
+      </c>
+      <c r="H199">
+        <v>2</v>
+      </c>
+      <c r="I199">
+        <v>2</v>
+      </c>
+      <c r="J199">
+        <v>3.4</v>
+      </c>
+      <c r="K199">
+        <v>325</v>
+      </c>
+      <c r="L199">
+        <v>540</v>
+      </c>
+      <c r="M199">
+        <v>1380</v>
+      </c>
+      <c r="N199">
+        <v>229</v>
+      </c>
+      <c r="O199">
+        <v>86</v>
+      </c>
+      <c r="P199">
+        <v>453</v>
+      </c>
+      <c r="Q199">
+        <v>194</v>
+      </c>
+      <c r="R199">
+        <v>121</v>
+      </c>
+      <c r="S199">
+        <v>265</v>
+      </c>
+      <c r="T199">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="200" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A200">
         <f t="shared" si="3"/>
         <v>199</v>
@@ -12094,8 +13678,56 @@
       <c r="D200" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E200">
+        <v>5.2</v>
+      </c>
+      <c r="F200">
+        <v>10</v>
+      </c>
+      <c r="G200">
+        <v>570</v>
+      </c>
+      <c r="H200">
+        <v>2</v>
+      </c>
+      <c r="I200">
+        <v>2</v>
+      </c>
+      <c r="J200">
+        <v>3.4</v>
+      </c>
+      <c r="K200">
+        <v>325</v>
+      </c>
+      <c r="L200">
+        <v>540</v>
+      </c>
+      <c r="M200">
+        <v>1430</v>
+      </c>
+      <c r="N200">
+        <v>110</v>
+      </c>
+      <c r="O200">
+        <v>90</v>
+      </c>
+      <c r="P200">
+        <v>435</v>
+      </c>
+      <c r="Q200">
+        <v>190</v>
+      </c>
+      <c r="R200">
+        <v>117</v>
+      </c>
+      <c r="S200">
+        <v>256</v>
+      </c>
+      <c r="T200">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="201" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A201">
         <f t="shared" si="3"/>
         <v>200</v>
@@ -12109,8 +13741,56 @@
       <c r="D201" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E201">
+        <v>6.5</v>
+      </c>
+      <c r="F201">
+        <v>12</v>
+      </c>
+      <c r="G201">
+        <v>819</v>
+      </c>
+      <c r="H201">
+        <v>2</v>
+      </c>
+      <c r="I201">
+        <v>2</v>
+      </c>
+      <c r="J201">
+        <v>2.8</v>
+      </c>
+      <c r="K201">
+        <v>350</v>
+      </c>
+      <c r="L201">
+        <v>720</v>
+      </c>
+      <c r="M201">
+        <v>1601</v>
+      </c>
+      <c r="N201">
+        <v>140</v>
+      </c>
+      <c r="O201">
+        <v>85</v>
+      </c>
+      <c r="P201">
+        <v>498</v>
+      </c>
+      <c r="Q201">
+        <v>210</v>
+      </c>
+      <c r="R201">
+        <v>113</v>
+      </c>
+      <c r="S201">
+        <v>270</v>
+      </c>
+      <c r="T201">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="202" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A202">
         <f t="shared" si="3"/>
         <v>201</v>
@@ -12125,7 +13805,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A203">
         <f t="shared" si="3"/>
         <v>202</v>
@@ -12140,7 +13820,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A204">
         <f t="shared" si="3"/>
         <v>203</v>
@@ -12155,7 +13835,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A205">
         <f t="shared" si="3"/>
         <v>204</v>
@@ -12170,7 +13850,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A206">
         <f t="shared" si="3"/>
         <v>205</v>
@@ -12185,7 +13865,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A207">
         <f t="shared" si="3"/>
         <v>206</v>
@@ -12200,7 +13880,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A208">
         <f t="shared" si="3"/>
         <v>207</v>

--- a/Samochody.xlsx
+++ b/Samochody.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NASA\PracaInz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3750FB6-C9F1-4226-9C02-97EA00DED373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0861107-0114-4526-A9CA-346B2BEC2F52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1104,7 +1104,7 @@
   <dimension ref="A1:T242"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13804,6 +13804,54 @@
       <c r="D202" t="s">
         <v>241</v>
       </c>
+      <c r="E202">
+        <v>8</v>
+      </c>
+      <c r="F202">
+        <v>16</v>
+      </c>
+      <c r="G202">
+        <v>1600</v>
+      </c>
+      <c r="H202">
+        <v>2</v>
+      </c>
+      <c r="I202">
+        <v>2</v>
+      </c>
+      <c r="J202">
+        <v>2.4</v>
+      </c>
+      <c r="K202">
+        <v>492</v>
+      </c>
+      <c r="L202">
+        <v>1600</v>
+      </c>
+      <c r="M202">
+        <v>1995</v>
+      </c>
+      <c r="N202">
+        <v>57</v>
+      </c>
+      <c r="O202">
+        <v>100</v>
+      </c>
+      <c r="P202">
+        <v>473</v>
+      </c>
+      <c r="Q202">
+        <v>218</v>
+      </c>
+      <c r="R202">
+        <v>121</v>
+      </c>
+      <c r="S202">
+        <v>271</v>
+      </c>
+      <c r="T202">
+        <v>7</v>
+      </c>
     </row>
     <row r="203" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A203">
@@ -13819,6 +13867,54 @@
       <c r="D203" t="s">
         <v>241</v>
       </c>
+      <c r="E203">
+        <v>2.6</v>
+      </c>
+      <c r="F203">
+        <v>6</v>
+      </c>
+      <c r="G203">
+        <v>280</v>
+      </c>
+      <c r="H203">
+        <v>5</v>
+      </c>
+      <c r="I203">
+        <v>2</v>
+      </c>
+      <c r="J203">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="K203">
+        <v>249</v>
+      </c>
+      <c r="L203">
+        <v>397</v>
+      </c>
+      <c r="M203">
+        <v>1560</v>
+      </c>
+      <c r="N203">
+        <v>180</v>
+      </c>
+      <c r="O203">
+        <v>65</v>
+      </c>
+      <c r="P203">
+        <v>460</v>
+      </c>
+      <c r="Q203">
+        <v>179</v>
+      </c>
+      <c r="R203">
+        <v>136</v>
+      </c>
+      <c r="S203">
+        <v>267</v>
+      </c>
+      <c r="T203">
+        <v>6</v>
+      </c>
     </row>
     <row r="204" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A204">
@@ -13834,6 +13930,54 @@
       <c r="D204" t="s">
         <v>241</v>
       </c>
+      <c r="E204">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F204">
+        <v>8</v>
+      </c>
+      <c r="G204">
+        <v>887</v>
+      </c>
+      <c r="H204">
+        <v>2</v>
+      </c>
+      <c r="I204">
+        <v>2</v>
+      </c>
+      <c r="J204">
+        <v>2.6</v>
+      </c>
+      <c r="K204">
+        <v>345</v>
+      </c>
+      <c r="L204">
+        <v>540</v>
+      </c>
+      <c r="M204">
+        <v>1674</v>
+      </c>
+      <c r="N204">
+        <v>110</v>
+      </c>
+      <c r="O204">
+        <v>70</v>
+      </c>
+      <c r="P204">
+        <v>464</v>
+      </c>
+      <c r="Q204">
+        <v>194</v>
+      </c>
+      <c r="R204">
+        <v>117</v>
+      </c>
+      <c r="S204">
+        <v>273</v>
+      </c>
+      <c r="T204">
+        <v>7</v>
+      </c>
     </row>
     <row r="205" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A205">
@@ -13849,6 +13993,54 @@
       <c r="D205" t="s">
         <v>241</v>
       </c>
+      <c r="E205">
+        <v>3.8</v>
+      </c>
+      <c r="F205">
+        <v>8</v>
+      </c>
+      <c r="G205">
+        <v>600</v>
+      </c>
+      <c r="H205">
+        <v>2</v>
+      </c>
+      <c r="I205">
+        <v>2</v>
+      </c>
+      <c r="J205">
+        <v>2.9</v>
+      </c>
+      <c r="K205">
+        <v>328</v>
+      </c>
+      <c r="L205">
+        <v>620</v>
+      </c>
+      <c r="M205">
+        <v>1247</v>
+      </c>
+      <c r="N205">
+        <v>150</v>
+      </c>
+      <c r="O205">
+        <v>72</v>
+      </c>
+      <c r="P205">
+        <v>460</v>
+      </c>
+      <c r="Q205">
+        <v>193</v>
+      </c>
+      <c r="R205">
+        <v>119</v>
+      </c>
+      <c r="S205">
+        <v>267</v>
+      </c>
+      <c r="T205">
+        <v>7</v>
+      </c>
     </row>
     <row r="206" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A206">
@@ -13864,6 +14056,54 @@
       <c r="D206" t="s">
         <v>244</v>
       </c>
+      <c r="E206">
+        <v>6.2</v>
+      </c>
+      <c r="F206">
+        <v>8</v>
+      </c>
+      <c r="G206">
+        <v>650</v>
+      </c>
+      <c r="H206">
+        <v>4</v>
+      </c>
+      <c r="I206">
+        <v>2</v>
+      </c>
+      <c r="J206">
+        <v>4</v>
+      </c>
+      <c r="K206">
+        <v>282</v>
+      </c>
+      <c r="L206">
+        <v>868</v>
+      </c>
+      <c r="M206">
+        <v>1763</v>
+      </c>
+      <c r="N206">
+        <v>257</v>
+      </c>
+      <c r="O206">
+        <v>72</v>
+      </c>
+      <c r="P206">
+        <v>478</v>
+      </c>
+      <c r="Q206">
+        <v>190</v>
+      </c>
+      <c r="R206">
+        <v>133</v>
+      </c>
+      <c r="S206">
+        <v>281</v>
+      </c>
+      <c r="T206">
+        <v>6</v>
+      </c>
     </row>
     <row r="207" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A207">
@@ -13879,6 +14119,54 @@
       <c r="D207" t="s">
         <v>241</v>
       </c>
+      <c r="E207">
+        <v>3.8</v>
+      </c>
+      <c r="F207">
+        <v>6</v>
+      </c>
+      <c r="G207">
+        <v>485</v>
+      </c>
+      <c r="H207">
+        <v>4</v>
+      </c>
+      <c r="I207">
+        <v>2</v>
+      </c>
+      <c r="J207">
+        <v>3.5</v>
+      </c>
+      <c r="K207">
+        <v>310</v>
+      </c>
+      <c r="L207">
+        <v>588</v>
+      </c>
+      <c r="M207">
+        <v>1740</v>
+      </c>
+      <c r="N207">
+        <v>315</v>
+      </c>
+      <c r="O207">
+        <v>74</v>
+      </c>
+      <c r="P207">
+        <v>465</v>
+      </c>
+      <c r="Q207">
+        <v>190</v>
+      </c>
+      <c r="R207">
+        <v>137</v>
+      </c>
+      <c r="S207">
+        <v>278</v>
+      </c>
+      <c r="T207">
+        <v>6</v>
+      </c>
     </row>
     <row r="208" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A208">
@@ -13894,8 +14182,56 @@
       <c r="D208" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E208">
+        <v>3</v>
+      </c>
+      <c r="F208">
+        <v>6</v>
+      </c>
+      <c r="G208">
+        <v>382</v>
+      </c>
+      <c r="H208">
+        <v>2</v>
+      </c>
+      <c r="I208">
+        <v>2</v>
+      </c>
+      <c r="J208">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="K208">
+        <v>260</v>
+      </c>
+      <c r="L208">
+        <v>499</v>
+      </c>
+      <c r="M208">
+        <v>1542</v>
+      </c>
+      <c r="N208">
+        <v>289</v>
+      </c>
+      <c r="O208">
+        <v>52</v>
+      </c>
+      <c r="P208">
+        <v>438</v>
+      </c>
+      <c r="Q208">
+        <v>185</v>
+      </c>
+      <c r="R208">
+        <v>130</v>
+      </c>
+      <c r="S208">
+        <v>247</v>
+      </c>
+      <c r="T208">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="209" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A209">
         <f t="shared" si="3"/>
         <v>208</v>
@@ -13909,8 +14245,56 @@
       <c r="D209" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E209">
+        <v>4</v>
+      </c>
+      <c r="F209">
+        <v>8</v>
+      </c>
+      <c r="G209">
+        <v>420</v>
+      </c>
+      <c r="H209">
+        <v>4</v>
+      </c>
+      <c r="I209">
+        <v>2</v>
+      </c>
+      <c r="J209">
+        <v>4.8</v>
+      </c>
+      <c r="K209">
+        <v>306</v>
+      </c>
+      <c r="L209">
+        <v>400</v>
+      </c>
+      <c r="M209">
+        <v>1655</v>
+      </c>
+      <c r="N209">
+        <v>450</v>
+      </c>
+      <c r="O209">
+        <v>63</v>
+      </c>
+      <c r="P209">
+        <v>462</v>
+      </c>
+      <c r="Q209">
+        <v>180</v>
+      </c>
+      <c r="R209">
+        <v>142</v>
+      </c>
+      <c r="S209">
+        <v>276</v>
+      </c>
+      <c r="T209">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="210" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A210">
         <f t="shared" si="3"/>
         <v>209</v>
@@ -13924,8 +14308,56 @@
       <c r="D210" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E210">
+        <v>5.2</v>
+      </c>
+      <c r="F210">
+        <v>10</v>
+      </c>
+      <c r="G210">
+        <v>570</v>
+      </c>
+      <c r="H210">
+        <v>2</v>
+      </c>
+      <c r="I210">
+        <v>2</v>
+      </c>
+      <c r="J210">
+        <v>3.4</v>
+      </c>
+      <c r="K210">
+        <v>324</v>
+      </c>
+      <c r="L210">
+        <v>560</v>
+      </c>
+      <c r="M210">
+        <v>1660</v>
+      </c>
+      <c r="N210">
+        <v>112</v>
+      </c>
+      <c r="O210">
+        <v>83</v>
+      </c>
+      <c r="P210">
+        <v>443</v>
+      </c>
+      <c r="Q210">
+        <v>194</v>
+      </c>
+      <c r="R210">
+        <v>124</v>
+      </c>
+      <c r="S210">
+        <v>265</v>
+      </c>
+      <c r="T210">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="211" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A211">
         <f t="shared" si="3"/>
         <v>210</v>
@@ -13939,8 +14371,56 @@
       <c r="D211" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E211">
+        <v>7</v>
+      </c>
+      <c r="F211">
+        <v>8</v>
+      </c>
+      <c r="G211">
+        <v>505</v>
+      </c>
+      <c r="H211">
+        <v>2</v>
+      </c>
+      <c r="I211">
+        <v>2</v>
+      </c>
+      <c r="J211">
+        <v>3.8</v>
+      </c>
+      <c r="K211">
+        <v>306</v>
+      </c>
+      <c r="L211">
+        <v>637</v>
+      </c>
+      <c r="M211">
+        <v>1440</v>
+      </c>
+      <c r="N211">
+        <v>634</v>
+      </c>
+      <c r="O211">
+        <v>68</v>
+      </c>
+      <c r="P211">
+        <v>446</v>
+      </c>
+      <c r="Q211">
+        <v>193</v>
+      </c>
+      <c r="R211">
+        <v>124</v>
+      </c>
+      <c r="S211">
+        <v>269</v>
+      </c>
+      <c r="T211">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="212" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A212">
         <f t="shared" si="3"/>
         <v>211</v>
@@ -13954,8 +14434,56 @@
       <c r="D212" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E212">
+        <v>1.3</v>
+      </c>
+      <c r="F212">
+        <v>2</v>
+      </c>
+      <c r="G212">
+        <v>280</v>
+      </c>
+      <c r="H212">
+        <v>4</v>
+      </c>
+      <c r="I212">
+        <v>2</v>
+      </c>
+      <c r="J212">
+        <v>5.4</v>
+      </c>
+      <c r="K212">
+        <v>255</v>
+      </c>
+      <c r="L212">
+        <v>314</v>
+      </c>
+      <c r="M212">
+        <v>1240</v>
+      </c>
+      <c r="N212">
+        <v>160</v>
+      </c>
+      <c r="O212">
+        <v>76</v>
+      </c>
+      <c r="P212">
+        <v>429</v>
+      </c>
+      <c r="Q212">
+        <v>176</v>
+      </c>
+      <c r="R212">
+        <v>123</v>
+      </c>
+      <c r="S212">
+        <v>243</v>
+      </c>
+      <c r="T212">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="213" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A213">
         <f t="shared" si="3"/>
         <v>212</v>
@@ -13969,8 +14497,56 @@
       <c r="D213" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E213">
+        <v>5.2</v>
+      </c>
+      <c r="F213">
+        <v>8</v>
+      </c>
+      <c r="G213">
+        <v>760</v>
+      </c>
+      <c r="H213">
+        <v>4</v>
+      </c>
+      <c r="I213">
+        <v>2</v>
+      </c>
+      <c r="J213">
+        <v>3.7</v>
+      </c>
+      <c r="K213">
+        <v>290</v>
+      </c>
+      <c r="L213">
+        <v>847</v>
+      </c>
+      <c r="M213">
+        <v>1905</v>
+      </c>
+      <c r="N213">
+        <v>382</v>
+      </c>
+      <c r="O213">
+        <v>61</v>
+      </c>
+      <c r="P213">
+        <v>483</v>
+      </c>
+      <c r="Q213">
+        <v>195</v>
+      </c>
+      <c r="R213">
+        <v>138</v>
+      </c>
+      <c r="S213">
+        <v>272</v>
+      </c>
+      <c r="T213">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="214" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A214">
         <f t="shared" si="3"/>
         <v>213</v>
@@ -13984,8 +14560,56 @@
       <c r="D214" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E214">
+        <v>4</v>
+      </c>
+      <c r="F214">
+        <v>8</v>
+      </c>
+      <c r="G214">
+        <v>462</v>
+      </c>
+      <c r="H214">
+        <v>2</v>
+      </c>
+      <c r="I214">
+        <v>2</v>
+      </c>
+      <c r="J214">
+        <v>4</v>
+      </c>
+      <c r="K214">
+        <v>304</v>
+      </c>
+      <c r="L214">
+        <v>600</v>
+      </c>
+      <c r="M214">
+        <v>1615</v>
+      </c>
+      <c r="N214">
+        <v>456</v>
+      </c>
+      <c r="O214">
+        <v>65</v>
+      </c>
+      <c r="P214">
+        <v>455</v>
+      </c>
+      <c r="Q214">
+        <v>194</v>
+      </c>
+      <c r="R214">
+        <v>129</v>
+      </c>
+      <c r="S214">
+        <v>263</v>
+      </c>
+      <c r="T214">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="215" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A215">
         <f t="shared" si="3"/>
         <v>214</v>
@@ -13999,8 +14623,56 @@
       <c r="D215" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E215">
+        <v>5.4</v>
+      </c>
+      <c r="F215">
+        <v>8</v>
+      </c>
+      <c r="G215">
+        <v>507</v>
+      </c>
+      <c r="H215">
+        <v>4</v>
+      </c>
+      <c r="I215">
+        <v>2</v>
+      </c>
+      <c r="J215">
+        <v>4.5</v>
+      </c>
+      <c r="K215">
+        <v>250</v>
+      </c>
+      <c r="L215">
+        <v>650</v>
+      </c>
+      <c r="M215">
+        <v>1780</v>
+      </c>
+      <c r="N215">
+        <v>348</v>
+      </c>
+      <c r="O215">
+        <v>61</v>
+      </c>
+      <c r="P215">
+        <v>477</v>
+      </c>
+      <c r="Q215">
+        <v>188</v>
+      </c>
+      <c r="R215">
+        <v>138</v>
+      </c>
+      <c r="S215">
+        <v>273</v>
+      </c>
+      <c r="T215">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="216" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A216">
         <f t="shared" si="3"/>
         <v>215</v>
@@ -14014,8 +14686,56 @@
       <c r="D216" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E216">
+        <v>3.8</v>
+      </c>
+      <c r="F216">
+        <v>6</v>
+      </c>
+      <c r="G216">
+        <v>450</v>
+      </c>
+      <c r="H216">
+        <v>2</v>
+      </c>
+      <c r="I216">
+        <v>2</v>
+      </c>
+      <c r="J216">
+        <v>5</v>
+      </c>
+      <c r="K216">
+        <v>310</v>
+      </c>
+      <c r="L216">
+        <v>430</v>
+      </c>
+      <c r="M216">
+        <v>1370</v>
+      </c>
+      <c r="N216">
+        <v>105</v>
+      </c>
+      <c r="O216">
+        <v>67</v>
+      </c>
+      <c r="P216">
+        <v>446</v>
+      </c>
+      <c r="Q216">
+        <v>181</v>
+      </c>
+      <c r="R216">
+        <v>128</v>
+      </c>
+      <c r="S216">
+        <v>236</v>
+      </c>
+      <c r="T216">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="217" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A217">
         <f t="shared" si="3"/>
         <v>216</v>
@@ -14029,8 +14749,56 @@
       <c r="D217" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E217">
+        <v>8.4</v>
+      </c>
+      <c r="F217">
+        <v>10</v>
+      </c>
+      <c r="G217">
+        <v>649</v>
+      </c>
+      <c r="H217">
+        <v>2</v>
+      </c>
+      <c r="I217">
+        <v>3</v>
+      </c>
+      <c r="J217">
+        <v>3.9</v>
+      </c>
+      <c r="K217">
+        <v>332</v>
+      </c>
+      <c r="L217">
+        <v>814</v>
+      </c>
+      <c r="M217">
+        <v>1556</v>
+      </c>
+      <c r="N217">
+        <v>114</v>
+      </c>
+      <c r="O217">
+        <v>70</v>
+      </c>
+      <c r="P217">
+        <v>446</v>
+      </c>
+      <c r="Q217">
+        <v>194</v>
+      </c>
+      <c r="R217">
+        <v>125</v>
+      </c>
+      <c r="S217">
+        <v>251</v>
+      </c>
+      <c r="T217">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="218" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A218">
         <f t="shared" si="3"/>
         <v>217</v>
@@ -14044,8 +14812,56 @@
       <c r="D218" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E218">
+        <v>6.5</v>
+      </c>
+      <c r="F218">
+        <v>12</v>
+      </c>
+      <c r="G218">
+        <v>750</v>
+      </c>
+      <c r="H218">
+        <v>2</v>
+      </c>
+      <c r="I218">
+        <v>2</v>
+      </c>
+      <c r="J218">
+        <v>2.8</v>
+      </c>
+      <c r="K218">
+        <v>350</v>
+      </c>
+      <c r="L218">
+        <v>690</v>
+      </c>
+      <c r="M218">
+        <v>1525</v>
+      </c>
+      <c r="N218">
+        <v>140</v>
+      </c>
+      <c r="O218">
+        <v>90</v>
+      </c>
+      <c r="P218">
+        <v>484</v>
+      </c>
+      <c r="Q218">
+        <v>203</v>
+      </c>
+      <c r="R218">
+        <v>114</v>
+      </c>
+      <c r="S218">
+        <v>270</v>
+      </c>
+      <c r="T218">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="219" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A219">
         <f t="shared" si="3"/>
         <v>218</v>
@@ -14059,8 +14875,56 @@
       <c r="D219" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E219">
+        <v>3.5</v>
+      </c>
+      <c r="F219">
+        <v>6</v>
+      </c>
+      <c r="G219">
+        <v>313</v>
+      </c>
+      <c r="H219">
+        <v>2</v>
+      </c>
+      <c r="I219">
+        <v>2</v>
+      </c>
+      <c r="J219">
+        <v>5.8</v>
+      </c>
+      <c r="K219">
+        <v>250</v>
+      </c>
+      <c r="L219">
+        <v>352</v>
+      </c>
+      <c r="M219">
+        <v>1545</v>
+      </c>
+      <c r="N219">
+        <v>235</v>
+      </c>
+      <c r="O219">
+        <v>80</v>
+      </c>
+      <c r="P219">
+        <v>431</v>
+      </c>
+      <c r="Q219">
+        <v>182</v>
+      </c>
+      <c r="R219">
+        <v>132</v>
+      </c>
+      <c r="S219">
+        <v>265</v>
+      </c>
+      <c r="T219">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="220" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A220">
         <f t="shared" si="3"/>
         <v>219</v>
@@ -14074,8 +14938,56 @@
       <c r="D220" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E220">
+        <v>5.2</v>
+      </c>
+      <c r="F220">
+        <v>10</v>
+      </c>
+      <c r="G220">
+        <v>610</v>
+      </c>
+      <c r="H220">
+        <v>2</v>
+      </c>
+      <c r="I220">
+        <v>2</v>
+      </c>
+      <c r="J220">
+        <v>3.2</v>
+      </c>
+      <c r="K220">
+        <v>325</v>
+      </c>
+      <c r="L220">
+        <v>560</v>
+      </c>
+      <c r="M220">
+        <v>1422</v>
+      </c>
+      <c r="N220">
+        <v>99</v>
+      </c>
+      <c r="O220">
+        <v>83</v>
+      </c>
+      <c r="P220">
+        <v>446</v>
+      </c>
+      <c r="Q220">
+        <v>192</v>
+      </c>
+      <c r="R220">
+        <v>117</v>
+      </c>
+      <c r="S220">
+        <v>262</v>
+      </c>
+      <c r="T220">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="221" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A221">
         <f t="shared" si="3"/>
         <v>220</v>
@@ -14089,8 +15001,56 @@
       <c r="D221" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E221">
+        <v>3.6</v>
+      </c>
+      <c r="F221">
+        <v>6</v>
+      </c>
+      <c r="G221">
+        <v>620</v>
+      </c>
+      <c r="H221">
+        <v>2</v>
+      </c>
+      <c r="I221">
+        <v>2</v>
+      </c>
+      <c r="J221">
+        <v>3.5</v>
+      </c>
+      <c r="K221">
+        <v>330</v>
+      </c>
+      <c r="L221">
+        <v>700</v>
+      </c>
+      <c r="M221">
+        <v>1370</v>
+      </c>
+      <c r="N221">
+        <v>105</v>
+      </c>
+      <c r="O221">
+        <v>90</v>
+      </c>
+      <c r="P221">
+        <v>447</v>
+      </c>
+      <c r="Q221">
+        <v>185</v>
+      </c>
+      <c r="R221">
+        <v>129</v>
+      </c>
+      <c r="S221">
+        <v>235</v>
+      </c>
+      <c r="T221">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="222" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A222">
         <f t="shared" si="3"/>
         <v>221</v>
@@ -14104,8 +15064,56 @@
       <c r="D222" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E222">
+        <v>6.2</v>
+      </c>
+      <c r="F222">
+        <v>8</v>
+      </c>
+      <c r="G222">
+        <v>808</v>
+      </c>
+      <c r="H222">
+        <v>2</v>
+      </c>
+      <c r="I222">
+        <v>2</v>
+      </c>
+      <c r="J222">
+        <v>2.5</v>
+      </c>
+      <c r="K222">
+        <v>346</v>
+      </c>
+      <c r="L222">
+        <v>972</v>
+      </c>
+      <c r="M222">
+        <v>1939</v>
+      </c>
+      <c r="N222">
+        <v>459</v>
+      </c>
+      <c r="O222">
+        <v>70</v>
+      </c>
+      <c r="P222">
+        <v>502</v>
+      </c>
+      <c r="Q222">
+        <v>200</v>
+      </c>
+      <c r="R222">
+        <v>146</v>
+      </c>
+      <c r="S222">
+        <v>295</v>
+      </c>
+      <c r="T222">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="223" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A223">
         <f t="shared" si="3"/>
         <v>222</v>
@@ -14119,8 +15127,56 @@
       <c r="D223" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E223">
+        <v>3.8</v>
+      </c>
+      <c r="F223">
+        <v>8</v>
+      </c>
+      <c r="G223">
+        <v>916</v>
+      </c>
+      <c r="H223">
+        <v>2</v>
+      </c>
+      <c r="I223">
+        <v>2</v>
+      </c>
+      <c r="J223">
+        <v>2.8</v>
+      </c>
+      <c r="K223">
+        <v>350</v>
+      </c>
+      <c r="L223">
+        <v>720</v>
+      </c>
+      <c r="M223">
+        <v>1395</v>
+      </c>
+      <c r="N223">
+        <v>120</v>
+      </c>
+      <c r="O223">
+        <v>71</v>
+      </c>
+      <c r="P223">
+        <v>459</v>
+      </c>
+      <c r="Q223">
+        <v>195</v>
+      </c>
+      <c r="R223">
+        <v>119</v>
+      </c>
+      <c r="S223">
+        <v>267</v>
+      </c>
+      <c r="T223">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="224" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A224">
         <f t="shared" si="3"/>
         <v>223</v>
@@ -14134,8 +15190,56 @@
       <c r="D224" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E224">
+        <v>2.5</v>
+      </c>
+      <c r="F224">
+        <v>4</v>
+      </c>
+      <c r="G224">
+        <v>280</v>
+      </c>
+      <c r="H224">
+        <v>5</v>
+      </c>
+      <c r="I224">
+        <v>4</v>
+      </c>
+      <c r="J224">
+        <v>5.4</v>
+      </c>
+      <c r="K224">
+        <v>255</v>
+      </c>
+      <c r="L224">
+        <v>392</v>
+      </c>
+      <c r="M224">
+        <v>1495</v>
+      </c>
+      <c r="N224">
+        <v>401</v>
+      </c>
+      <c r="O224">
+        <v>60</v>
+      </c>
+      <c r="P224">
+        <v>447</v>
+      </c>
+      <c r="Q224">
+        <v>174</v>
+      </c>
+      <c r="R224">
+        <v>144</v>
+      </c>
+      <c r="S224">
+        <v>253</v>
+      </c>
+      <c r="T224">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="225" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A225">
         <f t="shared" si="3"/>
         <v>224</v>
@@ -14149,8 +15253,56 @@
       <c r="D225" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E225">
+        <v>5.7</v>
+      </c>
+      <c r="F225">
+        <v>10</v>
+      </c>
+      <c r="G225">
+        <v>612</v>
+      </c>
+      <c r="H225">
+        <v>2</v>
+      </c>
+      <c r="I225">
+        <v>2</v>
+      </c>
+      <c r="J225">
+        <v>3.9</v>
+      </c>
+      <c r="K225">
+        <v>330</v>
+      </c>
+      <c r="L225">
+        <v>590</v>
+      </c>
+      <c r="M225">
+        <v>1380</v>
+      </c>
+      <c r="N225">
+        <v>76</v>
+      </c>
+      <c r="O225">
+        <v>92</v>
+      </c>
+      <c r="P225">
+        <v>461</v>
+      </c>
+      <c r="Q225">
+        <v>192</v>
+      </c>
+      <c r="R225">
+        <v>117</v>
+      </c>
+      <c r="S225">
+        <v>273</v>
+      </c>
+      <c r="T225">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="226" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A226">
         <f t="shared" si="3"/>
         <v>225</v>
@@ -14164,8 +15316,56 @@
       <c r="D226" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E226">
+        <v>3</v>
+      </c>
+      <c r="F226">
+        <v>6</v>
+      </c>
+      <c r="G226">
+        <v>431</v>
+      </c>
+      <c r="H226">
+        <v>4</v>
+      </c>
+      <c r="I226">
+        <v>2</v>
+      </c>
+      <c r="J226">
+        <v>4.3</v>
+      </c>
+      <c r="K226">
+        <v>250</v>
+      </c>
+      <c r="L226">
+        <v>550</v>
+      </c>
+      <c r="M226">
+        <v>1497</v>
+      </c>
+      <c r="N226">
+        <v>445</v>
+      </c>
+      <c r="O226">
+        <v>60</v>
+      </c>
+      <c r="P226">
+        <v>467</v>
+      </c>
+      <c r="Q226">
+        <v>187</v>
+      </c>
+      <c r="R226">
+        <v>138</v>
+      </c>
+      <c r="S226">
+        <v>281</v>
+      </c>
+      <c r="T226">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="227" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A227">
         <f t="shared" si="3"/>
         <v>226</v>
@@ -14179,8 +15379,56 @@
       <c r="D227" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E227">
+        <v>3.8</v>
+      </c>
+      <c r="F227">
+        <v>6</v>
+      </c>
+      <c r="G227">
+        <v>600</v>
+      </c>
+      <c r="H227">
+        <v>4</v>
+      </c>
+      <c r="I227">
+        <v>2</v>
+      </c>
+      <c r="J227">
+        <v>2.7</v>
+      </c>
+      <c r="K227">
+        <v>315</v>
+      </c>
+      <c r="L227">
+        <v>652</v>
+      </c>
+      <c r="M227">
+        <v>1660</v>
+      </c>
+      <c r="N227">
+        <v>315</v>
+      </c>
+      <c r="O227">
+        <v>74</v>
+      </c>
+      <c r="P227">
+        <v>468</v>
+      </c>
+      <c r="Q227">
+        <v>190</v>
+      </c>
+      <c r="R227">
+        <v>137</v>
+      </c>
+      <c r="S227">
+        <v>278</v>
+      </c>
+      <c r="T227">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="228" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A228">
         <f t="shared" si="3"/>
         <v>227</v>
@@ -14194,8 +15442,56 @@
       <c r="D228" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E228">
+        <v>3</v>
+      </c>
+      <c r="F228">
+        <v>6</v>
+      </c>
+      <c r="G228">
+        <v>630</v>
+      </c>
+      <c r="H228">
+        <v>2</v>
+      </c>
+      <c r="I228">
+        <v>2</v>
+      </c>
+      <c r="J228">
+        <v>2.9</v>
+      </c>
+      <c r="K228">
+        <v>325</v>
+      </c>
+      <c r="L228">
+        <v>730</v>
+      </c>
+      <c r="M228">
+        <v>1500</v>
+      </c>
+      <c r="N228">
+        <v>150</v>
+      </c>
+      <c r="O228">
+        <v>60</v>
+      </c>
+      <c r="P228">
+        <v>467</v>
+      </c>
+      <c r="Q228">
+        <v>197</v>
+      </c>
+      <c r="R228">
+        <v>122</v>
+      </c>
+      <c r="S228">
+        <v>270</v>
+      </c>
+      <c r="T228">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="229" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A229">
         <f t="shared" si="3"/>
         <v>228</v>
@@ -14209,8 +15505,56 @@
       <c r="D229" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E229">
+        <v>2.4</v>
+      </c>
+      <c r="F229">
+        <v>4</v>
+      </c>
+      <c r="G229">
+        <v>228</v>
+      </c>
+      <c r="H229">
+        <v>4</v>
+      </c>
+      <c r="I229">
+        <v>2</v>
+      </c>
+      <c r="J229">
+        <v>5.6</v>
+      </c>
+      <c r="K229">
+        <v>225</v>
+      </c>
+      <c r="L229">
+        <v>249</v>
+      </c>
+      <c r="M229">
+        <v>1277</v>
+      </c>
+      <c r="N229">
+        <v>178</v>
+      </c>
+      <c r="O229">
+        <v>50</v>
+      </c>
+      <c r="P229">
+        <v>428</v>
+      </c>
+      <c r="Q229">
+        <v>178</v>
+      </c>
+      <c r="R229">
+        <v>131</v>
+      </c>
+      <c r="S229">
+        <v>258</v>
+      </c>
+      <c r="T229">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="230" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A230">
         <f t="shared" si="3"/>
         <v>229</v>
@@ -14224,8 +15568,56 @@
       <c r="D230" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E230">
+        <v>3.9</v>
+      </c>
+      <c r="F230">
+        <v>12</v>
+      </c>
+      <c r="G230">
+        <v>385</v>
+      </c>
+      <c r="H230">
+        <v>2</v>
+      </c>
+      <c r="I230">
+        <v>2</v>
+      </c>
+      <c r="J230">
+        <v>5.5</v>
+      </c>
+      <c r="K230">
+        <v>289</v>
+      </c>
+      <c r="L230">
+        <v>388</v>
+      </c>
+      <c r="M230">
+        <v>1298</v>
+      </c>
+      <c r="N230">
+        <v>140</v>
+      </c>
+      <c r="O230">
+        <v>77</v>
+      </c>
+      <c r="P230">
+        <v>436</v>
+      </c>
+      <c r="Q230">
+        <v>178</v>
+      </c>
+      <c r="R230">
+        <v>105</v>
+      </c>
+      <c r="S230">
+        <v>250</v>
+      </c>
+      <c r="T230">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="231" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A231">
         <f t="shared" si="3"/>
         <v>230</v>
@@ -14239,8 +15631,56 @@
       <c r="D231" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E231">
+        <v>6.2</v>
+      </c>
+      <c r="F231">
+        <v>8</v>
+      </c>
+      <c r="G231">
+        <v>631</v>
+      </c>
+      <c r="H231">
+        <v>2</v>
+      </c>
+      <c r="I231">
+        <v>2</v>
+      </c>
+      <c r="J231">
+        <v>3.6</v>
+      </c>
+      <c r="K231">
+        <v>315</v>
+      </c>
+      <c r="L231">
+        <v>635</v>
+      </c>
+      <c r="M231">
+        <v>1550</v>
+      </c>
+      <c r="N231">
+        <v>176</v>
+      </c>
+      <c r="O231">
+        <v>85</v>
+      </c>
+      <c r="P231">
+        <v>464</v>
+      </c>
+      <c r="Q231">
+        <v>197</v>
+      </c>
+      <c r="R231">
+        <v>126</v>
+      </c>
+      <c r="S231">
+        <v>268</v>
+      </c>
+      <c r="T231">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="232" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A232">
         <f t="shared" si="3"/>
         <v>231</v>
@@ -14254,8 +15694,56 @@
       <c r="D232" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E232">
+        <v>5.2</v>
+      </c>
+      <c r="F232">
+        <v>10</v>
+      </c>
+      <c r="G232">
+        <v>578</v>
+      </c>
+      <c r="H232">
+        <v>2</v>
+      </c>
+      <c r="I232">
+        <v>2</v>
+      </c>
+      <c r="J232">
+        <v>2.4</v>
+      </c>
+      <c r="K232">
+        <v>350</v>
+      </c>
+      <c r="L232">
+        <v>540</v>
+      </c>
+      <c r="M232">
+        <v>999</v>
+      </c>
+      <c r="N232">
+        <v>110</v>
+      </c>
+      <c r="O232">
+        <v>100</v>
+      </c>
+      <c r="P232">
+        <v>458</v>
+      </c>
+      <c r="Q232">
+        <v>205</v>
+      </c>
+      <c r="R232">
+        <v>114</v>
+      </c>
+      <c r="S232">
+        <v>256</v>
+      </c>
+      <c r="T232">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="233" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A233">
         <f t="shared" si="3"/>
         <v>232</v>
@@ -14269,8 +15757,56 @@
       <c r="D233" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E233">
+        <v>6</v>
+      </c>
+      <c r="F233">
+        <v>12</v>
+      </c>
+      <c r="G233">
+        <v>517</v>
+      </c>
+      <c r="H233">
+        <v>2</v>
+      </c>
+      <c r="I233">
+        <v>2</v>
+      </c>
+      <c r="J233">
+        <v>4.2</v>
+      </c>
+      <c r="K233">
+        <v>306</v>
+      </c>
+      <c r="L233">
+        <v>560</v>
+      </c>
+      <c r="M233">
+        <v>1680</v>
+      </c>
+      <c r="N233">
+        <v>300</v>
+      </c>
+      <c r="O233">
+        <v>80</v>
+      </c>
+      <c r="P233">
+        <v>438</v>
+      </c>
+      <c r="Q233">
+        <v>187</v>
+      </c>
+      <c r="R233">
+        <v>124</v>
+      </c>
+      <c r="S233">
+        <v>260</v>
+      </c>
+      <c r="T233">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="234" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A234">
         <f t="shared" si="3"/>
         <v>233</v>
@@ -14284,8 +15820,56 @@
       <c r="D234" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E234">
+        <v>6</v>
+      </c>
+      <c r="F234">
+        <v>12</v>
+      </c>
+      <c r="G234">
+        <v>750</v>
+      </c>
+      <c r="H234">
+        <v>2</v>
+      </c>
+      <c r="I234">
+        <v>2</v>
+      </c>
+      <c r="J234">
+        <v>3</v>
+      </c>
+      <c r="K234">
+        <v>383</v>
+      </c>
+      <c r="L234">
+        <v>1000</v>
+      </c>
+      <c r="M234">
+        <v>1218</v>
+      </c>
+      <c r="N234">
+        <v>156</v>
+      </c>
+      <c r="O234">
+        <v>100</v>
+      </c>
+      <c r="P234">
+        <v>472</v>
+      </c>
+      <c r="Q234">
+        <v>193</v>
+      </c>
+      <c r="R234">
+        <v>117</v>
+      </c>
+      <c r="S234">
+        <v>280</v>
+      </c>
+      <c r="T234">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="235" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A235">
         <f t="shared" si="3"/>
         <v>234</v>
@@ -14299,8 +15883,56 @@
       <c r="D235" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E235">
+        <v>6.5</v>
+      </c>
+      <c r="F235">
+        <v>12</v>
+      </c>
+      <c r="G235">
+        <v>700</v>
+      </c>
+      <c r="H235">
+        <v>2</v>
+      </c>
+      <c r="I235">
+        <v>2</v>
+      </c>
+      <c r="J235">
+        <v>2.9</v>
+      </c>
+      <c r="K235">
+        <v>350</v>
+      </c>
+      <c r="L235">
+        <v>690</v>
+      </c>
+      <c r="M235">
+        <v>1575</v>
+      </c>
+      <c r="N235">
+        <v>140</v>
+      </c>
+      <c r="O235">
+        <v>90</v>
+      </c>
+      <c r="P235">
+        <v>478</v>
+      </c>
+      <c r="Q235">
+        <v>203</v>
+      </c>
+      <c r="R235">
+        <v>114</v>
+      </c>
+      <c r="S235">
+        <v>270</v>
+      </c>
+      <c r="T235">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="236" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A236">
         <f t="shared" si="3"/>
         <v>235</v>
@@ -14314,8 +15946,56 @@
       <c r="D236" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E236">
+        <v>3</v>
+      </c>
+      <c r="F236">
+        <v>6</v>
+      </c>
+      <c r="G236">
+        <v>450</v>
+      </c>
+      <c r="H236">
+        <v>4</v>
+      </c>
+      <c r="I236">
+        <v>2</v>
+      </c>
+      <c r="J236">
+        <v>3.6</v>
+      </c>
+      <c r="K236">
+        <v>306</v>
+      </c>
+      <c r="L236">
+        <v>530</v>
+      </c>
+      <c r="M236">
+        <v>1565</v>
+      </c>
+      <c r="N236">
+        <v>132</v>
+      </c>
+      <c r="O236">
+        <v>67</v>
+      </c>
+      <c r="P236">
+        <v>452</v>
+      </c>
+      <c r="Q236">
+        <v>185</v>
+      </c>
+      <c r="R236">
+        <v>130</v>
+      </c>
+      <c r="S236">
+        <v>245</v>
+      </c>
+      <c r="T236">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="237" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A237">
         <f t="shared" si="3"/>
         <v>236</v>
@@ -14329,8 +16009,56 @@
       <c r="D237" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E237">
+        <v>3</v>
+      </c>
+      <c r="F237">
+        <v>6</v>
+      </c>
+      <c r="G237">
+        <v>370</v>
+      </c>
+      <c r="H237">
+        <v>4</v>
+      </c>
+      <c r="I237">
+        <v>2</v>
+      </c>
+      <c r="J237">
+        <v>4.5</v>
+      </c>
+      <c r="K237">
+        <v>250</v>
+      </c>
+      <c r="L237">
+        <v>465</v>
+      </c>
+      <c r="M237">
+        <v>1495</v>
+      </c>
+      <c r="N237">
+        <v>390</v>
+      </c>
+      <c r="O237">
+        <v>52</v>
+      </c>
+      <c r="P237">
+        <v>447</v>
+      </c>
+      <c r="Q237">
+        <v>185</v>
+      </c>
+      <c r="R237">
+        <v>121</v>
+      </c>
+      <c r="S237">
+        <v>269</v>
+      </c>
+      <c r="T237">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="238" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A238">
         <f t="shared" si="3"/>
         <v>237</v>
@@ -14344,8 +16072,56 @@
       <c r="D238" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E238">
+        <v>8</v>
+      </c>
+      <c r="F238">
+        <v>16</v>
+      </c>
+      <c r="G238">
+        <v>1500</v>
+      </c>
+      <c r="H238">
+        <v>2</v>
+      </c>
+      <c r="I238">
+        <v>2</v>
+      </c>
+      <c r="J238">
+        <v>2.4</v>
+      </c>
+      <c r="K238">
+        <v>380</v>
+      </c>
+      <c r="L238">
+        <v>1600</v>
+      </c>
+      <c r="M238">
+        <v>1995</v>
+      </c>
+      <c r="N238">
+        <v>57</v>
+      </c>
+      <c r="O238">
+        <v>100</v>
+      </c>
+      <c r="P238">
+        <v>464</v>
+      </c>
+      <c r="Q238">
+        <v>202</v>
+      </c>
+      <c r="R238">
+        <v>121</v>
+      </c>
+      <c r="S238">
+        <v>271</v>
+      </c>
+      <c r="T238">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="239" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A239">
         <f>A238+1</f>
         <v>238</v>
@@ -14359,8 +16135,56 @@
       <c r="D239" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E239">
+        <v>3.5</v>
+      </c>
+      <c r="F239">
+        <v>6</v>
+      </c>
+      <c r="G239">
+        <v>405</v>
+      </c>
+      <c r="H239">
+        <v>2</v>
+      </c>
+      <c r="I239">
+        <v>2</v>
+      </c>
+      <c r="J239">
+        <v>4.3</v>
+      </c>
+      <c r="K239">
+        <v>290</v>
+      </c>
+      <c r="L239">
+        <v>420</v>
+      </c>
+      <c r="M239">
+        <v>1405</v>
+      </c>
+      <c r="N239">
+        <v>151</v>
+      </c>
+      <c r="O239">
+        <v>58</v>
+      </c>
+      <c r="P239">
+        <v>441</v>
+      </c>
+      <c r="Q239">
+        <v>190</v>
+      </c>
+      <c r="R239">
+        <v>123</v>
+      </c>
+      <c r="S239">
+        <v>258</v>
+      </c>
+      <c r="T239">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="240" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A240">
         <f t="shared" ref="A240:A242" si="4">A239+1</f>
         <v>239</v>
@@ -14374,8 +16198,56 @@
       <c r="D240" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E240">
+        <v>3.5</v>
+      </c>
+      <c r="F240">
+        <v>6</v>
+      </c>
+      <c r="G240">
+        <v>301</v>
+      </c>
+      <c r="H240">
+        <v>5</v>
+      </c>
+      <c r="I240">
+        <v>4</v>
+      </c>
+      <c r="J240">
+        <v>6.2</v>
+      </c>
+      <c r="K240">
+        <v>233</v>
+      </c>
+      <c r="L240">
+        <v>362</v>
+      </c>
+      <c r="M240">
+        <v>1610</v>
+      </c>
+      <c r="N240">
+        <v>399</v>
+      </c>
+      <c r="O240">
+        <v>55</v>
+      </c>
+      <c r="P240">
+        <v>488</v>
+      </c>
+      <c r="Q240">
+        <v>184</v>
+      </c>
+      <c r="R240">
+        <v>145</v>
+      </c>
+      <c r="S240">
+        <v>282</v>
+      </c>
+      <c r="T240">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="241" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A241">
         <f t="shared" si="4"/>
         <v>240</v>
@@ -14389,8 +16261,56 @@
       <c r="D241" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E241">
+        <v>2</v>
+      </c>
+      <c r="F241">
+        <v>4</v>
+      </c>
+      <c r="G241">
+        <v>240</v>
+      </c>
+      <c r="H241">
+        <v>5</v>
+      </c>
+      <c r="I241">
+        <v>5</v>
+      </c>
+      <c r="J241">
+        <v>6.4</v>
+      </c>
+      <c r="K241">
+        <v>247</v>
+      </c>
+      <c r="L241">
+        <v>300</v>
+      </c>
+      <c r="M241">
+        <v>1375</v>
+      </c>
+      <c r="N241">
+        <v>341</v>
+      </c>
+      <c r="O241">
+        <v>55</v>
+      </c>
+      <c r="P241">
+        <v>432</v>
+      </c>
+      <c r="Q241">
+        <v>177</v>
+      </c>
+      <c r="R241">
+        <v>146</v>
+      </c>
+      <c r="S241">
+        <v>258</v>
+      </c>
+      <c r="T241">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="242" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A242">
         <f t="shared" si="4"/>
         <v>241</v>
@@ -14403,6 +16323,54 @@
       </c>
       <c r="D242" t="s">
         <v>244</v>
+      </c>
+      <c r="E242">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F242">
+        <v>4</v>
+      </c>
+      <c r="G242">
+        <v>260</v>
+      </c>
+      <c r="H242">
+        <v>5</v>
+      </c>
+      <c r="I242">
+        <v>5</v>
+      </c>
+      <c r="J242">
+        <v>6.1</v>
+      </c>
+      <c r="K242">
+        <v>250</v>
+      </c>
+      <c r="L242">
+        <v>380</v>
+      </c>
+      <c r="M242">
+        <v>1410</v>
+      </c>
+      <c r="N242">
+        <v>290</v>
+      </c>
+      <c r="O242">
+        <v>55</v>
+      </c>
+      <c r="P242">
+        <v>444</v>
+      </c>
+      <c r="Q242">
+        <v>177</v>
+      </c>
+      <c r="R242">
+        <v>194</v>
+      </c>
+      <c r="S242">
+        <v>264</v>
+      </c>
+      <c r="T242">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Samochody.xlsx
+++ b/Samochody.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NASA\PracaInz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1849FFEC-8075-4991-A3A2-057122BEFD7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D17AD44-9F6C-4471-A7BC-577F26BDA31B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="257">
   <si>
     <t>Nazwa</t>
   </si>
@@ -789,6 +789,18 @@
   <si>
     <t>Subaru Impreza WRX</t>
   </si>
+  <si>
+    <t>DMC DeLorean</t>
+  </si>
+  <si>
+    <t>Plymouth GTX</t>
+  </si>
+  <si>
+    <t>Mitsubishi Eclipse</t>
+  </si>
+  <si>
+    <t>Chevrolet Camaro</t>
+  </si>
 </sst>
 </file>
 
@@ -1105,10 +1117,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T242"/>
+  <dimension ref="A1:T246"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView topLeftCell="A209" workbookViewId="0">
+      <selection activeCell="D247" sqref="D247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16190,7 +16202,7 @@
     </row>
     <row r="240" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A240">
-        <f t="shared" ref="A240:A242" si="4">A239+1</f>
+        <f t="shared" ref="A240:A246" si="4">A239+1</f>
         <v>239</v>
       </c>
       <c r="B240" t="s">
@@ -16253,17 +16265,16 @@
     </row>
     <row r="241" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A241">
-        <f t="shared" si="4"/>
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>220</v>
+        <v>255</v>
       </c>
       <c r="C241">
-        <v>2008</v>
+        <v>1995</v>
       </c>
       <c r="D241" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E241">
         <v>2</v>
@@ -16272,108 +16283,356 @@
         <v>4</v>
       </c>
       <c r="G241">
-        <v>240</v>
+        <v>213</v>
       </c>
       <c r="H241">
+        <v>4</v>
+      </c>
+      <c r="I241">
+        <v>2</v>
+      </c>
+      <c r="J241">
+        <v>7</v>
+      </c>
+      <c r="K241">
+        <v>226</v>
+      </c>
+      <c r="L241">
+        <v>290</v>
+      </c>
+      <c r="M241">
+        <v>1305</v>
+      </c>
+      <c r="N241">
+        <v>241</v>
+      </c>
+      <c r="O241">
+        <v>64</v>
+      </c>
+      <c r="P241">
+        <v>438</v>
+      </c>
+      <c r="Q241">
+        <v>175</v>
+      </c>
+      <c r="R241">
+        <v>130</v>
+      </c>
+      <c r="S241">
+        <v>251</v>
+      </c>
+      <c r="T241">
         <v>5</v>
-      </c>
-      <c r="I241">
-        <v>5</v>
-      </c>
-      <c r="J241">
-        <v>6.4</v>
-      </c>
-      <c r="K241">
-        <v>247</v>
-      </c>
-      <c r="L241">
-        <v>300</v>
-      </c>
-      <c r="M241">
-        <v>1375</v>
-      </c>
-      <c r="N241">
-        <v>341</v>
-      </c>
-      <c r="O241">
-        <v>55</v>
-      </c>
-      <c r="P241">
-        <v>432</v>
-      </c>
-      <c r="Q241">
-        <v>177</v>
-      </c>
-      <c r="R241">
-        <v>146</v>
-      </c>
-      <c r="S241">
-        <v>258</v>
-      </c>
-      <c r="T241">
-        <v>6</v>
       </c>
     </row>
     <row r="242" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A242">
+        <v>241</v>
+      </c>
+      <c r="B242" t="s">
+        <v>253</v>
+      </c>
+      <c r="C242">
+        <v>1982</v>
+      </c>
+      <c r="D242" t="s">
+        <v>241</v>
+      </c>
+      <c r="E242">
+        <v>2.9</v>
+      </c>
+      <c r="F242">
+        <v>6</v>
+      </c>
+      <c r="G242">
+        <v>145</v>
+      </c>
+      <c r="H242">
+        <v>2</v>
+      </c>
+      <c r="I242">
+        <v>2</v>
+      </c>
+      <c r="J242">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="K242">
+        <v>209</v>
+      </c>
+      <c r="L242">
+        <v>225</v>
+      </c>
+      <c r="M242">
+        <v>1233</v>
+      </c>
+      <c r="N242">
+        <v>396</v>
+      </c>
+      <c r="O242">
+        <v>52</v>
+      </c>
+      <c r="P242">
+        <v>427</v>
+      </c>
+      <c r="Q242">
+        <v>199</v>
+      </c>
+      <c r="R242">
+        <v>114</v>
+      </c>
+      <c r="S242">
+        <v>241</v>
+      </c>
+      <c r="T242">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="243" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>242</v>
+      </c>
+      <c r="B243" t="s">
+        <v>254</v>
+      </c>
+      <c r="C243">
+        <v>1971</v>
+      </c>
+      <c r="D243" t="s">
+        <v>240</v>
+      </c>
+      <c r="E243">
+        <v>7.2</v>
+      </c>
+      <c r="F243">
+        <v>8</v>
+      </c>
+      <c r="G243">
+        <v>375</v>
+      </c>
+      <c r="H243">
+        <v>2</v>
+      </c>
+      <c r="I243">
+        <v>4</v>
+      </c>
+      <c r="J243">
+        <v>6</v>
+      </c>
+      <c r="K243">
+        <v>216</v>
+      </c>
+      <c r="L243">
+        <v>529</v>
+      </c>
+      <c r="M243">
+        <v>1840</v>
+      </c>
+      <c r="N243">
+        <v>438</v>
+      </c>
+      <c r="O243">
+        <v>72</v>
+      </c>
+      <c r="P243">
+        <v>516</v>
+      </c>
+      <c r="Q243">
+        <v>201</v>
+      </c>
+      <c r="R243">
+        <v>134</v>
+      </c>
+      <c r="S243">
+        <v>292</v>
+      </c>
+      <c r="T243">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="244" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>243</v>
+      </c>
+      <c r="B244" t="s">
+        <v>256</v>
+      </c>
+      <c r="C244">
+        <v>1972</v>
+      </c>
+      <c r="D244" t="s">
+        <v>245</v>
+      </c>
+      <c r="E244">
+        <v>5</v>
+      </c>
+      <c r="F244">
+        <v>8</v>
+      </c>
+      <c r="G244">
+        <v>203</v>
+      </c>
+      <c r="H244">
+        <v>4</v>
+      </c>
+      <c r="I244">
+        <v>2</v>
+      </c>
+      <c r="J244">
+        <v>7.8</v>
+      </c>
+      <c r="K244">
+        <v>201</v>
+      </c>
+      <c r="L244">
+        <v>407</v>
+      </c>
+      <c r="M244">
+        <v>1560</v>
+      </c>
+      <c r="N244">
+        <v>178</v>
+      </c>
+      <c r="O244">
+        <v>79</v>
+      </c>
+      <c r="P244">
+        <v>478</v>
+      </c>
+      <c r="Q244">
+        <v>189</v>
+      </c>
+      <c r="R244">
+        <v>130</v>
+      </c>
+      <c r="S244">
+        <v>274</v>
+      </c>
+      <c r="T244">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="245" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>244</v>
+      </c>
+      <c r="B245" t="s">
+        <v>220</v>
+      </c>
+      <c r="C245">
+        <v>2008</v>
+      </c>
+      <c r="D245" t="s">
+        <v>244</v>
+      </c>
+      <c r="E245">
+        <v>2</v>
+      </c>
+      <c r="F245">
+        <v>4</v>
+      </c>
+      <c r="G245">
+        <v>240</v>
+      </c>
+      <c r="H245">
+        <v>5</v>
+      </c>
+      <c r="I245">
+        <v>5</v>
+      </c>
+      <c r="J245">
+        <v>6.4</v>
+      </c>
+      <c r="K245">
+        <v>247</v>
+      </c>
+      <c r="L245">
+        <v>300</v>
+      </c>
+      <c r="M245">
+        <v>1375</v>
+      </c>
+      <c r="N245">
+        <v>341</v>
+      </c>
+      <c r="O245">
+        <v>55</v>
+      </c>
+      <c r="P245">
+        <v>432</v>
+      </c>
+      <c r="Q245">
+        <v>177</v>
+      </c>
+      <c r="R245">
+        <v>146</v>
+      </c>
+      <c r="S245">
+        <v>258</v>
+      </c>
+      <c r="T245">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="246" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A246">
         <f t="shared" si="4"/>
-        <v>241</v>
-      </c>
-      <c r="B242" t="s">
+        <v>245</v>
+      </c>
+      <c r="B246" t="s">
         <v>221</v>
       </c>
-      <c r="C242">
+      <c r="C246">
         <v>2006</v>
       </c>
-      <c r="D242" t="s">
+      <c r="D246" t="s">
         <v>244</v>
       </c>
-      <c r="E242">
+      <c r="E246">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F242">
+      <c r="F246">
         <v>4</v>
       </c>
-      <c r="G242">
+      <c r="G246">
         <v>260</v>
       </c>
-      <c r="H242">
+      <c r="H246">
         <v>5</v>
       </c>
-      <c r="I242">
+      <c r="I246">
         <v>5</v>
       </c>
-      <c r="J242">
+      <c r="J246">
         <v>6.1</v>
       </c>
-      <c r="K242">
+      <c r="K246">
         <v>250</v>
       </c>
-      <c r="L242">
+      <c r="L246">
         <v>380</v>
       </c>
-      <c r="M242">
+      <c r="M246">
         <v>1410</v>
       </c>
-      <c r="N242">
+      <c r="N246">
         <v>290</v>
       </c>
-      <c r="O242">
+      <c r="O246">
         <v>55</v>
       </c>
-      <c r="P242">
+      <c r="P246">
         <v>444</v>
       </c>
-      <c r="Q242">
+      <c r="Q246">
         <v>177</v>
       </c>
-      <c r="R242">
+      <c r="R246">
         <v>147</v>
       </c>
-      <c r="S242">
+      <c r="S246">
         <v>264</v>
       </c>
-      <c r="T242">
+      <c r="T246">
         <v>6</v>
       </c>
     </row>
@@ -16384,10 +16643,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24D8D5CA-9744-4893-9B14-DF471DE70DC3}">
-  <dimension ref="A1:A241"/>
+  <dimension ref="A1:A245"/>
   <sheetViews>
-    <sheetView topLeftCell="A155" workbookViewId="0">
-      <selection activeCell="A169" sqref="A169"/>
+    <sheetView topLeftCell="A209" workbookViewId="0">
+      <selection activeCell="D236" sqref="D236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17832,12 +18091,36 @@
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" t="str">
         <f>'Kompletne dane'!B241</f>
-        <v>Seat Leon Cupra</v>
+        <v>Mitsubishi Eclipse</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" t="str">
         <f>'Kompletne dane'!B242</f>
+        <v>DMC DeLorean</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" t="str">
+        <f>'Kompletne dane'!B243</f>
+        <v>Plymouth GTX</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" t="str">
+        <f>'Kompletne dane'!B244</f>
+        <v>Chevrolet Camaro</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" t="str">
+        <f>'Kompletne dane'!B245</f>
+        <v>Seat Leon Cupra</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" t="str">
+        <f>'Kompletne dane'!B246</f>
         <v>Mazda 3 MPS</v>
       </c>
     </row>
@@ -17848,10 +18131,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CD037B1-ACD9-48BE-8904-7C9CBB062CA9}">
-  <dimension ref="A1:R241"/>
+  <dimension ref="A1:R245"/>
   <sheetViews>
-    <sheetView topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="K125" sqref="K125"/>
+    <sheetView topLeftCell="A212" workbookViewId="0">
+      <selection activeCell="A234" sqref="A234:R245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35542,11 +35825,11 @@
     <row r="240" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A240">
         <f>'Kompletne dane'!C241</f>
-        <v>2008</v>
+        <v>1995</v>
       </c>
       <c r="B240" t="str">
         <f>'Kompletne dane'!D241</f>
-        <v>C</v>
+        <v>S</v>
       </c>
       <c r="C240">
         <f>'Kompletne dane'!E241</f>
@@ -35558,132 +35841,428 @@
       </c>
       <c r="E240">
         <f>'Kompletne dane'!G241</f>
-        <v>240</v>
+        <v>213</v>
       </c>
       <c r="F240">
         <f>'Kompletne dane'!H241</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G240">
         <f>'Kompletne dane'!I241</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H240">
         <f>'Kompletne dane'!J241</f>
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="I240">
         <f>'Kompletne dane'!K241</f>
-        <v>247</v>
+        <v>226</v>
       </c>
       <c r="J240">
         <f>'Kompletne dane'!L241</f>
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="K240">
         <f>'Kompletne dane'!M241</f>
-        <v>1375</v>
+        <v>1305</v>
       </c>
       <c r="L240">
         <f>'Kompletne dane'!N241</f>
-        <v>341</v>
+        <v>241</v>
       </c>
       <c r="M240">
         <f>'Kompletne dane'!O241</f>
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="N240">
         <f>'Kompletne dane'!P241</f>
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="O240">
         <f>'Kompletne dane'!Q241</f>
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="P240">
         <f>'Kompletne dane'!R241</f>
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="Q240">
         <f>'Kompletne dane'!S241</f>
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="R240">
         <f>'Kompletne dane'!T241</f>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="241" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A241">
         <f>'Kompletne dane'!C242</f>
-        <v>2006</v>
+        <v>1982</v>
       </c>
       <c r="B241" t="str">
         <f>'Kompletne dane'!D242</f>
-        <v>C</v>
+        <v>S</v>
       </c>
       <c r="C241">
         <f>'Kompletne dane'!E242</f>
-        <v>2.2999999999999998</v>
+        <v>2.9</v>
       </c>
       <c r="D241">
         <f>'Kompletne dane'!F242</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E241">
         <f>'Kompletne dane'!G242</f>
-        <v>260</v>
+        <v>145</v>
       </c>
       <c r="F241">
         <f>'Kompletne dane'!H242</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G241">
         <f>'Kompletne dane'!I242</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H241">
         <f>'Kompletne dane'!J242</f>
-        <v>6.1</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="I241">
         <f>'Kompletne dane'!K242</f>
-        <v>250</v>
+        <v>209</v>
       </c>
       <c r="J241">
         <f>'Kompletne dane'!L242</f>
-        <v>380</v>
+        <v>225</v>
       </c>
       <c r="K241">
         <f>'Kompletne dane'!M242</f>
-        <v>1410</v>
+        <v>1233</v>
       </c>
       <c r="L241">
         <f>'Kompletne dane'!N242</f>
-        <v>290</v>
+        <v>396</v>
       </c>
       <c r="M241">
         <f>'Kompletne dane'!O242</f>
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="N241">
         <f>'Kompletne dane'!P242</f>
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="O241">
         <f>'Kompletne dane'!Q242</f>
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="P241">
         <f>'Kompletne dane'!R242</f>
-        <v>147</v>
+        <v>114</v>
       </c>
       <c r="Q241">
         <f>'Kompletne dane'!S242</f>
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="R241">
         <f>'Kompletne dane'!T242</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="242" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <f>'Kompletne dane'!C243</f>
+        <v>1971</v>
+      </c>
+      <c r="B242" t="str">
+        <f>'Kompletne dane'!D243</f>
+        <v>E</v>
+      </c>
+      <c r="C242">
+        <f>'Kompletne dane'!E243</f>
+        <v>7.2</v>
+      </c>
+      <c r="D242">
+        <f>'Kompletne dane'!F243</f>
+        <v>8</v>
+      </c>
+      <c r="E242">
+        <f>'Kompletne dane'!G243</f>
+        <v>375</v>
+      </c>
+      <c r="F242">
+        <f>'Kompletne dane'!H243</f>
+        <v>2</v>
+      </c>
+      <c r="G242">
+        <f>'Kompletne dane'!I243</f>
+        <v>4</v>
+      </c>
+      <c r="H242">
+        <f>'Kompletne dane'!J243</f>
+        <v>6</v>
+      </c>
+      <c r="I242">
+        <f>'Kompletne dane'!K243</f>
+        <v>216</v>
+      </c>
+      <c r="J242">
+        <f>'Kompletne dane'!L243</f>
+        <v>529</v>
+      </c>
+      <c r="K242">
+        <f>'Kompletne dane'!M243</f>
+        <v>1840</v>
+      </c>
+      <c r="L242">
+        <f>'Kompletne dane'!N243</f>
+        <v>438</v>
+      </c>
+      <c r="M242">
+        <f>'Kompletne dane'!O243</f>
+        <v>72</v>
+      </c>
+      <c r="N242">
+        <f>'Kompletne dane'!P243</f>
+        <v>516</v>
+      </c>
+      <c r="O242">
+        <f>'Kompletne dane'!Q243</f>
+        <v>201</v>
+      </c>
+      <c r="P242">
+        <f>'Kompletne dane'!R243</f>
+        <v>134</v>
+      </c>
+      <c r="Q242">
+        <f>'Kompletne dane'!S243</f>
+        <v>292</v>
+      </c>
+      <c r="R242">
+        <f>'Kompletne dane'!T243</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="243" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <f>'Kompletne dane'!C244</f>
+        <v>1972</v>
+      </c>
+      <c r="B243" t="str">
+        <f>'Kompletne dane'!D244</f>
+        <v>D</v>
+      </c>
+      <c r="C243">
+        <f>'Kompletne dane'!E244</f>
+        <v>5</v>
+      </c>
+      <c r="D243">
+        <f>'Kompletne dane'!F244</f>
+        <v>8</v>
+      </c>
+      <c r="E243">
+        <f>'Kompletne dane'!G244</f>
+        <v>203</v>
+      </c>
+      <c r="F243">
+        <f>'Kompletne dane'!H244</f>
+        <v>4</v>
+      </c>
+      <c r="G243">
+        <f>'Kompletne dane'!I244</f>
+        <v>2</v>
+      </c>
+      <c r="H243">
+        <f>'Kompletne dane'!J244</f>
+        <v>7.8</v>
+      </c>
+      <c r="I243">
+        <f>'Kompletne dane'!K244</f>
+        <v>201</v>
+      </c>
+      <c r="J243">
+        <f>'Kompletne dane'!L244</f>
+        <v>407</v>
+      </c>
+      <c r="K243">
+        <f>'Kompletne dane'!M244</f>
+        <v>1560</v>
+      </c>
+      <c r="L243">
+        <f>'Kompletne dane'!N244</f>
+        <v>178</v>
+      </c>
+      <c r="M243">
+        <f>'Kompletne dane'!O244</f>
+        <v>79</v>
+      </c>
+      <c r="N243">
+        <f>'Kompletne dane'!P244</f>
+        <v>478</v>
+      </c>
+      <c r="O243">
+        <f>'Kompletne dane'!Q244</f>
+        <v>189</v>
+      </c>
+      <c r="P243">
+        <f>'Kompletne dane'!R244</f>
+        <v>130</v>
+      </c>
+      <c r="Q243">
+        <f>'Kompletne dane'!S244</f>
+        <v>274</v>
+      </c>
+      <c r="R243">
+        <f>'Kompletne dane'!T244</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="244" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <f>'Kompletne dane'!C245</f>
+        <v>2008</v>
+      </c>
+      <c r="B244" t="str">
+        <f>'Kompletne dane'!D245</f>
+        <v>C</v>
+      </c>
+      <c r="C244">
+        <f>'Kompletne dane'!E245</f>
+        <v>2</v>
+      </c>
+      <c r="D244">
+        <f>'Kompletne dane'!F245</f>
+        <v>4</v>
+      </c>
+      <c r="E244">
+        <f>'Kompletne dane'!G245</f>
+        <v>240</v>
+      </c>
+      <c r="F244">
+        <f>'Kompletne dane'!H245</f>
+        <v>5</v>
+      </c>
+      <c r="G244">
+        <f>'Kompletne dane'!I245</f>
+        <v>5</v>
+      </c>
+      <c r="H244">
+        <f>'Kompletne dane'!J245</f>
+        <v>6.4</v>
+      </c>
+      <c r="I244">
+        <f>'Kompletne dane'!K245</f>
+        <v>247</v>
+      </c>
+      <c r="J244">
+        <f>'Kompletne dane'!L245</f>
+        <v>300</v>
+      </c>
+      <c r="K244">
+        <f>'Kompletne dane'!M245</f>
+        <v>1375</v>
+      </c>
+      <c r="L244">
+        <f>'Kompletne dane'!N245</f>
+        <v>341</v>
+      </c>
+      <c r="M244">
+        <f>'Kompletne dane'!O245</f>
+        <v>55</v>
+      </c>
+      <c r="N244">
+        <f>'Kompletne dane'!P245</f>
+        <v>432</v>
+      </c>
+      <c r="O244">
+        <f>'Kompletne dane'!Q245</f>
+        <v>177</v>
+      </c>
+      <c r="P244">
+        <f>'Kompletne dane'!R245</f>
+        <v>146</v>
+      </c>
+      <c r="Q244">
+        <f>'Kompletne dane'!S245</f>
+        <v>258</v>
+      </c>
+      <c r="R244">
+        <f>'Kompletne dane'!T245</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="245" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <f>'Kompletne dane'!C246</f>
+        <v>2006</v>
+      </c>
+      <c r="B245" t="str">
+        <f>'Kompletne dane'!D246</f>
+        <v>C</v>
+      </c>
+      <c r="C245">
+        <f>'Kompletne dane'!E246</f>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D245">
+        <f>'Kompletne dane'!F246</f>
+        <v>4</v>
+      </c>
+      <c r="E245">
+        <f>'Kompletne dane'!G246</f>
+        <v>260</v>
+      </c>
+      <c r="F245">
+        <f>'Kompletne dane'!H246</f>
+        <v>5</v>
+      </c>
+      <c r="G245">
+        <f>'Kompletne dane'!I246</f>
+        <v>5</v>
+      </c>
+      <c r="H245">
+        <f>'Kompletne dane'!J246</f>
+        <v>6.1</v>
+      </c>
+      <c r="I245">
+        <f>'Kompletne dane'!K246</f>
+        <v>250</v>
+      </c>
+      <c r="J245">
+        <f>'Kompletne dane'!L246</f>
+        <v>380</v>
+      </c>
+      <c r="K245">
+        <f>'Kompletne dane'!M246</f>
+        <v>1410</v>
+      </c>
+      <c r="L245">
+        <f>'Kompletne dane'!N246</f>
+        <v>290</v>
+      </c>
+      <c r="M245">
+        <f>'Kompletne dane'!O246</f>
+        <v>55</v>
+      </c>
+      <c r="N245">
+        <f>'Kompletne dane'!P246</f>
+        <v>444</v>
+      </c>
+      <c r="O245">
+        <f>'Kompletne dane'!Q246</f>
+        <v>177</v>
+      </c>
+      <c r="P245">
+        <f>'Kompletne dane'!R246</f>
+        <v>147</v>
+      </c>
+      <c r="Q245">
+        <f>'Kompletne dane'!S246</f>
+        <v>264</v>
+      </c>
+      <c r="R245">
+        <f>'Kompletne dane'!T246</f>
         <v>6</v>
       </c>
     </row>
@@ -35694,10 +36273,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C91F0DD7-08C7-45FC-9056-C10D607016CE}">
-  <dimension ref="A1:A241"/>
+  <dimension ref="A1:A245"/>
   <sheetViews>
-    <sheetView topLeftCell="A204" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView topLeftCell="A222" workbookViewId="0">
+      <selection activeCell="A229" sqref="A229:A245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37139,12 +37718,36 @@
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240">
         <f>IF('Cechy aut'!B240="A",1,IF('Cechy aut'!B240="B",2,IF('Cechy aut'!B240="C",3,IF('Cechy aut'!B240="D",4,IF('Cechy aut'!B240="E",5,IF('Cechy aut'!B240="F",6,IF('Cechy aut'!B240="S",7)))))))</f>
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241">
         <f>IF('Cechy aut'!B241="A",1,IF('Cechy aut'!B241="B",2,IF('Cechy aut'!B241="C",3,IF('Cechy aut'!B241="D",4,IF('Cechy aut'!B241="E",5,IF('Cechy aut'!B241="F",6,IF('Cechy aut'!B241="S",7)))))))</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <f>IF('Cechy aut'!B242="A",1,IF('Cechy aut'!B242="B",2,IF('Cechy aut'!B242="C",3,IF('Cechy aut'!B242="D",4,IF('Cechy aut'!B242="E",5,IF('Cechy aut'!B242="F",6,IF('Cechy aut'!B242="S",7)))))))</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <f>IF('Cechy aut'!B243="A",1,IF('Cechy aut'!B243="B",2,IF('Cechy aut'!B243="C",3,IF('Cechy aut'!B243="D",4,IF('Cechy aut'!B243="E",5,IF('Cechy aut'!B243="F",6,IF('Cechy aut'!B243="S",7)))))))</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <f>IF('Cechy aut'!B244="A",1,IF('Cechy aut'!B244="B",2,IF('Cechy aut'!B244="C",3,IF('Cechy aut'!B244="D",4,IF('Cechy aut'!B244="E",5,IF('Cechy aut'!B244="F",6,IF('Cechy aut'!B244="S",7)))))))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <f>IF('Cechy aut'!B245="A",1,IF('Cechy aut'!B245="B",2,IF('Cechy aut'!B245="C",3,IF('Cechy aut'!B245="D",4,IF('Cechy aut'!B245="E",5,IF('Cechy aut'!B245="F",6,IF('Cechy aut'!B245="S",7)))))))</f>
         <v>3</v>
       </c>
     </row>
@@ -37155,10 +37758,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8CF09BC-BA71-498C-BCF7-A747FC04EA4C}">
-  <dimension ref="A1:R241"/>
+  <dimension ref="A1:R245"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V25" sqref="V25"/>
+      <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -54855,11 +55458,11 @@
     <row r="240" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A240">
         <f>('Cechy aut'!A240-MIN('Cechy aut'!A$1:'Cechy aut'!A$241))/(MAX('Cechy aut'!A$1:'Cechy aut'!A$241)-MIN('Cechy aut'!A$1:'Cechy aut'!A$241))</f>
-        <v>0.77941176470588236</v>
+        <v>0.58823529411764708</v>
       </c>
       <c r="B240">
         <f>(Segmenty!A240-MIN(Segmenty!A$1:'Segmenty'!A$241))/(MAX(Segmenty!A$1:'Segmenty'!A$241)-MIN(Segmenty!A$1:'Segmenty'!A$241))</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="C240">
         <f>('Cechy aut'!C240-MIN('Cechy aut'!C$1:'Cechy aut'!C$241))/(MAX('Cechy aut'!C$1:'Cechy aut'!C$241)-MIN('Cechy aut'!C$1:'Cechy aut'!C$241))</f>
@@ -54871,132 +55474,428 @@
       </c>
       <c r="E240">
         <f>('Cechy aut'!E240-MIN('Cechy aut'!E$1:'Cechy aut'!E$241))/(MAX('Cechy aut'!E$1:'Cechy aut'!E$241)-MIN('Cechy aut'!E$1:'Cechy aut'!E$241))</f>
-        <v>0.10761154855643044</v>
+        <v>8.9895013123359582E-2</v>
       </c>
       <c r="F240">
         <f>('Cechy aut'!F240-MIN('Cechy aut'!F$1:'Cechy aut'!F$241))/(MAX('Cechy aut'!F$1:'Cechy aut'!F$241)-MIN('Cechy aut'!F$1:'Cechy aut'!F$241))</f>
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="G240">
         <f>('Cechy aut'!G240-MIN('Cechy aut'!G$1:'Cechy aut'!G$241))/(MAX('Cechy aut'!G$1:'Cechy aut'!G$241)-MIN('Cechy aut'!G$1:'Cechy aut'!G$241))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H240">
         <f>('Cechy aut'!H240-MIN('Cechy aut'!H$1:'Cechy aut'!H$241))/(MAX('Cechy aut'!H$1:'Cechy aut'!H$241)-MIN('Cechy aut'!H$1:'Cechy aut'!H$241))</f>
-        <v>0.31746031746031744</v>
+        <v>0.36507936507936506</v>
       </c>
       <c r="I240">
         <f>('Cechy aut'!I240-MIN('Cechy aut'!I$1:'Cechy aut'!I$241))/(MAX('Cechy aut'!I$1:'Cechy aut'!I$241)-MIN('Cechy aut'!I$1:'Cechy aut'!I$241))</f>
-        <v>0.27514792899408286</v>
+        <v>0.21301775147928995</v>
       </c>
       <c r="J240">
         <f>('Cechy aut'!J240-MIN('Cechy aut'!J$1:'Cechy aut'!J$241))/(MAX('Cechy aut'!J$1:'Cechy aut'!J$241)-MIN('Cechy aut'!J$1:'Cechy aut'!J$241))</f>
-        <v>0.12926992632283993</v>
+        <v>0.12257200267916946</v>
       </c>
       <c r="K240">
         <f>('Cechy aut'!K240-MIN('Cechy aut'!K$1:'Cechy aut'!K$241))/(MAX('Cechy aut'!K$1:'Cechy aut'!K$241)-MIN('Cechy aut'!K$1:'Cechy aut'!K$241))</f>
-        <v>0.35294117647058826</v>
+        <v>0.31862745098039214</v>
       </c>
       <c r="L240">
         <f>('Cechy aut'!L240-MIN('Cechy aut'!L$1:'Cechy aut'!L$241))/(MAX('Cechy aut'!L$1:'Cechy aut'!L$241)-MIN('Cechy aut'!L$1:'Cechy aut'!L$241))</f>
-        <v>0.4194341943419434</v>
+        <v>0.29643296432964328</v>
       </c>
       <c r="M240">
         <f>('Cechy aut'!M240-MIN('Cechy aut'!M$1:'Cechy aut'!M$241))/(MAX('Cechy aut'!M$1:'Cechy aut'!M$241)-MIN('Cechy aut'!M$1:'Cechy aut'!M$241))</f>
-        <v>0.34591194968553457</v>
+        <v>0.40251572327044027</v>
       </c>
       <c r="N240">
         <f>('Cechy aut'!N240-MIN('Cechy aut'!N$1:'Cechy aut'!N$241))/(MAX('Cechy aut'!N$1:'Cechy aut'!N$241)-MIN('Cechy aut'!N$1:'Cechy aut'!N$241))</f>
-        <v>0.53586497890295359</v>
+        <v>0.56118143459915615</v>
       </c>
       <c r="O240">
         <f>('Cechy aut'!O240-MIN('Cechy aut'!O$1:'Cechy aut'!O$241))/(MAX('Cechy aut'!O$1:'Cechy aut'!O$241)-MIN('Cechy aut'!O$1:'Cechy aut'!O$241))</f>
-        <v>0.44578313253012047</v>
+        <v>0.42168674698795183</v>
       </c>
       <c r="P240">
         <f>('Cechy aut'!P240-MIN('Cechy aut'!P$1:'Cechy aut'!P$241))/(MAX('Cechy aut'!P$1:'Cechy aut'!P$241)-MIN('Cechy aut'!P$1:'Cechy aut'!P$241))</f>
-        <v>0.8571428571428571</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="Q240">
         <f>('Cechy aut'!Q240-MIN('Cechy aut'!Q$1:'Cechy aut'!Q$241))/(MAX('Cechy aut'!Q$1:'Cechy aut'!Q$241)-MIN('Cechy aut'!Q$1:'Cechy aut'!Q$241))</f>
-        <v>0.53465346534653468</v>
+        <v>0.46534653465346537</v>
       </c>
       <c r="R240">
         <f>('Cechy aut'!R240-MIN('Cechy aut'!R$1:'Cechy aut'!R$241))/(MAX('Cechy aut'!R$1:'Cechy aut'!R$241)-MIN('Cechy aut'!R$1:'Cechy aut'!R$241))</f>
-        <v>0.5714285714285714</v>
+        <v>0.42857142857142855</v>
       </c>
     </row>
     <row r="241" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A241">
         <f>('Cechy aut'!A241-MIN('Cechy aut'!A$1:'Cechy aut'!A$241))/(MAX('Cechy aut'!A$1:'Cechy aut'!A$241)-MIN('Cechy aut'!A$1:'Cechy aut'!A$241))</f>
-        <v>0.75</v>
+        <v>0.39705882352941174</v>
       </c>
       <c r="B241">
         <f>(Segmenty!A241-MIN(Segmenty!A$1:'Segmenty'!A$241))/(MAX(Segmenty!A$1:'Segmenty'!A$241)-MIN(Segmenty!A$1:'Segmenty'!A$241))</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="C241">
         <f>('Cechy aut'!C241-MIN('Cechy aut'!C$1:'Cechy aut'!C$241))/(MAX('Cechy aut'!C$1:'Cechy aut'!C$241)-MIN('Cechy aut'!C$1:'Cechy aut'!C$241))</f>
-        <v>0.27380952380952378</v>
+        <v>0.34523809523809523</v>
       </c>
       <c r="D241">
         <f>('Cechy aut'!D241-MIN('Cechy aut'!D$1:'Cechy aut'!D$241))/(MAX('Cechy aut'!D$1:'Cechy aut'!D$241)-MIN('Cechy aut'!D$1:'Cechy aut'!D$241))</f>
-        <v>0.14285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="E241">
         <f>('Cechy aut'!E241-MIN('Cechy aut'!E$1:'Cechy aut'!E$241))/(MAX('Cechy aut'!E$1:'Cechy aut'!E$241)-MIN('Cechy aut'!E$1:'Cechy aut'!E$241))</f>
-        <v>0.12073490813648294</v>
+        <v>4.5275590551181105E-2</v>
       </c>
       <c r="F241">
         <f>('Cechy aut'!F241-MIN('Cechy aut'!F$1:'Cechy aut'!F$241))/(MAX('Cechy aut'!F$1:'Cechy aut'!F$241)-MIN('Cechy aut'!F$1:'Cechy aut'!F$241))</f>
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="G241">
         <f>('Cechy aut'!G241-MIN('Cechy aut'!G$1:'Cechy aut'!G$241))/(MAX('Cechy aut'!G$1:'Cechy aut'!G$241)-MIN('Cechy aut'!G$1:'Cechy aut'!G$241))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H241">
         <f>('Cechy aut'!H241-MIN('Cechy aut'!H$1:'Cechy aut'!H$241))/(MAX('Cechy aut'!H$1:'Cechy aut'!H$241)-MIN('Cechy aut'!H$1:'Cechy aut'!H$241))</f>
-        <v>0.29365079365079366</v>
+        <v>0.58730158730158732</v>
       </c>
       <c r="I241">
         <f>('Cechy aut'!I241-MIN('Cechy aut'!I$1:'Cechy aut'!I$241))/(MAX('Cechy aut'!I$1:'Cechy aut'!I$241)-MIN('Cechy aut'!I$1:'Cechy aut'!I$241))</f>
-        <v>0.28402366863905326</v>
+        <v>0.16272189349112426</v>
       </c>
       <c r="J241">
         <f>('Cechy aut'!J241-MIN('Cechy aut'!J$1:'Cechy aut'!J$241))/(MAX('Cechy aut'!J$1:'Cechy aut'!J$241)-MIN('Cechy aut'!J$1:'Cechy aut'!J$241))</f>
-        <v>0.18285331547220363</v>
+        <v>7.9035498995311454E-2</v>
       </c>
       <c r="K241">
         <f>('Cechy aut'!K241-MIN('Cechy aut'!K$1:'Cechy aut'!K$241))/(MAX('Cechy aut'!K$1:'Cechy aut'!K$241)-MIN('Cechy aut'!K$1:'Cechy aut'!K$241))</f>
-        <v>0.37009803921568629</v>
+        <v>0.28333333333333333</v>
       </c>
       <c r="L241">
         <f>('Cechy aut'!L241-MIN('Cechy aut'!L$1:'Cechy aut'!L$241))/(MAX('Cechy aut'!L$1:'Cechy aut'!L$241)-MIN('Cechy aut'!L$1:'Cechy aut'!L$241))</f>
-        <v>0.35670356703567035</v>
+        <v>0.4870848708487085</v>
       </c>
       <c r="M241">
         <f>('Cechy aut'!M241-MIN('Cechy aut'!M$1:'Cechy aut'!M$241))/(MAX('Cechy aut'!M$1:'Cechy aut'!M$241)-MIN('Cechy aut'!M$1:'Cechy aut'!M$241))</f>
-        <v>0.34591194968553457</v>
+        <v>0.32704402515723269</v>
       </c>
       <c r="N241">
         <f>('Cechy aut'!N241-MIN('Cechy aut'!N$1:'Cechy aut'!N$241))/(MAX('Cechy aut'!N$1:'Cechy aut'!N$241)-MIN('Cechy aut'!N$1:'Cechy aut'!N$241))</f>
-        <v>0.5864978902953587</v>
+        <v>0.51476793248945152</v>
       </c>
       <c r="O241">
         <f>('Cechy aut'!O241-MIN('Cechy aut'!O$1:'Cechy aut'!O$241))/(MAX('Cechy aut'!O$1:'Cechy aut'!O$241)-MIN('Cechy aut'!O$1:'Cechy aut'!O$241))</f>
-        <v>0.44578313253012047</v>
+        <v>0.71084337349397586</v>
       </c>
       <c r="P241">
         <f>('Cechy aut'!P241-MIN('Cechy aut'!P$1:'Cechy aut'!P$241))/(MAX('Cechy aut'!P$1:'Cechy aut'!P$241)-MIN('Cechy aut'!P$1:'Cechy aut'!P$241))</f>
-        <v>0.875</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="Q241">
         <f>('Cechy aut'!Q241-MIN('Cechy aut'!Q$1:'Cechy aut'!Q$241))/(MAX('Cechy aut'!Q$1:'Cechy aut'!Q$241)-MIN('Cechy aut'!Q$1:'Cechy aut'!Q$241))</f>
-        <v>0.59405940594059403</v>
+        <v>0.36633663366336633</v>
       </c>
       <c r="R241">
         <f>('Cechy aut'!R241-MIN('Cechy aut'!R$1:'Cechy aut'!R$241))/(MAX('Cechy aut'!R$1:'Cechy aut'!R$241)-MIN('Cechy aut'!R$1:'Cechy aut'!R$241))</f>
+        <v>0.42857142857142855</v>
+      </c>
+    </row>
+    <row r="242" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <f>('Cechy aut'!A242-MIN('Cechy aut'!A$1:'Cechy aut'!A$241))/(MAX('Cechy aut'!A$1:'Cechy aut'!A$241)-MIN('Cechy aut'!A$1:'Cechy aut'!A$241))</f>
+        <v>0.23529411764705882</v>
+      </c>
+      <c r="B242">
+        <f>(Segmenty!A242-MIN(Segmenty!A$1:'Segmenty'!A$241))/(MAX(Segmenty!A$1:'Segmenty'!A$241)-MIN(Segmenty!A$1:'Segmenty'!A$241))</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C242">
+        <f>('Cechy aut'!C242-MIN('Cechy aut'!C$1:'Cechy aut'!C$241))/(MAX('Cechy aut'!C$1:'Cechy aut'!C$241)-MIN('Cechy aut'!C$1:'Cechy aut'!C$241))</f>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="D242">
+        <f>('Cechy aut'!D242-MIN('Cechy aut'!D$1:'Cechy aut'!D$241))/(MAX('Cechy aut'!D$1:'Cechy aut'!D$241)-MIN('Cechy aut'!D$1:'Cechy aut'!D$241))</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="E242">
+        <f>('Cechy aut'!E242-MIN('Cechy aut'!E$1:'Cechy aut'!E$241))/(MAX('Cechy aut'!E$1:'Cechy aut'!E$241)-MIN('Cechy aut'!E$1:'Cechy aut'!E$241))</f>
+        <v>0.19619422572178477</v>
+      </c>
+      <c r="F242">
+        <f>('Cechy aut'!F242-MIN('Cechy aut'!F$1:'Cechy aut'!F$241))/(MAX('Cechy aut'!F$1:'Cechy aut'!F$241)-MIN('Cechy aut'!F$1:'Cechy aut'!F$241))</f>
+        <v>0</v>
+      </c>
+      <c r="G242">
+        <f>('Cechy aut'!G242-MIN('Cechy aut'!G$1:'Cechy aut'!G$241))/(MAX('Cechy aut'!G$1:'Cechy aut'!G$241)-MIN('Cechy aut'!G$1:'Cechy aut'!G$241))</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H242">
+        <f>('Cechy aut'!H242-MIN('Cechy aut'!H$1:'Cechy aut'!H$241))/(MAX('Cechy aut'!H$1:'Cechy aut'!H$241)-MIN('Cechy aut'!H$1:'Cechy aut'!H$241))</f>
+        <v>0.28571428571428575</v>
+      </c>
+      <c r="I242">
+        <f>('Cechy aut'!I242-MIN('Cechy aut'!I$1:'Cechy aut'!I$241))/(MAX('Cechy aut'!I$1:'Cechy aut'!I$241)-MIN('Cechy aut'!I$1:'Cechy aut'!I$241))</f>
+        <v>0.18343195266272189</v>
+      </c>
+      <c r="J242">
+        <f>('Cechy aut'!J242-MIN('Cechy aut'!J$1:'Cechy aut'!J$241))/(MAX('Cechy aut'!J$1:'Cechy aut'!J$241)-MIN('Cechy aut'!J$1:'Cechy aut'!J$241))</f>
+        <v>0.28265237776289348</v>
+      </c>
+      <c r="K242">
+        <f>('Cechy aut'!K242-MIN('Cechy aut'!K$1:'Cechy aut'!K$241))/(MAX('Cechy aut'!K$1:'Cechy aut'!K$241)-MIN('Cechy aut'!K$1:'Cechy aut'!K$241))</f>
+        <v>0.58088235294117652</v>
+      </c>
+      <c r="L242">
+        <f>('Cechy aut'!L242-MIN('Cechy aut'!L$1:'Cechy aut'!L$241))/(MAX('Cechy aut'!L$1:'Cechy aut'!L$241)-MIN('Cechy aut'!L$1:'Cechy aut'!L$241))</f>
+        <v>0.53874538745387457</v>
+      </c>
+      <c r="M242">
+        <f>('Cechy aut'!M242-MIN('Cechy aut'!M$1:'Cechy aut'!M$241))/(MAX('Cechy aut'!M$1:'Cechy aut'!M$241)-MIN('Cechy aut'!M$1:'Cechy aut'!M$241))</f>
+        <v>0.45283018867924529</v>
+      </c>
+      <c r="N242">
+        <f>('Cechy aut'!N242-MIN('Cechy aut'!N$1:'Cechy aut'!N$241))/(MAX('Cechy aut'!N$1:'Cechy aut'!N$241)-MIN('Cechy aut'!N$1:'Cechy aut'!N$241))</f>
+        <v>0.89029535864978904</v>
+      </c>
+      <c r="O242">
+        <f>('Cechy aut'!O242-MIN('Cechy aut'!O$1:'Cechy aut'!O$241))/(MAX('Cechy aut'!O$1:'Cechy aut'!O$241)-MIN('Cechy aut'!O$1:'Cechy aut'!O$241))</f>
+        <v>0.73493975903614461</v>
+      </c>
+      <c r="P242">
+        <f>('Cechy aut'!P242-MIN('Cechy aut'!P$1:'Cechy aut'!P$241))/(MAX('Cechy aut'!P$1:'Cechy aut'!P$241)-MIN('Cechy aut'!P$1:'Cechy aut'!P$241))</f>
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="Q242">
+        <f>('Cechy aut'!Q242-MIN('Cechy aut'!Q$1:'Cechy aut'!Q$241))/(MAX('Cechy aut'!Q$1:'Cechy aut'!Q$241)-MIN('Cechy aut'!Q$1:'Cechy aut'!Q$241))</f>
+        <v>0.87128712871287128</v>
+      </c>
+      <c r="R242">
+        <f>('Cechy aut'!R242-MIN('Cechy aut'!R$1:'Cechy aut'!R$241))/(MAX('Cechy aut'!R$1:'Cechy aut'!R$241)-MIN('Cechy aut'!R$1:'Cechy aut'!R$241))</f>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="243" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <f>('Cechy aut'!A243-MIN('Cechy aut'!A$1:'Cechy aut'!A$241))/(MAX('Cechy aut'!A$1:'Cechy aut'!A$241)-MIN('Cechy aut'!A$1:'Cechy aut'!A$241))</f>
+        <v>0.25</v>
+      </c>
+      <c r="B243">
+        <f>(Segmenty!A243-MIN(Segmenty!A$1:'Segmenty'!A$241))/(MAX(Segmenty!A$1:'Segmenty'!A$241)-MIN(Segmenty!A$1:'Segmenty'!A$241))</f>
+        <v>0.5</v>
+      </c>
+      <c r="C243">
+        <f>('Cechy aut'!C243-MIN('Cechy aut'!C$1:'Cechy aut'!C$241))/(MAX('Cechy aut'!C$1:'Cechy aut'!C$241)-MIN('Cechy aut'!C$1:'Cechy aut'!C$241))</f>
+        <v>0.59523809523809523</v>
+      </c>
+      <c r="D243">
+        <f>('Cechy aut'!D243-MIN('Cechy aut'!D$1:'Cechy aut'!D$241))/(MAX('Cechy aut'!D$1:'Cechy aut'!D$241)-MIN('Cechy aut'!D$1:'Cechy aut'!D$241))</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="E243">
+        <f>('Cechy aut'!E243-MIN('Cechy aut'!E$1:'Cechy aut'!E$241))/(MAX('Cechy aut'!E$1:'Cechy aut'!E$241)-MIN('Cechy aut'!E$1:'Cechy aut'!E$241))</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="F243">
+        <f>('Cechy aut'!F243-MIN('Cechy aut'!F$1:'Cechy aut'!F$241))/(MAX('Cechy aut'!F$1:'Cechy aut'!F$241)-MIN('Cechy aut'!F$1:'Cechy aut'!F$241))</f>
+        <v>0.5</v>
+      </c>
+      <c r="G243">
+        <f>('Cechy aut'!G243-MIN('Cechy aut'!G$1:'Cechy aut'!G$241))/(MAX('Cechy aut'!G$1:'Cechy aut'!G$241)-MIN('Cechy aut'!G$1:'Cechy aut'!G$241))</f>
+        <v>0</v>
+      </c>
+      <c r="H243">
+        <f>('Cechy aut'!H243-MIN('Cechy aut'!H$1:'Cechy aut'!H$241))/(MAX('Cechy aut'!H$1:'Cechy aut'!H$241)-MIN('Cechy aut'!H$1:'Cechy aut'!H$241))</f>
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="I243">
+        <f>('Cechy aut'!I243-MIN('Cechy aut'!I$1:'Cechy aut'!I$241))/(MAX('Cechy aut'!I$1:'Cechy aut'!I$241)-MIN('Cechy aut'!I$1:'Cechy aut'!I$241))</f>
+        <v>0.13905325443786981</v>
+      </c>
+      <c r="J243">
+        <f>('Cechy aut'!J243-MIN('Cechy aut'!J$1:'Cechy aut'!J$241))/(MAX('Cechy aut'!J$1:'Cechy aut'!J$241)-MIN('Cechy aut'!J$1:'Cechy aut'!J$241))</f>
+        <v>0.20093770931011387</v>
+      </c>
+      <c r="K243">
+        <f>('Cechy aut'!K243-MIN('Cechy aut'!K$1:'Cechy aut'!K$241))/(MAX('Cechy aut'!K$1:'Cechy aut'!K$241)-MIN('Cechy aut'!K$1:'Cechy aut'!K$241))</f>
+        <v>0.44362745098039214</v>
+      </c>
+      <c r="L243">
+        <f>('Cechy aut'!L243-MIN('Cechy aut'!L$1:'Cechy aut'!L$241))/(MAX('Cechy aut'!L$1:'Cechy aut'!L$241)-MIN('Cechy aut'!L$1:'Cechy aut'!L$241))</f>
+        <v>0.21894218942189422</v>
+      </c>
+      <c r="M243">
+        <f>('Cechy aut'!M243-MIN('Cechy aut'!M$1:'Cechy aut'!M$241))/(MAX('Cechy aut'!M$1:'Cechy aut'!M$241)-MIN('Cechy aut'!M$1:'Cechy aut'!M$241))</f>
+        <v>0.49685534591194969</v>
+      </c>
+      <c r="N243">
+        <f>('Cechy aut'!N243-MIN('Cechy aut'!N$1:'Cechy aut'!N$241))/(MAX('Cechy aut'!N$1:'Cechy aut'!N$241)-MIN('Cechy aut'!N$1:'Cechy aut'!N$241))</f>
+        <v>0.72995780590717296</v>
+      </c>
+      <c r="O243">
+        <f>('Cechy aut'!O243-MIN('Cechy aut'!O$1:'Cechy aut'!O$241))/(MAX('Cechy aut'!O$1:'Cechy aut'!O$241)-MIN('Cechy aut'!O$1:'Cechy aut'!O$241))</f>
+        <v>0.59036144578313254</v>
+      </c>
+      <c r="P243">
+        <f>('Cechy aut'!P243-MIN('Cechy aut'!P$1:'Cechy aut'!P$241))/(MAX('Cechy aut'!P$1:'Cechy aut'!P$241)-MIN('Cechy aut'!P$1:'Cechy aut'!P$241))</f>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="Q243">
+        <f>('Cechy aut'!Q243-MIN('Cechy aut'!Q$1:'Cechy aut'!Q$241))/(MAX('Cechy aut'!Q$1:'Cechy aut'!Q$241)-MIN('Cechy aut'!Q$1:'Cechy aut'!Q$241))</f>
+        <v>0.69306930693069302</v>
+      </c>
+      <c r="R243">
+        <f>('Cechy aut'!R243-MIN('Cechy aut'!R$1:'Cechy aut'!R$241))/(MAX('Cechy aut'!R$1:'Cechy aut'!R$241)-MIN('Cechy aut'!R$1:'Cechy aut'!R$241))</f>
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="244" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <f>('Cechy aut'!A244-MIN('Cechy aut'!A$1:'Cechy aut'!A$241))/(MAX('Cechy aut'!A$1:'Cechy aut'!A$241)-MIN('Cechy aut'!A$1:'Cechy aut'!A$241))</f>
+        <v>0.77941176470588236</v>
+      </c>
+      <c r="B244">
+        <f>(Segmenty!A244-MIN(Segmenty!A$1:'Segmenty'!A$241))/(MAX(Segmenty!A$1:'Segmenty'!A$241)-MIN(Segmenty!A$1:'Segmenty'!A$241))</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C244">
+        <f>('Cechy aut'!C244-MIN('Cechy aut'!C$1:'Cechy aut'!C$241))/(MAX('Cechy aut'!C$1:'Cechy aut'!C$241)-MIN('Cechy aut'!C$1:'Cechy aut'!C$241))</f>
+        <v>0.23809523809523808</v>
+      </c>
+      <c r="D244">
+        <f>('Cechy aut'!D244-MIN('Cechy aut'!D$1:'Cechy aut'!D$241))/(MAX('Cechy aut'!D$1:'Cechy aut'!D$241)-MIN('Cechy aut'!D$1:'Cechy aut'!D$241))</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="E244">
+        <f>('Cechy aut'!E244-MIN('Cechy aut'!E$1:'Cechy aut'!E$241))/(MAX('Cechy aut'!E$1:'Cechy aut'!E$241)-MIN('Cechy aut'!E$1:'Cechy aut'!E$241))</f>
+        <v>0.10761154855643044</v>
+      </c>
+      <c r="F244">
+        <f>('Cechy aut'!F244-MIN('Cechy aut'!F$1:'Cechy aut'!F$241))/(MAX('Cechy aut'!F$1:'Cechy aut'!F$241)-MIN('Cechy aut'!F$1:'Cechy aut'!F$241))</f>
+        <v>0.75</v>
+      </c>
+      <c r="G244">
+        <f>('Cechy aut'!G244-MIN('Cechy aut'!G$1:'Cechy aut'!G$241))/(MAX('Cechy aut'!G$1:'Cechy aut'!G$241)-MIN('Cechy aut'!G$1:'Cechy aut'!G$241))</f>
+        <v>1</v>
+      </c>
+      <c r="H244">
+        <f>('Cechy aut'!H244-MIN('Cechy aut'!H$1:'Cechy aut'!H$241))/(MAX('Cechy aut'!H$1:'Cechy aut'!H$241)-MIN('Cechy aut'!H$1:'Cechy aut'!H$241))</f>
+        <v>0.31746031746031744</v>
+      </c>
+      <c r="I244">
+        <f>('Cechy aut'!I244-MIN('Cechy aut'!I$1:'Cechy aut'!I$241))/(MAX('Cechy aut'!I$1:'Cechy aut'!I$241)-MIN('Cechy aut'!I$1:'Cechy aut'!I$241))</f>
+        <v>0.27514792899408286</v>
+      </c>
+      <c r="J244">
+        <f>('Cechy aut'!J244-MIN('Cechy aut'!J$1:'Cechy aut'!J$241))/(MAX('Cechy aut'!J$1:'Cechy aut'!J$241)-MIN('Cechy aut'!J$1:'Cechy aut'!J$241))</f>
+        <v>0.12926992632283993</v>
+      </c>
+      <c r="K244">
+        <f>('Cechy aut'!K244-MIN('Cechy aut'!K$1:'Cechy aut'!K$241))/(MAX('Cechy aut'!K$1:'Cechy aut'!K$241)-MIN('Cechy aut'!K$1:'Cechy aut'!K$241))</f>
+        <v>0.35294117647058826</v>
+      </c>
+      <c r="L244">
+        <f>('Cechy aut'!L244-MIN('Cechy aut'!L$1:'Cechy aut'!L$241))/(MAX('Cechy aut'!L$1:'Cechy aut'!L$241)-MIN('Cechy aut'!L$1:'Cechy aut'!L$241))</f>
+        <v>0.4194341943419434</v>
+      </c>
+      <c r="M244">
+        <f>('Cechy aut'!M244-MIN('Cechy aut'!M$1:'Cechy aut'!M$241))/(MAX('Cechy aut'!M$1:'Cechy aut'!M$241)-MIN('Cechy aut'!M$1:'Cechy aut'!M$241))</f>
+        <v>0.34591194968553457</v>
+      </c>
+      <c r="N244">
+        <f>('Cechy aut'!N244-MIN('Cechy aut'!N$1:'Cechy aut'!N$241))/(MAX('Cechy aut'!N$1:'Cechy aut'!N$241)-MIN('Cechy aut'!N$1:'Cechy aut'!N$241))</f>
+        <v>0.53586497890295359</v>
+      </c>
+      <c r="O244">
+        <f>('Cechy aut'!O244-MIN('Cechy aut'!O$1:'Cechy aut'!O$241))/(MAX('Cechy aut'!O$1:'Cechy aut'!O$241)-MIN('Cechy aut'!O$1:'Cechy aut'!O$241))</f>
+        <v>0.44578313253012047</v>
+      </c>
+      <c r="P244">
+        <f>('Cechy aut'!P244-MIN('Cechy aut'!P$1:'Cechy aut'!P$241))/(MAX('Cechy aut'!P$1:'Cechy aut'!P$241)-MIN('Cechy aut'!P$1:'Cechy aut'!P$241))</f>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="Q244">
+        <f>('Cechy aut'!Q244-MIN('Cechy aut'!Q$1:'Cechy aut'!Q$241))/(MAX('Cechy aut'!Q$1:'Cechy aut'!Q$241)-MIN('Cechy aut'!Q$1:'Cechy aut'!Q$241))</f>
+        <v>0.53465346534653468</v>
+      </c>
+      <c r="R244">
+        <f>('Cechy aut'!R244-MIN('Cechy aut'!R$1:'Cechy aut'!R$241))/(MAX('Cechy aut'!R$1:'Cechy aut'!R$241)-MIN('Cechy aut'!R$1:'Cechy aut'!R$241))</f>
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="245" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <f>('Cechy aut'!A245-MIN('Cechy aut'!A$1:'Cechy aut'!A$241))/(MAX('Cechy aut'!A$1:'Cechy aut'!A$241)-MIN('Cechy aut'!A$1:'Cechy aut'!A$241))</f>
+        <v>0.75</v>
+      </c>
+      <c r="B245">
+        <f>(Segmenty!A245-MIN(Segmenty!A$1:'Segmenty'!A$241))/(MAX(Segmenty!A$1:'Segmenty'!A$241)-MIN(Segmenty!A$1:'Segmenty'!A$241))</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C245">
+        <f>('Cechy aut'!C245-MIN('Cechy aut'!C$1:'Cechy aut'!C$241))/(MAX('Cechy aut'!C$1:'Cechy aut'!C$241)-MIN('Cechy aut'!C$1:'Cechy aut'!C$241))</f>
+        <v>0.27380952380952378</v>
+      </c>
+      <c r="D245">
+        <f>('Cechy aut'!D245-MIN('Cechy aut'!D$1:'Cechy aut'!D$241))/(MAX('Cechy aut'!D$1:'Cechy aut'!D$241)-MIN('Cechy aut'!D$1:'Cechy aut'!D$241))</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="E245">
+        <f>('Cechy aut'!E245-MIN('Cechy aut'!E$1:'Cechy aut'!E$241))/(MAX('Cechy aut'!E$1:'Cechy aut'!E$241)-MIN('Cechy aut'!E$1:'Cechy aut'!E$241))</f>
+        <v>0.12073490813648294</v>
+      </c>
+      <c r="F245">
+        <f>('Cechy aut'!F245-MIN('Cechy aut'!F$1:'Cechy aut'!F$241))/(MAX('Cechy aut'!F$1:'Cechy aut'!F$241)-MIN('Cechy aut'!F$1:'Cechy aut'!F$241))</f>
+        <v>0.75</v>
+      </c>
+      <c r="G245">
+        <f>('Cechy aut'!G245-MIN('Cechy aut'!G$1:'Cechy aut'!G$241))/(MAX('Cechy aut'!G$1:'Cechy aut'!G$241)-MIN('Cechy aut'!G$1:'Cechy aut'!G$241))</f>
+        <v>1</v>
+      </c>
+      <c r="H245">
+        <f>('Cechy aut'!H245-MIN('Cechy aut'!H$1:'Cechy aut'!H$241))/(MAX('Cechy aut'!H$1:'Cechy aut'!H$241)-MIN('Cechy aut'!H$1:'Cechy aut'!H$241))</f>
+        <v>0.29365079365079366</v>
+      </c>
+      <c r="I245">
+        <f>('Cechy aut'!I245-MIN('Cechy aut'!I$1:'Cechy aut'!I$241))/(MAX('Cechy aut'!I$1:'Cechy aut'!I$241)-MIN('Cechy aut'!I$1:'Cechy aut'!I$241))</f>
+        <v>0.28402366863905326</v>
+      </c>
+      <c r="J245">
+        <f>('Cechy aut'!J245-MIN('Cechy aut'!J$1:'Cechy aut'!J$241))/(MAX('Cechy aut'!J$1:'Cechy aut'!J$241)-MIN('Cechy aut'!J$1:'Cechy aut'!J$241))</f>
+        <v>0.18285331547220363</v>
+      </c>
+      <c r="K245">
+        <f>('Cechy aut'!K245-MIN('Cechy aut'!K$1:'Cechy aut'!K$241))/(MAX('Cechy aut'!K$1:'Cechy aut'!K$241)-MIN('Cechy aut'!K$1:'Cechy aut'!K$241))</f>
+        <v>0.37009803921568629</v>
+      </c>
+      <c r="L245">
+        <f>('Cechy aut'!L245-MIN('Cechy aut'!L$1:'Cechy aut'!L$241))/(MAX('Cechy aut'!L$1:'Cechy aut'!L$241)-MIN('Cechy aut'!L$1:'Cechy aut'!L$241))</f>
+        <v>0.35670356703567035</v>
+      </c>
+      <c r="M245">
+        <f>('Cechy aut'!M245-MIN('Cechy aut'!M$1:'Cechy aut'!M$241))/(MAX('Cechy aut'!M$1:'Cechy aut'!M$241)-MIN('Cechy aut'!M$1:'Cechy aut'!M$241))</f>
+        <v>0.34591194968553457</v>
+      </c>
+      <c r="N245">
+        <f>('Cechy aut'!N245-MIN('Cechy aut'!N$1:'Cechy aut'!N$241))/(MAX('Cechy aut'!N$1:'Cechy aut'!N$241)-MIN('Cechy aut'!N$1:'Cechy aut'!N$241))</f>
+        <v>0.5864978902953587</v>
+      </c>
+      <c r="O245">
+        <f>('Cechy aut'!O245-MIN('Cechy aut'!O$1:'Cechy aut'!O$241))/(MAX('Cechy aut'!O$1:'Cechy aut'!O$241)-MIN('Cechy aut'!O$1:'Cechy aut'!O$241))</f>
+        <v>0.44578313253012047</v>
+      </c>
+      <c r="P245">
+        <f>('Cechy aut'!P245-MIN('Cechy aut'!P$1:'Cechy aut'!P$241))/(MAX('Cechy aut'!P$1:'Cechy aut'!P$241)-MIN('Cechy aut'!P$1:'Cechy aut'!P$241))</f>
+        <v>0.875</v>
+      </c>
+      <c r="Q245">
+        <f>('Cechy aut'!Q245-MIN('Cechy aut'!Q$1:'Cechy aut'!Q$241))/(MAX('Cechy aut'!Q$1:'Cechy aut'!Q$241)-MIN('Cechy aut'!Q$1:'Cechy aut'!Q$241))</f>
+        <v>0.59405940594059403</v>
+      </c>
+      <c r="R245">
+        <f>('Cechy aut'!R245-MIN('Cechy aut'!R$1:'Cechy aut'!R$241))/(MAX('Cechy aut'!R$1:'Cechy aut'!R$241)-MIN('Cechy aut'!R$1:'Cechy aut'!R$241))</f>
         <v>0.5714285714285714</v>
       </c>
     </row>

--- a/Samochody.xlsx
+++ b/Samochody.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NASA\PracaInz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D17AD44-9F6C-4471-A7BC-577F26BDA31B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{426DB9AF-19BE-45FD-9144-16C499D68F2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37760,8 +37760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8CF09BC-BA71-498C-BCF7-A747FC04EA4C}">
   <dimension ref="A1:R245"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V8" sqref="V8"/>
+    <sheetView tabSelected="1" topLeftCell="A213" workbookViewId="0">
+      <selection activeCell="Z217" sqref="Z217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Samochody.xlsx
+++ b/Samochody.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NASA\PracaInz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4578542D-221A-46AE-BAD7-00D673AA6437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E3B66DD-12DF-449F-A2D8-1786F25E79AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28170" yWindow="1260" windowWidth="27900" windowHeight="12285" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -705,22 +705,7 @@
     <t>Moment obrotowy [Nm]</t>
   </si>
   <si>
-    <t>długość [cm]</t>
-  </si>
-  <si>
-    <t>szerokość [cm]</t>
-  </si>
-  <si>
-    <t>wysokość [cm]</t>
-  </si>
-  <si>
-    <t>pojemność bagażnika [l]</t>
-  </si>
-  <si>
     <t>Rozstaw osi [cm]</t>
-  </si>
-  <si>
-    <t>masa [kg]</t>
   </si>
   <si>
     <t>Porsche 911 (997) Carrera S</t>
@@ -742,12 +727,6 @@
   </si>
   <si>
     <t>Nissan Skyline GTR R34 V-Spec</t>
-  </si>
-  <si>
-    <t>prędkość maksymalna [km/h]</t>
-  </si>
-  <si>
-    <t>przyspieszenie 0-100 km/h [s]</t>
   </si>
   <si>
     <t>E</t>
@@ -780,9 +759,6 @@
     <t>Liczba biegów</t>
   </si>
   <si>
-    <t>Pojemnośc baku</t>
-  </si>
-  <si>
     <t>Bentley Continental Supersport Convertible</t>
   </si>
   <si>
@@ -799,6 +775,30 @@
   </si>
   <si>
     <t>Chevrolet Camaro</t>
+  </si>
+  <si>
+    <t>Pojemnośc baku [l]</t>
+  </si>
+  <si>
+    <t>Przyspieszenie 0-100 km/h [s]</t>
+  </si>
+  <si>
+    <t>Prędkość maksymalna [km/h]</t>
+  </si>
+  <si>
+    <t>Masa [kg]</t>
+  </si>
+  <si>
+    <t>Pojemność bagażnika [l]</t>
+  </si>
+  <si>
+    <t>Długość [cm]</t>
+  </si>
+  <si>
+    <t>Szerokość [cm]</t>
+  </si>
+  <si>
+    <t>Wysokość [cm]</t>
   </si>
 </sst>
 </file>
@@ -1118,8 +1118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T246"/>
   <sheetViews>
-    <sheetView topLeftCell="A211" workbookViewId="0">
-      <selection activeCell="D247" sqref="D247"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1136,7 +1136,7 @@
     <col min="11" max="11" width="26.5703125" customWidth="1"/>
     <col min="12" max="12" width="22.5703125" customWidth="1"/>
     <col min="14" max="14" width="21.7109375" customWidth="1"/>
-    <col min="15" max="15" width="15" customWidth="1"/>
+    <col min="15" max="15" width="17" customWidth="1"/>
     <col min="16" max="16" width="11.85546875" customWidth="1"/>
     <col min="17" max="17" width="13.5703125" customWidth="1"/>
     <col min="18" max="18" width="13.28515625" customWidth="1"/>
@@ -1173,37 +1173,37 @@
         <v>2</v>
       </c>
       <c r="J1" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="K1" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="L1" t="s">
         <v>224</v>
       </c>
       <c r="M1" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="N1" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
       <c r="O1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="P1" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>255</v>
+      </c>
+      <c r="R1" t="s">
+        <v>256</v>
+      </c>
+      <c r="S1" t="s">
         <v>225</v>
       </c>
-      <c r="Q1" t="s">
-        <v>226</v>
-      </c>
-      <c r="R1" t="s">
-        <v>227</v>
-      </c>
-      <c r="S1" t="s">
-        <v>229</v>
-      </c>
       <c r="T1" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -1217,7 +1217,7 @@
         <v>2016</v>
       </c>
       <c r="D2" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="E2">
         <v>5.7</v>
@@ -1280,7 +1280,7 @@
         <v>2011</v>
       </c>
       <c r="D3" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="E3">
         <v>6.2</v>
@@ -1343,7 +1343,7 @@
         <v>2019</v>
       </c>
       <c r="D4" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="E4">
         <v>3.3</v>
@@ -1406,7 +1406,7 @@
         <v>2011</v>
       </c>
       <c r="D5" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E5">
         <v>4.8</v>
@@ -1469,7 +1469,7 @@
         <v>1967</v>
       </c>
       <c r="D6" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="E6">
         <v>4.9000000000000004</v>
@@ -1532,7 +1532,7 @@
         <v>2013</v>
       </c>
       <c r="D7" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="E7">
         <v>4.3</v>
@@ -1595,7 +1595,7 @@
         <v>1970</v>
       </c>
       <c r="D8" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="E8">
         <v>4.9000000000000004</v>
@@ -1658,7 +1658,7 @@
         <v>1966</v>
       </c>
       <c r="D9" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E9">
         <v>7</v>
@@ -1721,7 +1721,7 @@
         <v>1984</v>
       </c>
       <c r="D10" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="E10">
         <v>2.1</v>
@@ -1784,7 +1784,7 @@
         <v>1967</v>
       </c>
       <c r="D11" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="E11">
         <v>7</v>
@@ -1847,7 +1847,7 @@
         <v>2019</v>
       </c>
       <c r="D12" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E12">
         <v>4</v>
@@ -1904,13 +1904,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C13">
         <v>2007</v>
       </c>
       <c r="D13" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E13">
         <v>3.8</v>
@@ -1973,7 +1973,7 @@
         <v>1986</v>
       </c>
       <c r="D14" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E14">
         <v>2.9</v>
@@ -2036,7 +2036,7 @@
         <v>2016</v>
       </c>
       <c r="D15" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E15">
         <v>3.8</v>
@@ -2099,7 +2099,7 @@
         <v>1997</v>
       </c>
       <c r="D16" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E16">
         <v>3.6</v>
@@ -2162,7 +2162,7 @@
         <v>2006</v>
       </c>
       <c r="D17" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E17">
         <v>5.4</v>
@@ -2225,7 +2225,7 @@
         <v>2004</v>
       </c>
       <c r="D18" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="E18">
         <v>4.3</v>
@@ -2288,7 +2288,7 @@
         <v>2020</v>
       </c>
       <c r="D19" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E19">
         <v>6</v>
@@ -2351,7 +2351,7 @@
         <v>1998</v>
       </c>
       <c r="D20" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="E20">
         <v>2.8</v>
@@ -2414,7 +2414,7 @@
         <v>2010</v>
       </c>
       <c r="D21" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="E21">
         <v>1.4</v>
@@ -2477,7 +2477,7 @@
         <v>2017</v>
       </c>
       <c r="D22" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="E22">
         <v>4</v>
@@ -2534,13 +2534,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="C23">
         <v>2010</v>
       </c>
       <c r="D23" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E23">
         <v>6</v>
@@ -2603,7 +2603,7 @@
         <v>2010</v>
       </c>
       <c r="D24" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E24">
         <v>4.7</v>
@@ -2666,7 +2666,7 @@
         <v>2004</v>
       </c>
       <c r="D25" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="E25">
         <v>2</v>
@@ -2729,7 +2729,7 @@
         <v>2015</v>
       </c>
       <c r="D26" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="E26">
         <v>4.4000000000000004</v>
@@ -2792,7 +2792,7 @@
         <v>2010</v>
       </c>
       <c r="D27" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E27">
         <v>4.2</v>
@@ -2855,7 +2855,7 @@
         <v>1965</v>
       </c>
       <c r="D28" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="E28">
         <v>6.4</v>
@@ -2918,7 +2918,7 @@
         <v>2008</v>
       </c>
       <c r="D29" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="E29">
         <v>3.2</v>
@@ -2981,7 +2981,7 @@
         <v>1980</v>
       </c>
       <c r="D30" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E30">
         <v>3.5</v>
@@ -3044,7 +3044,7 @@
         <v>1999</v>
       </c>
       <c r="D31" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="E31">
         <v>2.8</v>
@@ -3107,7 +3107,7 @@
         <v>2010</v>
       </c>
       <c r="D32" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="E32">
         <v>3.6</v>
@@ -3170,7 +3170,7 @@
         <v>2002</v>
       </c>
       <c r="D33" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="E33">
         <v>3</v>
@@ -3233,7 +3233,7 @@
         <v>2001</v>
       </c>
       <c r="D34" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="E34">
         <v>5.7</v>
@@ -3296,7 +3296,7 @@
         <v>2002</v>
       </c>
       <c r="D35" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="E35">
         <v>3</v>
@@ -3359,7 +3359,7 @@
         <v>1955</v>
       </c>
       <c r="D36" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E36">
         <v>3</v>
@@ -3422,7 +3422,7 @@
         <v>1982</v>
       </c>
       <c r="D37" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E37">
         <v>5.7</v>
@@ -3485,7 +3485,7 @@
         <v>2008</v>
       </c>
       <c r="D38" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="E38">
         <v>2</v>
@@ -3548,7 +3548,7 @@
         <v>1976</v>
       </c>
       <c r="D39" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E39">
         <v>3</v>
@@ -3611,7 +3611,7 @@
         <v>2014</v>
       </c>
       <c r="D40" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E40">
         <v>4.7</v>
@@ -3674,7 +3674,7 @@
         <v>1970</v>
       </c>
       <c r="D41" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="E41">
         <v>5.6</v>
@@ -3737,7 +3737,7 @@
         <v>2007</v>
       </c>
       <c r="D42" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="E42">
         <v>3.8</v>
@@ -3800,7 +3800,7 @@
         <v>2013</v>
       </c>
       <c r="D43" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E43">
         <v>6.2</v>
@@ -3863,7 +3863,7 @@
         <v>2014</v>
       </c>
       <c r="D44" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E44">
         <v>3.8</v>
@@ -3926,7 +3926,7 @@
         <v>2006</v>
       </c>
       <c r="D45" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="E45">
         <v>2</v>
@@ -3989,7 +3989,7 @@
         <v>2009</v>
       </c>
       <c r="D46" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="E46">
         <v>3.7</v>
@@ -4052,7 +4052,7 @@
         <v>2012</v>
       </c>
       <c r="D47" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="E47">
         <v>1.4</v>
@@ -4115,7 +4115,7 @@
         <v>2003</v>
       </c>
       <c r="D48" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="E48">
         <v>2</v>
@@ -4178,7 +4178,7 @@
         <v>2006</v>
       </c>
       <c r="D49" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="E49">
         <v>4.5999999999999996</v>
@@ -4241,7 +4241,7 @@
         <v>2010</v>
       </c>
       <c r="D50" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E50">
         <v>7</v>
@@ -4304,7 +4304,7 @@
         <v>2017</v>
       </c>
       <c r="D51" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E51">
         <v>6</v>
@@ -4361,13 +4361,13 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="C52">
         <v>2002</v>
       </c>
       <c r="D52" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="E52">
         <v>2</v>
@@ -4430,7 +4430,7 @@
         <v>1991</v>
       </c>
       <c r="D53" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E53">
         <v>2.9</v>
@@ -4493,7 +4493,7 @@
         <v>2016</v>
       </c>
       <c r="D54" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E54">
         <v>3.8</v>
@@ -4556,7 +4556,7 @@
         <v>2003</v>
       </c>
       <c r="D55" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E55">
         <v>3.6</v>
@@ -4619,7 +4619,7 @@
         <v>2002</v>
       </c>
       <c r="D56" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="E56">
         <v>2</v>
@@ -4682,7 +4682,7 @@
         <v>2008</v>
       </c>
       <c r="D57" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="E57">
         <v>3.2</v>
@@ -4745,7 +4745,7 @@
         <v>2023</v>
       </c>
       <c r="D58" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E58">
         <v>4</v>
@@ -4808,7 +4808,7 @@
         <v>2012</v>
       </c>
       <c r="D59" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E59">
         <v>5.2</v>
@@ -4871,7 +4871,7 @@
         <v>2018</v>
       </c>
       <c r="D60" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="E60">
         <v>1.6</v>
@@ -4934,7 +4934,7 @@
         <v>2008</v>
       </c>
       <c r="D61" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="E61">
         <v>2.5</v>
@@ -4997,7 +4997,7 @@
         <v>2003</v>
       </c>
       <c r="D62" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="E62">
         <v>2</v>
@@ -5060,7 +5060,7 @@
         <v>2002</v>
       </c>
       <c r="D63" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="E63">
         <v>2.2999999999999998</v>
@@ -5123,7 +5123,7 @@
         <v>2004</v>
       </c>
       <c r="D64" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="E64">
         <v>1.8</v>
@@ -5186,7 +5186,7 @@
         <v>1969</v>
       </c>
       <c r="D65" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="E65">
         <v>6.6</v>
@@ -5249,7 +5249,7 @@
         <v>1999</v>
       </c>
       <c r="D66" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="E66">
         <v>4.5999999999999996</v>
@@ -5312,7 +5312,7 @@
         <v>1982</v>
       </c>
       <c r="D67" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="E67">
         <v>1.6</v>
@@ -5375,7 +5375,7 @@
         <v>2006</v>
       </c>
       <c r="D68" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="E68">
         <v>1.8</v>
@@ -5438,7 +5438,7 @@
         <v>2007</v>
       </c>
       <c r="D69" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="E69">
         <v>3.5</v>
@@ -5501,7 +5501,7 @@
         <v>1999</v>
       </c>
       <c r="D70" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E70">
         <v>4.2</v>
@@ -5564,7 +5564,7 @@
         <v>1999</v>
       </c>
       <c r="D71" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E71">
         <v>5.7</v>
@@ -5627,7 +5627,7 @@
         <v>1965</v>
       </c>
       <c r="D72" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="E72">
         <v>7</v>
@@ -5690,7 +5690,7 @@
         <v>2005</v>
       </c>
       <c r="D73" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E73">
         <v>4.4000000000000004</v>
@@ -5753,7 +5753,7 @@
         <v>2018</v>
       </c>
       <c r="D74" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="E74">
         <v>2</v>
@@ -5816,7 +5816,7 @@
         <v>2008</v>
       </c>
       <c r="D75" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E75">
         <v>4.7</v>
@@ -5879,7 +5879,7 @@
         <v>2017</v>
       </c>
       <c r="D76" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E76">
         <v>6.2</v>
@@ -5942,7 +5942,7 @@
         <v>2018</v>
       </c>
       <c r="D77" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E77">
         <v>1.5</v>
@@ -6005,7 +6005,7 @@
         <v>2011</v>
       </c>
       <c r="D78" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="E78">
         <v>3.2</v>
@@ -6068,7 +6068,7 @@
         <v>2015</v>
       </c>
       <c r="D79" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="E79">
         <v>5</v>
@@ -6131,7 +6131,7 @@
         <v>2011</v>
       </c>
       <c r="D80" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="E80">
         <v>2.5</v>
@@ -6194,7 +6194,7 @@
         <v>2017</v>
       </c>
       <c r="D81" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="E81">
         <v>5</v>
@@ -6257,7 +6257,7 @@
         <v>2005</v>
       </c>
       <c r="D82" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E82">
         <v>6.2</v>
@@ -6320,7 +6320,7 @@
         <v>2014</v>
       </c>
       <c r="D83" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E83">
         <v>4.4000000000000004</v>
@@ -6383,7 +6383,7 @@
         <v>2020</v>
       </c>
       <c r="D84" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E84">
         <v>4</v>
@@ -6446,7 +6446,7 @@
         <v>2014</v>
       </c>
       <c r="D85" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E85">
         <v>6.5</v>
@@ -6509,7 +6509,7 @@
         <v>2008</v>
       </c>
       <c r="D86" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E86">
         <v>3.4</v>
@@ -6572,7 +6572,7 @@
         <v>2017</v>
       </c>
       <c r="D87" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E87">
         <v>8</v>
@@ -6635,7 +6635,7 @@
         <v>2014</v>
       </c>
       <c r="D88" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E88">
         <v>4.7</v>
@@ -6698,7 +6698,7 @@
         <v>2003</v>
       </c>
       <c r="D89" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E89">
         <v>1.8</v>
@@ -6761,7 +6761,7 @@
         <v>2023</v>
       </c>
       <c r="D90" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="E90">
         <v>4</v>
@@ -6824,7 +6824,7 @@
         <v>2017</v>
       </c>
       <c r="D91" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E91">
         <v>4.4000000000000004</v>
@@ -6887,7 +6887,7 @@
         <v>2012</v>
       </c>
       <c r="D92" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E92">
         <v>6</v>
@@ -6950,7 +6950,7 @@
         <v>2015</v>
       </c>
       <c r="D93" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="E93">
         <v>1.8</v>
@@ -7013,7 +7013,7 @@
         <v>2005</v>
       </c>
       <c r="D94" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="E94">
         <v>3</v>
@@ -7076,7 +7076,7 @@
         <v>1964</v>
       </c>
       <c r="D95" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="E95">
         <v>4.7</v>
@@ -7139,7 +7139,7 @@
         <v>2009</v>
       </c>
       <c r="D96" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E96">
         <v>8.4</v>
@@ -7202,7 +7202,7 @@
         <v>2018</v>
       </c>
       <c r="D97" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E97">
         <v>4.4000000000000004</v>
@@ -7265,7 +7265,7 @@
         <v>2007</v>
       </c>
       <c r="D98" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E98">
         <v>3.4</v>
@@ -7328,7 +7328,7 @@
         <v>2009</v>
       </c>
       <c r="D99" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="E99">
         <v>2</v>
@@ -7391,7 +7391,7 @@
         <v>1988</v>
       </c>
       <c r="D100" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E100">
         <v>2.8</v>
@@ -7454,7 +7454,7 @@
         <v>1967</v>
       </c>
       <c r="D101" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="E101">
         <v>5.3</v>
@@ -7517,7 +7517,7 @@
         <v>1957</v>
       </c>
       <c r="D102" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E102">
         <v>4.5999999999999996</v>
@@ -7580,7 +7580,7 @@
         <v>1963</v>
       </c>
       <c r="D103" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E103">
         <v>3</v>
@@ -7643,7 +7643,7 @@
         <v>1991</v>
       </c>
       <c r="D104" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E104">
         <v>3.4</v>
@@ -7706,7 +7706,7 @@
         <v>2019</v>
       </c>
       <c r="D105" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="E105">
         <v>4</v>
@@ -7769,7 +7769,7 @@
         <v>2007</v>
       </c>
       <c r="D106" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="E106">
         <v>2.5</v>
@@ -7826,13 +7826,13 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C107">
         <v>1969</v>
       </c>
       <c r="D107" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="E107">
         <v>2.2999999999999998</v>
@@ -7895,7 +7895,7 @@
         <v>1993</v>
       </c>
       <c r="D108" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E108">
         <v>3.5</v>
@@ -7958,7 +7958,7 @@
         <v>1963</v>
       </c>
       <c r="D109" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="E109">
         <v>2.2999999999999998</v>
@@ -8021,7 +8021,7 @@
         <v>1994</v>
       </c>
       <c r="D110" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="E110">
         <v>1.6</v>
@@ -8084,7 +8084,7 @@
         <v>1983</v>
       </c>
       <c r="D111" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E111">
         <v>4.8</v>
@@ -8147,7 +8147,7 @@
         <v>2017</v>
       </c>
       <c r="D112" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="E112">
         <v>4</v>
@@ -8210,7 +8210,7 @@
         <v>1996</v>
       </c>
       <c r="D113" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E113">
         <v>4.7</v>
@@ -8273,7 +8273,7 @@
         <v>2013</v>
       </c>
       <c r="D114" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E114">
         <v>3.4</v>
@@ -8336,7 +8336,7 @@
         <v>2012</v>
       </c>
       <c r="D115" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E115">
         <v>5.2</v>
@@ -8399,7 +8399,7 @@
         <v>2003</v>
       </c>
       <c r="D116" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E116">
         <v>2</v>
@@ -8462,7 +8462,7 @@
         <v>2023</v>
       </c>
       <c r="D117" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E117">
         <v>4</v>
@@ -8525,7 +8525,7 @@
         <v>2019</v>
       </c>
       <c r="D118" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E118">
         <v>4</v>
@@ -8588,7 +8588,7 @@
         <v>2018</v>
       </c>
       <c r="D119" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E119">
         <v>3.9</v>
@@ -8651,7 +8651,7 @@
         <v>2017</v>
       </c>
       <c r="D120" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E120">
         <v>3.8</v>
@@ -8714,7 +8714,7 @@
         <v>2023</v>
       </c>
       <c r="D121" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E121">
         <v>5.2</v>
@@ -8777,7 +8777,7 @@
         <v>2013</v>
       </c>
       <c r="D122" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="E122">
         <v>3</v>
@@ -8840,7 +8840,7 @@
         <v>2002</v>
       </c>
       <c r="D123" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="E123">
         <v>1.8</v>
@@ -8903,7 +8903,7 @@
         <v>2013</v>
       </c>
       <c r="D124" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="E124">
         <v>2</v>
@@ -8966,7 +8966,7 @@
         <v>2019</v>
       </c>
       <c r="D125" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E125">
         <v>3</v>
@@ -9029,7 +9029,7 @@
         <v>1993</v>
       </c>
       <c r="D126" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E126">
         <v>4.9000000000000004</v>
@@ -9092,7 +9092,7 @@
         <v>2012</v>
       </c>
       <c r="D127" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E127">
         <v>4</v>
@@ -9155,7 +9155,7 @@
         <v>2018</v>
       </c>
       <c r="D128" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E128">
         <v>1.7</v>
@@ -9212,13 +9212,13 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C129">
         <v>2010</v>
       </c>
       <c r="D129" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E129">
         <v>5.2</v>
@@ -9275,13 +9275,13 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C130">
         <v>2004</v>
       </c>
       <c r="D130" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="E130">
         <v>2</v>
@@ -9344,7 +9344,7 @@
         <v>2022</v>
       </c>
       <c r="D131" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="E131">
         <v>4</v>
@@ -9407,7 +9407,7 @@
         <v>2010</v>
       </c>
       <c r="D132" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="E132">
         <v>4.2</v>
@@ -9470,7 +9470,7 @@
         <v>2010</v>
       </c>
       <c r="D133" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="E133">
         <v>5</v>
@@ -9533,7 +9533,7 @@
         <v>2010</v>
       </c>
       <c r="D134" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E134">
         <v>4.2</v>
@@ -9596,7 +9596,7 @@
         <v>1996</v>
       </c>
       <c r="D135" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E135">
         <v>5.5</v>
@@ -9659,7 +9659,7 @@
         <v>2016</v>
       </c>
       <c r="D136" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="E136">
         <v>2</v>
@@ -9722,7 +9722,7 @@
         <v>2016</v>
       </c>
       <c r="D137" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E137">
         <v>5.5</v>
@@ -9779,13 +9779,13 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C138">
         <v>2004</v>
       </c>
       <c r="D138" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="E138">
         <v>4.5999999999999996</v>
@@ -9848,7 +9848,7 @@
         <v>2006</v>
       </c>
       <c r="D139" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="E139">
         <v>2</v>
@@ -9911,7 +9911,7 @@
         <v>2005</v>
       </c>
       <c r="D140" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="E140">
         <v>4.9000000000000004</v>
@@ -9974,7 +9974,7 @@
         <v>2004</v>
       </c>
       <c r="D141" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="E141">
         <v>4.2</v>
@@ -10037,7 +10037,7 @@
         <v>2004</v>
       </c>
       <c r="D142" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="E142">
         <v>3</v>
@@ -10100,7 +10100,7 @@
         <v>1967</v>
       </c>
       <c r="D143" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="E143">
         <v>1.3</v>
@@ -10163,7 +10163,7 @@
         <v>1965</v>
       </c>
       <c r="D144" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E144">
         <v>1.6</v>
@@ -10226,7 +10226,7 @@
         <v>1982</v>
       </c>
       <c r="D145" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="E145">
         <v>2</v>
@@ -10289,7 +10289,7 @@
         <v>2020</v>
       </c>
       <c r="D146" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="E146">
         <v>2</v>
@@ -10352,7 +10352,7 @@
         <v>2005</v>
       </c>
       <c r="D147" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E147">
         <v>5</v>
@@ -10415,7 +10415,7 @@
         <v>2022</v>
       </c>
       <c r="D148" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="E148">
         <v>3</v>
@@ -10478,7 +10478,7 @@
         <v>2017</v>
       </c>
       <c r="D149" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="E149">
         <v>4.4000000000000004</v>
@@ -10541,7 +10541,7 @@
         <v>2021</v>
       </c>
       <c r="D150" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E150">
         <v>6.5</v>
@@ -10604,7 +10604,7 @@
         <v>2010</v>
       </c>
       <c r="D151" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E151">
         <v>6.5</v>
@@ -10667,7 +10667,7 @@
         <v>2014</v>
       </c>
       <c r="D152" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="E152">
         <v>6.2</v>
@@ -10730,7 +10730,7 @@
         <v>2020</v>
       </c>
       <c r="D153" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="E153">
         <v>4</v>
@@ -10793,7 +10793,7 @@
         <v>2008</v>
       </c>
       <c r="D154" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E154">
         <v>5.4</v>
@@ -10856,7 +10856,7 @@
         <v>1999</v>
       </c>
       <c r="D155" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E155">
         <v>6</v>
@@ -10919,7 +10919,7 @@
         <v>2009</v>
       </c>
       <c r="D156" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E156">
         <v>6.5</v>
@@ -10982,7 +10982,7 @@
         <v>2007</v>
       </c>
       <c r="D157" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E157">
         <v>1.3</v>
@@ -11045,7 +11045,7 @@
         <v>2020</v>
       </c>
       <c r="D158" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E158">
         <v>2</v>
@@ -11108,7 +11108,7 @@
         <v>2023</v>
       </c>
       <c r="D159" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="E159">
         <v>3</v>
@@ -11171,7 +11171,7 @@
         <v>2016</v>
       </c>
       <c r="D160" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E160">
         <v>4</v>
@@ -11234,7 +11234,7 @@
         <v>1966</v>
       </c>
       <c r="D161" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E161">
         <v>7</v>
@@ -11297,7 +11297,7 @@
         <v>2000</v>
       </c>
       <c r="D162" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E162">
         <v>8</v>
@@ -11360,7 +11360,7 @@
         <v>1969</v>
       </c>
       <c r="D163" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="E163">
         <v>7</v>
@@ -11423,7 +11423,7 @@
         <v>2018</v>
       </c>
       <c r="D164" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E164">
         <v>5.2</v>
@@ -11486,7 +11486,7 @@
         <v>1963</v>
       </c>
       <c r="D165" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E165">
         <v>4</v>
@@ -11549,7 +11549,7 @@
         <v>1970</v>
       </c>
       <c r="D166" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="E166">
         <v>7.4</v>
@@ -11612,7 +11612,7 @@
         <v>2015</v>
       </c>
       <c r="D167" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="E167">
         <v>2.5</v>
@@ -11675,7 +11675,7 @@
         <v>2017</v>
       </c>
       <c r="D168" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E168">
         <v>4</v>
@@ -11738,7 +11738,7 @@
         <v>2012</v>
       </c>
       <c r="D169" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E169">
         <v>3.5</v>
@@ -11801,7 +11801,7 @@
         <v>1963</v>
       </c>
       <c r="D170" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E170">
         <v>5.4</v>
@@ -11864,7 +11864,7 @@
         <v>2010</v>
       </c>
       <c r="D171" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="E171">
         <v>3.8</v>
@@ -11927,7 +11927,7 @@
         <v>2007</v>
       </c>
       <c r="D172" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="E172">
         <v>4.2</v>
@@ -11990,7 +11990,7 @@
         <v>2023</v>
       </c>
       <c r="D173" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="E173">
         <v>0</v>
@@ -12053,7 +12053,7 @@
         <v>2018</v>
       </c>
       <c r="D174" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E174">
         <v>4</v>
@@ -12116,7 +12116,7 @@
         <v>1997</v>
       </c>
       <c r="D175" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E175">
         <v>6</v>
@@ -12179,7 +12179,7 @@
         <v>2007</v>
       </c>
       <c r="D176" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="E176">
         <v>3</v>
@@ -12242,7 +12242,7 @@
         <v>1972</v>
       </c>
       <c r="D177" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="E177">
         <v>7.5</v>
@@ -12305,7 +12305,7 @@
         <v>2014</v>
       </c>
       <c r="D178" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="E178">
         <v>3.7</v>
@@ -12368,7 +12368,7 @@
         <v>2022</v>
       </c>
       <c r="D179" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="E179">
         <v>0</v>
@@ -12431,7 +12431,7 @@
         <v>2018</v>
       </c>
       <c r="D180" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E180">
         <v>3</v>
@@ -12494,7 +12494,7 @@
         <v>1973</v>
       </c>
       <c r="D181" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E181">
         <v>2.4</v>
@@ -12557,7 +12557,7 @@
         <v>2001</v>
       </c>
       <c r="D182" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E182">
         <v>2.7</v>
@@ -12620,7 +12620,7 @@
         <v>1977</v>
       </c>
       <c r="D183" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E183">
         <v>2</v>
@@ -12683,7 +12683,7 @@
         <v>2005</v>
       </c>
       <c r="D184" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="E184">
         <v>5</v>
@@ -12746,7 +12746,7 @@
         <v>2018</v>
       </c>
       <c r="D185" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E185">
         <v>2</v>
@@ -12809,7 +12809,7 @@
         <v>2013</v>
       </c>
       <c r="D186" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="E186">
         <v>2</v>
@@ -12872,7 +12872,7 @@
         <v>1967</v>
       </c>
       <c r="D187" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="E187">
         <v>7</v>
@@ -12935,7 +12935,7 @@
         <v>2022</v>
       </c>
       <c r="D188" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E188">
         <v>6.5</v>
@@ -12992,13 +12992,13 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C189">
         <v>2009</v>
       </c>
       <c r="D189" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E189">
         <v>6.5</v>
@@ -13061,7 +13061,7 @@
         <v>2019</v>
       </c>
       <c r="D190" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="E190">
         <v>5</v>
@@ -13124,7 +13124,7 @@
         <v>2021</v>
       </c>
       <c r="D191" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E191">
         <v>6.2</v>
@@ -13187,7 +13187,7 @@
         <v>2017</v>
       </c>
       <c r="D192" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E192">
         <v>3.5</v>
@@ -13250,7 +13250,7 @@
         <v>2022</v>
       </c>
       <c r="D193" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="E193">
         <v>4.4000000000000004</v>
@@ -13313,7 +13313,7 @@
         <v>1995</v>
       </c>
       <c r="D194" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E194">
         <v>6</v>
@@ -13376,7 +13376,7 @@
         <v>2016</v>
       </c>
       <c r="D195" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E195">
         <v>7</v>
@@ -13439,7 +13439,7 @@
         <v>2020</v>
       </c>
       <c r="D196" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E196">
         <v>3.5</v>
@@ -13502,7 +13502,7 @@
         <v>1978</v>
       </c>
       <c r="D197" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="E197">
         <v>5.7</v>
@@ -13565,7 +13565,7 @@
         <v>2019</v>
       </c>
       <c r="D198" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E198">
         <v>3.8</v>
@@ -13628,7 +13628,7 @@
         <v>2014</v>
       </c>
       <c r="D199" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E199">
         <v>4.5</v>
@@ -13691,7 +13691,7 @@
         <v>2012</v>
       </c>
       <c r="D200" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E200">
         <v>5.2</v>
@@ -13754,7 +13754,7 @@
         <v>2021</v>
       </c>
       <c r="D201" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E201">
         <v>6.5</v>
@@ -13817,7 +13817,7 @@
         <v>2019</v>
       </c>
       <c r="D202" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E202">
         <v>8</v>
@@ -13874,13 +13874,13 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C203">
         <v>2000</v>
       </c>
       <c r="D203" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E203">
         <v>2.6</v>
@@ -13943,7 +13943,7 @@
         <v>2013</v>
       </c>
       <c r="D204" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E204">
         <v>4.5999999999999996</v>
@@ -14006,7 +14006,7 @@
         <v>2018</v>
       </c>
       <c r="D205" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E205">
         <v>3.8</v>
@@ -14069,7 +14069,7 @@
         <v>2017</v>
       </c>
       <c r="D206" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="E206">
         <v>6.2</v>
@@ -14132,7 +14132,7 @@
         <v>2009</v>
       </c>
       <c r="D207" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E207">
         <v>3.8</v>
@@ -14195,7 +14195,7 @@
         <v>2020</v>
       </c>
       <c r="D208" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E208">
         <v>3</v>
@@ -14258,7 +14258,7 @@
         <v>2009</v>
       </c>
       <c r="D209" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="E209">
         <v>4</v>
@@ -14321,7 +14321,7 @@
         <v>2020</v>
       </c>
       <c r="D210" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E210">
         <v>5.2</v>
@@ -14384,7 +14384,7 @@
         <v>2007</v>
       </c>
       <c r="D211" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E211">
         <v>7</v>
@@ -14447,7 +14447,7 @@
         <v>2001</v>
       </c>
       <c r="D212" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E212">
         <v>1.3</v>
@@ -14510,7 +14510,7 @@
         <v>2020</v>
       </c>
       <c r="D213" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="E213">
         <v>5.2</v>
@@ -14573,7 +14573,7 @@
         <v>2016</v>
       </c>
       <c r="D214" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E214">
         <v>4</v>
@@ -14636,7 +14636,7 @@
         <v>2007</v>
       </c>
       <c r="D215" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="E215">
         <v>5.4</v>
@@ -14699,7 +14699,7 @@
         <v>2010</v>
       </c>
       <c r="D216" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E216">
         <v>3.8</v>
@@ -14762,7 +14762,7 @@
         <v>2013</v>
       </c>
       <c r="D217" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E217">
         <v>8.4</v>
@@ -14825,7 +14825,7 @@
         <v>2015</v>
       </c>
       <c r="D218" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E218">
         <v>6.5</v>
@@ -14888,7 +14888,7 @@
         <v>2003</v>
       </c>
       <c r="D219" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="E219">
         <v>3.5</v>
@@ -14951,7 +14951,7 @@
         <v>2017</v>
       </c>
       <c r="D220" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E220">
         <v>5.2</v>
@@ -15014,7 +15014,7 @@
         <v>2011</v>
       </c>
       <c r="D221" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E221">
         <v>3.6</v>
@@ -15077,7 +15077,7 @@
         <v>2018</v>
       </c>
       <c r="D222" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="E222">
         <v>6.2</v>
@@ -15140,7 +15140,7 @@
         <v>2014</v>
       </c>
       <c r="D223" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E223">
         <v>3.8</v>
@@ -15203,7 +15203,7 @@
         <v>2007</v>
       </c>
       <c r="D224" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="E224">
         <v>2.5</v>
@@ -15266,7 +15266,7 @@
         <v>2005</v>
       </c>
       <c r="D225" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E225">
         <v>5.7</v>
@@ -15329,7 +15329,7 @@
         <v>2016</v>
       </c>
       <c r="D226" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="E226">
         <v>3</v>
@@ -15392,7 +15392,7 @@
         <v>2014</v>
       </c>
       <c r="D227" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E227">
         <v>3.8</v>
@@ -15455,7 +15455,7 @@
         <v>2021</v>
       </c>
       <c r="D228" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E228">
         <v>3</v>
@@ -15518,7 +15518,7 @@
         <v>2023</v>
       </c>
       <c r="D229" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E229">
         <v>2.4</v>
@@ -15581,7 +15581,7 @@
         <v>1971</v>
       </c>
       <c r="D230" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E230">
         <v>3.9</v>
@@ -15644,7 +15644,7 @@
         <v>2015</v>
       </c>
       <c r="D231" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E231">
         <v>6.2</v>
@@ -15707,7 +15707,7 @@
         <v>2012</v>
       </c>
       <c r="D232" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E232">
         <v>5.2</v>
@@ -15770,7 +15770,7 @@
         <v>2012</v>
       </c>
       <c r="D233" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E233">
         <v>6</v>
@@ -15833,7 +15833,7 @@
         <v>2016</v>
       </c>
       <c r="D234" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E234">
         <v>6</v>
@@ -15896,7 +15896,7 @@
         <v>2015</v>
       </c>
       <c r="D235" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E235">
         <v>6.5</v>
@@ -15959,7 +15959,7 @@
         <v>2022</v>
       </c>
       <c r="D236" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E236">
         <v>3</v>
@@ -16022,7 +16022,7 @@
         <v>2018</v>
       </c>
       <c r="D237" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="E237">
         <v>3</v>
@@ -16085,7 +16085,7 @@
         <v>2020</v>
       </c>
       <c r="D238" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E238">
         <v>8</v>
@@ -16148,7 +16148,7 @@
         <v>2023</v>
       </c>
       <c r="D239" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E239">
         <v>3.5</v>
@@ -16205,13 +16205,13 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="C240">
         <v>2020</v>
       </c>
       <c r="D240" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="E240">
         <v>3.5</v>
@@ -16267,13 +16267,13 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="C241">
         <v>1995</v>
       </c>
       <c r="D241" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E241">
         <v>2</v>
@@ -16329,13 +16329,13 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="C242">
         <v>1982</v>
       </c>
       <c r="D242" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E242">
         <v>2.9</v>
@@ -16391,13 +16391,13 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="C243">
         <v>1971</v>
       </c>
       <c r="D243" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="E243">
         <v>7.2</v>
@@ -16453,13 +16453,13 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="C244">
         <v>1972</v>
       </c>
       <c r="D244" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="E244">
         <v>5</v>
@@ -16521,7 +16521,7 @@
         <v>2008</v>
       </c>
       <c r="D245" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="E245">
         <v>2</v>
@@ -16584,7 +16584,7 @@
         <v>2006</v>
       </c>
       <c r="D246" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="E246">
         <v>2.2999999999999998</v>
@@ -16644,7 +16644,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24D8D5CA-9744-4893-9B14-DF471DE70DC3}">
   <dimension ref="A1:A245"/>
   <sheetViews>
-    <sheetView topLeftCell="A209" workbookViewId="0">
+    <sheetView topLeftCell="A215" workbookViewId="0">
       <selection activeCell="D236" sqref="D236"/>
     </sheetView>
   </sheetViews>
@@ -36278,7 +36278,7 @@
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36331,12 +36331,12 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
-        <v>przyspieszenie 0-100 km/h [s]</v>
+        <v>Przyspieszenie 0-100 km/h [s]</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
-        <v>prędkość maksymalna [km/h]</v>
+        <v>Prędkość maksymalna [km/h]</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
@@ -36346,32 +36346,32 @@
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
-        <v>masa [kg]</v>
+        <v>Masa [kg]</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
-        <v>pojemność bagażnika [l]</v>
+        <v>Pojemność bagażnika [l]</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
-        <v>Pojemnośc baku</v>
+        <v>Pojemnośc baku [l]</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
-        <v>długość [cm]</v>
+        <v>Długość [cm]</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
-        <v>szerokość [cm]</v>
+        <v>Szerokość [cm]</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
-        <v>wysokość [cm]</v>
+        <v>Wysokość [cm]</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">

--- a/Samochody.xlsx
+++ b/Samochody.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NASA\PracaInz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E3B66DD-12DF-449F-A2D8-1786F25E79AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E013A5A-E53C-4B4D-A3F7-85936691D345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28170" yWindow="1260" windowWidth="27900" windowHeight="12285" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="525" yWindow="1305" windowWidth="27900" windowHeight="12285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kompletne dane" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="261">
   <si>
     <t>Nazwa</t>
   </si>
@@ -800,6 +800,18 @@
   <si>
     <t>Wysokość [cm]</t>
   </si>
+  <si>
+    <t>Toyota Supra A80</t>
+  </si>
+  <si>
+    <t>Porsche 911 Turbo (964)</t>
+  </si>
+  <si>
+    <t>W Motors Lykan Hypersport</t>
+  </si>
+  <si>
+    <t>Buick Regal Grand National</t>
+  </si>
 </sst>
 </file>
 
@@ -1116,10 +1128,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T246"/>
+  <dimension ref="A1:T250"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView tabSelected="1" topLeftCell="A231" workbookViewId="0">
+      <selection activeCell="D251" sqref="D251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16201,7 +16213,7 @@
     </row>
     <row r="240" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A240">
-        <f t="shared" ref="A240:A246" si="4">A239+1</f>
+        <f t="shared" ref="A240:A250" si="4">A239+1</f>
         <v>239</v>
       </c>
       <c r="B240" t="s">
@@ -16264,6 +16276,7 @@
     </row>
     <row r="241" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A241">
+        <f t="shared" si="4"/>
         <v>240</v>
       </c>
       <c r="B241" t="s">
@@ -16326,6 +16339,7 @@
     </row>
     <row r="242" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A242">
+        <f t="shared" si="4"/>
         <v>241</v>
       </c>
       <c r="B242" t="s">
@@ -16388,6 +16402,7 @@
     </row>
     <row r="243" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A243">
+        <f t="shared" si="4"/>
         <v>242</v>
       </c>
       <c r="B243" t="s">
@@ -16450,126 +16465,128 @@
     </row>
     <row r="244" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A244">
+        <f t="shared" si="4"/>
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="C244">
-        <v>1972</v>
+        <v>2016</v>
       </c>
       <c r="D244" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E244">
-        <v>5</v>
+        <v>3.7</v>
       </c>
       <c r="F244">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G244">
-        <v>203</v>
+        <v>780</v>
       </c>
       <c r="H244">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I244">
         <v>2</v>
       </c>
       <c r="J244">
-        <v>7.8</v>
+        <v>2.8</v>
       </c>
       <c r="K244">
-        <v>201</v>
+        <v>385</v>
       </c>
       <c r="L244">
-        <v>407</v>
+        <v>960</v>
       </c>
       <c r="M244">
-        <v>1560</v>
+        <v>1400</v>
       </c>
       <c r="N244">
-        <v>178</v>
+        <v>110</v>
       </c>
       <c r="O244">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="P244">
-        <v>478</v>
+        <v>450</v>
       </c>
       <c r="Q244">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="R244">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="S244">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="T244">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="245" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A245">
+        <f t="shared" si="4"/>
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>220</v>
+        <v>258</v>
       </c>
       <c r="C245">
-        <v>2008</v>
+        <v>1993</v>
       </c>
       <c r="D245" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E245">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="F245">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G245">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="H245">
+        <v>4</v>
+      </c>
+      <c r="I245">
+        <v>2</v>
+      </c>
+      <c r="J245">
+        <v>4.8</v>
+      </c>
+      <c r="K245">
+        <v>280</v>
+      </c>
+      <c r="L245">
+        <v>520</v>
+      </c>
+      <c r="M245">
+        <v>1470</v>
+      </c>
+      <c r="N245">
+        <v>90</v>
+      </c>
+      <c r="O245">
+        <v>77</v>
+      </c>
+      <c r="P245">
+        <v>428</v>
+      </c>
+      <c r="Q245">
+        <v>178</v>
+      </c>
+      <c r="R245">
+        <v>129</v>
+      </c>
+      <c r="S245">
+        <v>227</v>
+      </c>
+      <c r="T245">
         <v>5</v>
-      </c>
-      <c r="I245">
-        <v>5</v>
-      </c>
-      <c r="J245">
-        <v>6.4</v>
-      </c>
-      <c r="K245">
-        <v>247</v>
-      </c>
-      <c r="L245">
-        <v>300</v>
-      </c>
-      <c r="M245">
-        <v>1375</v>
-      </c>
-      <c r="N245">
-        <v>341</v>
-      </c>
-      <c r="O245">
-        <v>55</v>
-      </c>
-      <c r="P245">
-        <v>432</v>
-      </c>
-      <c r="Q245">
-        <v>177</v>
-      </c>
-      <c r="R245">
-        <v>146</v>
-      </c>
-      <c r="S245">
-        <v>258</v>
-      </c>
-      <c r="T245">
-        <v>6</v>
       </c>
     </row>
     <row r="246" spans="1:20" x14ac:dyDescent="0.25">
@@ -16578,60 +16595,312 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
+        <v>260</v>
+      </c>
+      <c r="C246">
+        <v>1987</v>
+      </c>
+      <c r="D246" t="s">
+        <v>233</v>
+      </c>
+      <c r="E246">
+        <v>3.8</v>
+      </c>
+      <c r="F246">
+        <v>6</v>
+      </c>
+      <c r="G246">
+        <v>276</v>
+      </c>
+      <c r="H246">
+        <v>4</v>
+      </c>
+      <c r="I246">
+        <v>2</v>
+      </c>
+      <c r="J246">
+        <v>5.3</v>
+      </c>
+      <c r="K246">
+        <v>200</v>
+      </c>
+      <c r="L246">
+        <v>488</v>
+      </c>
+      <c r="M246">
+        <v>1576</v>
+      </c>
+      <c r="N246">
+        <v>462</v>
+      </c>
+      <c r="O246">
+        <v>69</v>
+      </c>
+      <c r="P246">
+        <v>508</v>
+      </c>
+      <c r="Q246">
+        <v>183</v>
+      </c>
+      <c r="R246">
+        <v>136</v>
+      </c>
+      <c r="S246">
+        <v>275</v>
+      </c>
+      <c r="T246">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="247" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <f t="shared" si="4"/>
+        <v>246</v>
+      </c>
+      <c r="B247" t="s">
+        <v>257</v>
+      </c>
+      <c r="C247">
+        <v>1995</v>
+      </c>
+      <c r="D247" t="s">
+        <v>234</v>
+      </c>
+      <c r="E247">
+        <v>3</v>
+      </c>
+      <c r="F247">
+        <v>6</v>
+      </c>
+      <c r="G247">
+        <v>330</v>
+      </c>
+      <c r="H247">
+        <v>4</v>
+      </c>
+      <c r="I247">
+        <v>3</v>
+      </c>
+      <c r="J247">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="K247">
+        <v>250</v>
+      </c>
+      <c r="L247">
+        <v>440</v>
+      </c>
+      <c r="M247">
+        <v>1570</v>
+      </c>
+      <c r="N247">
+        <v>185</v>
+      </c>
+      <c r="O247">
+        <v>70</v>
+      </c>
+      <c r="P247">
+        <v>452</v>
+      </c>
+      <c r="Q247">
+        <v>181</v>
+      </c>
+      <c r="R247">
+        <v>128</v>
+      </c>
+      <c r="S247">
+        <v>250</v>
+      </c>
+      <c r="T247">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="248" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <f t="shared" si="4"/>
+        <v>247</v>
+      </c>
+      <c r="B248" t="s">
+        <v>248</v>
+      </c>
+      <c r="C248">
+        <v>1972</v>
+      </c>
+      <c r="D248" t="s">
+        <v>238</v>
+      </c>
+      <c r="E248">
+        <v>5</v>
+      </c>
+      <c r="F248">
+        <v>8</v>
+      </c>
+      <c r="G248">
+        <v>203</v>
+      </c>
+      <c r="H248">
+        <v>4</v>
+      </c>
+      <c r="I248">
+        <v>2</v>
+      </c>
+      <c r="J248">
+        <v>7.8</v>
+      </c>
+      <c r="K248">
+        <v>201</v>
+      </c>
+      <c r="L248">
+        <v>407</v>
+      </c>
+      <c r="M248">
+        <v>1560</v>
+      </c>
+      <c r="N248">
+        <v>178</v>
+      </c>
+      <c r="O248">
+        <v>79</v>
+      </c>
+      <c r="P248">
+        <v>478</v>
+      </c>
+      <c r="Q248">
+        <v>189</v>
+      </c>
+      <c r="R248">
+        <v>130</v>
+      </c>
+      <c r="S248">
+        <v>274</v>
+      </c>
+      <c r="T248">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="249" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <f t="shared" si="4"/>
+        <v>248</v>
+      </c>
+      <c r="B249" t="s">
+        <v>220</v>
+      </c>
+      <c r="C249">
+        <v>2008</v>
+      </c>
+      <c r="D249" t="s">
+        <v>237</v>
+      </c>
+      <c r="E249">
+        <v>2</v>
+      </c>
+      <c r="F249">
+        <v>4</v>
+      </c>
+      <c r="G249">
+        <v>240</v>
+      </c>
+      <c r="H249">
+        <v>5</v>
+      </c>
+      <c r="I249">
+        <v>5</v>
+      </c>
+      <c r="J249">
+        <v>6.4</v>
+      </c>
+      <c r="K249">
+        <v>247</v>
+      </c>
+      <c r="L249">
+        <v>300</v>
+      </c>
+      <c r="M249">
+        <v>1375</v>
+      </c>
+      <c r="N249">
+        <v>341</v>
+      </c>
+      <c r="O249">
+        <v>55</v>
+      </c>
+      <c r="P249">
+        <v>432</v>
+      </c>
+      <c r="Q249">
+        <v>177</v>
+      </c>
+      <c r="R249">
+        <v>146</v>
+      </c>
+      <c r="S249">
+        <v>258</v>
+      </c>
+      <c r="T249">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="250" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <f t="shared" si="4"/>
+        <v>249</v>
+      </c>
+      <c r="B250" t="s">
         <v>221</v>
       </c>
-      <c r="C246">
+      <c r="C250">
         <v>2006</v>
       </c>
-      <c r="D246" t="s">
+      <c r="D250" t="s">
         <v>237</v>
       </c>
-      <c r="E246">
+      <c r="E250">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F246">
-        <v>4</v>
-      </c>
-      <c r="G246">
+      <c r="F250">
+        <v>4</v>
+      </c>
+      <c r="G250">
         <v>260</v>
       </c>
-      <c r="H246">
+      <c r="H250">
         <v>5</v>
       </c>
-      <c r="I246">
+      <c r="I250">
         <v>5</v>
       </c>
-      <c r="J246">
+      <c r="J250">
         <v>6.1</v>
       </c>
-      <c r="K246">
+      <c r="K250">
         <v>250</v>
       </c>
-      <c r="L246">
+      <c r="L250">
         <v>380</v>
       </c>
-      <c r="M246">
+      <c r="M250">
         <v>1410</v>
       </c>
-      <c r="N246">
+      <c r="N250">
         <v>290</v>
       </c>
-      <c r="O246">
+      <c r="O250">
         <v>55</v>
       </c>
-      <c r="P246">
+      <c r="P250">
         <v>444</v>
       </c>
-      <c r="Q246">
+      <c r="Q250">
         <v>177</v>
       </c>
-      <c r="R246">
+      <c r="R250">
         <v>147</v>
       </c>
-      <c r="S246">
+      <c r="S250">
         <v>264</v>
       </c>
-      <c r="T246">
+      <c r="T250">
         <v>6</v>
       </c>
     </row>
@@ -18107,19 +18376,19 @@
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" t="str">
-        <f>'Kompletne dane'!B244</f>
+        <f>'Kompletne dane'!B248</f>
         <v>Chevrolet Camaro</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" t="str">
-        <f>'Kompletne dane'!B245</f>
+        <f>'Kompletne dane'!B249</f>
         <v>Seat Leon Cupra</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" t="str">
-        <f>'Kompletne dane'!B246</f>
+        <f>'Kompletne dane'!B250</f>
         <v>Mazda 3 MPS</v>
       </c>
     </row>
@@ -36048,223 +36317,223 @@
     </row>
     <row r="243" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A243">
-        <f>'Kompletne dane'!C244</f>
+        <f>'Kompletne dane'!C248</f>
         <v>1972</v>
       </c>
       <c r="B243">
-        <f>IF('Kompletne dane'!$D244="A",1,IF('Kompletne dane'!$D244="B",2,IF('Kompletne dane'!$D244="C",3,IF('Kompletne dane'!$D244="D",4,IF('Kompletne dane'!$D244="E",5,IF('Kompletne dane'!$D244="F",6,7))))))</f>
+        <f>IF('Kompletne dane'!$D248="A",1,IF('Kompletne dane'!$D248="B",2,IF('Kompletne dane'!$D248="C",3,IF('Kompletne dane'!$D248="D",4,IF('Kompletne dane'!$D248="E",5,IF('Kompletne dane'!$D248="F",6,7))))))</f>
         <v>4</v>
       </c>
       <c r="C243">
-        <f>'Kompletne dane'!E244</f>
+        <f>'Kompletne dane'!E248</f>
         <v>5</v>
       </c>
       <c r="D243">
-        <f>'Kompletne dane'!F244</f>
+        <f>'Kompletne dane'!F248</f>
         <v>8</v>
       </c>
       <c r="E243">
-        <f>'Kompletne dane'!G244</f>
+        <f>'Kompletne dane'!G248</f>
         <v>203</v>
       </c>
       <c r="F243">
-        <f>'Kompletne dane'!H244</f>
+        <f>'Kompletne dane'!H248</f>
         <v>4</v>
       </c>
       <c r="G243">
-        <f>'Kompletne dane'!I244</f>
+        <f>'Kompletne dane'!I248</f>
         <v>2</v>
       </c>
       <c r="H243">
-        <f>'Kompletne dane'!J244</f>
+        <f>'Kompletne dane'!J248</f>
         <v>7.8</v>
       </c>
       <c r="I243">
-        <f>'Kompletne dane'!K244</f>
+        <f>'Kompletne dane'!K248</f>
         <v>201</v>
       </c>
       <c r="J243">
-        <f>'Kompletne dane'!L244</f>
+        <f>'Kompletne dane'!L248</f>
         <v>407</v>
       </c>
       <c r="K243">
-        <f>'Kompletne dane'!M244</f>
+        <f>'Kompletne dane'!M248</f>
         <v>1560</v>
       </c>
       <c r="L243">
-        <f>'Kompletne dane'!N244</f>
+        <f>'Kompletne dane'!N248</f>
         <v>178</v>
       </c>
       <c r="M243">
-        <f>'Kompletne dane'!O244</f>
+        <f>'Kompletne dane'!O248</f>
         <v>79</v>
       </c>
       <c r="N243">
-        <f>'Kompletne dane'!P244</f>
+        <f>'Kompletne dane'!P248</f>
         <v>478</v>
       </c>
       <c r="O243">
-        <f>'Kompletne dane'!Q244</f>
+        <f>'Kompletne dane'!Q248</f>
         <v>189</v>
       </c>
       <c r="P243">
-        <f>'Kompletne dane'!R244</f>
+        <f>'Kompletne dane'!R248</f>
         <v>130</v>
       </c>
       <c r="Q243">
-        <f>'Kompletne dane'!S244</f>
+        <f>'Kompletne dane'!S248</f>
         <v>274</v>
       </c>
       <c r="R243">
-        <f>'Kompletne dane'!T244</f>
+        <f>'Kompletne dane'!T248</f>
         <v>3</v>
       </c>
     </row>
     <row r="244" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A244">
-        <f>'Kompletne dane'!C245</f>
+        <f>'Kompletne dane'!C249</f>
         <v>2008</v>
       </c>
       <c r="B244">
-        <f>IF('Kompletne dane'!$D245="A",1,IF('Kompletne dane'!$D245="B",2,IF('Kompletne dane'!$D245="C",3,IF('Kompletne dane'!$D245="D",4,IF('Kompletne dane'!$D245="E",5,IF('Kompletne dane'!$D245="F",6,7))))))</f>
+        <f>IF('Kompletne dane'!$D249="A",1,IF('Kompletne dane'!$D249="B",2,IF('Kompletne dane'!$D249="C",3,IF('Kompletne dane'!$D249="D",4,IF('Kompletne dane'!$D249="E",5,IF('Kompletne dane'!$D249="F",6,7))))))</f>
         <v>3</v>
       </c>
       <c r="C244">
-        <f>'Kompletne dane'!E245</f>
+        <f>'Kompletne dane'!E249</f>
         <v>2</v>
       </c>
       <c r="D244">
-        <f>'Kompletne dane'!F245</f>
+        <f>'Kompletne dane'!F249</f>
         <v>4</v>
       </c>
       <c r="E244">
-        <f>'Kompletne dane'!G245</f>
+        <f>'Kompletne dane'!G249</f>
         <v>240</v>
       </c>
       <c r="F244">
-        <f>'Kompletne dane'!H245</f>
+        <f>'Kompletne dane'!H249</f>
         <v>5</v>
       </c>
       <c r="G244">
-        <f>'Kompletne dane'!I245</f>
+        <f>'Kompletne dane'!I249</f>
         <v>5</v>
       </c>
       <c r="H244">
-        <f>'Kompletne dane'!J245</f>
+        <f>'Kompletne dane'!J249</f>
         <v>6.4</v>
       </c>
       <c r="I244">
-        <f>'Kompletne dane'!K245</f>
+        <f>'Kompletne dane'!K249</f>
         <v>247</v>
       </c>
       <c r="J244">
-        <f>'Kompletne dane'!L245</f>
+        <f>'Kompletne dane'!L249</f>
         <v>300</v>
       </c>
       <c r="K244">
-        <f>'Kompletne dane'!M245</f>
+        <f>'Kompletne dane'!M249</f>
         <v>1375</v>
       </c>
       <c r="L244">
-        <f>'Kompletne dane'!N245</f>
+        <f>'Kompletne dane'!N249</f>
         <v>341</v>
       </c>
       <c r="M244">
-        <f>'Kompletne dane'!O245</f>
+        <f>'Kompletne dane'!O249</f>
         <v>55</v>
       </c>
       <c r="N244">
-        <f>'Kompletne dane'!P245</f>
+        <f>'Kompletne dane'!P249</f>
         <v>432</v>
       </c>
       <c r="O244">
-        <f>'Kompletne dane'!Q245</f>
+        <f>'Kompletne dane'!Q249</f>
         <v>177</v>
       </c>
       <c r="P244">
-        <f>'Kompletne dane'!R245</f>
+        <f>'Kompletne dane'!R249</f>
         <v>146</v>
       </c>
       <c r="Q244">
-        <f>'Kompletne dane'!S245</f>
+        <f>'Kompletne dane'!S249</f>
         <v>258</v>
       </c>
       <c r="R244">
-        <f>'Kompletne dane'!T245</f>
+        <f>'Kompletne dane'!T249</f>
         <v>6</v>
       </c>
     </row>
     <row r="245" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A245">
-        <f>'Kompletne dane'!C246</f>
+        <f>'Kompletne dane'!C250</f>
         <v>2006</v>
       </c>
       <c r="B245">
-        <f>IF('Kompletne dane'!$D246="A",1,IF('Kompletne dane'!$D246="B",2,IF('Kompletne dane'!$D246="C",3,IF('Kompletne dane'!$D246="D",4,IF('Kompletne dane'!$D246="E",5,IF('Kompletne dane'!$D246="F",6,7))))))</f>
+        <f>IF('Kompletne dane'!$D250="A",1,IF('Kompletne dane'!$D250="B",2,IF('Kompletne dane'!$D250="C",3,IF('Kompletne dane'!$D250="D",4,IF('Kompletne dane'!$D250="E",5,IF('Kompletne dane'!$D250="F",6,7))))))</f>
         <v>3</v>
       </c>
       <c r="C245">
-        <f>'Kompletne dane'!E246</f>
+        <f>'Kompletne dane'!E250</f>
         <v>2.2999999999999998</v>
       </c>
       <c r="D245">
-        <f>'Kompletne dane'!F246</f>
+        <f>'Kompletne dane'!F250</f>
         <v>4</v>
       </c>
       <c r="E245">
-        <f>'Kompletne dane'!G246</f>
+        <f>'Kompletne dane'!G250</f>
         <v>260</v>
       </c>
       <c r="F245">
-        <f>'Kompletne dane'!H246</f>
+        <f>'Kompletne dane'!H250</f>
         <v>5</v>
       </c>
       <c r="G245">
-        <f>'Kompletne dane'!I246</f>
+        <f>'Kompletne dane'!I250</f>
         <v>5</v>
       </c>
       <c r="H245">
-        <f>'Kompletne dane'!J246</f>
+        <f>'Kompletne dane'!J250</f>
         <v>6.1</v>
       </c>
       <c r="I245">
-        <f>'Kompletne dane'!K246</f>
+        <f>'Kompletne dane'!K250</f>
         <v>250</v>
       </c>
       <c r="J245">
-        <f>'Kompletne dane'!L246</f>
+        <f>'Kompletne dane'!L250</f>
         <v>380</v>
       </c>
       <c r="K245">
-        <f>'Kompletne dane'!M246</f>
+        <f>'Kompletne dane'!M250</f>
         <v>1410</v>
       </c>
       <c r="L245">
-        <f>'Kompletne dane'!N246</f>
+        <f>'Kompletne dane'!N250</f>
         <v>290</v>
       </c>
       <c r="M245">
-        <f>'Kompletne dane'!O246</f>
+        <f>'Kompletne dane'!O250</f>
         <v>55</v>
       </c>
       <c r="N245">
-        <f>'Kompletne dane'!P246</f>
+        <f>'Kompletne dane'!P250</f>
         <v>444</v>
       </c>
       <c r="O245">
-        <f>'Kompletne dane'!Q246</f>
+        <f>'Kompletne dane'!Q250</f>
         <v>177</v>
       </c>
       <c r="P245">
-        <f>'Kompletne dane'!R246</f>
+        <f>'Kompletne dane'!R250</f>
         <v>147</v>
       </c>
       <c r="Q245">
-        <f>'Kompletne dane'!S246</f>
+        <f>'Kompletne dane'!S250</f>
         <v>264</v>
       </c>
       <c r="R245">
-        <f>'Kompletne dane'!T246</f>
+        <f>'Kompletne dane'!T250</f>
         <v>6</v>
       </c>
     </row>
@@ -36277,7 +36546,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E005C5B-5FB6-4311-A13F-98E8C8A13E21}">
   <dimension ref="A1:A20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>

--- a/Samochody.xlsx
+++ b/Samochody.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NASA\PracaInz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E013A5A-E53C-4B4D-A3F7-85936691D345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2516A500-B807-42AB-9659-A33509D9F192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="525" yWindow="1305" windowWidth="27900" windowHeight="12285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kompletne dane" sheetId="1" r:id="rId1"/>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t>Rok produkcji</t>
-  </si>
-  <si>
-    <t>Numer</t>
   </si>
   <si>
     <t>Liczba cylindrów</t>
@@ -777,9 +774,6 @@
     <t>Chevrolet Camaro</t>
   </si>
   <si>
-    <t>Pojemnośc baku [l]</t>
-  </si>
-  <si>
     <t>Przyspieszenie 0-100 km/h [s]</t>
   </si>
   <si>
@@ -811,6 +805,12 @@
   </si>
   <si>
     <t>Buick Regal Grand National</t>
+  </si>
+  <si>
+    <t>Pojemność baku [l]</t>
+  </si>
+  <si>
+    <t>Id</t>
   </si>
 </sst>
 </file>
@@ -1130,8 +1130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A231" workbookViewId="0">
-      <selection activeCell="D251" sqref="D251"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1158,7 +1158,7 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>260</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1170,13 +1170,13 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
         <v>222</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>223</v>
       </c>
       <c r="H1" t="s">
         <v>3</v>
@@ -1185,37 +1185,37 @@
         <v>2</v>
       </c>
       <c r="J1" t="s">
+        <v>248</v>
+      </c>
+      <c r="K1" t="s">
+        <v>249</v>
+      </c>
+      <c r="L1" t="s">
+        <v>223</v>
+      </c>
+      <c r="M1" t="s">
         <v>250</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>251</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
+        <v>259</v>
+      </c>
+      <c r="P1" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>253</v>
+      </c>
+      <c r="R1" t="s">
+        <v>254</v>
+      </c>
+      <c r="S1" t="s">
         <v>224</v>
       </c>
-      <c r="M1" t="s">
-        <v>252</v>
-      </c>
-      <c r="N1" t="s">
-        <v>253</v>
-      </c>
-      <c r="O1" t="s">
-        <v>249</v>
-      </c>
-      <c r="P1" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>255</v>
-      </c>
-      <c r="R1" t="s">
-        <v>256</v>
-      </c>
-      <c r="S1" t="s">
-        <v>225</v>
-      </c>
       <c r="T1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -1223,13 +1223,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>2016</v>
       </c>
       <c r="D2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E2">
         <v>5.7</v>
@@ -1286,13 +1286,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>2011</v>
       </c>
       <c r="D3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E3">
         <v>6.2</v>
@@ -1349,13 +1349,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>2019</v>
       </c>
       <c r="D4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E4">
         <v>3.3</v>
@@ -1412,13 +1412,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <v>2011</v>
       </c>
       <c r="D5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E5">
         <v>4.8</v>
@@ -1475,13 +1475,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>1967</v>
       </c>
       <c r="D6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E6">
         <v>4.9000000000000004</v>
@@ -1538,13 +1538,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7">
         <v>2013</v>
       </c>
       <c r="D7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E7">
         <v>4.3</v>
@@ -1601,13 +1601,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8">
         <v>1970</v>
       </c>
       <c r="D8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E8">
         <v>4.9000000000000004</v>
@@ -1664,13 +1664,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9">
         <v>1966</v>
       </c>
       <c r="D9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E9">
         <v>7</v>
@@ -1727,13 +1727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10">
         <v>1984</v>
       </c>
       <c r="D10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E10">
         <v>2.1</v>
@@ -1790,13 +1790,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11">
         <v>1967</v>
       </c>
       <c r="D11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E11">
         <v>7</v>
@@ -1853,13 +1853,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12">
         <v>2019</v>
       </c>
       <c r="D12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E12">
         <v>4</v>
@@ -1916,13 +1916,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C13">
         <v>2007</v>
       </c>
       <c r="D13" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E13">
         <v>3.8</v>
@@ -1979,13 +1979,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14">
         <v>1986</v>
       </c>
       <c r="D14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E14">
         <v>2.9</v>
@@ -2042,13 +2042,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15">
         <v>2016</v>
       </c>
       <c r="D15" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E15">
         <v>3.8</v>
@@ -2105,13 +2105,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16">
         <v>1997</v>
       </c>
       <c r="D16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E16">
         <v>3.6</v>
@@ -2168,13 +2168,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17">
         <v>2006</v>
       </c>
       <c r="D17" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E17">
         <v>5.4</v>
@@ -2231,13 +2231,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18">
         <v>2004</v>
       </c>
       <c r="D18" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E18">
         <v>4.3</v>
@@ -2294,13 +2294,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C19">
         <v>2020</v>
       </c>
       <c r="D19" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E19">
         <v>6</v>
@@ -2357,13 +2357,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20">
         <v>1998</v>
       </c>
       <c r="D20" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E20">
         <v>2.8</v>
@@ -2420,13 +2420,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21">
         <v>2010</v>
       </c>
       <c r="D21" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E21">
         <v>1.4</v>
@@ -2483,13 +2483,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22">
         <v>2017</v>
       </c>
       <c r="D22" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E22">
         <v>4</v>
@@ -2546,13 +2546,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C23">
         <v>2010</v>
       </c>
       <c r="D23" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E23">
         <v>6</v>
@@ -2609,13 +2609,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C24">
         <v>2010</v>
       </c>
       <c r="D24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E24">
         <v>4.7</v>
@@ -2672,13 +2672,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C25">
         <v>2004</v>
       </c>
       <c r="D25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E25">
         <v>2</v>
@@ -2735,13 +2735,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C26">
         <v>2015</v>
       </c>
       <c r="D26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E26">
         <v>4.4000000000000004</v>
@@ -2798,13 +2798,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C27">
         <v>2010</v>
       </c>
       <c r="D27" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E27">
         <v>4.2</v>
@@ -2861,13 +2861,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C28">
         <v>1965</v>
       </c>
       <c r="D28" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E28">
         <v>6.4</v>
@@ -2924,13 +2924,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C29">
         <v>2008</v>
       </c>
       <c r="D29" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E29">
         <v>3.2</v>
@@ -2987,13 +2987,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C30">
         <v>1980</v>
       </c>
       <c r="D30" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E30">
         <v>3.5</v>
@@ -3050,13 +3050,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C31">
         <v>1999</v>
       </c>
       <c r="D31" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E31">
         <v>2.8</v>
@@ -3113,13 +3113,13 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C32">
         <v>2010</v>
       </c>
       <c r="D32" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E32">
         <v>3.6</v>
@@ -3176,13 +3176,13 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C33">
         <v>2002</v>
       </c>
       <c r="D33" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E33">
         <v>3</v>
@@ -3239,13 +3239,13 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C34">
         <v>2001</v>
       </c>
       <c r="D34" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E34">
         <v>5.7</v>
@@ -3302,13 +3302,13 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C35">
         <v>2002</v>
       </c>
       <c r="D35" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E35">
         <v>3</v>
@@ -3365,13 +3365,13 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C36">
         <v>1955</v>
       </c>
       <c r="D36" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E36">
         <v>3</v>
@@ -3428,13 +3428,13 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C37">
         <v>1982</v>
       </c>
       <c r="D37" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E37">
         <v>5.7</v>
@@ -3491,13 +3491,13 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C38">
         <v>2008</v>
       </c>
       <c r="D38" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E38">
         <v>2</v>
@@ -3554,13 +3554,13 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C39">
         <v>1976</v>
       </c>
       <c r="D39" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E39">
         <v>3</v>
@@ -3617,13 +3617,13 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C40">
         <v>2014</v>
       </c>
       <c r="D40" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E40">
         <v>4.7</v>
@@ -3680,13 +3680,13 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C41">
         <v>1970</v>
       </c>
       <c r="D41" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E41">
         <v>5.6</v>
@@ -3743,13 +3743,13 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C42">
         <v>2007</v>
       </c>
       <c r="D42" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E42">
         <v>3.8</v>
@@ -3806,13 +3806,13 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C43">
         <v>2013</v>
       </c>
       <c r="D43" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E43">
         <v>6.2</v>
@@ -3869,13 +3869,13 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C44">
         <v>2014</v>
       </c>
       <c r="D44" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E44">
         <v>3.8</v>
@@ -3932,13 +3932,13 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C45">
         <v>2006</v>
       </c>
       <c r="D45" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E45">
         <v>2</v>
@@ -3995,13 +3995,13 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C46">
         <v>2009</v>
       </c>
       <c r="D46" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E46">
         <v>3.7</v>
@@ -4058,13 +4058,13 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C47">
         <v>2012</v>
       </c>
       <c r="D47" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E47">
         <v>1.4</v>
@@ -4121,13 +4121,13 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C48">
         <v>2003</v>
       </c>
       <c r="D48" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E48">
         <v>2</v>
@@ -4184,13 +4184,13 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C49">
         <v>2006</v>
       </c>
       <c r="D49" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E49">
         <v>4.5999999999999996</v>
@@ -4247,13 +4247,13 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C50">
         <v>2010</v>
       </c>
       <c r="D50" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E50">
         <v>7</v>
@@ -4310,13 +4310,13 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C51">
         <v>2017</v>
       </c>
       <c r="D51" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E51">
         <v>6</v>
@@ -4373,13 +4373,13 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C52">
         <v>2002</v>
       </c>
       <c r="D52" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E52">
         <v>2</v>
@@ -4436,13 +4436,13 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C53">
         <v>1991</v>
       </c>
       <c r="D53" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E53">
         <v>2.9</v>
@@ -4499,13 +4499,13 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C54">
         <v>2016</v>
       </c>
       <c r="D54" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E54">
         <v>3.8</v>
@@ -4562,13 +4562,13 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C55">
         <v>2003</v>
       </c>
       <c r="D55" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E55">
         <v>3.6</v>
@@ -4625,13 +4625,13 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C56">
         <v>2002</v>
       </c>
       <c r="D56" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E56">
         <v>2</v>
@@ -4688,13 +4688,13 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C57">
         <v>2008</v>
       </c>
       <c r="D57" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E57">
         <v>3.2</v>
@@ -4751,13 +4751,13 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C58">
         <v>2023</v>
       </c>
       <c r="D58" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E58">
         <v>4</v>
@@ -4814,13 +4814,13 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C59">
         <v>2012</v>
       </c>
       <c r="D59" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E59">
         <v>5.2</v>
@@ -4877,13 +4877,13 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C60">
         <v>2018</v>
       </c>
       <c r="D60" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E60">
         <v>1.6</v>
@@ -4940,13 +4940,13 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C61">
         <v>2008</v>
       </c>
       <c r="D61" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E61">
         <v>2.5</v>
@@ -5003,13 +5003,13 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C62">
         <v>2003</v>
       </c>
       <c r="D62" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E62">
         <v>2</v>
@@ -5066,13 +5066,13 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C63">
         <v>2002</v>
       </c>
       <c r="D63" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E63">
         <v>2.2999999999999998</v>
@@ -5129,13 +5129,13 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C64">
         <v>2004</v>
       </c>
       <c r="D64" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E64">
         <v>1.8</v>
@@ -5192,13 +5192,13 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C65">
         <v>1969</v>
       </c>
       <c r="D65" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E65">
         <v>6.6</v>
@@ -5255,13 +5255,13 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C66">
         <v>1999</v>
       </c>
       <c r="D66" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E66">
         <v>4.5999999999999996</v>
@@ -5318,13 +5318,13 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C67">
         <v>1982</v>
       </c>
       <c r="D67" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E67">
         <v>1.6</v>
@@ -5381,13 +5381,13 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C68">
         <v>2006</v>
       </c>
       <c r="D68" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E68">
         <v>1.8</v>
@@ -5444,13 +5444,13 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C69">
         <v>2007</v>
       </c>
       <c r="D69" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E69">
         <v>3.5</v>
@@ -5507,13 +5507,13 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C70">
         <v>1999</v>
       </c>
       <c r="D70" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E70">
         <v>4.2</v>
@@ -5570,13 +5570,13 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C71">
         <v>1999</v>
       </c>
       <c r="D71" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E71">
         <v>5.7</v>
@@ -5633,13 +5633,13 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C72">
         <v>1965</v>
       </c>
       <c r="D72" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E72">
         <v>7</v>
@@ -5696,13 +5696,13 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C73">
         <v>2005</v>
       </c>
       <c r="D73" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E73">
         <v>4.4000000000000004</v>
@@ -5759,13 +5759,13 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C74">
         <v>2018</v>
       </c>
       <c r="D74" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E74">
         <v>2</v>
@@ -5822,13 +5822,13 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C75">
         <v>2008</v>
       </c>
       <c r="D75" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E75">
         <v>4.7</v>
@@ -5885,13 +5885,13 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C76">
         <v>2017</v>
       </c>
       <c r="D76" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E76">
         <v>6.2</v>
@@ -5948,13 +5948,13 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C77">
         <v>2018</v>
       </c>
       <c r="D77" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E77">
         <v>1.5</v>
@@ -6011,13 +6011,13 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C78">
         <v>2011</v>
       </c>
       <c r="D78" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E78">
         <v>3.2</v>
@@ -6074,13 +6074,13 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C79">
         <v>2015</v>
       </c>
       <c r="D79" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E79">
         <v>5</v>
@@ -6137,13 +6137,13 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C80">
         <v>2011</v>
       </c>
       <c r="D80" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E80">
         <v>2.5</v>
@@ -6200,13 +6200,13 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C81">
         <v>2017</v>
       </c>
       <c r="D81" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E81">
         <v>5</v>
@@ -6263,13 +6263,13 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C82">
         <v>2005</v>
       </c>
       <c r="D82" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E82">
         <v>6.2</v>
@@ -6326,13 +6326,13 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C83">
         <v>2014</v>
       </c>
       <c r="D83" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E83">
         <v>4.4000000000000004</v>
@@ -6389,13 +6389,13 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C84">
         <v>2020</v>
       </c>
       <c r="D84" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E84">
         <v>4</v>
@@ -6452,13 +6452,13 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C85">
         <v>2014</v>
       </c>
       <c r="D85" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E85">
         <v>6.5</v>
@@ -6515,13 +6515,13 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C86">
         <v>2008</v>
       </c>
       <c r="D86" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E86">
         <v>3.4</v>
@@ -6578,13 +6578,13 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C87">
         <v>2017</v>
       </c>
       <c r="D87" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E87">
         <v>8</v>
@@ -6641,13 +6641,13 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C88">
         <v>2014</v>
       </c>
       <c r="D88" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E88">
         <v>4.7</v>
@@ -6704,13 +6704,13 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C89">
         <v>2003</v>
       </c>
       <c r="D89" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E89">
         <v>1.8</v>
@@ -6767,13 +6767,13 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C90">
         <v>2023</v>
       </c>
       <c r="D90" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E90">
         <v>4</v>
@@ -6830,13 +6830,13 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C91">
         <v>2017</v>
       </c>
       <c r="D91" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E91">
         <v>4.4000000000000004</v>
@@ -6893,13 +6893,13 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C92">
         <v>2012</v>
       </c>
       <c r="D92" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E92">
         <v>6</v>
@@ -6956,13 +6956,13 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C93">
         <v>2015</v>
       </c>
       <c r="D93" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E93">
         <v>1.8</v>
@@ -7019,13 +7019,13 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C94">
         <v>2005</v>
       </c>
       <c r="D94" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E94">
         <v>3</v>
@@ -7082,13 +7082,13 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C95">
         <v>1964</v>
       </c>
       <c r="D95" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E95">
         <v>4.7</v>
@@ -7145,13 +7145,13 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C96">
         <v>2009</v>
       </c>
       <c r="D96" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E96">
         <v>8.4</v>
@@ -7208,13 +7208,13 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C97">
         <v>2018</v>
       </c>
       <c r="D97" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E97">
         <v>4.4000000000000004</v>
@@ -7271,13 +7271,13 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C98">
         <v>2007</v>
       </c>
       <c r="D98" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E98">
         <v>3.4</v>
@@ -7334,13 +7334,13 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C99">
         <v>2009</v>
       </c>
       <c r="D99" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E99">
         <v>2</v>
@@ -7397,13 +7397,13 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C100">
         <v>1988</v>
       </c>
       <c r="D100" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E100">
         <v>2.8</v>
@@ -7460,13 +7460,13 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C101">
         <v>1967</v>
       </c>
       <c r="D101" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E101">
         <v>5.3</v>
@@ -7523,13 +7523,13 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C102">
         <v>1957</v>
       </c>
       <c r="D102" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E102">
         <v>4.5999999999999996</v>
@@ -7586,13 +7586,13 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C103">
         <v>1963</v>
       </c>
       <c r="D103" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E103">
         <v>3</v>
@@ -7649,13 +7649,13 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C104">
         <v>1991</v>
       </c>
       <c r="D104" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E104">
         <v>3.4</v>
@@ -7712,13 +7712,13 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C105">
         <v>2019</v>
       </c>
       <c r="D105" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E105">
         <v>4</v>
@@ -7775,13 +7775,13 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C106">
         <v>2007</v>
       </c>
       <c r="D106" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E106">
         <v>2.5</v>
@@ -7838,13 +7838,13 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C107">
         <v>1969</v>
       </c>
       <c r="D107" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E107">
         <v>2.2999999999999998</v>
@@ -7901,13 +7901,13 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C108">
         <v>1993</v>
       </c>
       <c r="D108" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E108">
         <v>3.5</v>
@@ -7964,13 +7964,13 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C109">
         <v>1963</v>
       </c>
       <c r="D109" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E109">
         <v>2.2999999999999998</v>
@@ -8027,13 +8027,13 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C110">
         <v>1994</v>
       </c>
       <c r="D110" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E110">
         <v>1.6</v>
@@ -8090,13 +8090,13 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C111">
         <v>1983</v>
       </c>
       <c r="D111" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E111">
         <v>4.8</v>
@@ -8153,13 +8153,13 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C112">
         <v>2017</v>
       </c>
       <c r="D112" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E112">
         <v>4</v>
@@ -8216,13 +8216,13 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C113">
         <v>1996</v>
       </c>
       <c r="D113" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E113">
         <v>4.7</v>
@@ -8279,13 +8279,13 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C114">
         <v>2013</v>
       </c>
       <c r="D114" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E114">
         <v>3.4</v>
@@ -8342,13 +8342,13 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C115">
         <v>2012</v>
       </c>
       <c r="D115" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E115">
         <v>5.2</v>
@@ -8405,13 +8405,13 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C116">
         <v>2003</v>
       </c>
       <c r="D116" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E116">
         <v>2</v>
@@ -8468,13 +8468,13 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C117">
         <v>2023</v>
       </c>
       <c r="D117" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E117">
         <v>4</v>
@@ -8531,13 +8531,13 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C118">
         <v>2019</v>
       </c>
       <c r="D118" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E118">
         <v>4</v>
@@ -8594,13 +8594,13 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C119">
         <v>2018</v>
       </c>
       <c r="D119" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E119">
         <v>3.9</v>
@@ -8657,13 +8657,13 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C120">
         <v>2017</v>
       </c>
       <c r="D120" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E120">
         <v>3.8</v>
@@ -8720,13 +8720,13 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C121">
         <v>2023</v>
       </c>
       <c r="D121" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E121">
         <v>5.2</v>
@@ -8783,13 +8783,13 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C122">
         <v>2013</v>
       </c>
       <c r="D122" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E122">
         <v>3</v>
@@ -8846,13 +8846,13 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C123">
         <v>2002</v>
       </c>
       <c r="D123" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E123">
         <v>1.8</v>
@@ -8909,13 +8909,13 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C124">
         <v>2013</v>
       </c>
       <c r="D124" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E124">
         <v>2</v>
@@ -8972,13 +8972,13 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C125">
         <v>2019</v>
       </c>
       <c r="D125" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E125">
         <v>3</v>
@@ -9035,13 +9035,13 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C126">
         <v>1993</v>
       </c>
       <c r="D126" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E126">
         <v>4.9000000000000004</v>
@@ -9098,13 +9098,13 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C127">
         <v>2012</v>
       </c>
       <c r="D127" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E127">
         <v>4</v>
@@ -9161,13 +9161,13 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C128">
         <v>2018</v>
       </c>
       <c r="D128" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E128">
         <v>1.7</v>
@@ -9224,13 +9224,13 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C129">
         <v>2010</v>
       </c>
       <c r="D129" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E129">
         <v>5.2</v>
@@ -9287,13 +9287,13 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C130">
         <v>2004</v>
       </c>
       <c r="D130" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E130">
         <v>2</v>
@@ -9350,13 +9350,13 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C131">
         <v>2022</v>
       </c>
       <c r="D131" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E131">
         <v>4</v>
@@ -9413,13 +9413,13 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C132">
         <v>2010</v>
       </c>
       <c r="D132" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E132">
         <v>4.2</v>
@@ -9476,13 +9476,13 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C133">
         <v>2010</v>
       </c>
       <c r="D133" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E133">
         <v>5</v>
@@ -9539,13 +9539,13 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C134">
         <v>2010</v>
       </c>
       <c r="D134" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E134">
         <v>4.2</v>
@@ -9602,13 +9602,13 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C135">
         <v>1996</v>
       </c>
       <c r="D135" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E135">
         <v>5.5</v>
@@ -9665,13 +9665,13 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C136">
         <v>2016</v>
       </c>
       <c r="D136" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E136">
         <v>2</v>
@@ -9728,13 +9728,13 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C137">
         <v>2016</v>
       </c>
       <c r="D137" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E137">
         <v>5.5</v>
@@ -9791,13 +9791,13 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C138">
         <v>2004</v>
       </c>
       <c r="D138" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E138">
         <v>4.5999999999999996</v>
@@ -9854,13 +9854,13 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C139">
         <v>2006</v>
       </c>
       <c r="D139" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E139">
         <v>2</v>
@@ -9917,13 +9917,13 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C140">
         <v>2005</v>
       </c>
       <c r="D140" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E140">
         <v>4.9000000000000004</v>
@@ -9980,13 +9980,13 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C141">
         <v>2004</v>
       </c>
       <c r="D141" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E141">
         <v>4.2</v>
@@ -10043,13 +10043,13 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C142">
         <v>2004</v>
       </c>
       <c r="D142" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E142">
         <v>3</v>
@@ -10106,13 +10106,13 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C143">
         <v>1967</v>
       </c>
       <c r="D143" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E143">
         <v>1.3</v>
@@ -10169,13 +10169,13 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C144">
         <v>1965</v>
       </c>
       <c r="D144" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E144">
         <v>1.6</v>
@@ -10232,13 +10232,13 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C145">
         <v>1982</v>
       </c>
       <c r="D145" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E145">
         <v>2</v>
@@ -10295,13 +10295,13 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C146">
         <v>2020</v>
       </c>
       <c r="D146" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E146">
         <v>2</v>
@@ -10358,13 +10358,13 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C147">
         <v>2005</v>
       </c>
       <c r="D147" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E147">
         <v>5</v>
@@ -10421,13 +10421,13 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C148">
         <v>2022</v>
       </c>
       <c r="D148" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E148">
         <v>3</v>
@@ -10484,13 +10484,13 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C149">
         <v>2017</v>
       </c>
       <c r="D149" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E149">
         <v>4.4000000000000004</v>
@@ -10547,13 +10547,13 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C150">
         <v>2021</v>
       </c>
       <c r="D150" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E150">
         <v>6.5</v>
@@ -10610,13 +10610,13 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C151">
         <v>2010</v>
       </c>
       <c r="D151" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E151">
         <v>6.5</v>
@@ -10673,13 +10673,13 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C152">
         <v>2014</v>
       </c>
       <c r="D152" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E152">
         <v>6.2</v>
@@ -10736,13 +10736,13 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C153">
         <v>2020</v>
       </c>
       <c r="D153" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E153">
         <v>4</v>
@@ -10799,13 +10799,13 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C154">
         <v>2008</v>
       </c>
       <c r="D154" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E154">
         <v>5.4</v>
@@ -10862,13 +10862,13 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C155">
         <v>1999</v>
       </c>
       <c r="D155" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E155">
         <v>6</v>
@@ -10925,13 +10925,13 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C156">
         <v>2009</v>
       </c>
       <c r="D156" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E156">
         <v>6.5</v>
@@ -10988,13 +10988,13 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C157">
         <v>2007</v>
       </c>
       <c r="D157" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E157">
         <v>1.3</v>
@@ -11051,13 +11051,13 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C158">
         <v>2020</v>
       </c>
       <c r="D158" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E158">
         <v>2</v>
@@ -11114,13 +11114,13 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C159">
         <v>2023</v>
       </c>
       <c r="D159" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E159">
         <v>3</v>
@@ -11177,13 +11177,13 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C160">
         <v>2016</v>
       </c>
       <c r="D160" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E160">
         <v>4</v>
@@ -11240,13 +11240,13 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C161">
         <v>1966</v>
       </c>
       <c r="D161" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E161">
         <v>7</v>
@@ -11303,13 +11303,13 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C162">
         <v>2000</v>
       </c>
       <c r="D162" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E162">
         <v>8</v>
@@ -11366,13 +11366,13 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C163">
         <v>1969</v>
       </c>
       <c r="D163" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E163">
         <v>7</v>
@@ -11429,13 +11429,13 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C164">
         <v>2018</v>
       </c>
       <c r="D164" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E164">
         <v>5.2</v>
@@ -11492,13 +11492,13 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C165">
         <v>1963</v>
       </c>
       <c r="D165" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E165">
         <v>4</v>
@@ -11555,13 +11555,13 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C166">
         <v>1970</v>
       </c>
       <c r="D166" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E166">
         <v>7.4</v>
@@ -11618,13 +11618,13 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C167">
         <v>2015</v>
       </c>
       <c r="D167" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E167">
         <v>2.5</v>
@@ -11681,13 +11681,13 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C168">
         <v>2017</v>
       </c>
       <c r="D168" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E168">
         <v>4</v>
@@ -11744,13 +11744,13 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C169">
         <v>2012</v>
       </c>
       <c r="D169" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E169">
         <v>3.5</v>
@@ -11807,13 +11807,13 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C170">
         <v>1963</v>
       </c>
       <c r="D170" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E170">
         <v>5.4</v>
@@ -11870,13 +11870,13 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C171">
         <v>2010</v>
       </c>
       <c r="D171" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E171">
         <v>3.8</v>
@@ -11933,13 +11933,13 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C172">
         <v>2007</v>
       </c>
       <c r="D172" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E172">
         <v>4.2</v>
@@ -11996,13 +11996,13 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C173">
         <v>2023</v>
       </c>
       <c r="D173" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E173">
         <v>0</v>
@@ -12059,13 +12059,13 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C174">
         <v>2018</v>
       </c>
       <c r="D174" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E174">
         <v>4</v>
@@ -12122,13 +12122,13 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C175">
         <v>1997</v>
       </c>
       <c r="D175" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E175">
         <v>6</v>
@@ -12185,13 +12185,13 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C176">
         <v>2007</v>
       </c>
       <c r="D176" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E176">
         <v>3</v>
@@ -12248,13 +12248,13 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C177">
         <v>1972</v>
       </c>
       <c r="D177" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E177">
         <v>7.5</v>
@@ -12311,13 +12311,13 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C178">
         <v>2014</v>
       </c>
       <c r="D178" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E178">
         <v>3.7</v>
@@ -12374,13 +12374,13 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C179">
         <v>2022</v>
       </c>
       <c r="D179" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E179">
         <v>0</v>
@@ -12437,13 +12437,13 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C180">
         <v>2018</v>
       </c>
       <c r="D180" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E180">
         <v>3</v>
@@ -12500,13 +12500,13 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C181">
         <v>1973</v>
       </c>
       <c r="D181" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E181">
         <v>2.4</v>
@@ -12563,13 +12563,13 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C182">
         <v>2001</v>
       </c>
       <c r="D182" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E182">
         <v>2.7</v>
@@ -12626,13 +12626,13 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C183">
         <v>1977</v>
       </c>
       <c r="D183" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E183">
         <v>2</v>
@@ -12689,13 +12689,13 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C184">
         <v>2005</v>
       </c>
       <c r="D184" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E184">
         <v>5</v>
@@ -12752,13 +12752,13 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C185">
         <v>2018</v>
       </c>
       <c r="D185" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E185">
         <v>2</v>
@@ -12815,13 +12815,13 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C186">
         <v>2013</v>
       </c>
       <c r="D186" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E186">
         <v>2</v>
@@ -12878,13 +12878,13 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C187">
         <v>1967</v>
       </c>
       <c r="D187" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E187">
         <v>7</v>
@@ -12941,13 +12941,13 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C188">
         <v>2022</v>
       </c>
       <c r="D188" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E188">
         <v>6.5</v>
@@ -13004,13 +13004,13 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C189">
         <v>2009</v>
       </c>
       <c r="D189" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E189">
         <v>6.5</v>
@@ -13067,13 +13067,13 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C190">
         <v>2019</v>
       </c>
       <c r="D190" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E190">
         <v>5</v>
@@ -13130,13 +13130,13 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C191">
         <v>2021</v>
       </c>
       <c r="D191" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E191">
         <v>6.2</v>
@@ -13193,13 +13193,13 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C192">
         <v>2017</v>
       </c>
       <c r="D192" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E192">
         <v>3.5</v>
@@ -13256,13 +13256,13 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C193">
         <v>2022</v>
       </c>
       <c r="D193" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E193">
         <v>4.4000000000000004</v>
@@ -13319,13 +13319,13 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C194">
         <v>1995</v>
       </c>
       <c r="D194" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E194">
         <v>6</v>
@@ -13382,13 +13382,13 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C195">
         <v>2016</v>
       </c>
       <c r="D195" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E195">
         <v>7</v>
@@ -13445,13 +13445,13 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C196">
         <v>2020</v>
       </c>
       <c r="D196" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E196">
         <v>3.5</v>
@@ -13508,13 +13508,13 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C197">
         <v>1978</v>
       </c>
       <c r="D197" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E197">
         <v>5.7</v>
@@ -13571,13 +13571,13 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C198">
         <v>2019</v>
       </c>
       <c r="D198" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E198">
         <v>3.8</v>
@@ -13634,13 +13634,13 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C199">
         <v>2014</v>
       </c>
       <c r="D199" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E199">
         <v>4.5</v>
@@ -13697,13 +13697,13 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C200">
         <v>2012</v>
       </c>
       <c r="D200" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E200">
         <v>5.2</v>
@@ -13760,13 +13760,13 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C201">
         <v>2021</v>
       </c>
       <c r="D201" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E201">
         <v>6.5</v>
@@ -13823,13 +13823,13 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C202">
         <v>2019</v>
       </c>
       <c r="D202" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E202">
         <v>8</v>
@@ -13886,13 +13886,13 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C203">
         <v>2000</v>
       </c>
       <c r="D203" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E203">
         <v>2.6</v>
@@ -13949,13 +13949,13 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C204">
         <v>2013</v>
       </c>
       <c r="D204" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E204">
         <v>4.5999999999999996</v>
@@ -14012,13 +14012,13 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C205">
         <v>2018</v>
       </c>
       <c r="D205" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E205">
         <v>3.8</v>
@@ -14075,13 +14075,13 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C206">
         <v>2017</v>
       </c>
       <c r="D206" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E206">
         <v>6.2</v>
@@ -14138,13 +14138,13 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C207">
         <v>2009</v>
       </c>
       <c r="D207" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E207">
         <v>3.8</v>
@@ -14201,13 +14201,13 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C208">
         <v>2020</v>
       </c>
       <c r="D208" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E208">
         <v>3</v>
@@ -14264,13 +14264,13 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C209">
         <v>2009</v>
       </c>
       <c r="D209" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E209">
         <v>4</v>
@@ -14327,13 +14327,13 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C210">
         <v>2020</v>
       </c>
       <c r="D210" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E210">
         <v>5.2</v>
@@ -14390,13 +14390,13 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C211">
         <v>2007</v>
       </c>
       <c r="D211" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E211">
         <v>7</v>
@@ -14453,13 +14453,13 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C212">
         <v>2001</v>
       </c>
       <c r="D212" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E212">
         <v>1.3</v>
@@ -14516,13 +14516,13 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C213">
         <v>2020</v>
       </c>
       <c r="D213" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E213">
         <v>5.2</v>
@@ -14579,13 +14579,13 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C214">
         <v>2016</v>
       </c>
       <c r="D214" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E214">
         <v>4</v>
@@ -14642,13 +14642,13 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C215">
         <v>2007</v>
       </c>
       <c r="D215" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E215">
         <v>5.4</v>
@@ -14705,13 +14705,13 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C216">
         <v>2010</v>
       </c>
       <c r="D216" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E216">
         <v>3.8</v>
@@ -14768,13 +14768,13 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C217">
         <v>2013</v>
       </c>
       <c r="D217" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E217">
         <v>8.4</v>
@@ -14831,13 +14831,13 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C218">
         <v>2015</v>
       </c>
       <c r="D218" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E218">
         <v>6.5</v>
@@ -14894,13 +14894,13 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C219">
         <v>2003</v>
       </c>
       <c r="D219" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E219">
         <v>3.5</v>
@@ -14957,13 +14957,13 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C220">
         <v>2017</v>
       </c>
       <c r="D220" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E220">
         <v>5.2</v>
@@ -15020,13 +15020,13 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C221">
         <v>2011</v>
       </c>
       <c r="D221" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E221">
         <v>3.6</v>
@@ -15083,13 +15083,13 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C222">
         <v>2018</v>
       </c>
       <c r="D222" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E222">
         <v>6.2</v>
@@ -15146,13 +15146,13 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C223">
         <v>2014</v>
       </c>
       <c r="D223" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E223">
         <v>3.8</v>
@@ -15209,13 +15209,13 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C224">
         <v>2007</v>
       </c>
       <c r="D224" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E224">
         <v>2.5</v>
@@ -15272,13 +15272,13 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C225">
         <v>2005</v>
       </c>
       <c r="D225" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E225">
         <v>5.7</v>
@@ -15335,13 +15335,13 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C226">
         <v>2016</v>
       </c>
       <c r="D226" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E226">
         <v>3</v>
@@ -15398,13 +15398,13 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C227">
         <v>2014</v>
       </c>
       <c r="D227" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E227">
         <v>3.8</v>
@@ -15461,13 +15461,13 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C228">
         <v>2021</v>
       </c>
       <c r="D228" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E228">
         <v>3</v>
@@ -15524,13 +15524,13 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C229">
         <v>2023</v>
       </c>
       <c r="D229" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E229">
         <v>2.4</v>
@@ -15587,13 +15587,13 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C230">
         <v>1971</v>
       </c>
       <c r="D230" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E230">
         <v>3.9</v>
@@ -15650,13 +15650,13 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C231">
         <v>2015</v>
       </c>
       <c r="D231" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E231">
         <v>6.2</v>
@@ -15713,13 +15713,13 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C232">
         <v>2012</v>
       </c>
       <c r="D232" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E232">
         <v>5.2</v>
@@ -15776,13 +15776,13 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C233">
         <v>2012</v>
       </c>
       <c r="D233" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E233">
         <v>6</v>
@@ -15839,13 +15839,13 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C234">
         <v>2016</v>
       </c>
       <c r="D234" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E234">
         <v>6</v>
@@ -15902,13 +15902,13 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C235">
         <v>2015</v>
       </c>
       <c r="D235" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E235">
         <v>6.5</v>
@@ -15965,13 +15965,13 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C236">
         <v>2022</v>
       </c>
       <c r="D236" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E236">
         <v>3</v>
@@ -16028,13 +16028,13 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C237">
         <v>2018</v>
       </c>
       <c r="D237" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E237">
         <v>3</v>
@@ -16091,13 +16091,13 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C238">
         <v>2020</v>
       </c>
       <c r="D238" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E238">
         <v>8</v>
@@ -16154,13 +16154,13 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C239">
         <v>2023</v>
       </c>
       <c r="D239" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E239">
         <v>3.5</v>
@@ -16217,13 +16217,13 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C240">
         <v>2020</v>
       </c>
       <c r="D240" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E240">
         <v>3.5</v>
@@ -16280,13 +16280,13 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C241">
         <v>1995</v>
       </c>
       <c r="D241" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E241">
         <v>2</v>
@@ -16343,13 +16343,13 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C242">
         <v>1982</v>
       </c>
       <c r="D242" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E242">
         <v>2.9</v>
@@ -16406,13 +16406,13 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C243">
         <v>1971</v>
       </c>
       <c r="D243" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E243">
         <v>7.2</v>
@@ -16469,13 +16469,13 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C244">
         <v>2016</v>
       </c>
       <c r="D244" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E244">
         <v>3.7</v>
@@ -16532,13 +16532,13 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C245">
         <v>1993</v>
       </c>
       <c r="D245" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E245">
         <v>3.6</v>
@@ -16595,13 +16595,13 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C246">
         <v>1987</v>
       </c>
       <c r="D246" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E246">
         <v>3.8</v>
@@ -16658,13 +16658,13 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C247">
         <v>1995</v>
       </c>
       <c r="D247" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E247">
         <v>3</v>
@@ -16721,13 +16721,13 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C248">
         <v>1972</v>
       </c>
       <c r="D248" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E248">
         <v>5</v>
@@ -16784,13 +16784,13 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C249">
         <v>2008</v>
       </c>
       <c r="D249" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E249">
         <v>2</v>
@@ -16847,13 +16847,13 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C250">
         <v>2006</v>
       </c>
       <c r="D250" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E250">
         <v>2.2999999999999998</v>
@@ -16911,10 +16911,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24D8D5CA-9744-4893-9B14-DF471DE70DC3}">
-  <dimension ref="A1:A245"/>
+  <dimension ref="A1:A249"/>
   <sheetViews>
-    <sheetView topLeftCell="A215" workbookViewId="0">
-      <selection activeCell="D236" sqref="D236"/>
+    <sheetView topLeftCell="A230" workbookViewId="0">
+      <selection activeCell="D233" sqref="D233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18376,18 +18376,42 @@
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" t="str">
+        <f>'Kompletne dane'!B244</f>
+        <v>W Motors Lykan Hypersport</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" t="str">
+        <f>'Kompletne dane'!B245</f>
+        <v>Porsche 911 Turbo (964)</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" t="str">
+        <f>'Kompletne dane'!B246</f>
+        <v>Buick Regal Grand National</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" t="str">
+        <f>'Kompletne dane'!B247</f>
+        <v>Toyota Supra A80</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" t="str">
         <f>'Kompletne dane'!B248</f>
         <v>Chevrolet Camaro</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A244" t="str">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" t="str">
         <f>'Kompletne dane'!B249</f>
         <v>Seat Leon Cupra</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A245" t="str">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" t="str">
         <f>'Kompletne dane'!B250</f>
         <v>Mazda 3 MPS</v>
       </c>
@@ -18399,10 +18423,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CD037B1-ACD9-48BE-8904-7C9CBB062CA9}">
-  <dimension ref="A1:R245"/>
+  <dimension ref="A1:R249"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S229" sqref="S229"/>
+    <sheetView topLeftCell="A225" workbookViewId="0">
+      <selection activeCell="U240" sqref="U240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36317,222 +36341,518 @@
     </row>
     <row r="243" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A243">
+        <f>'Kompletne dane'!C244</f>
+        <v>2016</v>
+      </c>
+      <c r="B243">
+        <f>IF('Kompletne dane'!$D244="A",1,IF('Kompletne dane'!$D244="B",2,IF('Kompletne dane'!$D244="C",3,IF('Kompletne dane'!$D244="D",4,IF('Kompletne dane'!$D244="E",5,IF('Kompletne dane'!$D244="F",6,7))))))</f>
+        <v>7</v>
+      </c>
+      <c r="C243">
+        <f>'Kompletne dane'!E244</f>
+        <v>3.7</v>
+      </c>
+      <c r="D243">
+        <f>'Kompletne dane'!F244</f>
+        <v>6</v>
+      </c>
+      <c r="E243">
+        <f>'Kompletne dane'!G244</f>
+        <v>780</v>
+      </c>
+      <c r="F243">
+        <f>'Kompletne dane'!H244</f>
+        <v>2</v>
+      </c>
+      <c r="G243">
+        <f>'Kompletne dane'!I244</f>
+        <v>2</v>
+      </c>
+      <c r="H243">
+        <f>'Kompletne dane'!J244</f>
+        <v>2.8</v>
+      </c>
+      <c r="I243">
+        <f>'Kompletne dane'!K244</f>
+        <v>385</v>
+      </c>
+      <c r="J243">
+        <f>'Kompletne dane'!L244</f>
+        <v>960</v>
+      </c>
+      <c r="K243">
+        <f>'Kompletne dane'!M244</f>
+        <v>1400</v>
+      </c>
+      <c r="L243">
+        <f>'Kompletne dane'!N244</f>
+        <v>110</v>
+      </c>
+      <c r="M243">
+        <f>'Kompletne dane'!O244</f>
+        <v>90</v>
+      </c>
+      <c r="N243">
+        <f>'Kompletne dane'!P244</f>
+        <v>450</v>
+      </c>
+      <c r="O243">
+        <f>'Kompletne dane'!Q244</f>
+        <v>200</v>
+      </c>
+      <c r="P243">
+        <f>'Kompletne dane'!R244</f>
+        <v>118</v>
+      </c>
+      <c r="Q243">
+        <f>'Kompletne dane'!S244</f>
+        <v>263</v>
+      </c>
+      <c r="R243">
+        <f>'Kompletne dane'!T244</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="244" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <f>'Kompletne dane'!C245</f>
+        <v>1993</v>
+      </c>
+      <c r="B244">
+        <f>IF('Kompletne dane'!$D245="A",1,IF('Kompletne dane'!$D245="B",2,IF('Kompletne dane'!$D245="C",3,IF('Kompletne dane'!$D245="D",4,IF('Kompletne dane'!$D245="E",5,IF('Kompletne dane'!$D245="F",6,7))))))</f>
+        <v>7</v>
+      </c>
+      <c r="C244">
+        <f>'Kompletne dane'!E245</f>
+        <v>3.6</v>
+      </c>
+      <c r="D244">
+        <f>'Kompletne dane'!F245</f>
+        <v>6</v>
+      </c>
+      <c r="E244">
+        <f>'Kompletne dane'!G245</f>
+        <v>360</v>
+      </c>
+      <c r="F244">
+        <f>'Kompletne dane'!H245</f>
+        <v>4</v>
+      </c>
+      <c r="G244">
+        <f>'Kompletne dane'!I245</f>
+        <v>2</v>
+      </c>
+      <c r="H244">
+        <f>'Kompletne dane'!J245</f>
+        <v>4.8</v>
+      </c>
+      <c r="I244">
+        <f>'Kompletne dane'!K245</f>
+        <v>280</v>
+      </c>
+      <c r="J244">
+        <f>'Kompletne dane'!L245</f>
+        <v>520</v>
+      </c>
+      <c r="K244">
+        <f>'Kompletne dane'!M245</f>
+        <v>1470</v>
+      </c>
+      <c r="L244">
+        <f>'Kompletne dane'!N245</f>
+        <v>90</v>
+      </c>
+      <c r="M244">
+        <f>'Kompletne dane'!O245</f>
+        <v>77</v>
+      </c>
+      <c r="N244">
+        <f>'Kompletne dane'!P245</f>
+        <v>428</v>
+      </c>
+      <c r="O244">
+        <f>'Kompletne dane'!Q245</f>
+        <v>178</v>
+      </c>
+      <c r="P244">
+        <f>'Kompletne dane'!R245</f>
+        <v>129</v>
+      </c>
+      <c r="Q244">
+        <f>'Kompletne dane'!S245</f>
+        <v>227</v>
+      </c>
+      <c r="R244">
+        <f>'Kompletne dane'!T245</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="245" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <f>'Kompletne dane'!C246</f>
+        <v>1987</v>
+      </c>
+      <c r="B245">
+        <f>IF('Kompletne dane'!$D246="A",1,IF('Kompletne dane'!$D246="B",2,IF('Kompletne dane'!$D246="C",3,IF('Kompletne dane'!$D246="D",4,IF('Kompletne dane'!$D246="E",5,IF('Kompletne dane'!$D246="F",6,7))))))</f>
+        <v>5</v>
+      </c>
+      <c r="C245">
+        <f>'Kompletne dane'!E246</f>
+        <v>3.8</v>
+      </c>
+      <c r="D245">
+        <f>'Kompletne dane'!F246</f>
+        <v>6</v>
+      </c>
+      <c r="E245">
+        <f>'Kompletne dane'!G246</f>
+        <v>276</v>
+      </c>
+      <c r="F245">
+        <f>'Kompletne dane'!H246</f>
+        <v>4</v>
+      </c>
+      <c r="G245">
+        <f>'Kompletne dane'!I246</f>
+        <v>2</v>
+      </c>
+      <c r="H245">
+        <f>'Kompletne dane'!J246</f>
+        <v>5.3</v>
+      </c>
+      <c r="I245">
+        <f>'Kompletne dane'!K246</f>
+        <v>200</v>
+      </c>
+      <c r="J245">
+        <f>'Kompletne dane'!L246</f>
+        <v>488</v>
+      </c>
+      <c r="K245">
+        <f>'Kompletne dane'!M246</f>
+        <v>1576</v>
+      </c>
+      <c r="L245">
+        <f>'Kompletne dane'!N246</f>
+        <v>462</v>
+      </c>
+      <c r="M245">
+        <f>'Kompletne dane'!O246</f>
+        <v>69</v>
+      </c>
+      <c r="N245">
+        <f>'Kompletne dane'!P246</f>
+        <v>508</v>
+      </c>
+      <c r="O245">
+        <f>'Kompletne dane'!Q246</f>
+        <v>183</v>
+      </c>
+      <c r="P245">
+        <f>'Kompletne dane'!R246</f>
+        <v>136</v>
+      </c>
+      <c r="Q245">
+        <f>'Kompletne dane'!S246</f>
+        <v>275</v>
+      </c>
+      <c r="R245">
+        <f>'Kompletne dane'!T246</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="246" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <f>'Kompletne dane'!C247</f>
+        <v>1995</v>
+      </c>
+      <c r="B246">
+        <f>IF('Kompletne dane'!$D247="A",1,IF('Kompletne dane'!$D247="B",2,IF('Kompletne dane'!$D247="C",3,IF('Kompletne dane'!$D247="D",4,IF('Kompletne dane'!$D247="E",5,IF('Kompletne dane'!$D247="F",6,7))))))</f>
+        <v>7</v>
+      </c>
+      <c r="C246">
+        <f>'Kompletne dane'!E247</f>
+        <v>3</v>
+      </c>
+      <c r="D246">
+        <f>'Kompletne dane'!F247</f>
+        <v>6</v>
+      </c>
+      <c r="E246">
+        <f>'Kompletne dane'!G247</f>
+        <v>330</v>
+      </c>
+      <c r="F246">
+        <f>'Kompletne dane'!H247</f>
+        <v>4</v>
+      </c>
+      <c r="G246">
+        <f>'Kompletne dane'!I247</f>
+        <v>3</v>
+      </c>
+      <c r="H246">
+        <f>'Kompletne dane'!J247</f>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="I246">
+        <f>'Kompletne dane'!K247</f>
+        <v>250</v>
+      </c>
+      <c r="J246">
+        <f>'Kompletne dane'!L247</f>
+        <v>440</v>
+      </c>
+      <c r="K246">
+        <f>'Kompletne dane'!M247</f>
+        <v>1570</v>
+      </c>
+      <c r="L246">
+        <f>'Kompletne dane'!N247</f>
+        <v>185</v>
+      </c>
+      <c r="M246">
+        <f>'Kompletne dane'!O247</f>
+        <v>70</v>
+      </c>
+      <c r="N246">
+        <f>'Kompletne dane'!P247</f>
+        <v>452</v>
+      </c>
+      <c r="O246">
+        <f>'Kompletne dane'!Q247</f>
+        <v>181</v>
+      </c>
+      <c r="P246">
+        <f>'Kompletne dane'!R247</f>
+        <v>128</v>
+      </c>
+      <c r="Q246">
+        <f>'Kompletne dane'!S247</f>
+        <v>250</v>
+      </c>
+      <c r="R246">
+        <f>'Kompletne dane'!T247</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="247" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A247">
         <f>'Kompletne dane'!C248</f>
         <v>1972</v>
       </c>
-      <c r="B243">
+      <c r="B247">
         <f>IF('Kompletne dane'!$D248="A",1,IF('Kompletne dane'!$D248="B",2,IF('Kompletne dane'!$D248="C",3,IF('Kompletne dane'!$D248="D",4,IF('Kompletne dane'!$D248="E",5,IF('Kompletne dane'!$D248="F",6,7))))))</f>
         <v>4</v>
       </c>
-      <c r="C243">
+      <c r="C247">
         <f>'Kompletne dane'!E248</f>
         <v>5</v>
       </c>
-      <c r="D243">
+      <c r="D247">
         <f>'Kompletne dane'!F248</f>
         <v>8</v>
       </c>
-      <c r="E243">
+      <c r="E247">
         <f>'Kompletne dane'!G248</f>
         <v>203</v>
       </c>
-      <c r="F243">
+      <c r="F247">
         <f>'Kompletne dane'!H248</f>
         <v>4</v>
       </c>
-      <c r="G243">
+      <c r="G247">
         <f>'Kompletne dane'!I248</f>
         <v>2</v>
       </c>
-      <c r="H243">
+      <c r="H247">
         <f>'Kompletne dane'!J248</f>
         <v>7.8</v>
       </c>
-      <c r="I243">
+      <c r="I247">
         <f>'Kompletne dane'!K248</f>
         <v>201</v>
       </c>
-      <c r="J243">
+      <c r="J247">
         <f>'Kompletne dane'!L248</f>
         <v>407</v>
       </c>
-      <c r="K243">
+      <c r="K247">
         <f>'Kompletne dane'!M248</f>
         <v>1560</v>
       </c>
-      <c r="L243">
+      <c r="L247">
         <f>'Kompletne dane'!N248</f>
         <v>178</v>
       </c>
-      <c r="M243">
+      <c r="M247">
         <f>'Kompletne dane'!O248</f>
         <v>79</v>
       </c>
-      <c r="N243">
+      <c r="N247">
         <f>'Kompletne dane'!P248</f>
         <v>478</v>
       </c>
-      <c r="O243">
+      <c r="O247">
         <f>'Kompletne dane'!Q248</f>
         <v>189</v>
       </c>
-      <c r="P243">
+      <c r="P247">
         <f>'Kompletne dane'!R248</f>
         <v>130</v>
       </c>
-      <c r="Q243">
+      <c r="Q247">
         <f>'Kompletne dane'!S248</f>
         <v>274</v>
       </c>
-      <c r="R243">
+      <c r="R247">
         <f>'Kompletne dane'!T248</f>
         <v>3</v>
       </c>
     </row>
-    <row r="244" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A244">
+    <row r="248" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A248">
         <f>'Kompletne dane'!C249</f>
         <v>2008</v>
       </c>
-      <c r="B244">
+      <c r="B248">
         <f>IF('Kompletne dane'!$D249="A",1,IF('Kompletne dane'!$D249="B",2,IF('Kompletne dane'!$D249="C",3,IF('Kompletne dane'!$D249="D",4,IF('Kompletne dane'!$D249="E",5,IF('Kompletne dane'!$D249="F",6,7))))))</f>
         <v>3</v>
       </c>
-      <c r="C244">
+      <c r="C248">
         <f>'Kompletne dane'!E249</f>
         <v>2</v>
       </c>
-      <c r="D244">
+      <c r="D248">
         <f>'Kompletne dane'!F249</f>
         <v>4</v>
       </c>
-      <c r="E244">
+      <c r="E248">
         <f>'Kompletne dane'!G249</f>
         <v>240</v>
       </c>
-      <c r="F244">
+      <c r="F248">
         <f>'Kompletne dane'!H249</f>
         <v>5</v>
       </c>
-      <c r="G244">
+      <c r="G248">
         <f>'Kompletne dane'!I249</f>
         <v>5</v>
       </c>
-      <c r="H244">
+      <c r="H248">
         <f>'Kompletne dane'!J249</f>
         <v>6.4</v>
       </c>
-      <c r="I244">
+      <c r="I248">
         <f>'Kompletne dane'!K249</f>
         <v>247</v>
       </c>
-      <c r="J244">
+      <c r="J248">
         <f>'Kompletne dane'!L249</f>
         <v>300</v>
       </c>
-      <c r="K244">
+      <c r="K248">
         <f>'Kompletne dane'!M249</f>
         <v>1375</v>
       </c>
-      <c r="L244">
+      <c r="L248">
         <f>'Kompletne dane'!N249</f>
         <v>341</v>
       </c>
-      <c r="M244">
+      <c r="M248">
         <f>'Kompletne dane'!O249</f>
         <v>55</v>
       </c>
-      <c r="N244">
+      <c r="N248">
         <f>'Kompletne dane'!P249</f>
         <v>432</v>
       </c>
-      <c r="O244">
+      <c r="O248">
         <f>'Kompletne dane'!Q249</f>
         <v>177</v>
       </c>
-      <c r="P244">
+      <c r="P248">
         <f>'Kompletne dane'!R249</f>
         <v>146</v>
       </c>
-      <c r="Q244">
+      <c r="Q248">
         <f>'Kompletne dane'!S249</f>
         <v>258</v>
       </c>
-      <c r="R244">
+      <c r="R248">
         <f>'Kompletne dane'!T249</f>
         <v>6</v>
       </c>
     </row>
-    <row r="245" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A245">
+    <row r="249" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A249">
         <f>'Kompletne dane'!C250</f>
         <v>2006</v>
       </c>
-      <c r="B245">
+      <c r="B249">
         <f>IF('Kompletne dane'!$D250="A",1,IF('Kompletne dane'!$D250="B",2,IF('Kompletne dane'!$D250="C",3,IF('Kompletne dane'!$D250="D",4,IF('Kompletne dane'!$D250="E",5,IF('Kompletne dane'!$D250="F",6,7))))))</f>
         <v>3</v>
       </c>
-      <c r="C245">
+      <c r="C249">
         <f>'Kompletne dane'!E250</f>
         <v>2.2999999999999998</v>
       </c>
-      <c r="D245">
+      <c r="D249">
         <f>'Kompletne dane'!F250</f>
         <v>4</v>
       </c>
-      <c r="E245">
+      <c r="E249">
         <f>'Kompletne dane'!G250</f>
         <v>260</v>
       </c>
-      <c r="F245">
+      <c r="F249">
         <f>'Kompletne dane'!H250</f>
         <v>5</v>
       </c>
-      <c r="G245">
+      <c r="G249">
         <f>'Kompletne dane'!I250</f>
         <v>5</v>
       </c>
-      <c r="H245">
+      <c r="H249">
         <f>'Kompletne dane'!J250</f>
         <v>6.1</v>
       </c>
-      <c r="I245">
+      <c r="I249">
         <f>'Kompletne dane'!K250</f>
         <v>250</v>
       </c>
-      <c r="J245">
+      <c r="J249">
         <f>'Kompletne dane'!L250</f>
         <v>380</v>
       </c>
-      <c r="K245">
+      <c r="K249">
         <f>'Kompletne dane'!M250</f>
         <v>1410</v>
       </c>
-      <c r="L245">
+      <c r="L249">
         <f>'Kompletne dane'!N250</f>
         <v>290</v>
       </c>
-      <c r="M245">
+      <c r="M249">
         <f>'Kompletne dane'!O250</f>
         <v>55</v>
       </c>
-      <c r="N245">
+      <c r="N249">
         <f>'Kompletne dane'!P250</f>
         <v>444</v>
       </c>
-      <c r="O245">
+      <c r="O249">
         <f>'Kompletne dane'!Q250</f>
         <v>177</v>
       </c>
-      <c r="P245">
+      <c r="P249">
         <f>'Kompletne dane'!R250</f>
         <v>147</v>
       </c>
-      <c r="Q245">
+      <c r="Q249">
         <f>'Kompletne dane'!S250</f>
         <v>264</v>
       </c>
-      <c r="R245">
+      <c r="R249">
         <f>'Kompletne dane'!T250</f>
         <v>6</v>
       </c>
@@ -36555,7 +36875,7 @@
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f t="array" ref="A1:A20">TRANSPOSE('Kompletne dane'!A1:'Kompletne dane'!T1)</f>
-        <v>Numer</v>
+        <v>Id</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -36625,7 +36945,7 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
-        <v>Pojemnośc baku [l]</v>
+        <v>Pojemność baku [l]</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">

--- a/Samochody.xlsx
+++ b/Samochody.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NASA\PracaInz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2516A500-B807-42AB-9659-A33509D9F192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B584CE-F182-4D5E-B810-056BC754A9B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kompletne dane" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="265">
   <si>
     <t>Nazwa</t>
   </si>
@@ -812,6 +812,18 @@
   <si>
     <t>Id</t>
   </si>
+  <si>
+    <t>Opel Manta A</t>
+  </si>
+  <si>
+    <t>Mercedes-Benz E400 4Matic</t>
+  </si>
+  <si>
+    <t>BMW 335i</t>
+  </si>
+  <si>
+    <t>Porsche 911 Carrera RS</t>
+  </si>
 </sst>
 </file>
 
@@ -1128,10 +1140,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T250"/>
+  <dimension ref="A1:T254"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A230" workbookViewId="0">
+      <selection activeCell="K258" sqref="K258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16213,7 +16225,7 @@
     </row>
     <row r="240" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A240">
-        <f t="shared" ref="A240:A250" si="4">A239+1</f>
+        <f t="shared" ref="A240:A254" si="4">A239+1</f>
         <v>239</v>
       </c>
       <c r="B240" t="s">
@@ -16784,123 +16796,375 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>219</v>
+        <v>261</v>
       </c>
       <c r="C249">
-        <v>2008</v>
+        <v>1970</v>
       </c>
       <c r="D249" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E249">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="F249">
         <v>4</v>
       </c>
       <c r="G249">
-        <v>240</v>
+        <v>90</v>
       </c>
       <c r="H249">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I249">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J249">
-        <v>6.4</v>
+        <v>13</v>
       </c>
       <c r="K249">
-        <v>247</v>
+        <v>170</v>
       </c>
       <c r="L249">
-        <v>300</v>
+        <v>146</v>
       </c>
       <c r="M249">
-        <v>1375</v>
+        <v>945</v>
       </c>
       <c r="N249">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="O249">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="P249">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="Q249">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="R249">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="S249">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="T249">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="250" spans="1:20" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="250" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250">
         <f t="shared" si="4"/>
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>220</v>
+        <v>262</v>
       </c>
       <c r="C250">
-        <v>2006</v>
+        <v>2017</v>
       </c>
       <c r="D250" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E250">
-        <v>2.2999999999999998</v>
+        <v>3.5</v>
       </c>
       <c r="F250">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G250">
-        <v>260</v>
+        <v>333</v>
       </c>
       <c r="H250">
         <v>5</v>
       </c>
       <c r="I250">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J250">
-        <v>6.1</v>
+        <v>5.2</v>
       </c>
       <c r="K250">
         <v>250</v>
       </c>
       <c r="L250">
-        <v>380</v>
+        <v>480</v>
       </c>
       <c r="M250">
-        <v>1410</v>
+        <v>1745</v>
       </c>
       <c r="N250">
-        <v>290</v>
+        <v>540</v>
       </c>
       <c r="O250">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="P250">
-        <v>444</v>
+        <v>492</v>
       </c>
       <c r="Q250">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="R250">
         <v>147</v>
       </c>
       <c r="S250">
+        <v>294</v>
+      </c>
+      <c r="T250">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="251" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <f t="shared" si="4"/>
+        <v>250</v>
+      </c>
+      <c r="B251" t="s">
+        <v>263</v>
+      </c>
+      <c r="C251">
+        <v>2014</v>
+      </c>
+      <c r="D251" t="s">
+        <v>237</v>
+      </c>
+      <c r="E251">
+        <v>3</v>
+      </c>
+      <c r="F251">
+        <v>6</v>
+      </c>
+      <c r="G251">
+        <v>306</v>
+      </c>
+      <c r="H251">
+        <v>5</v>
+      </c>
+      <c r="I251">
+        <v>4</v>
+      </c>
+      <c r="J251">
+        <v>5.5</v>
+      </c>
+      <c r="K251">
+        <v>250</v>
+      </c>
+      <c r="L251">
+        <v>400</v>
+      </c>
+      <c r="M251">
+        <v>1510</v>
+      </c>
+      <c r="N251">
+        <v>480</v>
+      </c>
+      <c r="O251">
+        <v>60</v>
+      </c>
+      <c r="P251">
+        <v>462</v>
+      </c>
+      <c r="Q251">
+        <v>181</v>
+      </c>
+      <c r="R251">
+        <v>143</v>
+      </c>
+      <c r="S251">
+        <v>281</v>
+      </c>
+      <c r="T251">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="252" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <f t="shared" si="4"/>
+        <v>251</v>
+      </c>
+      <c r="B252" t="s">
         <v>264</v>
       </c>
-      <c r="T250">
+      <c r="C252">
+        <v>1973</v>
+      </c>
+      <c r="D252" t="s">
+        <v>233</v>
+      </c>
+      <c r="E252">
+        <v>2.7</v>
+      </c>
+      <c r="F252">
+        <v>6</v>
+      </c>
+      <c r="G252">
+        <v>255</v>
+      </c>
+      <c r="H252">
+        <v>4</v>
+      </c>
+      <c r="I252">
+        <v>2</v>
+      </c>
+      <c r="J252">
+        <v>6.3</v>
+      </c>
+      <c r="K252">
+        <v>240</v>
+      </c>
+      <c r="L252">
+        <v>255</v>
+      </c>
+      <c r="M252">
+        <v>1075</v>
+      </c>
+      <c r="N252">
+        <v>200</v>
+      </c>
+      <c r="O252">
+        <v>61</v>
+      </c>
+      <c r="P252">
+        <v>415</v>
+      </c>
+      <c r="Q252">
+        <v>165</v>
+      </c>
+      <c r="R252">
+        <v>132</v>
+      </c>
+      <c r="S252">
+        <v>227</v>
+      </c>
+      <c r="T252">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="253" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <f t="shared" si="4"/>
+        <v>252</v>
+      </c>
+      <c r="B253" t="s">
+        <v>219</v>
+      </c>
+      <c r="C253">
+        <v>2008</v>
+      </c>
+      <c r="D253" t="s">
+        <v>236</v>
+      </c>
+      <c r="E253">
+        <v>2</v>
+      </c>
+      <c r="F253">
+        <v>4</v>
+      </c>
+      <c r="G253">
+        <v>240</v>
+      </c>
+      <c r="H253">
+        <v>5</v>
+      </c>
+      <c r="I253">
+        <v>5</v>
+      </c>
+      <c r="J253">
+        <v>6.4</v>
+      </c>
+      <c r="K253">
+        <v>247</v>
+      </c>
+      <c r="L253">
+        <v>300</v>
+      </c>
+      <c r="M253">
+        <v>1375</v>
+      </c>
+      <c r="N253">
+        <v>341</v>
+      </c>
+      <c r="O253">
+        <v>55</v>
+      </c>
+      <c r="P253">
+        <v>432</v>
+      </c>
+      <c r="Q253">
+        <v>177</v>
+      </c>
+      <c r="R253">
+        <v>146</v>
+      </c>
+      <c r="S253">
+        <v>258</v>
+      </c>
+      <c r="T253">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="254" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <f t="shared" si="4"/>
+        <v>253</v>
+      </c>
+      <c r="B254" t="s">
+        <v>220</v>
+      </c>
+      <c r="C254">
+        <v>2006</v>
+      </c>
+      <c r="D254" t="s">
+        <v>236</v>
+      </c>
+      <c r="E254">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F254">
+        <v>4</v>
+      </c>
+      <c r="G254">
+        <v>260</v>
+      </c>
+      <c r="H254">
+        <v>5</v>
+      </c>
+      <c r="I254">
+        <v>5</v>
+      </c>
+      <c r="J254">
+        <v>6.1</v>
+      </c>
+      <c r="K254">
+        <v>250</v>
+      </c>
+      <c r="L254">
+        <v>380</v>
+      </c>
+      <c r="M254">
+        <v>1410</v>
+      </c>
+      <c r="N254">
+        <v>290</v>
+      </c>
+      <c r="O254">
+        <v>55</v>
+      </c>
+      <c r="P254">
+        <v>444</v>
+      </c>
+      <c r="Q254">
+        <v>177</v>
+      </c>
+      <c r="R254">
+        <v>147</v>
+      </c>
+      <c r="S254">
+        <v>264</v>
+      </c>
+      <c r="T254">
         <v>6</v>
       </c>
     </row>
@@ -18406,13 +18670,13 @@
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" t="str">
-        <f>'Kompletne dane'!B249</f>
+        <f>'Kompletne dane'!B253</f>
         <v>Seat Leon Cupra</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" t="str">
-        <f>'Kompletne dane'!B250</f>
+        <f>'Kompletne dane'!B254</f>
         <v>Mazda 3 MPS</v>
       </c>
     </row>
@@ -18423,10 +18687,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CD037B1-ACD9-48BE-8904-7C9CBB062CA9}">
-  <dimension ref="A1:R249"/>
+  <dimension ref="A1:R253"/>
   <sheetViews>
-    <sheetView topLeftCell="A225" workbookViewId="0">
-      <selection activeCell="U240" sqref="U240"/>
+    <sheetView tabSelected="1" topLeftCell="A225" workbookViewId="0">
+      <selection activeCell="N231" sqref="N231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36712,15 +36976,15 @@
     <row r="248" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A248">
         <f>'Kompletne dane'!C249</f>
-        <v>2008</v>
+        <v>1970</v>
       </c>
       <c r="B248">
         <f>IF('Kompletne dane'!$D249="A",1,IF('Kompletne dane'!$D249="B",2,IF('Kompletne dane'!$D249="C",3,IF('Kompletne dane'!$D249="D",4,IF('Kompletne dane'!$D249="E",5,IF('Kompletne dane'!$D249="F",6,7))))))</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C248">
         <f>'Kompletne dane'!E249</f>
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="D248">
         <f>'Kompletne dane'!F249</f>
@@ -36728,81 +36992,81 @@
       </c>
       <c r="E248">
         <f>'Kompletne dane'!G249</f>
-        <v>240</v>
+        <v>90</v>
       </c>
       <c r="F248">
         <f>'Kompletne dane'!H249</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G248">
         <f>'Kompletne dane'!I249</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H248">
         <f>'Kompletne dane'!J249</f>
-        <v>6.4</v>
+        <v>13</v>
       </c>
       <c r="I248">
         <f>'Kompletne dane'!K249</f>
-        <v>247</v>
+        <v>170</v>
       </c>
       <c r="J248">
         <f>'Kompletne dane'!L249</f>
-        <v>300</v>
+        <v>146</v>
       </c>
       <c r="K248">
         <f>'Kompletne dane'!M249</f>
-        <v>1375</v>
+        <v>945</v>
       </c>
       <c r="L248">
         <f>'Kompletne dane'!N249</f>
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="M248">
         <f>'Kompletne dane'!O249</f>
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="N248">
         <f>'Kompletne dane'!P249</f>
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="O248">
         <f>'Kompletne dane'!Q249</f>
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="P248">
         <f>'Kompletne dane'!R249</f>
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="Q248">
         <f>'Kompletne dane'!S249</f>
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="R248">
         <f>'Kompletne dane'!T249</f>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="249" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A249">
         <f>'Kompletne dane'!C250</f>
-        <v>2006</v>
+        <v>2017</v>
       </c>
       <c r="B249">
         <f>IF('Kompletne dane'!$D250="A",1,IF('Kompletne dane'!$D250="B",2,IF('Kompletne dane'!$D250="C",3,IF('Kompletne dane'!$D250="D",4,IF('Kompletne dane'!$D250="E",5,IF('Kompletne dane'!$D250="F",6,7))))))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C249">
         <f>'Kompletne dane'!E250</f>
-        <v>2.2999999999999998</v>
+        <v>3.5</v>
       </c>
       <c r="D249">
         <f>'Kompletne dane'!F250</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E249">
         <f>'Kompletne dane'!G250</f>
-        <v>260</v>
+        <v>333</v>
       </c>
       <c r="F249">
         <f>'Kompletne dane'!H250</f>
@@ -36810,11 +37074,11 @@
       </c>
       <c r="G249">
         <f>'Kompletne dane'!I250</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H249">
         <f>'Kompletne dane'!J250</f>
-        <v>6.1</v>
+        <v>5.2</v>
       </c>
       <c r="I249">
         <f>'Kompletne dane'!K250</f>
@@ -36822,27 +37086,27 @@
       </c>
       <c r="J249">
         <f>'Kompletne dane'!L250</f>
-        <v>380</v>
+        <v>480</v>
       </c>
       <c r="K249">
         <f>'Kompletne dane'!M250</f>
-        <v>1410</v>
+        <v>1745</v>
       </c>
       <c r="L249">
         <f>'Kompletne dane'!N250</f>
-        <v>290</v>
+        <v>540</v>
       </c>
       <c r="M249">
         <f>'Kompletne dane'!O250</f>
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="N249">
         <f>'Kompletne dane'!P250</f>
-        <v>444</v>
+        <v>492</v>
       </c>
       <c r="O249">
         <f>'Kompletne dane'!Q250</f>
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="P249">
         <f>'Kompletne dane'!R250</f>
@@ -36850,10 +37114,306 @@
       </c>
       <c r="Q249">
         <f>'Kompletne dane'!S250</f>
-        <v>264</v>
+        <v>294</v>
       </c>
       <c r="R249">
         <f>'Kompletne dane'!T250</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="250" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <f>'Kompletne dane'!C251</f>
+        <v>2014</v>
+      </c>
+      <c r="B250">
+        <f>IF('Kompletne dane'!$D251="A",1,IF('Kompletne dane'!$D251="B",2,IF('Kompletne dane'!$D251="C",3,IF('Kompletne dane'!$D251="D",4,IF('Kompletne dane'!$D251="E",5,IF('Kompletne dane'!$D251="F",6,7))))))</f>
+        <v>4</v>
+      </c>
+      <c r="C250">
+        <f>'Kompletne dane'!E251</f>
+        <v>3</v>
+      </c>
+      <c r="D250">
+        <f>'Kompletne dane'!F251</f>
+        <v>6</v>
+      </c>
+      <c r="E250">
+        <f>'Kompletne dane'!G251</f>
+        <v>306</v>
+      </c>
+      <c r="F250">
+        <f>'Kompletne dane'!H251</f>
+        <v>5</v>
+      </c>
+      <c r="G250">
+        <f>'Kompletne dane'!I251</f>
+        <v>4</v>
+      </c>
+      <c r="H250">
+        <f>'Kompletne dane'!J251</f>
+        <v>5.5</v>
+      </c>
+      <c r="I250">
+        <f>'Kompletne dane'!K251</f>
+        <v>250</v>
+      </c>
+      <c r="J250">
+        <f>'Kompletne dane'!L251</f>
+        <v>400</v>
+      </c>
+      <c r="K250">
+        <f>'Kompletne dane'!M251</f>
+        <v>1510</v>
+      </c>
+      <c r="L250">
+        <f>'Kompletne dane'!N251</f>
+        <v>480</v>
+      </c>
+      <c r="M250">
+        <f>'Kompletne dane'!O251</f>
+        <v>60</v>
+      </c>
+      <c r="N250">
+        <f>'Kompletne dane'!P251</f>
+        <v>462</v>
+      </c>
+      <c r="O250">
+        <f>'Kompletne dane'!Q251</f>
+        <v>181</v>
+      </c>
+      <c r="P250">
+        <f>'Kompletne dane'!R251</f>
+        <v>143</v>
+      </c>
+      <c r="Q250">
+        <f>'Kompletne dane'!S251</f>
+        <v>281</v>
+      </c>
+      <c r="R250">
+        <f>'Kompletne dane'!T251</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="251" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <f>'Kompletne dane'!C252</f>
+        <v>1973</v>
+      </c>
+      <c r="B251">
+        <f>IF('Kompletne dane'!$D252="A",1,IF('Kompletne dane'!$D252="B",2,IF('Kompletne dane'!$D252="C",3,IF('Kompletne dane'!$D252="D",4,IF('Kompletne dane'!$D252="E",5,IF('Kompletne dane'!$D252="F",6,7))))))</f>
+        <v>7</v>
+      </c>
+      <c r="C251">
+        <f>'Kompletne dane'!E252</f>
+        <v>2.7</v>
+      </c>
+      <c r="D251">
+        <f>'Kompletne dane'!F252</f>
+        <v>6</v>
+      </c>
+      <c r="E251">
+        <f>'Kompletne dane'!G252</f>
+        <v>255</v>
+      </c>
+      <c r="F251">
+        <f>'Kompletne dane'!H252</f>
+        <v>4</v>
+      </c>
+      <c r="G251">
+        <f>'Kompletne dane'!I252</f>
+        <v>2</v>
+      </c>
+      <c r="H251">
+        <f>'Kompletne dane'!J252</f>
+        <v>6.3</v>
+      </c>
+      <c r="I251">
+        <f>'Kompletne dane'!K252</f>
+        <v>240</v>
+      </c>
+      <c r="J251">
+        <f>'Kompletne dane'!L252</f>
+        <v>255</v>
+      </c>
+      <c r="K251">
+        <f>'Kompletne dane'!M252</f>
+        <v>1075</v>
+      </c>
+      <c r="L251">
+        <f>'Kompletne dane'!N252</f>
+        <v>200</v>
+      </c>
+      <c r="M251">
+        <f>'Kompletne dane'!O252</f>
+        <v>61</v>
+      </c>
+      <c r="N251">
+        <f>'Kompletne dane'!P252</f>
+        <v>415</v>
+      </c>
+      <c r="O251">
+        <f>'Kompletne dane'!Q252</f>
+        <v>165</v>
+      </c>
+      <c r="P251">
+        <f>'Kompletne dane'!R252</f>
+        <v>132</v>
+      </c>
+      <c r="Q251">
+        <f>'Kompletne dane'!S252</f>
+        <v>227</v>
+      </c>
+      <c r="R251">
+        <f>'Kompletne dane'!T252</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="252" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <f>'Kompletne dane'!C253</f>
+        <v>2008</v>
+      </c>
+      <c r="B252">
+        <f>IF('Kompletne dane'!$D253="A",1,IF('Kompletne dane'!$D253="B",2,IF('Kompletne dane'!$D253="C",3,IF('Kompletne dane'!$D253="D",4,IF('Kompletne dane'!$D253="E",5,IF('Kompletne dane'!$D253="F",6,7))))))</f>
+        <v>3</v>
+      </c>
+      <c r="C252">
+        <f>'Kompletne dane'!E253</f>
+        <v>2</v>
+      </c>
+      <c r="D252">
+        <f>'Kompletne dane'!F253</f>
+        <v>4</v>
+      </c>
+      <c r="E252">
+        <f>'Kompletne dane'!G253</f>
+        <v>240</v>
+      </c>
+      <c r="F252">
+        <f>'Kompletne dane'!H253</f>
+        <v>5</v>
+      </c>
+      <c r="G252">
+        <f>'Kompletne dane'!I253</f>
+        <v>5</v>
+      </c>
+      <c r="H252">
+        <f>'Kompletne dane'!J253</f>
+        <v>6.4</v>
+      </c>
+      <c r="I252">
+        <f>'Kompletne dane'!K253</f>
+        <v>247</v>
+      </c>
+      <c r="J252">
+        <f>'Kompletne dane'!L253</f>
+        <v>300</v>
+      </c>
+      <c r="K252">
+        <f>'Kompletne dane'!M253</f>
+        <v>1375</v>
+      </c>
+      <c r="L252">
+        <f>'Kompletne dane'!N253</f>
+        <v>341</v>
+      </c>
+      <c r="M252">
+        <f>'Kompletne dane'!O253</f>
+        <v>55</v>
+      </c>
+      <c r="N252">
+        <f>'Kompletne dane'!P253</f>
+        <v>432</v>
+      </c>
+      <c r="O252">
+        <f>'Kompletne dane'!Q253</f>
+        <v>177</v>
+      </c>
+      <c r="P252">
+        <f>'Kompletne dane'!R253</f>
+        <v>146</v>
+      </c>
+      <c r="Q252">
+        <f>'Kompletne dane'!S253</f>
+        <v>258</v>
+      </c>
+      <c r="R252">
+        <f>'Kompletne dane'!T253</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="253" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <f>'Kompletne dane'!C254</f>
+        <v>2006</v>
+      </c>
+      <c r="B253">
+        <f>IF('Kompletne dane'!$D254="A",1,IF('Kompletne dane'!$D254="B",2,IF('Kompletne dane'!$D254="C",3,IF('Kompletne dane'!$D254="D",4,IF('Kompletne dane'!$D254="E",5,IF('Kompletne dane'!$D254="F",6,7))))))</f>
+        <v>3</v>
+      </c>
+      <c r="C253">
+        <f>'Kompletne dane'!E254</f>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D253">
+        <f>'Kompletne dane'!F254</f>
+        <v>4</v>
+      </c>
+      <c r="E253">
+        <f>'Kompletne dane'!G254</f>
+        <v>260</v>
+      </c>
+      <c r="F253">
+        <f>'Kompletne dane'!H254</f>
+        <v>5</v>
+      </c>
+      <c r="G253">
+        <f>'Kompletne dane'!I254</f>
+        <v>5</v>
+      </c>
+      <c r="H253">
+        <f>'Kompletne dane'!J254</f>
+        <v>6.1</v>
+      </c>
+      <c r="I253">
+        <f>'Kompletne dane'!K254</f>
+        <v>250</v>
+      </c>
+      <c r="J253">
+        <f>'Kompletne dane'!L254</f>
+        <v>380</v>
+      </c>
+      <c r="K253">
+        <f>'Kompletne dane'!M254</f>
+        <v>1410</v>
+      </c>
+      <c r="L253">
+        <f>'Kompletne dane'!N254</f>
+        <v>290</v>
+      </c>
+      <c r="M253">
+        <f>'Kompletne dane'!O254</f>
+        <v>55</v>
+      </c>
+      <c r="N253">
+        <f>'Kompletne dane'!P254</f>
+        <v>444</v>
+      </c>
+      <c r="O253">
+        <f>'Kompletne dane'!Q254</f>
+        <v>177</v>
+      </c>
+      <c r="P253">
+        <f>'Kompletne dane'!R254</f>
+        <v>147</v>
+      </c>
+      <c r="Q253">
+        <f>'Kompletne dane'!S254</f>
+        <v>264</v>
+      </c>
+      <c r="R253">
+        <f>'Kompletne dane'!T254</f>
         <v>6</v>
       </c>
     </row>

--- a/Samochody.xlsx
+++ b/Samochody.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NASA\PracaInz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B584CE-F182-4D5E-B810-056BC754A9B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AF218CB-2D0E-4C85-891B-9C13DA9342EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28725" yWindow="1305" windowWidth="27900" windowHeight="12270" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kompletne dane" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="267">
   <si>
     <t>Nazwa</t>
   </si>
@@ -824,6 +824,12 @@
   <si>
     <t>Porsche 911 Carrera RS</t>
   </si>
+  <si>
+    <t>Mercedes 500SL</t>
+  </si>
+  <si>
+    <t>Aston Martin DB7</t>
+  </si>
 </sst>
 </file>
 
@@ -1140,10 +1146,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T254"/>
+  <dimension ref="A1:T256"/>
   <sheetViews>
-    <sheetView topLeftCell="A230" workbookViewId="0">
-      <selection activeCell="K258" sqref="K258"/>
+    <sheetView topLeftCell="A233" workbookViewId="0">
+      <selection activeCell="O257" sqref="O257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17168,6 +17174,130 @@
         <v>6</v>
       </c>
     </row>
+    <row r="255" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>254</v>
+      </c>
+      <c r="B255" t="s">
+        <v>265</v>
+      </c>
+      <c r="C255">
+        <v>2000</v>
+      </c>
+      <c r="D255" t="s">
+        <v>233</v>
+      </c>
+      <c r="E255">
+        <v>5</v>
+      </c>
+      <c r="F255">
+        <v>8</v>
+      </c>
+      <c r="G255">
+        <v>306</v>
+      </c>
+      <c r="H255">
+        <v>2</v>
+      </c>
+      <c r="I255">
+        <v>2</v>
+      </c>
+      <c r="J255">
+        <v>6.5</v>
+      </c>
+      <c r="K255">
+        <v>250</v>
+      </c>
+      <c r="L255">
+        <v>460</v>
+      </c>
+      <c r="M255">
+        <v>1815</v>
+      </c>
+      <c r="N255">
+        <v>265</v>
+      </c>
+      <c r="O255">
+        <v>80</v>
+      </c>
+      <c r="P255">
+        <v>450</v>
+      </c>
+      <c r="Q255">
+        <v>181</v>
+      </c>
+      <c r="R255">
+        <v>130</v>
+      </c>
+      <c r="S255">
+        <v>252</v>
+      </c>
+      <c r="T255">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="256" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>255</v>
+      </c>
+      <c r="B256" t="s">
+        <v>266</v>
+      </c>
+      <c r="C256">
+        <v>1998</v>
+      </c>
+      <c r="D256" t="s">
+        <v>233</v>
+      </c>
+      <c r="E256">
+        <v>3.2</v>
+      </c>
+      <c r="F256">
+        <v>6</v>
+      </c>
+      <c r="G256">
+        <v>360</v>
+      </c>
+      <c r="H256">
+        <v>4</v>
+      </c>
+      <c r="I256">
+        <v>2</v>
+      </c>
+      <c r="J256">
+        <v>6</v>
+      </c>
+      <c r="K256">
+        <v>265</v>
+      </c>
+      <c r="L256">
+        <v>499</v>
+      </c>
+      <c r="M256">
+        <v>1725</v>
+      </c>
+      <c r="N256">
+        <v>178</v>
+      </c>
+      <c r="O256">
+        <v>89</v>
+      </c>
+      <c r="P256">
+        <v>463</v>
+      </c>
+      <c r="Q256">
+        <v>182</v>
+      </c>
+      <c r="R256">
+        <v>127</v>
+      </c>
+      <c r="S256">
+        <v>259</v>
+      </c>
+      <c r="T256">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17175,10 +17305,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24D8D5CA-9744-4893-9B14-DF471DE70DC3}">
-  <dimension ref="A1:A249"/>
+  <dimension ref="A1:A251"/>
   <sheetViews>
     <sheetView topLeftCell="A230" workbookViewId="0">
-      <selection activeCell="D233" sqref="D233"/>
+      <selection activeCell="F248" sqref="F248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18680,6 +18810,18 @@
         <v>Mazda 3 MPS</v>
       </c>
     </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" t="str">
+        <f>'Kompletne dane'!B255</f>
+        <v>Mercedes 500SL</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" t="str">
+        <f>'Kompletne dane'!B256</f>
+        <v>Aston Martin DB7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18687,10 +18829,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CD037B1-ACD9-48BE-8904-7C9CBB062CA9}">
-  <dimension ref="A1:R253"/>
+  <dimension ref="A1:R255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A225" workbookViewId="0">
-      <selection activeCell="N231" sqref="N231"/>
+    <sheetView tabSelected="1" topLeftCell="A237" workbookViewId="0">
+      <selection activeCell="V251" sqref="V251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37415,6 +37557,154 @@
       <c r="R253">
         <f>'Kompletne dane'!T254</f>
         <v>6</v>
+      </c>
+    </row>
+    <row r="254" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <f>'Kompletne dane'!C255</f>
+        <v>2000</v>
+      </c>
+      <c r="B254">
+        <f>IF('Kompletne dane'!$D255="A",1,IF('Kompletne dane'!$D255="B",2,IF('Kompletne dane'!$D255="C",3,IF('Kompletne dane'!$D255="D",4,IF('Kompletne dane'!$D255="E",5,IF('Kompletne dane'!$D255="F",6,7))))))</f>
+        <v>7</v>
+      </c>
+      <c r="C254">
+        <f>'Kompletne dane'!E255</f>
+        <v>5</v>
+      </c>
+      <c r="D254">
+        <f>'Kompletne dane'!F255</f>
+        <v>8</v>
+      </c>
+      <c r="E254">
+        <f>'Kompletne dane'!G255</f>
+        <v>306</v>
+      </c>
+      <c r="F254">
+        <f>'Kompletne dane'!H255</f>
+        <v>2</v>
+      </c>
+      <c r="G254">
+        <f>'Kompletne dane'!I255</f>
+        <v>2</v>
+      </c>
+      <c r="H254">
+        <f>'Kompletne dane'!J255</f>
+        <v>6.5</v>
+      </c>
+      <c r="I254">
+        <f>'Kompletne dane'!K255</f>
+        <v>250</v>
+      </c>
+      <c r="J254">
+        <f>'Kompletne dane'!L255</f>
+        <v>460</v>
+      </c>
+      <c r="K254">
+        <f>'Kompletne dane'!M255</f>
+        <v>1815</v>
+      </c>
+      <c r="L254">
+        <f>'Kompletne dane'!N255</f>
+        <v>265</v>
+      </c>
+      <c r="M254">
+        <f>'Kompletne dane'!O255</f>
+        <v>80</v>
+      </c>
+      <c r="N254">
+        <f>'Kompletne dane'!P255</f>
+        <v>450</v>
+      </c>
+      <c r="O254">
+        <f>'Kompletne dane'!Q255</f>
+        <v>181</v>
+      </c>
+      <c r="P254">
+        <f>'Kompletne dane'!R255</f>
+        <v>130</v>
+      </c>
+      <c r="Q254">
+        <f>'Kompletne dane'!S255</f>
+        <v>252</v>
+      </c>
+      <c r="R254">
+        <f>'Kompletne dane'!T255</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="255" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <f>'Kompletne dane'!C256</f>
+        <v>1998</v>
+      </c>
+      <c r="B255">
+        <f>IF('Kompletne dane'!$D256="A",1,IF('Kompletne dane'!$D256="B",2,IF('Kompletne dane'!$D256="C",3,IF('Kompletne dane'!$D256="D",4,IF('Kompletne dane'!$D256="E",5,IF('Kompletne dane'!$D256="F",6,7))))))</f>
+        <v>7</v>
+      </c>
+      <c r="C255">
+        <f>'Kompletne dane'!E256</f>
+        <v>3.2</v>
+      </c>
+      <c r="D255">
+        <f>'Kompletne dane'!F256</f>
+        <v>6</v>
+      </c>
+      <c r="E255">
+        <f>'Kompletne dane'!G256</f>
+        <v>360</v>
+      </c>
+      <c r="F255">
+        <f>'Kompletne dane'!H256</f>
+        <v>4</v>
+      </c>
+      <c r="G255">
+        <f>'Kompletne dane'!I256</f>
+        <v>2</v>
+      </c>
+      <c r="H255">
+        <f>'Kompletne dane'!J256</f>
+        <v>6</v>
+      </c>
+      <c r="I255">
+        <f>'Kompletne dane'!K256</f>
+        <v>265</v>
+      </c>
+      <c r="J255">
+        <f>'Kompletne dane'!L256</f>
+        <v>499</v>
+      </c>
+      <c r="K255">
+        <f>'Kompletne dane'!M256</f>
+        <v>1725</v>
+      </c>
+      <c r="L255">
+        <f>'Kompletne dane'!N256</f>
+        <v>178</v>
+      </c>
+      <c r="M255">
+        <f>'Kompletne dane'!O256</f>
+        <v>89</v>
+      </c>
+      <c r="N255">
+        <f>'Kompletne dane'!P256</f>
+        <v>463</v>
+      </c>
+      <c r="O255">
+        <f>'Kompletne dane'!Q256</f>
+        <v>182</v>
+      </c>
+      <c r="P255">
+        <f>'Kompletne dane'!R256</f>
+        <v>127</v>
+      </c>
+      <c r="Q255">
+        <f>'Kompletne dane'!S256</f>
+        <v>259</v>
+      </c>
+      <c r="R255">
+        <f>'Kompletne dane'!T256</f>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Samochody.xlsx
+++ b/Samochody.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NASA\PracaInz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AF218CB-2D0E-4C85-891B-9C13DA9342EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF36F29-7CDF-43C9-8811-35DD37EF3ED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28725" yWindow="1305" windowWidth="27900" windowHeight="12270" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2010" yWindow="1635" windowWidth="22350" windowHeight="12270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kompletne dane" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="269">
   <si>
     <t>Nazwa</t>
   </si>
@@ -830,6 +830,12 @@
   <si>
     <t>Aston Martin DB7</t>
   </si>
+  <si>
+    <t>Porsche Panamera S</t>
+  </si>
+  <si>
+    <t>BMW 330i</t>
+  </si>
 </sst>
 </file>
 
@@ -1146,10 +1152,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T256"/>
+  <dimension ref="A1:T258"/>
   <sheetViews>
-    <sheetView topLeftCell="A233" workbookViewId="0">
-      <selection activeCell="O257" sqref="O257"/>
+    <sheetView tabSelected="1" topLeftCell="A240" workbookViewId="0">
+      <selection activeCell="E261" sqref="E261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17298,6 +17304,130 @@
         <v>5</v>
       </c>
     </row>
+    <row r="257" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>256</v>
+      </c>
+      <c r="B257" t="s">
+        <v>267</v>
+      </c>
+      <c r="C257">
+        <v>2012</v>
+      </c>
+      <c r="D257" t="s">
+        <v>232</v>
+      </c>
+      <c r="E257">
+        <v>4.8</v>
+      </c>
+      <c r="F257">
+        <v>8</v>
+      </c>
+      <c r="G257">
+        <v>400</v>
+      </c>
+      <c r="H257">
+        <v>4</v>
+      </c>
+      <c r="I257">
+        <v>5</v>
+      </c>
+      <c r="J257">
+        <v>5.6</v>
+      </c>
+      <c r="K257">
+        <v>285</v>
+      </c>
+      <c r="L257">
+        <v>500</v>
+      </c>
+      <c r="M257">
+        <v>1770</v>
+      </c>
+      <c r="N257">
+        <v>445</v>
+      </c>
+      <c r="O257">
+        <v>80</v>
+      </c>
+      <c r="P257">
+        <v>497</v>
+      </c>
+      <c r="Q257">
+        <v>191</v>
+      </c>
+      <c r="R257">
+        <v>142</v>
+      </c>
+      <c r="S257">
+        <v>292</v>
+      </c>
+      <c r="T257">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="258" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>257</v>
+      </c>
+      <c r="B258" t="s">
+        <v>268</v>
+      </c>
+      <c r="C258">
+        <v>2011</v>
+      </c>
+      <c r="D258" t="s">
+        <v>237</v>
+      </c>
+      <c r="E258">
+        <v>3</v>
+      </c>
+      <c r="F258">
+        <v>6</v>
+      </c>
+      <c r="G258">
+        <v>272</v>
+      </c>
+      <c r="H258">
+        <v>5</v>
+      </c>
+      <c r="I258">
+        <v>4</v>
+      </c>
+      <c r="J258">
+        <v>6.1</v>
+      </c>
+      <c r="K258">
+        <v>250</v>
+      </c>
+      <c r="L258">
+        <v>320</v>
+      </c>
+      <c r="M258">
+        <v>1475</v>
+      </c>
+      <c r="N258">
+        <v>460</v>
+      </c>
+      <c r="O258">
+        <v>63</v>
+      </c>
+      <c r="P258">
+        <v>453</v>
+      </c>
+      <c r="Q258">
+        <v>182</v>
+      </c>
+      <c r="R258">
+        <v>142</v>
+      </c>
+      <c r="S258">
+        <v>276</v>
+      </c>
+      <c r="T258">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18831,7 +18961,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CD037B1-ACD9-48BE-8904-7C9CBB062CA9}">
   <dimension ref="A1:R255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A237" workbookViewId="0">
+    <sheetView topLeftCell="A240" workbookViewId="0">
       <selection activeCell="V251" sqref="V251"/>
     </sheetView>
   </sheetViews>

--- a/Samochody.xlsx
+++ b/Samochody.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NASA\PracaInz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF36F29-7CDF-43C9-8811-35DD37EF3ED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43448341-3485-415A-AE4B-D67D3DA18B6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2010" yWindow="1635" windowWidth="22350" windowHeight="12270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2355" yWindow="1980" windowWidth="22350" windowHeight="12270" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kompletne dane" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="270">
   <si>
     <t>Nazwa</t>
   </si>
@@ -836,6 +836,9 @@
   <si>
     <t>BMW 330i</t>
   </si>
+  <si>
+    <t>BMW 850CSi</t>
+  </si>
 </sst>
 </file>
 
@@ -1152,10 +1155,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T258"/>
+  <dimension ref="A1:T259"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A240" workbookViewId="0">
-      <selection activeCell="E261" sqref="E261"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17428,6 +17431,68 @@
         <v>6</v>
       </c>
     </row>
+    <row r="259" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>258</v>
+      </c>
+      <c r="B259" t="s">
+        <v>269</v>
+      </c>
+      <c r="C259">
+        <v>1995</v>
+      </c>
+      <c r="D259" t="s">
+        <v>232</v>
+      </c>
+      <c r="E259">
+        <v>5.6</v>
+      </c>
+      <c r="F259">
+        <v>12</v>
+      </c>
+      <c r="G259">
+        <v>380</v>
+      </c>
+      <c r="H259">
+        <v>4</v>
+      </c>
+      <c r="I259">
+        <v>2</v>
+      </c>
+      <c r="J259">
+        <v>6</v>
+      </c>
+      <c r="K259">
+        <v>250</v>
+      </c>
+      <c r="L259">
+        <v>550</v>
+      </c>
+      <c r="M259">
+        <v>1900</v>
+      </c>
+      <c r="N259">
+        <v>320</v>
+      </c>
+      <c r="O259">
+        <v>90</v>
+      </c>
+      <c r="P259">
+        <v>478</v>
+      </c>
+      <c r="Q259">
+        <v>186</v>
+      </c>
+      <c r="R259">
+        <v>133</v>
+      </c>
+      <c r="S259">
+        <v>268</v>
+      </c>
+      <c r="T259">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17435,10 +17500,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24D8D5CA-9744-4893-9B14-DF471DE70DC3}">
-  <dimension ref="A1:A251"/>
+  <dimension ref="A1:A258"/>
   <sheetViews>
-    <sheetView topLeftCell="A230" workbookViewId="0">
-      <selection activeCell="F248" sqref="F248"/>
+    <sheetView topLeftCell="A233" workbookViewId="0">
+      <selection sqref="A1:A258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18930,26 +18995,68 @@
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" t="str">
+        <f>'Kompletne dane'!B249</f>
+        <v>Opel Manta A</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" t="str">
+        <f>'Kompletne dane'!B250</f>
+        <v>Mercedes-Benz E400 4Matic</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" t="str">
+        <f>'Kompletne dane'!B251</f>
+        <v>BMW 335i</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" t="str">
+        <f>'Kompletne dane'!B252</f>
+        <v>Porsche 911 Carrera RS</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252" t="str">
         <f>'Kompletne dane'!B253</f>
         <v>Seat Leon Cupra</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A249" t="str">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253" t="str">
         <f>'Kompletne dane'!B254</f>
         <v>Mazda 3 MPS</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A250" t="str">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254" t="str">
         <f>'Kompletne dane'!B255</f>
         <v>Mercedes 500SL</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A251" t="str">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255" t="str">
         <f>'Kompletne dane'!B256</f>
         <v>Aston Martin DB7</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256" t="str">
+        <f>'Kompletne dane'!B257</f>
+        <v>Porsche Panamera S</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257" t="str">
+        <f>'Kompletne dane'!B258</f>
+        <v>BMW 330i</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258" t="str">
+        <f>'Kompletne dane'!B259</f>
+        <v>BMW 850CSi</v>
       </c>
     </row>
   </sheetData>
@@ -18959,10 +19066,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CD037B1-ACD9-48BE-8904-7C9CBB062CA9}">
-  <dimension ref="A1:R255"/>
+  <dimension ref="A1:R258"/>
   <sheetViews>
-    <sheetView topLeftCell="A240" workbookViewId="0">
-      <selection activeCell="V251" sqref="V251"/>
+    <sheetView tabSelected="1" topLeftCell="A243" workbookViewId="0">
+      <selection activeCell="Q254" sqref="Q254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37835,6 +37942,228 @@
       <c r="R255">
         <f>'Kompletne dane'!T256</f>
         <v>5</v>
+      </c>
+    </row>
+    <row r="256" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <f>'Kompletne dane'!C257</f>
+        <v>2012</v>
+      </c>
+      <c r="B256">
+        <f>IF('Kompletne dane'!$D257="A",1,IF('Kompletne dane'!$D257="B",2,IF('Kompletne dane'!$D257="C",3,IF('Kompletne dane'!$D257="D",4,IF('Kompletne dane'!$D257="E",5,IF('Kompletne dane'!$D257="F",6,7))))))</f>
+        <v>5</v>
+      </c>
+      <c r="C256">
+        <f>'Kompletne dane'!E257</f>
+        <v>4.8</v>
+      </c>
+      <c r="D256">
+        <f>'Kompletne dane'!F257</f>
+        <v>8</v>
+      </c>
+      <c r="E256">
+        <f>'Kompletne dane'!G257</f>
+        <v>400</v>
+      </c>
+      <c r="F256">
+        <f>'Kompletne dane'!H257</f>
+        <v>4</v>
+      </c>
+      <c r="G256">
+        <f>'Kompletne dane'!I257</f>
+        <v>5</v>
+      </c>
+      <c r="H256">
+        <f>'Kompletne dane'!J257</f>
+        <v>5.6</v>
+      </c>
+      <c r="I256">
+        <f>'Kompletne dane'!K257</f>
+        <v>285</v>
+      </c>
+      <c r="J256">
+        <f>'Kompletne dane'!L257</f>
+        <v>500</v>
+      </c>
+      <c r="K256">
+        <f>'Kompletne dane'!M257</f>
+        <v>1770</v>
+      </c>
+      <c r="L256">
+        <f>'Kompletne dane'!N257</f>
+        <v>445</v>
+      </c>
+      <c r="M256">
+        <f>'Kompletne dane'!O257</f>
+        <v>80</v>
+      </c>
+      <c r="N256">
+        <f>'Kompletne dane'!P257</f>
+        <v>497</v>
+      </c>
+      <c r="O256">
+        <f>'Kompletne dane'!Q257</f>
+        <v>191</v>
+      </c>
+      <c r="P256">
+        <f>'Kompletne dane'!R257</f>
+        <v>142</v>
+      </c>
+      <c r="Q256">
+        <f>'Kompletne dane'!S257</f>
+        <v>292</v>
+      </c>
+      <c r="R256">
+        <f>'Kompletne dane'!T257</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="257" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <f>'Kompletne dane'!C258</f>
+        <v>2011</v>
+      </c>
+      <c r="B257">
+        <f>IF('Kompletne dane'!$D258="A",1,IF('Kompletne dane'!$D258="B",2,IF('Kompletne dane'!$D258="C",3,IF('Kompletne dane'!$D258="D",4,IF('Kompletne dane'!$D258="E",5,IF('Kompletne dane'!$D258="F",6,7))))))</f>
+        <v>4</v>
+      </c>
+      <c r="C257">
+        <f>'Kompletne dane'!E258</f>
+        <v>3</v>
+      </c>
+      <c r="D257">
+        <f>'Kompletne dane'!F258</f>
+        <v>6</v>
+      </c>
+      <c r="E257">
+        <f>'Kompletne dane'!G258</f>
+        <v>272</v>
+      </c>
+      <c r="F257">
+        <f>'Kompletne dane'!H258</f>
+        <v>5</v>
+      </c>
+      <c r="G257">
+        <f>'Kompletne dane'!I258</f>
+        <v>4</v>
+      </c>
+      <c r="H257">
+        <f>'Kompletne dane'!J258</f>
+        <v>6.1</v>
+      </c>
+      <c r="I257">
+        <f>'Kompletne dane'!K258</f>
+        <v>250</v>
+      </c>
+      <c r="J257">
+        <f>'Kompletne dane'!L258</f>
+        <v>320</v>
+      </c>
+      <c r="K257">
+        <f>'Kompletne dane'!M258</f>
+        <v>1475</v>
+      </c>
+      <c r="L257">
+        <f>'Kompletne dane'!N258</f>
+        <v>460</v>
+      </c>
+      <c r="M257">
+        <f>'Kompletne dane'!O258</f>
+        <v>63</v>
+      </c>
+      <c r="N257">
+        <f>'Kompletne dane'!P258</f>
+        <v>453</v>
+      </c>
+      <c r="O257">
+        <f>'Kompletne dane'!Q258</f>
+        <v>182</v>
+      </c>
+      <c r="P257">
+        <f>'Kompletne dane'!R258</f>
+        <v>142</v>
+      </c>
+      <c r="Q257">
+        <f>'Kompletne dane'!S258</f>
+        <v>276</v>
+      </c>
+      <c r="R257">
+        <f>'Kompletne dane'!T258</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="258" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <f>'Kompletne dane'!C259</f>
+        <v>1995</v>
+      </c>
+      <c r="B258">
+        <f>IF('Kompletne dane'!$D259="A",1,IF('Kompletne dane'!$D259="B",2,IF('Kompletne dane'!$D259="C",3,IF('Kompletne dane'!$D259="D",4,IF('Kompletne dane'!$D259="E",5,IF('Kompletne dane'!$D259="F",6,7))))))</f>
+        <v>5</v>
+      </c>
+      <c r="C258">
+        <f>'Kompletne dane'!E259</f>
+        <v>5.6</v>
+      </c>
+      <c r="D258">
+        <f>'Kompletne dane'!F259</f>
+        <v>12</v>
+      </c>
+      <c r="E258">
+        <f>'Kompletne dane'!G259</f>
+        <v>380</v>
+      </c>
+      <c r="F258">
+        <f>'Kompletne dane'!H259</f>
+        <v>4</v>
+      </c>
+      <c r="G258">
+        <f>'Kompletne dane'!I259</f>
+        <v>2</v>
+      </c>
+      <c r="H258">
+        <f>'Kompletne dane'!J259</f>
+        <v>6</v>
+      </c>
+      <c r="I258">
+        <f>'Kompletne dane'!K259</f>
+        <v>250</v>
+      </c>
+      <c r="J258">
+        <f>'Kompletne dane'!L259</f>
+        <v>550</v>
+      </c>
+      <c r="K258">
+        <f>'Kompletne dane'!M259</f>
+        <v>1900</v>
+      </c>
+      <c r="L258">
+        <f>'Kompletne dane'!N259</f>
+        <v>320</v>
+      </c>
+      <c r="M258">
+        <f>'Kompletne dane'!O259</f>
+        <v>90</v>
+      </c>
+      <c r="N258">
+        <f>'Kompletne dane'!P259</f>
+        <v>478</v>
+      </c>
+      <c r="O258">
+        <f>'Kompletne dane'!Q259</f>
+        <v>186</v>
+      </c>
+      <c r="P258">
+        <f>'Kompletne dane'!R259</f>
+        <v>133</v>
+      </c>
+      <c r="Q258">
+        <f>'Kompletne dane'!S259</f>
+        <v>268</v>
+      </c>
+      <c r="R258">
+        <f>'Kompletne dane'!T259</f>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Samochody.xlsx
+++ b/Samochody.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NASA\PracaInz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43448341-3485-415A-AE4B-D67D3DA18B6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C527BD70-9123-43DC-9A26-9CBCD612FAB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2355" yWindow="1980" windowWidth="22350" windowHeight="12270" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2925" yWindow="3105" windowWidth="25140" windowHeight="12285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kompletne dane" sheetId="1" r:id="rId1"/>
@@ -1157,8 +1157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T259"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
+      <selection activeCell="H144" sqref="H144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10208,7 +10208,7 @@
         <v>1.6</v>
       </c>
       <c r="F144">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G144">
         <v>116</v>
@@ -19068,7 +19068,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CD037B1-ACD9-48BE-8904-7C9CBB062CA9}">
   <dimension ref="A1:R258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A243" workbookViewId="0">
+    <sheetView topLeftCell="A243" workbookViewId="0">
       <selection activeCell="Q254" sqref="Q254"/>
     </sheetView>
   </sheetViews>
@@ -29597,7 +29597,7 @@
       </c>
       <c r="D143">
         <f>'Kompletne dane'!F144</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E143">
         <f>'Kompletne dane'!G144</f>

--- a/Samochody.xlsx
+++ b/Samochody.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NASA\PracaInz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C527BD70-9123-43DC-9A26-9CBCD612FAB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A62969D3-7CB3-4AFA-BB10-3CB50A9659D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2925" yWindow="3105" windowWidth="25140" windowHeight="12285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3570" yWindow="3315" windowWidth="25230" windowHeight="12240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kompletne dane" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="271">
   <si>
     <t>Nazwa</t>
   </si>
@@ -839,6 +839,9 @@
   <si>
     <t>BMW 850CSi</t>
   </si>
+  <si>
+    <t>Renault Laguna</t>
+  </si>
 </sst>
 </file>
 
@@ -1155,10 +1158,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T259"/>
+  <dimension ref="A1:T260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
-      <selection activeCell="H144" sqref="H144"/>
+    <sheetView topLeftCell="G244" workbookViewId="0">
+      <selection activeCell="L264" sqref="L264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17493,6 +17496,68 @@
         <v>6</v>
       </c>
     </row>
+    <row r="260" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>259</v>
+      </c>
+      <c r="B260" t="s">
+        <v>270</v>
+      </c>
+      <c r="C260">
+        <v>2011</v>
+      </c>
+      <c r="D260" t="s">
+        <v>237</v>
+      </c>
+      <c r="E260">
+        <v>3.5</v>
+      </c>
+      <c r="F260">
+        <v>6</v>
+      </c>
+      <c r="G260">
+        <v>238</v>
+      </c>
+      <c r="H260">
+        <v>4</v>
+      </c>
+      <c r="I260">
+        <v>2</v>
+      </c>
+      <c r="J260">
+        <v>7.4</v>
+      </c>
+      <c r="K260">
+        <v>245</v>
+      </c>
+      <c r="L260">
+        <v>330</v>
+      </c>
+      <c r="M260">
+        <v>1597</v>
+      </c>
+      <c r="N260">
+        <v>423</v>
+      </c>
+      <c r="O260">
+        <v>66</v>
+      </c>
+      <c r="P260">
+        <v>464</v>
+      </c>
+      <c r="Q260">
+        <v>181</v>
+      </c>
+      <c r="R260">
+        <v>140</v>
+      </c>
+      <c r="S260">
+        <v>269</v>
+      </c>
+      <c r="T260">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17500,10 +17565,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24D8D5CA-9744-4893-9B14-DF471DE70DC3}">
-  <dimension ref="A1:A258"/>
+  <dimension ref="A1:A259"/>
   <sheetViews>
-    <sheetView topLeftCell="A233" workbookViewId="0">
-      <selection sqref="A1:A258"/>
+    <sheetView tabSelected="1" topLeftCell="A245" workbookViewId="0">
+      <selection activeCell="A260" sqref="A260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19059,6 +19124,12 @@
         <v>BMW 850CSi</v>
       </c>
     </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259" t="str">
+        <f>'Kompletne dane'!B260</f>
+        <v>Renault Laguna</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -19066,10 +19137,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CD037B1-ACD9-48BE-8904-7C9CBB062CA9}">
-  <dimension ref="A1:R258"/>
+  <dimension ref="A1:R259"/>
   <sheetViews>
     <sheetView topLeftCell="A243" workbookViewId="0">
-      <selection activeCell="Q254" sqref="Q254"/>
+      <selection activeCell="E266" sqref="E266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38163,6 +38234,80 @@
       </c>
       <c r="R258">
         <f>'Kompletne dane'!T259</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="259" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <f>'Kompletne dane'!C260</f>
+        <v>2011</v>
+      </c>
+      <c r="B259">
+        <f>IF('Kompletne dane'!$D260="A",1,IF('Kompletne dane'!$D260="B",2,IF('Kompletne dane'!$D260="C",3,IF('Kompletne dane'!$D260="D",4,IF('Kompletne dane'!$D260="E",5,IF('Kompletne dane'!$D260="F",6,7))))))</f>
+        <v>4</v>
+      </c>
+      <c r="C259">
+        <f>'Kompletne dane'!E260</f>
+        <v>3.5</v>
+      </c>
+      <c r="D259">
+        <f>'Kompletne dane'!F260</f>
+        <v>6</v>
+      </c>
+      <c r="E259">
+        <f>'Kompletne dane'!G260</f>
+        <v>238</v>
+      </c>
+      <c r="F259">
+        <f>'Kompletne dane'!H260</f>
+        <v>4</v>
+      </c>
+      <c r="G259">
+        <f>'Kompletne dane'!I260</f>
+        <v>2</v>
+      </c>
+      <c r="H259">
+        <f>'Kompletne dane'!J260</f>
+        <v>7.4</v>
+      </c>
+      <c r="I259">
+        <f>'Kompletne dane'!K260</f>
+        <v>245</v>
+      </c>
+      <c r="J259">
+        <f>'Kompletne dane'!L260</f>
+        <v>330</v>
+      </c>
+      <c r="K259">
+        <f>'Kompletne dane'!M260</f>
+        <v>1597</v>
+      </c>
+      <c r="L259">
+        <f>'Kompletne dane'!N260</f>
+        <v>423</v>
+      </c>
+      <c r="M259">
+        <f>'Kompletne dane'!O260</f>
+        <v>66</v>
+      </c>
+      <c r="N259">
+        <f>'Kompletne dane'!P260</f>
+        <v>464</v>
+      </c>
+      <c r="O259">
+        <f>'Kompletne dane'!Q260</f>
+        <v>181</v>
+      </c>
+      <c r="P259">
+        <f>'Kompletne dane'!R260</f>
+        <v>140</v>
+      </c>
+      <c r="Q259">
+        <f>'Kompletne dane'!S260</f>
+        <v>269</v>
+      </c>
+      <c r="R259">
+        <f>'Kompletne dane'!T260</f>
         <v>6</v>
       </c>
     </row>

--- a/Samochody.xlsx
+++ b/Samochody.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NASA\PracaInz\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dziab\PracaInz\PracaInz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A62969D3-7CB3-4AFA-BB10-3CB50A9659D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2322D229-D493-4B87-9A40-0F1035F08551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3570" yWindow="3315" windowWidth="25230" windowHeight="12240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kompletne dane" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="288">
   <si>
     <t>Nazwa</t>
   </si>
@@ -438,9 +438,6 @@
     <t>BMW M550i</t>
   </si>
   <si>
-    <t>Lamborgini Aventador SVJ</t>
-  </si>
-  <si>
     <t>Lamborghini Murcielago LP670-4 SV</t>
   </si>
   <si>
@@ -687,12 +684,6 @@
     <t>Lotus Emira</t>
   </si>
   <si>
-    <t>Seat Leon Cupra</t>
-  </si>
-  <si>
-    <t>Mazda 3 MPS</t>
-  </si>
-  <si>
     <t>Pojemność [l]</t>
   </si>
   <si>
@@ -709,9 +700,6 @@
   </si>
   <si>
     <t>Ford Capri</t>
-  </si>
-  <si>
-    <t>Lamborgini Gallardo LP560-4</t>
   </si>
   <si>
     <t>Mitsubishi Lancer Evolution VIII</t>
@@ -842,11 +830,77 @@
   <si>
     <t>Renault Laguna</t>
   </si>
+  <si>
+    <t>Mazda RX-7 FC</t>
+  </si>
+  <si>
+    <t>Mercedes-Benz CLS 63 AMG</t>
+  </si>
+  <si>
+    <t>Acura RSX Type S</t>
+  </si>
+  <si>
+    <t>Audi Quattro</t>
+  </si>
+  <si>
+    <t>BMW M2 G87</t>
+  </si>
+  <si>
+    <t>Ford Mustang Black Horse</t>
+  </si>
+  <si>
+    <t>Nissan Z</t>
+  </si>
+  <si>
+    <t>BMW M3 E30</t>
+  </si>
+  <si>
+    <t>Mazda MX-5</t>
+  </si>
+  <si>
+    <t>Toyota Corolla AE86 Sprinter Trueno</t>
+  </si>
+  <si>
+    <t>Dodge Charger SRT8 Hellcat</t>
+  </si>
+  <si>
+    <t>Toyota Supra A80 F&amp;F</t>
+  </si>
+  <si>
+    <t>Mitsubishi Lancer Evolution VII F&amp;F</t>
+  </si>
+  <si>
+    <t>Chevrolet Corvette C8 Z06</t>
+  </si>
+  <si>
+    <t>Nissan Skyline GTR R34 F&amp;F</t>
+  </si>
+  <si>
+    <t>Honda NSX Type-R</t>
+  </si>
+  <si>
+    <t>Volkswagen Golf MK8 GTI</t>
+  </si>
+  <si>
+    <t>Lamborghini Huracan STO</t>
+  </si>
+  <si>
+    <t>Alfa Romeo 147 GTA</t>
+  </si>
+  <si>
+    <t>Lamborghini Gallardo LP560-4</t>
+  </si>
+  <si>
+    <t>Lamborghini Aventador SVJ</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -876,8 +930,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -1158,10 +1213,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T260"/>
+  <dimension ref="A1:T281"/>
   <sheetViews>
-    <sheetView topLeftCell="G244" workbookViewId="0">
-      <selection activeCell="L264" sqref="L264"/>
+    <sheetView tabSelected="1" topLeftCell="D244" workbookViewId="0">
+      <selection activeCell="O261" sqref="O261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1188,7 +1243,7 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1200,13 +1255,13 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H1" t="s">
         <v>3</v>
@@ -1215,37 +1270,37 @@
         <v>2</v>
       </c>
       <c r="J1" t="s">
+        <v>244</v>
+      </c>
+      <c r="K1" t="s">
+        <v>245</v>
+      </c>
+      <c r="L1" t="s">
+        <v>220</v>
+      </c>
+      <c r="M1" t="s">
+        <v>246</v>
+      </c>
+      <c r="N1" t="s">
+        <v>247</v>
+      </c>
+      <c r="O1" t="s">
+        <v>255</v>
+      </c>
+      <c r="P1" t="s">
         <v>248</v>
       </c>
-      <c r="K1" t="s">
+      <c r="Q1" t="s">
         <v>249</v>
       </c>
-      <c r="L1" t="s">
-        <v>223</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="R1" t="s">
         <v>250</v>
       </c>
-      <c r="N1" t="s">
-        <v>251</v>
-      </c>
-      <c r="O1" t="s">
-        <v>259</v>
-      </c>
-      <c r="P1" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>253</v>
-      </c>
-      <c r="R1" t="s">
-        <v>254</v>
-      </c>
       <c r="S1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="T1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -1259,7 +1314,7 @@
         <v>2016</v>
       </c>
       <c r="D2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E2">
         <v>5.7</v>
@@ -1322,7 +1377,7 @@
         <v>2011</v>
       </c>
       <c r="D3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E3">
         <v>6.2</v>
@@ -1385,7 +1440,7 @@
         <v>2019</v>
       </c>
       <c r="D4" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E4">
         <v>3.3</v>
@@ -1448,7 +1503,7 @@
         <v>2011</v>
       </c>
       <c r="D5" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E5">
         <v>4.8</v>
@@ -1511,7 +1566,7 @@
         <v>1967</v>
       </c>
       <c r="D6" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E6">
         <v>4.9000000000000004</v>
@@ -1574,7 +1629,7 @@
         <v>2013</v>
       </c>
       <c r="D7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E7">
         <v>4.3</v>
@@ -1637,7 +1692,7 @@
         <v>1970</v>
       </c>
       <c r="D8" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E8">
         <v>4.9000000000000004</v>
@@ -1700,7 +1755,7 @@
         <v>1966</v>
       </c>
       <c r="D9" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E9">
         <v>7</v>
@@ -1763,7 +1818,7 @@
         <v>1984</v>
       </c>
       <c r="D10" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E10">
         <v>2.1</v>
@@ -1826,7 +1881,7 @@
         <v>1967</v>
       </c>
       <c r="D11" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E11">
         <v>7</v>
@@ -1889,7 +1944,7 @@
         <v>2019</v>
       </c>
       <c r="D12" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E12">
         <v>4</v>
@@ -1946,13 +2001,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C13">
         <v>2007</v>
       </c>
       <c r="D13" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E13">
         <v>3.8</v>
@@ -2015,7 +2070,7 @@
         <v>1986</v>
       </c>
       <c r="D14" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E14">
         <v>2.9</v>
@@ -2078,7 +2133,7 @@
         <v>2016</v>
       </c>
       <c r="D15" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E15">
         <v>3.8</v>
@@ -2141,7 +2196,7 @@
         <v>1997</v>
       </c>
       <c r="D16" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E16">
         <v>3.6</v>
@@ -2204,7 +2259,7 @@
         <v>2006</v>
       </c>
       <c r="D17" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E17">
         <v>5.4</v>
@@ -2267,7 +2322,7 @@
         <v>2004</v>
       </c>
       <c r="D18" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E18">
         <v>4.3</v>
@@ -2330,7 +2385,7 @@
         <v>2020</v>
       </c>
       <c r="D19" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E19">
         <v>6</v>
@@ -2393,7 +2448,7 @@
         <v>1998</v>
       </c>
       <c r="D20" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E20">
         <v>2.8</v>
@@ -2456,7 +2511,7 @@
         <v>2010</v>
       </c>
       <c r="D21" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E21">
         <v>1.4</v>
@@ -2519,7 +2574,7 @@
         <v>2017</v>
       </c>
       <c r="D22" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E22">
         <v>4</v>
@@ -2576,13 +2631,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C23">
         <v>2010</v>
       </c>
       <c r="D23" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E23">
         <v>6</v>
@@ -2645,7 +2700,7 @@
         <v>2010</v>
       </c>
       <c r="D24" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E24">
         <v>4.7</v>
@@ -2708,7 +2763,7 @@
         <v>2004</v>
       </c>
       <c r="D25" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E25">
         <v>2</v>
@@ -2771,7 +2826,7 @@
         <v>2015</v>
       </c>
       <c r="D26" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E26">
         <v>4.4000000000000004</v>
@@ -2834,7 +2889,7 @@
         <v>2010</v>
       </c>
       <c r="D27" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E27">
         <v>4.2</v>
@@ -2897,7 +2952,7 @@
         <v>1965</v>
       </c>
       <c r="D28" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E28">
         <v>6.4</v>
@@ -2960,7 +3015,7 @@
         <v>2008</v>
       </c>
       <c r="D29" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E29">
         <v>3.2</v>
@@ -3023,7 +3078,7 @@
         <v>1980</v>
       </c>
       <c r="D30" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E30">
         <v>3.5</v>
@@ -3086,7 +3141,7 @@
         <v>1999</v>
       </c>
       <c r="D31" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E31">
         <v>2.8</v>
@@ -3143,13 +3198,13 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C32">
         <v>2010</v>
       </c>
       <c r="D32" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E32">
         <v>3.6</v>
@@ -3212,7 +3267,7 @@
         <v>2002</v>
       </c>
       <c r="D33" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E33">
         <v>3</v>
@@ -3275,7 +3330,7 @@
         <v>2001</v>
       </c>
       <c r="D34" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E34">
         <v>5.7</v>
@@ -3338,7 +3393,7 @@
         <v>2002</v>
       </c>
       <c r="D35" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E35">
         <v>3</v>
@@ -3401,7 +3456,7 @@
         <v>1955</v>
       </c>
       <c r="D36" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E36">
         <v>3</v>
@@ -3464,7 +3519,7 @@
         <v>1982</v>
       </c>
       <c r="D37" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E37">
         <v>5.7</v>
@@ -3527,7 +3582,7 @@
         <v>2008</v>
       </c>
       <c r="D38" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E38">
         <v>2</v>
@@ -3590,7 +3645,7 @@
         <v>1976</v>
       </c>
       <c r="D39" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E39">
         <v>3</v>
@@ -3653,7 +3708,7 @@
         <v>2014</v>
       </c>
       <c r="D40" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E40">
         <v>4.7</v>
@@ -3716,7 +3771,7 @@
         <v>1970</v>
       </c>
       <c r="D41" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E41">
         <v>5.6</v>
@@ -3779,7 +3834,7 @@
         <v>2007</v>
       </c>
       <c r="D42" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E42">
         <v>3.8</v>
@@ -3842,7 +3897,7 @@
         <v>2013</v>
       </c>
       <c r="D43" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E43">
         <v>6.2</v>
@@ -3905,7 +3960,7 @@
         <v>2014</v>
       </c>
       <c r="D44" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E44">
         <v>3.8</v>
@@ -3968,7 +4023,7 @@
         <v>2006</v>
       </c>
       <c r="D45" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E45">
         <v>2</v>
@@ -4031,7 +4086,7 @@
         <v>2009</v>
       </c>
       <c r="D46" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E46">
         <v>3.7</v>
@@ -4094,7 +4149,7 @@
         <v>2012</v>
       </c>
       <c r="D47" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E47">
         <v>1.4</v>
@@ -4157,7 +4212,7 @@
         <v>2003</v>
       </c>
       <c r="D48" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E48">
         <v>2</v>
@@ -4220,7 +4275,7 @@
         <v>2006</v>
       </c>
       <c r="D49" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E49">
         <v>4.5999999999999996</v>
@@ -4283,7 +4338,7 @@
         <v>2010</v>
       </c>
       <c r="D50" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E50">
         <v>7</v>
@@ -4346,7 +4401,7 @@
         <v>2017</v>
       </c>
       <c r="D51" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E51">
         <v>6</v>
@@ -4403,13 +4458,13 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C52">
         <v>2002</v>
       </c>
       <c r="D52" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E52">
         <v>2</v>
@@ -4472,7 +4527,7 @@
         <v>1991</v>
       </c>
       <c r="D53" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E53">
         <v>2.9</v>
@@ -4535,7 +4590,7 @@
         <v>2016</v>
       </c>
       <c r="D54" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E54">
         <v>3.8</v>
@@ -4598,7 +4653,7 @@
         <v>2003</v>
       </c>
       <c r="D55" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E55">
         <v>3.6</v>
@@ -4661,7 +4716,7 @@
         <v>2002</v>
       </c>
       <c r="D56" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E56">
         <v>2</v>
@@ -4724,7 +4779,7 @@
         <v>2008</v>
       </c>
       <c r="D57" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E57">
         <v>3.2</v>
@@ -4787,7 +4842,7 @@
         <v>2023</v>
       </c>
       <c r="D58" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E58">
         <v>4</v>
@@ -4850,7 +4905,7 @@
         <v>2012</v>
       </c>
       <c r="D59" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E59">
         <v>5.2</v>
@@ -4913,7 +4968,7 @@
         <v>2018</v>
       </c>
       <c r="D60" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E60">
         <v>1.6</v>
@@ -4976,7 +5031,7 @@
         <v>2008</v>
       </c>
       <c r="D61" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E61">
         <v>2.5</v>
@@ -5039,7 +5094,7 @@
         <v>2003</v>
       </c>
       <c r="D62" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E62">
         <v>2</v>
@@ -5102,7 +5157,7 @@
         <v>2002</v>
       </c>
       <c r="D63" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E63">
         <v>2.2999999999999998</v>
@@ -5165,7 +5220,7 @@
         <v>2004</v>
       </c>
       <c r="D64" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E64">
         <v>1.8</v>
@@ -5228,7 +5283,7 @@
         <v>1969</v>
       </c>
       <c r="D65" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E65">
         <v>6.6</v>
@@ -5291,7 +5346,7 @@
         <v>1999</v>
       </c>
       <c r="D66" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E66">
         <v>4.5999999999999996</v>
@@ -5354,7 +5409,7 @@
         <v>1982</v>
       </c>
       <c r="D67" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E67">
         <v>1.6</v>
@@ -5417,7 +5472,7 @@
         <v>2006</v>
       </c>
       <c r="D68" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E68">
         <v>1.8</v>
@@ -5480,7 +5535,7 @@
         <v>2007</v>
       </c>
       <c r="D69" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E69">
         <v>3.5</v>
@@ -5543,7 +5598,7 @@
         <v>1999</v>
       </c>
       <c r="D70" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E70">
         <v>4.2</v>
@@ -5606,7 +5661,7 @@
         <v>1999</v>
       </c>
       <c r="D71" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E71">
         <v>5.7</v>
@@ -5669,7 +5724,7 @@
         <v>1965</v>
       </c>
       <c r="D72" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="E72">
         <v>7</v>
@@ -5732,7 +5787,7 @@
         <v>2005</v>
       </c>
       <c r="D73" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E73">
         <v>4.4000000000000004</v>
@@ -5795,7 +5850,7 @@
         <v>2018</v>
       </c>
       <c r="D74" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E74">
         <v>2</v>
@@ -5858,7 +5913,7 @@
         <v>2008</v>
       </c>
       <c r="D75" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E75">
         <v>4.7</v>
@@ -5921,7 +5976,7 @@
         <v>2017</v>
       </c>
       <c r="D76" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E76">
         <v>6.2</v>
@@ -5984,7 +6039,7 @@
         <v>2018</v>
       </c>
       <c r="D77" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E77">
         <v>1.5</v>
@@ -6047,7 +6102,7 @@
         <v>2011</v>
       </c>
       <c r="D78" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E78">
         <v>3.2</v>
@@ -6110,7 +6165,7 @@
         <v>2015</v>
       </c>
       <c r="D79" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E79">
         <v>5</v>
@@ -6173,7 +6228,7 @@
         <v>2011</v>
       </c>
       <c r="D80" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E80">
         <v>2.5</v>
@@ -6236,7 +6291,7 @@
         <v>2017</v>
       </c>
       <c r="D81" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E81">
         <v>5</v>
@@ -6299,7 +6354,7 @@
         <v>2005</v>
       </c>
       <c r="D82" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E82">
         <v>6.2</v>
@@ -6362,7 +6417,7 @@
         <v>2014</v>
       </c>
       <c r="D83" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E83">
         <v>4.4000000000000004</v>
@@ -6425,7 +6480,7 @@
         <v>2020</v>
       </c>
       <c r="D84" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E84">
         <v>4</v>
@@ -6488,7 +6543,7 @@
         <v>2014</v>
       </c>
       <c r="D85" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E85">
         <v>6.5</v>
@@ -6551,7 +6606,7 @@
         <v>2008</v>
       </c>
       <c r="D86" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E86">
         <v>3.4</v>
@@ -6614,7 +6669,7 @@
         <v>2017</v>
       </c>
       <c r="D87" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E87">
         <v>8</v>
@@ -6677,7 +6732,7 @@
         <v>2014</v>
       </c>
       <c r="D88" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E88">
         <v>4.7</v>
@@ -6740,7 +6795,7 @@
         <v>2003</v>
       </c>
       <c r="D89" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E89">
         <v>1.8</v>
@@ -6803,7 +6858,7 @@
         <v>2023</v>
       </c>
       <c r="D90" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E90">
         <v>4</v>
@@ -6866,7 +6921,7 @@
         <v>2017</v>
       </c>
       <c r="D91" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E91">
         <v>4.4000000000000004</v>
@@ -6929,7 +6984,7 @@
         <v>2012</v>
       </c>
       <c r="D92" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E92">
         <v>6</v>
@@ -6992,7 +7047,7 @@
         <v>2015</v>
       </c>
       <c r="D93" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E93">
         <v>1.8</v>
@@ -7055,7 +7110,7 @@
         <v>2005</v>
       </c>
       <c r="D94" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E94">
         <v>3</v>
@@ -7118,7 +7173,7 @@
         <v>1964</v>
       </c>
       <c r="D95" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E95">
         <v>4.7</v>
@@ -7181,7 +7236,7 @@
         <v>2009</v>
       </c>
       <c r="D96" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E96">
         <v>8.4</v>
@@ -7244,7 +7299,7 @@
         <v>2018</v>
       </c>
       <c r="D97" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E97">
         <v>4.4000000000000004</v>
@@ -7307,7 +7362,7 @@
         <v>2007</v>
       </c>
       <c r="D98" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E98">
         <v>3.4</v>
@@ -7370,7 +7425,7 @@
         <v>2009</v>
       </c>
       <c r="D99" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E99">
         <v>2</v>
@@ -7433,7 +7488,7 @@
         <v>1988</v>
       </c>
       <c r="D100" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E100">
         <v>2.8</v>
@@ -7496,7 +7551,7 @@
         <v>1967</v>
       </c>
       <c r="D101" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E101">
         <v>5.3</v>
@@ -7559,7 +7614,7 @@
         <v>1957</v>
       </c>
       <c r="D102" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E102">
         <v>4.5999999999999996</v>
@@ -7622,7 +7677,7 @@
         <v>1963</v>
       </c>
       <c r="D103" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E103">
         <v>3</v>
@@ -7685,7 +7740,7 @@
         <v>1991</v>
       </c>
       <c r="D104" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E104">
         <v>3.4</v>
@@ -7748,7 +7803,7 @@
         <v>2019</v>
       </c>
       <c r="D105" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E105">
         <v>4</v>
@@ -7811,7 +7866,7 @@
         <v>2007</v>
       </c>
       <c r="D106" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E106">
         <v>2.5</v>
@@ -7868,13 +7923,13 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C107">
         <v>1969</v>
       </c>
       <c r="D107" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E107">
         <v>2.2999999999999998</v>
@@ -7937,7 +7992,7 @@
         <v>1993</v>
       </c>
       <c r="D108" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E108">
         <v>3.5</v>
@@ -8000,7 +8055,7 @@
         <v>1963</v>
       </c>
       <c r="D109" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E109">
         <v>2.2999999999999998</v>
@@ -8063,7 +8118,7 @@
         <v>1994</v>
       </c>
       <c r="D110" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E110">
         <v>1.6</v>
@@ -8126,7 +8181,7 @@
         <v>1983</v>
       </c>
       <c r="D111" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E111">
         <v>4.8</v>
@@ -8189,7 +8244,7 @@
         <v>2017</v>
       </c>
       <c r="D112" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E112">
         <v>4</v>
@@ -8252,7 +8307,7 @@
         <v>1996</v>
       </c>
       <c r="D113" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E113">
         <v>4.7</v>
@@ -8315,7 +8370,7 @@
         <v>2013</v>
       </c>
       <c r="D114" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E114">
         <v>3.4</v>
@@ -8378,7 +8433,7 @@
         <v>2012</v>
       </c>
       <c r="D115" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E115">
         <v>5.2</v>
@@ -8441,7 +8496,7 @@
         <v>2003</v>
       </c>
       <c r="D116" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E116">
         <v>2</v>
@@ -8504,7 +8559,7 @@
         <v>2023</v>
       </c>
       <c r="D117" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E117">
         <v>4</v>
@@ -8567,7 +8622,7 @@
         <v>2019</v>
       </c>
       <c r="D118" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E118">
         <v>4</v>
@@ -8630,7 +8685,7 @@
         <v>2018</v>
       </c>
       <c r="D119" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E119">
         <v>3.9</v>
@@ -8693,7 +8748,7 @@
         <v>2017</v>
       </c>
       <c r="D120" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E120">
         <v>3.8</v>
@@ -8756,7 +8811,7 @@
         <v>2023</v>
       </c>
       <c r="D121" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E121">
         <v>5.2</v>
@@ -8819,7 +8874,7 @@
         <v>2013</v>
       </c>
       <c r="D122" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E122">
         <v>3</v>
@@ -8882,7 +8937,7 @@
         <v>2002</v>
       </c>
       <c r="D123" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E123">
         <v>1.8</v>
@@ -8945,7 +9000,7 @@
         <v>2013</v>
       </c>
       <c r="D124" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E124">
         <v>2</v>
@@ -9008,7 +9063,7 @@
         <v>2019</v>
       </c>
       <c r="D125" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E125">
         <v>3</v>
@@ -9071,7 +9126,7 @@
         <v>1993</v>
       </c>
       <c r="D126" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E126">
         <v>4.9000000000000004</v>
@@ -9134,7 +9189,7 @@
         <v>2012</v>
       </c>
       <c r="D127" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E127">
         <v>4</v>
@@ -9197,7 +9252,7 @@
         <v>2018</v>
       </c>
       <c r="D128" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E128">
         <v>1.7</v>
@@ -9254,13 +9309,13 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>227</v>
+        <v>286</v>
       </c>
       <c r="C129">
         <v>2010</v>
       </c>
       <c r="D129" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E129">
         <v>5.2</v>
@@ -9317,13 +9372,13 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C130">
         <v>2004</v>
       </c>
       <c r="D130" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E130">
         <v>2</v>
@@ -9386,7 +9441,7 @@
         <v>2022</v>
       </c>
       <c r="D131" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E131">
         <v>4</v>
@@ -9449,7 +9504,7 @@
         <v>2010</v>
       </c>
       <c r="D132" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E132">
         <v>4.2</v>
@@ -9512,7 +9567,7 @@
         <v>2010</v>
       </c>
       <c r="D133" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E133">
         <v>5</v>
@@ -9575,7 +9630,7 @@
         <v>2010</v>
       </c>
       <c r="D134" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E134">
         <v>4.2</v>
@@ -9638,7 +9693,7 @@
         <v>1996</v>
       </c>
       <c r="D135" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E135">
         <v>5.5</v>
@@ -9701,7 +9756,7 @@
         <v>2016</v>
       </c>
       <c r="D136" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E136">
         <v>2</v>
@@ -9764,7 +9819,7 @@
         <v>2016</v>
       </c>
       <c r="D137" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E137">
         <v>5.5</v>
@@ -9821,13 +9876,13 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C138">
         <v>2004</v>
       </c>
       <c r="D138" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="E138">
         <v>4.5999999999999996</v>
@@ -9890,7 +9945,7 @@
         <v>2006</v>
       </c>
       <c r="D139" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E139">
         <v>2</v>
@@ -9953,7 +10008,7 @@
         <v>2005</v>
       </c>
       <c r="D140" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E140">
         <v>4.9000000000000004</v>
@@ -10016,7 +10071,7 @@
         <v>2004</v>
       </c>
       <c r="D141" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E141">
         <v>4.2</v>
@@ -10079,7 +10134,7 @@
         <v>2004</v>
       </c>
       <c r="D142" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E142">
         <v>3</v>
@@ -10142,7 +10197,7 @@
         <v>1967</v>
       </c>
       <c r="D143" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E143">
         <v>1.3</v>
@@ -10205,7 +10260,7 @@
         <v>1965</v>
       </c>
       <c r="D144" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E144">
         <v>1.6</v>
@@ -10268,7 +10323,7 @@
         <v>1982</v>
       </c>
       <c r="D145" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E145">
         <v>2</v>
@@ -10331,7 +10386,7 @@
         <v>2020</v>
       </c>
       <c r="D146" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E146">
         <v>2</v>
@@ -10394,7 +10449,7 @@
         <v>2005</v>
       </c>
       <c r="D147" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E147">
         <v>5</v>
@@ -10457,7 +10512,7 @@
         <v>2022</v>
       </c>
       <c r="D148" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E148">
         <v>3</v>
@@ -10520,7 +10575,7 @@
         <v>2017</v>
       </c>
       <c r="D149" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E149">
         <v>4.4000000000000004</v>
@@ -10577,13 +10632,13 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>136</v>
+        <v>287</v>
       </c>
       <c r="C150">
         <v>2021</v>
       </c>
       <c r="D150" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E150">
         <v>6.5</v>
@@ -10640,13 +10695,13 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C151">
         <v>2010</v>
       </c>
       <c r="D151" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E151">
         <v>6.5</v>
@@ -10703,13 +10758,13 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C152">
         <v>2014</v>
       </c>
       <c r="D152" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E152">
         <v>6.2</v>
@@ -10766,13 +10821,13 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C153">
         <v>2020</v>
       </c>
       <c r="D153" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E153">
         <v>4</v>
@@ -10829,13 +10884,13 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C154">
         <v>2008</v>
       </c>
       <c r="D154" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E154">
         <v>5.4</v>
@@ -10892,13 +10947,13 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C155">
         <v>1999</v>
       </c>
       <c r="D155" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E155">
         <v>6</v>
@@ -10955,13 +11010,13 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C156">
         <v>2009</v>
       </c>
       <c r="D156" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E156">
         <v>6.5</v>
@@ -11018,13 +11073,13 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C157">
         <v>2007</v>
       </c>
       <c r="D157" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E157">
         <v>1.3</v>
@@ -11081,13 +11136,13 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C158">
         <v>2020</v>
       </c>
       <c r="D158" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E158">
         <v>2</v>
@@ -11144,13 +11199,13 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C159">
         <v>2023</v>
       </c>
       <c r="D159" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E159">
         <v>3</v>
@@ -11207,13 +11262,13 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C160">
         <v>2016</v>
       </c>
       <c r="D160" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E160">
         <v>4</v>
@@ -11270,13 +11325,13 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C161">
         <v>1966</v>
       </c>
       <c r="D161" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E161">
         <v>7</v>
@@ -11333,13 +11388,13 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C162">
         <v>2000</v>
       </c>
       <c r="D162" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E162">
         <v>8</v>
@@ -11396,13 +11451,13 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C163">
         <v>1969</v>
       </c>
       <c r="D163" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E163">
         <v>7</v>
@@ -11459,13 +11514,13 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C164">
         <v>2018</v>
       </c>
       <c r="D164" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E164">
         <v>5.2</v>
@@ -11522,13 +11577,13 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C165">
         <v>1963</v>
       </c>
       <c r="D165" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E165">
         <v>4</v>
@@ -11585,13 +11640,13 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C166">
         <v>1970</v>
       </c>
       <c r="D166" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E166">
         <v>7.4</v>
@@ -11654,7 +11709,7 @@
         <v>2015</v>
       </c>
       <c r="D167" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E167">
         <v>2.5</v>
@@ -11711,13 +11766,13 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C168">
         <v>2017</v>
       </c>
       <c r="D168" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E168">
         <v>4</v>
@@ -11774,13 +11829,13 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C169">
         <v>2012</v>
       </c>
       <c r="D169" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E169">
         <v>3.5</v>
@@ -11837,13 +11892,13 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C170">
         <v>1963</v>
       </c>
       <c r="D170" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E170">
         <v>5.4</v>
@@ -11900,13 +11955,13 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C171">
         <v>2010</v>
       </c>
       <c r="D171" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E171">
         <v>3.8</v>
@@ -11963,13 +12018,13 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C172">
         <v>2007</v>
       </c>
       <c r="D172" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E172">
         <v>4.2</v>
@@ -12026,13 +12081,13 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C173">
         <v>2023</v>
       </c>
       <c r="D173" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E173">
         <v>0</v>
@@ -12089,13 +12144,13 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C174">
         <v>2018</v>
       </c>
       <c r="D174" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E174">
         <v>4</v>
@@ -12152,13 +12207,13 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C175">
         <v>1997</v>
       </c>
       <c r="D175" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E175">
         <v>6</v>
@@ -12215,13 +12270,13 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C176">
         <v>2007</v>
       </c>
       <c r="D176" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E176">
         <v>3</v>
@@ -12278,13 +12333,13 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C177">
         <v>1972</v>
       </c>
       <c r="D177" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E177">
         <v>7.5</v>
@@ -12341,13 +12396,13 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C178">
         <v>2014</v>
       </c>
       <c r="D178" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="E178">
         <v>3.7</v>
@@ -12404,13 +12459,13 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C179">
         <v>2022</v>
       </c>
       <c r="D179" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E179">
         <v>0</v>
@@ -12467,13 +12522,13 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C180">
         <v>2018</v>
       </c>
       <c r="D180" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E180">
         <v>3</v>
@@ -12530,13 +12585,13 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C181">
         <v>1973</v>
       </c>
       <c r="D181" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E181">
         <v>2.4</v>
@@ -12593,13 +12648,13 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C182">
         <v>2001</v>
       </c>
       <c r="D182" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E182">
         <v>2.7</v>
@@ -12656,13 +12711,13 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C183">
         <v>1977</v>
       </c>
       <c r="D183" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E183">
         <v>2</v>
@@ -12719,13 +12774,13 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C184">
         <v>2005</v>
       </c>
       <c r="D184" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="E184">
         <v>5</v>
@@ -12782,13 +12837,13 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C185">
         <v>2018</v>
       </c>
       <c r="D185" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E185">
         <v>2</v>
@@ -12845,13 +12900,13 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C186">
         <v>2013</v>
       </c>
       <c r="D186" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E186">
         <v>2</v>
@@ -12908,13 +12963,13 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C187">
         <v>1967</v>
       </c>
       <c r="D187" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="E187">
         <v>7</v>
@@ -12971,13 +13026,13 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C188">
         <v>2022</v>
       </c>
       <c r="D188" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E188">
         <v>6.5</v>
@@ -13034,13 +13089,13 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C189">
         <v>2009</v>
       </c>
       <c r="D189" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E189">
         <v>6.5</v>
@@ -13097,13 +13152,13 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C190">
         <v>2019</v>
       </c>
       <c r="D190" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E190">
         <v>5</v>
@@ -13160,13 +13215,13 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C191">
         <v>2021</v>
       </c>
       <c r="D191" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E191">
         <v>6.2</v>
@@ -13229,7 +13284,7 @@
         <v>2017</v>
       </c>
       <c r="D192" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E192">
         <v>3.5</v>
@@ -13286,13 +13341,13 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C193">
         <v>2022</v>
       </c>
       <c r="D193" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E193">
         <v>4.4000000000000004</v>
@@ -13349,13 +13404,13 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C194">
         <v>1995</v>
       </c>
       <c r="D194" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E194">
         <v>6</v>
@@ -13412,13 +13467,13 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C195">
         <v>2016</v>
       </c>
       <c r="D195" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E195">
         <v>7</v>
@@ -13471,17 +13526,17 @@
     </row>
     <row r="196" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A196">
-        <f t="shared" ref="A196:A238" si="3">A195+1</f>
+        <f t="shared" ref="A196:A259" si="3">A195+1</f>
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C196">
         <v>2020</v>
       </c>
       <c r="D196" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E196">
         <v>3.5</v>
@@ -13544,7 +13599,7 @@
         <v>1978</v>
       </c>
       <c r="D197" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E197">
         <v>5.7</v>
@@ -13601,13 +13656,13 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C198">
         <v>2019</v>
       </c>
       <c r="D198" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E198">
         <v>3.8</v>
@@ -13664,13 +13719,13 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C199">
         <v>2014</v>
       </c>
       <c r="D199" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E199">
         <v>4.5</v>
@@ -13727,13 +13782,13 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C200">
         <v>2012</v>
       </c>
       <c r="D200" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E200">
         <v>5.2</v>
@@ -13790,13 +13845,13 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C201">
         <v>2021</v>
       </c>
       <c r="D201" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E201">
         <v>6.5</v>
@@ -13853,13 +13908,13 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C202">
         <v>2019</v>
       </c>
       <c r="D202" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E202">
         <v>8</v>
@@ -13916,13 +13971,13 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C203">
         <v>2000</v>
       </c>
       <c r="D203" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E203">
         <v>2.6</v>
@@ -13979,13 +14034,13 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C204">
         <v>2013</v>
       </c>
       <c r="D204" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E204">
         <v>4.5999999999999996</v>
@@ -14042,13 +14097,13 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C205">
         <v>2018</v>
       </c>
       <c r="D205" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E205">
         <v>3.8</v>
@@ -14105,13 +14160,13 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C206">
         <v>2017</v>
       </c>
       <c r="D206" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E206">
         <v>6.2</v>
@@ -14168,13 +14223,13 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C207">
         <v>2009</v>
       </c>
       <c r="D207" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E207">
         <v>3.8</v>
@@ -14231,13 +14286,13 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C208">
         <v>2020</v>
       </c>
       <c r="D208" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E208">
         <v>3</v>
@@ -14294,13 +14349,13 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C209">
         <v>2009</v>
       </c>
       <c r="D209" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E209">
         <v>4</v>
@@ -14357,13 +14412,13 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C210">
         <v>2020</v>
       </c>
       <c r="D210" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E210">
         <v>5.2</v>
@@ -14420,13 +14475,13 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C211">
         <v>2007</v>
       </c>
       <c r="D211" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E211">
         <v>7</v>
@@ -14483,13 +14538,13 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C212">
         <v>2001</v>
       </c>
       <c r="D212" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E212">
         <v>1.3</v>
@@ -14546,13 +14601,13 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C213">
         <v>2020</v>
       </c>
       <c r="D213" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E213">
         <v>5.2</v>
@@ -14609,13 +14664,13 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C214">
         <v>2016</v>
       </c>
       <c r="D214" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E214">
         <v>4</v>
@@ -14672,13 +14727,13 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C215">
         <v>2007</v>
       </c>
       <c r="D215" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E215">
         <v>5.4</v>
@@ -14735,13 +14790,13 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C216">
         <v>2010</v>
       </c>
       <c r="D216" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E216">
         <v>3.8</v>
@@ -14798,13 +14853,13 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C217">
         <v>2013</v>
       </c>
       <c r="D217" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E217">
         <v>8.4</v>
@@ -14861,13 +14916,13 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C218">
         <v>2015</v>
       </c>
       <c r="D218" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E218">
         <v>6.5</v>
@@ -14924,13 +14979,13 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C219">
         <v>2003</v>
       </c>
       <c r="D219" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E219">
         <v>3.5</v>
@@ -14987,13 +15042,13 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C220">
         <v>2017</v>
       </c>
       <c r="D220" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E220">
         <v>5.2</v>
@@ -15050,13 +15105,13 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C221">
         <v>2011</v>
       </c>
       <c r="D221" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E221">
         <v>3.6</v>
@@ -15113,13 +15168,13 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C222">
         <v>2018</v>
       </c>
       <c r="D222" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E222">
         <v>6.2</v>
@@ -15176,13 +15231,13 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C223">
         <v>2014</v>
       </c>
       <c r="D223" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E223">
         <v>3.8</v>
@@ -15239,13 +15294,13 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C224">
         <v>2007</v>
       </c>
       <c r="D224" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E224">
         <v>2.5</v>
@@ -15302,13 +15357,13 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C225">
         <v>2005</v>
       </c>
       <c r="D225" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E225">
         <v>5.7</v>
@@ -15365,13 +15420,13 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C226">
         <v>2016</v>
       </c>
       <c r="D226" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E226">
         <v>3</v>
@@ -15428,13 +15483,13 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C227">
         <v>2014</v>
       </c>
       <c r="D227" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E227">
         <v>3.8</v>
@@ -15491,13 +15546,13 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C228">
         <v>2021</v>
       </c>
       <c r="D228" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E228">
         <v>3</v>
@@ -15554,13 +15609,13 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C229">
         <v>2023</v>
       </c>
       <c r="D229" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E229">
         <v>2.4</v>
@@ -15617,13 +15672,13 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C230">
         <v>1971</v>
       </c>
       <c r="D230" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E230">
         <v>3.9</v>
@@ -15680,13 +15735,13 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C231">
         <v>2015</v>
       </c>
       <c r="D231" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E231">
         <v>6.2</v>
@@ -15743,13 +15798,13 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C232">
         <v>2012</v>
       </c>
       <c r="D232" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E232">
         <v>5.2</v>
@@ -15806,13 +15861,13 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C233">
         <v>2012</v>
       </c>
       <c r="D233" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E233">
         <v>6</v>
@@ -15869,13 +15924,13 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C234">
         <v>2016</v>
       </c>
       <c r="D234" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E234">
         <v>6</v>
@@ -15932,13 +15987,13 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C235">
         <v>2015</v>
       </c>
       <c r="D235" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E235">
         <v>6.5</v>
@@ -16001,7 +16056,7 @@
         <v>2022</v>
       </c>
       <c r="D236" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E236">
         <v>3</v>
@@ -16058,13 +16113,13 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C237">
         <v>2018</v>
       </c>
       <c r="D237" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E237">
         <v>3</v>
@@ -16121,13 +16176,13 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C238">
         <v>2020</v>
       </c>
       <c r="D238" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E238">
         <v>8</v>
@@ -16180,17 +16235,17 @@
     </row>
     <row r="239" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A239">
-        <f>A238+1</f>
+        <f t="shared" si="3"/>
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C239">
         <v>2023</v>
       </c>
       <c r="D239" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E239">
         <v>3.5</v>
@@ -16243,17 +16298,17 @@
     </row>
     <row r="240" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A240">
-        <f t="shared" ref="A240:A254" si="4">A239+1</f>
+        <f t="shared" si="3"/>
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C240">
         <v>2020</v>
       </c>
       <c r="D240" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E240">
         <v>3.5</v>
@@ -16306,17 +16361,17 @@
     </row>
     <row r="241" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A241">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C241">
         <v>1995</v>
       </c>
       <c r="D241" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E241">
         <v>2</v>
@@ -16369,17 +16424,17 @@
     </row>
     <row r="242" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A242">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C242">
         <v>1982</v>
       </c>
       <c r="D242" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E242">
         <v>2.9</v>
@@ -16432,17 +16487,17 @@
     </row>
     <row r="243" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A243">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C243">
         <v>1971</v>
       </c>
       <c r="D243" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E243">
         <v>7.2</v>
@@ -16495,17 +16550,17 @@
     </row>
     <row r="244" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A244">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C244">
         <v>2016</v>
       </c>
       <c r="D244" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E244">
         <v>3.7</v>
@@ -16558,17 +16613,17 @@
     </row>
     <row r="245" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A245">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C245">
         <v>1993</v>
       </c>
       <c r="D245" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E245">
         <v>3.6</v>
@@ -16621,17 +16676,17 @@
     </row>
     <row r="246" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A246">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C246">
         <v>1987</v>
       </c>
       <c r="D246" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E246">
         <v>3.8</v>
@@ -16684,17 +16739,17 @@
     </row>
     <row r="247" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A247">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C247">
         <v>1995</v>
       </c>
       <c r="D247" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E247">
         <v>3</v>
@@ -16747,17 +16802,17 @@
     </row>
     <row r="248" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A248">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C248">
         <v>1972</v>
       </c>
       <c r="D248" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E248">
         <v>5</v>
@@ -16810,17 +16865,17 @@
     </row>
     <row r="249" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A249">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C249">
         <v>1970</v>
       </c>
       <c r="D249" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E249">
         <v>1.9</v>
@@ -16873,17 +16928,17 @@
     </row>
     <row r="250" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C250">
         <v>2017</v>
       </c>
       <c r="D250" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E250">
         <v>3.5</v>
@@ -16936,17 +16991,17 @@
     </row>
     <row r="251" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A251">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C251">
         <v>2014</v>
       </c>
       <c r="D251" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E251">
         <v>3</v>
@@ -16999,17 +17054,17 @@
     </row>
     <row r="252" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A252">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C252">
         <v>1973</v>
       </c>
       <c r="D252" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E252">
         <v>2.7</v>
@@ -17062,311 +17117,314 @@
     </row>
     <row r="253" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A253">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>219</v>
+        <v>261</v>
       </c>
       <c r="C253">
-        <v>2008</v>
+        <v>2000</v>
       </c>
       <c r="D253" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="E253">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F253">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G253">
-        <v>240</v>
+        <v>306</v>
       </c>
       <c r="H253">
+        <v>2</v>
+      </c>
+      <c r="I253">
+        <v>2</v>
+      </c>
+      <c r="J253">
+        <v>6.5</v>
+      </c>
+      <c r="K253">
+        <v>250</v>
+      </c>
+      <c r="L253">
+        <v>460</v>
+      </c>
+      <c r="M253">
+        <v>1815</v>
+      </c>
+      <c r="N253">
+        <v>265</v>
+      </c>
+      <c r="O253">
+        <v>80</v>
+      </c>
+      <c r="P253">
+        <v>450</v>
+      </c>
+      <c r="Q253">
+        <v>181</v>
+      </c>
+      <c r="R253">
+        <v>130</v>
+      </c>
+      <c r="S253">
+        <v>252</v>
+      </c>
+      <c r="T253">
         <v>5</v>
-      </c>
-      <c r="I253">
-        <v>5</v>
-      </c>
-      <c r="J253">
-        <v>6.4</v>
-      </c>
-      <c r="K253">
-        <v>247</v>
-      </c>
-      <c r="L253">
-        <v>300</v>
-      </c>
-      <c r="M253">
-        <v>1375</v>
-      </c>
-      <c r="N253">
-        <v>341</v>
-      </c>
-      <c r="O253">
-        <v>55</v>
-      </c>
-      <c r="P253">
-        <v>432</v>
-      </c>
-      <c r="Q253">
-        <v>177</v>
-      </c>
-      <c r="R253">
-        <v>146</v>
-      </c>
-      <c r="S253">
-        <v>258</v>
-      </c>
-      <c r="T253">
-        <v>6</v>
       </c>
     </row>
     <row r="254" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A254">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>220</v>
+        <v>262</v>
       </c>
       <c r="C254">
-        <v>2006</v>
+        <v>1998</v>
       </c>
       <c r="D254" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="E254">
-        <v>2.2999999999999998</v>
+        <v>3.2</v>
       </c>
       <c r="F254">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G254">
-        <v>260</v>
+        <v>360</v>
       </c>
       <c r="H254">
+        <v>4</v>
+      </c>
+      <c r="I254">
+        <v>2</v>
+      </c>
+      <c r="J254">
+        <v>6</v>
+      </c>
+      <c r="K254">
+        <v>265</v>
+      </c>
+      <c r="L254">
+        <v>499</v>
+      </c>
+      <c r="M254">
+        <v>1725</v>
+      </c>
+      <c r="N254">
+        <v>178</v>
+      </c>
+      <c r="O254">
+        <v>89</v>
+      </c>
+      <c r="P254">
+        <v>463</v>
+      </c>
+      <c r="Q254">
+        <v>182</v>
+      </c>
+      <c r="R254">
+        <v>127</v>
+      </c>
+      <c r="S254">
+        <v>259</v>
+      </c>
+      <c r="T254">
         <v>5</v>
-      </c>
-      <c r="I254">
-        <v>5</v>
-      </c>
-      <c r="J254">
-        <v>6.1</v>
-      </c>
-      <c r="K254">
-        <v>250</v>
-      </c>
-      <c r="L254">
-        <v>380</v>
-      </c>
-      <c r="M254">
-        <v>1410</v>
-      </c>
-      <c r="N254">
-        <v>290</v>
-      </c>
-      <c r="O254">
-        <v>55</v>
-      </c>
-      <c r="P254">
-        <v>444</v>
-      </c>
-      <c r="Q254">
-        <v>177</v>
-      </c>
-      <c r="R254">
-        <v>147</v>
-      </c>
-      <c r="S254">
-        <v>264</v>
-      </c>
-      <c r="T254">
-        <v>6</v>
       </c>
     </row>
     <row r="255" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A255">
+        <f t="shared" si="3"/>
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C255">
-        <v>2000</v>
+        <v>2012</v>
       </c>
       <c r="D255" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="E255">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="F255">
         <v>8</v>
       </c>
       <c r="G255">
-        <v>306</v>
+        <v>400</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I255">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J255">
-        <v>6.5</v>
+        <v>5.6</v>
       </c>
       <c r="K255">
-        <v>250</v>
+        <v>285</v>
       </c>
       <c r="L255">
-        <v>460</v>
+        <v>500</v>
       </c>
       <c r="M255">
-        <v>1815</v>
+        <v>1770</v>
       </c>
       <c r="N255">
-        <v>265</v>
+        <v>445</v>
       </c>
       <c r="O255">
         <v>80</v>
       </c>
       <c r="P255">
-        <v>450</v>
+        <v>497</v>
       </c>
       <c r="Q255">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="R255">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="S255">
-        <v>252</v>
+        <v>292</v>
       </c>
       <c r="T255">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="256" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A256">
+        <f t="shared" si="3"/>
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C256">
-        <v>1998</v>
+        <v>2011</v>
       </c>
       <c r="D256" t="s">
         <v>233</v>
       </c>
       <c r="E256">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="F256">
         <v>6</v>
       </c>
       <c r="G256">
-        <v>360</v>
+        <v>272</v>
       </c>
       <c r="H256">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I256">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J256">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="K256">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="L256">
-        <v>499</v>
+        <v>320</v>
       </c>
       <c r="M256">
-        <v>1725</v>
+        <v>1475</v>
       </c>
       <c r="N256">
-        <v>178</v>
+        <v>460</v>
       </c>
       <c r="O256">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="P256">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="Q256">
         <v>182</v>
       </c>
       <c r="R256">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="S256">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="T256">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="257" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A257">
+        <f t="shared" si="3"/>
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C257">
-        <v>2012</v>
+        <v>1995</v>
       </c>
       <c r="D257" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E257">
-        <v>4.8</v>
+        <v>5.6</v>
       </c>
       <c r="F257">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G257">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="H257">
         <v>4</v>
       </c>
       <c r="I257">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J257">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="K257">
-        <v>285</v>
+        <v>250</v>
       </c>
       <c r="L257">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="M257">
-        <v>1770</v>
+        <v>1900</v>
       </c>
       <c r="N257">
-        <v>445</v>
+        <v>320</v>
       </c>
       <c r="O257">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="P257">
-        <v>497</v>
+        <v>478</v>
       </c>
       <c r="Q257">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="R257">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="S257">
-        <v>292</v>
+        <v>268</v>
       </c>
       <c r="T257">
         <v>6</v>
@@ -17374,61 +17432,62 @@
     </row>
     <row r="258" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A258">
+        <f t="shared" si="3"/>
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C258">
         <v>2011</v>
       </c>
       <c r="D258" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E258">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="F258">
         <v>6</v>
       </c>
       <c r="G258">
-        <v>272</v>
+        <v>238</v>
       </c>
       <c r="H258">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I258">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J258">
-        <v>6.1</v>
+        <v>7.4</v>
       </c>
       <c r="K258">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="L258">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="M258">
-        <v>1475</v>
+        <v>1597</v>
       </c>
       <c r="N258">
-        <v>460</v>
+        <v>423</v>
       </c>
       <c r="O258">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P258">
-        <v>453</v>
+        <v>464</v>
       </c>
       <c r="Q258">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="R258">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="S258">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="T258">
         <v>6</v>
@@ -17436,125 +17495,1450 @@
     </row>
     <row r="259" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A259">
+        <f t="shared" si="3"/>
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>269</v>
+        <v>104</v>
       </c>
       <c r="C259">
-        <v>1995</v>
+        <v>2023</v>
       </c>
       <c r="D259" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E259">
-        <v>5.6</v>
+        <v>4</v>
       </c>
       <c r="F259">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G259">
-        <v>380</v>
+        <v>600</v>
       </c>
       <c r="H259">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I259">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J259">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="K259">
         <v>250</v>
       </c>
       <c r="L259">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="M259">
-        <v>1900</v>
+        <v>2075</v>
       </c>
       <c r="N259">
-        <v>320</v>
+        <v>565</v>
       </c>
       <c r="O259">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="P259">
-        <v>478</v>
+        <v>494</v>
       </c>
       <c r="Q259">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="R259">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="S259">
-        <v>268</v>
+        <v>292</v>
       </c>
       <c r="T259">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="260" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A260">
+        <f t="shared" ref="A260:A281" si="4">A259+1</f>
         <v>259</v>
       </c>
       <c r="B260" t="s">
+        <v>267</v>
+      </c>
+      <c r="C260">
+        <v>1990</v>
+      </c>
+      <c r="D260" t="s">
+        <v>229</v>
+      </c>
+      <c r="E260">
+        <v>1.3</v>
+      </c>
+      <c r="F260">
+        <v>2</v>
+      </c>
+      <c r="G260">
+        <v>181</v>
+      </c>
+      <c r="H260">
+        <v>4</v>
+      </c>
+      <c r="I260">
+        <v>2</v>
+      </c>
+      <c r="J260">
+        <v>7.2</v>
+      </c>
+      <c r="K260">
+        <v>230</v>
+      </c>
+      <c r="L260">
+        <v>247</v>
+      </c>
+      <c r="M260">
+        <v>1250</v>
+      </c>
+      <c r="N260">
+        <v>200</v>
+      </c>
+      <c r="O260">
+        <v>72</v>
+      </c>
+      <c r="P260">
+        <v>431</v>
+      </c>
+      <c r="Q260">
+        <v>169</v>
+      </c>
+      <c r="R260">
+        <v>127</v>
+      </c>
+      <c r="S260">
+        <v>243</v>
+      </c>
+      <c r="T260">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="261" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <f t="shared" si="4"/>
+        <v>260</v>
+      </c>
+      <c r="B261" t="s">
+        <v>268</v>
+      </c>
+      <c r="C261">
+        <v>2014</v>
+      </c>
+      <c r="D261" t="s">
+        <v>228</v>
+      </c>
+      <c r="E261">
+        <v>5.6</v>
+      </c>
+      <c r="F261">
+        <v>8</v>
+      </c>
+      <c r="G261">
+        <v>557</v>
+      </c>
+      <c r="H261">
+        <v>5</v>
+      </c>
+      <c r="I261">
+        <v>4</v>
+      </c>
+      <c r="J261">
+        <v>4.2</v>
+      </c>
+      <c r="K261">
+        <v>250</v>
+      </c>
+      <c r="L261">
+        <v>720</v>
+      </c>
+      <c r="M261">
+        <v>1870</v>
+      </c>
+      <c r="N261">
+        <v>520</v>
+      </c>
+      <c r="O261">
+        <v>66</v>
+      </c>
+      <c r="P261">
+        <v>494</v>
+      </c>
+      <c r="Q261">
+        <v>188</v>
+      </c>
+      <c r="R261">
+        <v>142</v>
+      </c>
+      <c r="S261">
+        <v>287</v>
+      </c>
+      <c r="T261">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="262" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <f t="shared" si="4"/>
+        <v>261</v>
+      </c>
+      <c r="B262" t="s">
+        <v>269</v>
+      </c>
+      <c r="C262">
+        <v>2006</v>
+      </c>
+      <c r="D262" t="s">
+        <v>232</v>
+      </c>
+      <c r="E262">
+        <v>2</v>
+      </c>
+      <c r="F262">
+        <v>4</v>
+      </c>
+      <c r="G262">
+        <v>212</v>
+      </c>
+      <c r="H262">
+        <v>4</v>
+      </c>
+      <c r="I262">
+        <v>2</v>
+      </c>
+      <c r="J262">
+        <v>6.2</v>
+      </c>
+      <c r="K262">
+        <v>218</v>
+      </c>
+      <c r="L262">
+        <v>194</v>
+      </c>
+      <c r="M262">
+        <v>1310</v>
+      </c>
+      <c r="N262">
+        <v>504</v>
+      </c>
+      <c r="O262">
+        <v>50</v>
+      </c>
+      <c r="P262">
+        <v>437</v>
+      </c>
+      <c r="Q262">
+        <v>173</v>
+      </c>
+      <c r="R262">
+        <v>140</v>
+      </c>
+      <c r="S262">
+        <v>257</v>
+      </c>
+      <c r="T262">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="263" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <f t="shared" si="4"/>
+        <v>262</v>
+      </c>
+      <c r="B263" t="s">
         <v>270</v>
       </c>
-      <c r="C260">
-        <v>2011</v>
-      </c>
-      <c r="D260" t="s">
-        <v>237</v>
-      </c>
-      <c r="E260">
-        <v>3.5</v>
-      </c>
-      <c r="F260">
-        <v>6</v>
-      </c>
-      <c r="G260">
-        <v>238</v>
-      </c>
-      <c r="H260">
-        <v>4</v>
-      </c>
-      <c r="I260">
-        <v>2</v>
-      </c>
-      <c r="J260">
-        <v>7.4</v>
-      </c>
-      <c r="K260">
+      <c r="C263">
+        <v>1980</v>
+      </c>
+      <c r="D263" t="s">
+        <v>233</v>
+      </c>
+      <c r="E263">
+        <v>2.1</v>
+      </c>
+      <c r="F263">
+        <v>5</v>
+      </c>
+      <c r="G263">
+        <v>200</v>
+      </c>
+      <c r="H263">
+        <v>5</v>
+      </c>
+      <c r="I263">
+        <v>3</v>
+      </c>
+      <c r="J263">
+        <v>7.3</v>
+      </c>
+      <c r="K263">
+        <v>221</v>
+      </c>
+      <c r="L263">
+        <v>285</v>
+      </c>
+      <c r="M263">
+        <v>1290</v>
+      </c>
+      <c r="N263">
+        <v>330</v>
+      </c>
+      <c r="O263">
+        <v>90</v>
+      </c>
+      <c r="P263">
+        <v>440</v>
+      </c>
+      <c r="Q263">
+        <v>172</v>
+      </c>
+      <c r="R263">
+        <v>134</v>
+      </c>
+      <c r="S263">
+        <v>252</v>
+      </c>
+      <c r="T263">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="264" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <f t="shared" si="4"/>
+        <v>263</v>
+      </c>
+      <c r="B264" t="s">
+        <v>271</v>
+      </c>
+      <c r="C264">
+        <v>2023</v>
+      </c>
+      <c r="D264" t="s">
+        <v>232</v>
+      </c>
+      <c r="E264">
+        <v>3</v>
+      </c>
+      <c r="F264">
+        <v>6</v>
+      </c>
+      <c r="G264">
+        <v>460</v>
+      </c>
+      <c r="H264">
+        <v>4</v>
+      </c>
+      <c r="I264">
+        <v>2</v>
+      </c>
+      <c r="J264">
+        <v>4.2</v>
+      </c>
+      <c r="K264">
+        <v>250</v>
+      </c>
+      <c r="L264">
+        <v>550</v>
+      </c>
+      <c r="M264">
+        <v>1700</v>
+      </c>
+      <c r="N264">
+        <v>390</v>
+      </c>
+      <c r="O264">
+        <v>52</v>
+      </c>
+      <c r="P264">
+        <v>458</v>
+      </c>
+      <c r="Q264">
+        <v>189</v>
+      </c>
+      <c r="R264">
+        <v>140</v>
+      </c>
+      <c r="S264">
+        <v>275</v>
+      </c>
+      <c r="T264">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="265" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <f t="shared" si="4"/>
+        <v>264</v>
+      </c>
+      <c r="B265" t="s">
+        <v>51</v>
+      </c>
+      <c r="C265">
+        <v>2024</v>
+      </c>
+      <c r="D265" t="s">
+        <v>233</v>
+      </c>
+      <c r="E265">
+        <v>5</v>
+      </c>
+      <c r="F265">
+        <v>8</v>
+      </c>
+      <c r="G265">
+        <v>446</v>
+      </c>
+      <c r="H265">
+        <v>4</v>
+      </c>
+      <c r="I265">
+        <v>2</v>
+      </c>
+      <c r="J265">
+        <v>5.3</v>
+      </c>
+      <c r="K265">
+        <v>250</v>
+      </c>
+      <c r="L265">
+        <v>540</v>
+      </c>
+      <c r="M265">
+        <v>1733</v>
+      </c>
+      <c r="N265">
+        <v>381</v>
+      </c>
+      <c r="O265">
+        <v>60</v>
+      </c>
+      <c r="P265">
+        <v>481</v>
+      </c>
+      <c r="Q265">
+        <v>192</v>
+      </c>
+      <c r="R265">
+        <v>139</v>
+      </c>
+      <c r="S265">
+        <v>272</v>
+      </c>
+      <c r="T265">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="266" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <f t="shared" si="4"/>
+        <v>265</v>
+      </c>
+      <c r="B266" t="s">
+        <v>272</v>
+      </c>
+      <c r="C266">
+        <v>2024</v>
+      </c>
+      <c r="D266" t="s">
+        <v>233</v>
+      </c>
+      <c r="E266">
+        <v>5</v>
+      </c>
+      <c r="F266">
+        <v>8</v>
+      </c>
+      <c r="G266">
+        <v>453</v>
+      </c>
+      <c r="H266">
+        <v>4</v>
+      </c>
+      <c r="I266">
+        <v>2</v>
+      </c>
+      <c r="J266">
+        <v>5.2</v>
+      </c>
+      <c r="K266">
+        <v>263</v>
+      </c>
+      <c r="L266">
+        <v>540</v>
+      </c>
+      <c r="M266">
+        <v>1742</v>
+      </c>
+      <c r="N266">
+        <v>381</v>
+      </c>
+      <c r="O266">
+        <v>60</v>
+      </c>
+      <c r="P266">
+        <v>482</v>
+      </c>
+      <c r="Q266">
+        <v>192</v>
+      </c>
+      <c r="R266">
+        <v>140</v>
+      </c>
+      <c r="S266">
+        <v>272</v>
+      </c>
+      <c r="T266">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="267" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <f t="shared" si="4"/>
+        <v>266</v>
+      </c>
+      <c r="B267" t="s">
+        <v>273</v>
+      </c>
+      <c r="C267">
+        <v>2023</v>
+      </c>
+      <c r="D267" t="s">
+        <v>229</v>
+      </c>
+      <c r="E267">
+        <v>3</v>
+      </c>
+      <c r="F267">
+        <v>6</v>
+      </c>
+      <c r="G267">
+        <v>400</v>
+      </c>
+      <c r="H267">
+        <v>2</v>
+      </c>
+      <c r="I267">
+        <v>2</v>
+      </c>
+      <c r="J267">
+        <v>4.3</v>
+      </c>
+      <c r="K267">
+        <v>250</v>
+      </c>
+      <c r="L267">
+        <v>475</v>
+      </c>
+      <c r="M267">
+        <v>1634</v>
+      </c>
+      <c r="N267">
+        <v>235</v>
+      </c>
+      <c r="O267">
+        <v>62</v>
+      </c>
+      <c r="P267">
+        <v>438</v>
+      </c>
+      <c r="Q267">
+        <v>184</v>
+      </c>
+      <c r="R267">
+        <v>132</v>
+      </c>
+      <c r="S267">
+        <v>255</v>
+      </c>
+      <c r="T267">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="268" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <f t="shared" si="4"/>
+        <v>267</v>
+      </c>
+      <c r="B268" t="s">
+        <v>274</v>
+      </c>
+      <c r="C268">
+        <v>1988</v>
+      </c>
+      <c r="D268" t="s">
+        <v>233</v>
+      </c>
+      <c r="E268" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F268">
+        <v>4</v>
+      </c>
+      <c r="G268">
+        <v>200</v>
+      </c>
+      <c r="H268">
+        <v>4</v>
+      </c>
+      <c r="I268">
+        <v>2</v>
+      </c>
+      <c r="J268">
+        <v>6.7</v>
+      </c>
+      <c r="K268">
+        <v>235</v>
+      </c>
+      <c r="L268">
+        <v>240</v>
+      </c>
+      <c r="M268">
+        <v>1165</v>
+      </c>
+      <c r="N268">
+        <v>420</v>
+      </c>
+      <c r="O268">
+        <v>70</v>
+      </c>
+      <c r="P268">
+        <v>435</v>
+      </c>
+      <c r="Q268">
+        <v>168</v>
+      </c>
+      <c r="R268">
+        <v>137</v>
+      </c>
+      <c r="S268">
+        <v>257</v>
+      </c>
+      <c r="T268">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="269" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <f t="shared" si="4"/>
+        <v>268</v>
+      </c>
+      <c r="B269" t="s">
+        <v>275</v>
+      </c>
+      <c r="C269">
+        <v>1997</v>
+      </c>
+      <c r="D269" t="s">
+        <v>229</v>
+      </c>
+      <c r="E269">
+        <v>1.8</v>
+      </c>
+      <c r="F269">
+        <v>4</v>
+      </c>
+      <c r="G269">
+        <v>130</v>
+      </c>
+      <c r="H269">
+        <v>2</v>
+      </c>
+      <c r="I269">
+        <v>2</v>
+      </c>
+      <c r="J269">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="K269">
+        <v>197</v>
+      </c>
+      <c r="L269">
+        <v>152</v>
+      </c>
+      <c r="M269">
+        <v>990</v>
+      </c>
+      <c r="N269">
+        <v>135</v>
+      </c>
+      <c r="O269">
+        <v>48</v>
+      </c>
+      <c r="P269">
+        <v>398</v>
+      </c>
+      <c r="Q269">
+        <v>168</v>
+      </c>
+      <c r="R269">
+        <v>123</v>
+      </c>
+      <c r="S269">
+        <v>227</v>
+      </c>
+      <c r="T269">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="270" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <f t="shared" si="4"/>
+        <v>269</v>
+      </c>
+      <c r="B270" t="s">
+        <v>276</v>
+      </c>
+      <c r="C270">
+        <v>1986</v>
+      </c>
+      <c r="D270" t="s">
+        <v>232</v>
+      </c>
+      <c r="E270">
+        <v>1.6</v>
+      </c>
+      <c r="F270">
+        <v>4</v>
+      </c>
+      <c r="G270">
+        <v>112</v>
+      </c>
+      <c r="H270">
+        <v>5</v>
+      </c>
+      <c r="I270">
+        <v>3</v>
+      </c>
+      <c r="J270">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="K270">
+        <v>201</v>
+      </c>
+      <c r="L270">
+        <v>132</v>
+      </c>
+      <c r="M270">
+        <v>998</v>
+      </c>
+      <c r="N270">
+        <v>300</v>
+      </c>
+      <c r="O270">
+        <v>50</v>
+      </c>
+      <c r="P270">
+        <v>420</v>
+      </c>
+      <c r="Q270">
+        <v>163</v>
+      </c>
+      <c r="R270">
+        <v>134</v>
+      </c>
+      <c r="S270">
+        <v>240</v>
+      </c>
+      <c r="T270">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="271" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <f t="shared" si="4"/>
+        <v>270</v>
+      </c>
+      <c r="B271" t="s">
+        <v>6</v>
+      </c>
+      <c r="C271">
+        <v>1969</v>
+      </c>
+      <c r="D271" t="s">
+        <v>228</v>
+      </c>
+      <c r="E271">
+        <v>7.2</v>
+      </c>
+      <c r="F271">
+        <v>8</v>
+      </c>
+      <c r="G271">
+        <v>396</v>
+      </c>
+      <c r="H271">
+        <v>5</v>
+      </c>
+      <c r="I271">
+        <v>2</v>
+      </c>
+      <c r="J271">
+        <v>6</v>
+      </c>
+      <c r="K271">
+        <v>221</v>
+      </c>
+      <c r="L271">
+        <v>664</v>
+      </c>
+      <c r="M271">
+        <v>1715</v>
+      </c>
+      <c r="N271">
+        <v>548</v>
+      </c>
+      <c r="O271">
+        <v>72</v>
+      </c>
+      <c r="P271">
+        <v>528</v>
+      </c>
+      <c r="Q271">
+        <v>195</v>
+      </c>
+      <c r="R271">
+        <v>137</v>
+      </c>
+      <c r="S271">
+        <v>297</v>
+      </c>
+      <c r="T271">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="272" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <f t="shared" si="4"/>
+        <v>271</v>
+      </c>
+      <c r="B272" t="s">
+        <v>277</v>
+      </c>
+      <c r="C272">
+        <v>2022</v>
+      </c>
+      <c r="D272" t="s">
+        <v>228</v>
+      </c>
+      <c r="E272">
+        <v>6.2</v>
+      </c>
+      <c r="F272">
+        <v>8</v>
+      </c>
+      <c r="G272">
+        <v>707</v>
+      </c>
+      <c r="H272">
+        <v>5</v>
+      </c>
+      <c r="I272">
+        <v>4</v>
+      </c>
+      <c r="J272">
+        <v>3.7</v>
+      </c>
+      <c r="K272">
+        <v>326</v>
+      </c>
+      <c r="L272">
+        <v>881</v>
+      </c>
+      <c r="M272">
+        <v>2080</v>
+      </c>
+      <c r="N272">
+        <v>467</v>
+      </c>
+      <c r="O272">
+        <v>70</v>
+      </c>
+      <c r="P272">
+        <v>511</v>
+      </c>
+      <c r="Q272">
+        <v>199</v>
+      </c>
+      <c r="R272">
+        <v>146</v>
+      </c>
+      <c r="S272">
+        <v>305</v>
+      </c>
+      <c r="T272">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="273" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <f t="shared" si="4"/>
+        <v>272</v>
+      </c>
+      <c r="B273" t="s">
+        <v>278</v>
+      </c>
+      <c r="C273">
+        <v>2001</v>
+      </c>
+      <c r="D273" t="s">
+        <v>229</v>
+      </c>
+      <c r="E273">
+        <v>3</v>
+      </c>
+      <c r="F273">
+        <v>6</v>
+      </c>
+      <c r="G273">
+        <v>569</v>
+      </c>
+      <c r="H273">
+        <v>2</v>
+      </c>
+      <c r="I273">
+        <v>2</v>
+      </c>
+      <c r="J273">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="K273">
+        <v>298</v>
+      </c>
+      <c r="L273">
+        <v>610</v>
+      </c>
+      <c r="M273">
+        <v>1633</v>
+      </c>
+      <c r="N273">
+        <v>185</v>
+      </c>
+      <c r="O273">
+        <v>70</v>
+      </c>
+      <c r="P273">
+        <v>452</v>
+      </c>
+      <c r="Q273">
+        <v>181</v>
+      </c>
+      <c r="R273">
+        <v>128</v>
+      </c>
+      <c r="S273">
+        <v>250</v>
+      </c>
+      <c r="T273">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="274" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <f t="shared" si="4"/>
+        <v>273</v>
+      </c>
+      <c r="B274" t="s">
+        <v>279</v>
+      </c>
+      <c r="C274">
+        <v>2002</v>
+      </c>
+      <c r="D274" t="s">
+        <v>232</v>
+      </c>
+      <c r="E274">
+        <v>2</v>
+      </c>
+      <c r="F274">
+        <v>4</v>
+      </c>
+      <c r="G274">
+        <v>276</v>
+      </c>
+      <c r="H274">
+        <v>5</v>
+      </c>
+      <c r="I274">
+        <v>4</v>
+      </c>
+      <c r="J274">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="K274">
+        <v>252</v>
+      </c>
+      <c r="L274">
+        <v>390</v>
+      </c>
+      <c r="M274">
+        <v>1380</v>
+      </c>
+      <c r="N274">
+        <v>430</v>
+      </c>
+      <c r="O274">
+        <v>55</v>
+      </c>
+      <c r="P274">
+        <v>446</v>
+      </c>
+      <c r="Q274">
+        <v>177</v>
+      </c>
+      <c r="R274">
+        <v>145</v>
+      </c>
+      <c r="S274">
+        <v>263</v>
+      </c>
+      <c r="T274">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="275" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <f t="shared" si="4"/>
+        <v>274</v>
+      </c>
+      <c r="B275" t="s">
+        <v>280</v>
+      </c>
+      <c r="C275">
+        <v>2023</v>
+      </c>
+      <c r="D275" t="s">
+        <v>229</v>
+      </c>
+      <c r="E275">
+        <v>5.5</v>
+      </c>
+      <c r="F275">
+        <v>8</v>
+      </c>
+      <c r="G275">
+        <v>670</v>
+      </c>
+      <c r="H275">
+        <v>2</v>
+      </c>
+      <c r="I275">
+        <v>2</v>
+      </c>
+      <c r="J275">
+        <v>2.7</v>
+      </c>
+      <c r="K275">
+        <v>314</v>
+      </c>
+      <c r="L275">
+        <v>623</v>
+      </c>
+      <c r="M275">
+        <v>1561</v>
+      </c>
+      <c r="N275">
+        <v>357</v>
+      </c>
+      <c r="O275">
+        <v>70</v>
+      </c>
+      <c r="P275">
+        <v>469</v>
+      </c>
+      <c r="Q275">
+        <v>203</v>
+      </c>
+      <c r="R275">
+        <v>124</v>
+      </c>
+      <c r="S275">
+        <v>272</v>
+      </c>
+      <c r="T275">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="276" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <f t="shared" si="4"/>
+        <v>275</v>
+      </c>
+      <c r="B276" t="s">
+        <v>281</v>
+      </c>
+      <c r="C276">
+        <v>2002</v>
+      </c>
+      <c r="D276" t="s">
+        <v>233</v>
+      </c>
+      <c r="E276">
+        <v>2.6</v>
+      </c>
+      <c r="F276">
+        <v>6</v>
+      </c>
+      <c r="G276">
+        <v>450</v>
+      </c>
+      <c r="H276">
+        <v>2</v>
+      </c>
+      <c r="I276">
+        <v>2</v>
+      </c>
+      <c r="J276">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="K276">
+        <v>265</v>
+      </c>
+      <c r="L276">
+        <v>573</v>
+      </c>
+      <c r="M276">
+        <v>1744</v>
+      </c>
+      <c r="N276">
+        <v>180</v>
+      </c>
+      <c r="O276">
+        <v>65</v>
+      </c>
+      <c r="P276">
+        <v>460</v>
+      </c>
+      <c r="Q276">
+        <v>179</v>
+      </c>
+      <c r="R276">
+        <v>136</v>
+      </c>
+      <c r="S276">
+        <v>267</v>
+      </c>
+      <c r="T276">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="277" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <f t="shared" si="4"/>
+        <v>276</v>
+      </c>
+      <c r="B277" t="s">
+        <v>282</v>
+      </c>
+      <c r="C277">
+        <v>2002</v>
+      </c>
+      <c r="D277" t="s">
+        <v>229</v>
+      </c>
+      <c r="E277">
+        <v>3.2</v>
+      </c>
+      <c r="F277">
+        <v>6</v>
+      </c>
+      <c r="G277">
+        <v>290</v>
+      </c>
+      <c r="H277">
+        <v>2</v>
+      </c>
+      <c r="I277">
+        <v>2</v>
+      </c>
+      <c r="J277">
+        <v>4.8</v>
+      </c>
+      <c r="K277">
+        <v>262</v>
+      </c>
+      <c r="L277">
+        <v>304</v>
+      </c>
+      <c r="M277">
+        <v>1270</v>
+      </c>
+      <c r="N277">
+        <v>154</v>
+      </c>
+      <c r="O277">
+        <v>70</v>
+      </c>
+      <c r="P277">
+        <v>443</v>
+      </c>
+      <c r="Q277">
+        <v>181</v>
+      </c>
+      <c r="R277">
+        <v>117</v>
+      </c>
+      <c r="S277">
+        <v>253</v>
+      </c>
+      <c r="T277">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="278" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <f t="shared" si="4"/>
+        <v>277</v>
+      </c>
+      <c r="B278" t="s">
+        <v>283</v>
+      </c>
+      <c r="C278">
+        <v>2023</v>
+      </c>
+      <c r="D278" t="s">
+        <v>232</v>
+      </c>
+      <c r="E278">
+        <v>2</v>
+      </c>
+      <c r="F278">
+        <v>4</v>
+      </c>
+      <c r="G278">
         <v>245</v>
       </c>
-      <c r="L260">
-        <v>330</v>
-      </c>
-      <c r="M260">
-        <v>1597</v>
-      </c>
-      <c r="N260">
-        <v>423</v>
-      </c>
-      <c r="O260">
-        <v>66</v>
-      </c>
-      <c r="P260">
-        <v>464</v>
-      </c>
-      <c r="Q260">
-        <v>181</v>
-      </c>
-      <c r="R260">
-        <v>140</v>
-      </c>
-      <c r="S260">
-        <v>269</v>
-      </c>
-      <c r="T260">
+      <c r="H278">
+        <v>5</v>
+      </c>
+      <c r="I278">
+        <v>5</v>
+      </c>
+      <c r="J278">
+        <v>6.4</v>
+      </c>
+      <c r="K278">
+        <v>250</v>
+      </c>
+      <c r="L278">
+        <v>370</v>
+      </c>
+      <c r="M278">
+        <v>1354</v>
+      </c>
+      <c r="N278">
+        <v>374</v>
+      </c>
+      <c r="O278">
+        <v>50</v>
+      </c>
+      <c r="P278">
+        <v>429</v>
+      </c>
+      <c r="Q278">
+        <v>179</v>
+      </c>
+      <c r="R278">
+        <v>148</v>
+      </c>
+      <c r="S278">
+        <v>263</v>
+      </c>
+      <c r="T278">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="279" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <f t="shared" si="4"/>
+        <v>278</v>
+      </c>
+      <c r="B279" t="s">
+        <v>284</v>
+      </c>
+      <c r="C279">
+        <v>2023</v>
+      </c>
+      <c r="D279" t="s">
+        <v>229</v>
+      </c>
+      <c r="E279">
+        <v>5.2</v>
+      </c>
+      <c r="F279">
+        <v>10</v>
+      </c>
+      <c r="G279">
+        <v>640</v>
+      </c>
+      <c r="H279">
+        <v>2</v>
+      </c>
+      <c r="I279">
+        <v>2</v>
+      </c>
+      <c r="J279">
+        <v>3</v>
+      </c>
+      <c r="K279">
+        <v>310</v>
+      </c>
+      <c r="L279">
+        <v>565</v>
+      </c>
+      <c r="M279">
+        <v>1339</v>
+      </c>
+      <c r="N279">
+        <v>38</v>
+      </c>
+      <c r="O279">
+        <v>80</v>
+      </c>
+      <c r="P279">
+        <v>455</v>
+      </c>
+      <c r="Q279">
+        <v>195</v>
+      </c>
+      <c r="R279">
+        <v>122</v>
+      </c>
+      <c r="S279">
+        <v>262</v>
+      </c>
+      <c r="T279">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="280" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <f t="shared" si="4"/>
+        <v>279</v>
+      </c>
+      <c r="B280" t="s">
+        <v>16</v>
+      </c>
+      <c r="C280">
+        <v>2017</v>
+      </c>
+      <c r="D280" t="s">
+        <v>229</v>
+      </c>
+      <c r="E280">
+        <v>4</v>
+      </c>
+      <c r="F280">
+        <v>8</v>
+      </c>
+      <c r="G280">
+        <v>608</v>
+      </c>
+      <c r="H280">
+        <v>2</v>
+      </c>
+      <c r="I280">
+        <v>2</v>
+      </c>
+      <c r="J280">
+        <v>3.8</v>
+      </c>
+      <c r="K280">
+        <v>273</v>
+      </c>
+      <c r="L280">
+        <v>700</v>
+      </c>
+      <c r="M280">
+        <v>2270</v>
+      </c>
+      <c r="N280">
+        <v>358</v>
+      </c>
+      <c r="O280">
+        <v>90</v>
+      </c>
+      <c r="P280">
+        <v>481</v>
+      </c>
+      <c r="Q280">
+        <v>194</v>
+      </c>
+      <c r="R280">
+        <v>139</v>
+      </c>
+      <c r="S280">
+        <v>275</v>
+      </c>
+      <c r="T280">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="281" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <f t="shared" si="4"/>
+        <v>280</v>
+      </c>
+      <c r="B281" t="s">
+        <v>285</v>
+      </c>
+      <c r="C281">
+        <v>2005</v>
+      </c>
+      <c r="D281" t="s">
+        <v>232</v>
+      </c>
+      <c r="E281">
+        <v>3.2</v>
+      </c>
+      <c r="F281">
+        <v>6</v>
+      </c>
+      <c r="G281">
+        <v>250</v>
+      </c>
+      <c r="H281">
+        <v>5</v>
+      </c>
+      <c r="I281">
+        <v>3</v>
+      </c>
+      <c r="J281">
+        <v>6.3</v>
+      </c>
+      <c r="K281">
+        <v>246</v>
+      </c>
+      <c r="L281">
+        <v>300</v>
+      </c>
+      <c r="M281">
+        <v>1360</v>
+      </c>
+      <c r="N281">
+        <v>280</v>
+      </c>
+      <c r="O281">
+        <v>63</v>
+      </c>
+      <c r="P281">
+        <v>421</v>
+      </c>
+      <c r="Q281">
+        <v>176</v>
+      </c>
+      <c r="R281">
+        <v>141</v>
+      </c>
+      <c r="S281">
+        <v>255</v>
+      </c>
+      <c r="T281">
         <v>6</v>
       </c>
     </row>
@@ -17567,8 +18951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24D8D5CA-9744-4893-9B14-DF471DE70DC3}">
   <dimension ref="A1:A259"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A245" workbookViewId="0">
-      <selection activeCell="A260" sqref="A260"/>
+    <sheetView topLeftCell="A245" workbookViewId="0">
+      <selection activeCell="A251" sqref="A251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18341,7 +19725,7 @@
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" t="str">
         <f>'Kompletne dane'!B129</f>
-        <v>Lamborgini Gallardo LP560-4</v>
+        <v>Lamborghini Gallardo LP560-4</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
@@ -18467,7 +19851,7 @@
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" t="str">
         <f>'Kompletne dane'!B150</f>
-        <v>Lamborgini Aventador SVJ</v>
+        <v>Lamborghini Aventador SVJ</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
@@ -19083,50 +20467,50 @@
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A252" t="str">
-        <f>'Kompletne dane'!B253</f>
-        <v>Seat Leon Cupra</v>
+      <c r="A252" t="e">
+        <f>'Kompletne dane'!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A253" t="str">
-        <f>'Kompletne dane'!B254</f>
-        <v>Mazda 3 MPS</v>
+      <c r="A253" t="e">
+        <f>'Kompletne dane'!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" t="str">
-        <f>'Kompletne dane'!B255</f>
+        <f>'Kompletne dane'!B253</f>
         <v>Mercedes 500SL</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" t="str">
-        <f>'Kompletne dane'!B256</f>
+        <f>'Kompletne dane'!B254</f>
         <v>Aston Martin DB7</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" t="str">
-        <f>'Kompletne dane'!B257</f>
+        <f>'Kompletne dane'!B255</f>
         <v>Porsche Panamera S</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" t="str">
-        <f>'Kompletne dane'!B258</f>
+        <f>'Kompletne dane'!B256</f>
         <v>BMW 330i</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" t="str">
-        <f>'Kompletne dane'!B259</f>
+        <f>'Kompletne dane'!B257</f>
         <v>BMW 850CSi</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" t="str">
-        <f>'Kompletne dane'!B260</f>
+        <f>'Kompletne dane'!B258</f>
         <v>Renault Laguna</v>
       </c>
     </row>
@@ -37720,594 +39104,594 @@
       </c>
     </row>
     <row r="252" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A252">
-        <f>'Kompletne dane'!C253</f>
-        <v>2008</v>
-      </c>
-      <c r="B252">
-        <f>IF('Kompletne dane'!$D253="A",1,IF('Kompletne dane'!$D253="B",2,IF('Kompletne dane'!$D253="C",3,IF('Kompletne dane'!$D253="D",4,IF('Kompletne dane'!$D253="E",5,IF('Kompletne dane'!$D253="F",6,7))))))</f>
-        <v>3</v>
-      </c>
-      <c r="C252">
-        <f>'Kompletne dane'!E253</f>
-        <v>2</v>
-      </c>
-      <c r="D252">
-        <f>'Kompletne dane'!F253</f>
-        <v>4</v>
-      </c>
-      <c r="E252">
-        <f>'Kompletne dane'!G253</f>
-        <v>240</v>
-      </c>
-      <c r="F252">
-        <f>'Kompletne dane'!H253</f>
-        <v>5</v>
-      </c>
-      <c r="G252">
-        <f>'Kompletne dane'!I253</f>
-        <v>5</v>
-      </c>
-      <c r="H252">
-        <f>'Kompletne dane'!J253</f>
-        <v>6.4</v>
-      </c>
-      <c r="I252">
-        <f>'Kompletne dane'!K253</f>
-        <v>247</v>
-      </c>
-      <c r="J252">
-        <f>'Kompletne dane'!L253</f>
-        <v>300</v>
-      </c>
-      <c r="K252">
-        <f>'Kompletne dane'!M253</f>
-        <v>1375</v>
-      </c>
-      <c r="L252">
-        <f>'Kompletne dane'!N253</f>
-        <v>341</v>
-      </c>
-      <c r="M252">
-        <f>'Kompletne dane'!O253</f>
-        <v>55</v>
-      </c>
-      <c r="N252">
-        <f>'Kompletne dane'!P253</f>
-        <v>432</v>
-      </c>
-      <c r="O252">
-        <f>'Kompletne dane'!Q253</f>
-        <v>177</v>
-      </c>
-      <c r="P252">
-        <f>'Kompletne dane'!R253</f>
-        <v>146</v>
-      </c>
-      <c r="Q252">
-        <f>'Kompletne dane'!S253</f>
-        <v>258</v>
-      </c>
-      <c r="R252">
-        <f>'Kompletne dane'!T253</f>
-        <v>6</v>
+      <c r="A252" t="e">
+        <f>'Kompletne dane'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B252" t="e">
+        <f>IF('Kompletne dane'!#REF!="A",1,IF('Kompletne dane'!#REF!="B",2,IF('Kompletne dane'!#REF!="C",3,IF('Kompletne dane'!#REF!="D",4,IF('Kompletne dane'!#REF!="E",5,IF('Kompletne dane'!#REF!="F",6,7))))))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C252" t="e">
+        <f>'Kompletne dane'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D252" t="e">
+        <f>'Kompletne dane'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E252" t="e">
+        <f>'Kompletne dane'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F252" t="e">
+        <f>'Kompletne dane'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G252" t="e">
+        <f>'Kompletne dane'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H252" t="e">
+        <f>'Kompletne dane'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I252" t="e">
+        <f>'Kompletne dane'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J252" t="e">
+        <f>'Kompletne dane'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K252" t="e">
+        <f>'Kompletne dane'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L252" t="e">
+        <f>'Kompletne dane'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M252" t="e">
+        <f>'Kompletne dane'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N252" t="e">
+        <f>'Kompletne dane'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O252" t="e">
+        <f>'Kompletne dane'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P252" t="e">
+        <f>'Kompletne dane'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q252" t="e">
+        <f>'Kompletne dane'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="R252" t="e">
+        <f>'Kompletne dane'!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="253" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A253">
-        <f>'Kompletne dane'!C254</f>
-        <v>2006</v>
-      </c>
-      <c r="B253">
-        <f>IF('Kompletne dane'!$D254="A",1,IF('Kompletne dane'!$D254="B",2,IF('Kompletne dane'!$D254="C",3,IF('Kompletne dane'!$D254="D",4,IF('Kompletne dane'!$D254="E",5,IF('Kompletne dane'!$D254="F",6,7))))))</f>
-        <v>3</v>
-      </c>
-      <c r="C253">
-        <f>'Kompletne dane'!E254</f>
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="D253">
-        <f>'Kompletne dane'!F254</f>
-        <v>4</v>
-      </c>
-      <c r="E253">
-        <f>'Kompletne dane'!G254</f>
-        <v>260</v>
-      </c>
-      <c r="F253">
-        <f>'Kompletne dane'!H254</f>
-        <v>5</v>
-      </c>
-      <c r="G253">
-        <f>'Kompletne dane'!I254</f>
-        <v>5</v>
-      </c>
-      <c r="H253">
-        <f>'Kompletne dane'!J254</f>
-        <v>6.1</v>
-      </c>
-      <c r="I253">
-        <f>'Kompletne dane'!K254</f>
-        <v>250</v>
-      </c>
-      <c r="J253">
-        <f>'Kompletne dane'!L254</f>
-        <v>380</v>
-      </c>
-      <c r="K253">
-        <f>'Kompletne dane'!M254</f>
-        <v>1410</v>
-      </c>
-      <c r="L253">
-        <f>'Kompletne dane'!N254</f>
-        <v>290</v>
-      </c>
-      <c r="M253">
-        <f>'Kompletne dane'!O254</f>
-        <v>55</v>
-      </c>
-      <c r="N253">
-        <f>'Kompletne dane'!P254</f>
-        <v>444</v>
-      </c>
-      <c r="O253">
-        <f>'Kompletne dane'!Q254</f>
-        <v>177</v>
-      </c>
-      <c r="P253">
-        <f>'Kompletne dane'!R254</f>
-        <v>147</v>
-      </c>
-      <c r="Q253">
-        <f>'Kompletne dane'!S254</f>
-        <v>264</v>
-      </c>
-      <c r="R253">
-        <f>'Kompletne dane'!T254</f>
-        <v>6</v>
+      <c r="A253" t="e">
+        <f>'Kompletne dane'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B253" t="e">
+        <f>IF('Kompletne dane'!#REF!="A",1,IF('Kompletne dane'!#REF!="B",2,IF('Kompletne dane'!#REF!="C",3,IF('Kompletne dane'!#REF!="D",4,IF('Kompletne dane'!#REF!="E",5,IF('Kompletne dane'!#REF!="F",6,7))))))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C253" t="e">
+        <f>'Kompletne dane'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D253" t="e">
+        <f>'Kompletne dane'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E253" t="e">
+        <f>'Kompletne dane'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F253" t="e">
+        <f>'Kompletne dane'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G253" t="e">
+        <f>'Kompletne dane'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H253" t="e">
+        <f>'Kompletne dane'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I253" t="e">
+        <f>'Kompletne dane'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J253" t="e">
+        <f>'Kompletne dane'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K253" t="e">
+        <f>'Kompletne dane'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L253" t="e">
+        <f>'Kompletne dane'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M253" t="e">
+        <f>'Kompletne dane'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N253" t="e">
+        <f>'Kompletne dane'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O253" t="e">
+        <f>'Kompletne dane'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P253" t="e">
+        <f>'Kompletne dane'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q253" t="e">
+        <f>'Kompletne dane'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="R253" t="e">
+        <f>'Kompletne dane'!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="254" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A254">
+        <f>'Kompletne dane'!C253</f>
+        <v>2000</v>
+      </c>
+      <c r="B254">
+        <f>IF('Kompletne dane'!$D253="A",1,IF('Kompletne dane'!$D253="B",2,IF('Kompletne dane'!$D253="C",3,IF('Kompletne dane'!$D253="D",4,IF('Kompletne dane'!$D253="E",5,IF('Kompletne dane'!$D253="F",6,7))))))</f>
+        <v>7</v>
+      </c>
+      <c r="C254">
+        <f>'Kompletne dane'!E253</f>
+        <v>5</v>
+      </c>
+      <c r="D254">
+        <f>'Kompletne dane'!F253</f>
+        <v>8</v>
+      </c>
+      <c r="E254">
+        <f>'Kompletne dane'!G253</f>
+        <v>306</v>
+      </c>
+      <c r="F254">
+        <f>'Kompletne dane'!H253</f>
+        <v>2</v>
+      </c>
+      <c r="G254">
+        <f>'Kompletne dane'!I253</f>
+        <v>2</v>
+      </c>
+      <c r="H254">
+        <f>'Kompletne dane'!J253</f>
+        <v>6.5</v>
+      </c>
+      <c r="I254">
+        <f>'Kompletne dane'!K253</f>
+        <v>250</v>
+      </c>
+      <c r="J254">
+        <f>'Kompletne dane'!L253</f>
+        <v>460</v>
+      </c>
+      <c r="K254">
+        <f>'Kompletne dane'!M253</f>
+        <v>1815</v>
+      </c>
+      <c r="L254">
+        <f>'Kompletne dane'!N253</f>
+        <v>265</v>
+      </c>
+      <c r="M254">
+        <f>'Kompletne dane'!O253</f>
+        <v>80</v>
+      </c>
+      <c r="N254">
+        <f>'Kompletne dane'!P253</f>
+        <v>450</v>
+      </c>
+      <c r="O254">
+        <f>'Kompletne dane'!Q253</f>
+        <v>181</v>
+      </c>
+      <c r="P254">
+        <f>'Kompletne dane'!R253</f>
+        <v>130</v>
+      </c>
+      <c r="Q254">
+        <f>'Kompletne dane'!S253</f>
+        <v>252</v>
+      </c>
+      <c r="R254">
+        <f>'Kompletne dane'!T253</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="255" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <f>'Kompletne dane'!C254</f>
+        <v>1998</v>
+      </c>
+      <c r="B255">
+        <f>IF('Kompletne dane'!$D254="A",1,IF('Kompletne dane'!$D254="B",2,IF('Kompletne dane'!$D254="C",3,IF('Kompletne dane'!$D254="D",4,IF('Kompletne dane'!$D254="E",5,IF('Kompletne dane'!$D254="F",6,7))))))</f>
+        <v>7</v>
+      </c>
+      <c r="C255">
+        <f>'Kompletne dane'!E254</f>
+        <v>3.2</v>
+      </c>
+      <c r="D255">
+        <f>'Kompletne dane'!F254</f>
+        <v>6</v>
+      </c>
+      <c r="E255">
+        <f>'Kompletne dane'!G254</f>
+        <v>360</v>
+      </c>
+      <c r="F255">
+        <f>'Kompletne dane'!H254</f>
+        <v>4</v>
+      </c>
+      <c r="G255">
+        <f>'Kompletne dane'!I254</f>
+        <v>2</v>
+      </c>
+      <c r="H255">
+        <f>'Kompletne dane'!J254</f>
+        <v>6</v>
+      </c>
+      <c r="I255">
+        <f>'Kompletne dane'!K254</f>
+        <v>265</v>
+      </c>
+      <c r="J255">
+        <f>'Kompletne dane'!L254</f>
+        <v>499</v>
+      </c>
+      <c r="K255">
+        <f>'Kompletne dane'!M254</f>
+        <v>1725</v>
+      </c>
+      <c r="L255">
+        <f>'Kompletne dane'!N254</f>
+        <v>178</v>
+      </c>
+      <c r="M255">
+        <f>'Kompletne dane'!O254</f>
+        <v>89</v>
+      </c>
+      <c r="N255">
+        <f>'Kompletne dane'!P254</f>
+        <v>463</v>
+      </c>
+      <c r="O255">
+        <f>'Kompletne dane'!Q254</f>
+        <v>182</v>
+      </c>
+      <c r="P255">
+        <f>'Kompletne dane'!R254</f>
+        <v>127</v>
+      </c>
+      <c r="Q255">
+        <f>'Kompletne dane'!S254</f>
+        <v>259</v>
+      </c>
+      <c r="R255">
+        <f>'Kompletne dane'!T254</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="256" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A256">
         <f>'Kompletne dane'!C255</f>
-        <v>2000</v>
-      </c>
-      <c r="B254">
+        <v>2012</v>
+      </c>
+      <c r="B256">
         <f>IF('Kompletne dane'!$D255="A",1,IF('Kompletne dane'!$D255="B",2,IF('Kompletne dane'!$D255="C",3,IF('Kompletne dane'!$D255="D",4,IF('Kompletne dane'!$D255="E",5,IF('Kompletne dane'!$D255="F",6,7))))))</f>
-        <v>7</v>
-      </c>
-      <c r="C254">
+        <v>5</v>
+      </c>
+      <c r="C256">
         <f>'Kompletne dane'!E255</f>
-        <v>5</v>
-      </c>
-      <c r="D254">
+        <v>4.8</v>
+      </c>
+      <c r="D256">
         <f>'Kompletne dane'!F255</f>
         <v>8</v>
       </c>
-      <c r="E254">
+      <c r="E256">
         <f>'Kompletne dane'!G255</f>
-        <v>306</v>
-      </c>
-      <c r="F254">
+        <v>400</v>
+      </c>
+      <c r="F256">
         <f>'Kompletne dane'!H255</f>
-        <v>2</v>
-      </c>
-      <c r="G254">
+        <v>4</v>
+      </c>
+      <c r="G256">
         <f>'Kompletne dane'!I255</f>
-        <v>2</v>
-      </c>
-      <c r="H254">
+        <v>5</v>
+      </c>
+      <c r="H256">
         <f>'Kompletne dane'!J255</f>
-        <v>6.5</v>
-      </c>
-      <c r="I254">
+        <v>5.6</v>
+      </c>
+      <c r="I256">
         <f>'Kompletne dane'!K255</f>
-        <v>250</v>
-      </c>
-      <c r="J254">
+        <v>285</v>
+      </c>
+      <c r="J256">
         <f>'Kompletne dane'!L255</f>
-        <v>460</v>
-      </c>
-      <c r="K254">
+        <v>500</v>
+      </c>
+      <c r="K256">
         <f>'Kompletne dane'!M255</f>
-        <v>1815</v>
-      </c>
-      <c r="L254">
+        <v>1770</v>
+      </c>
+      <c r="L256">
         <f>'Kompletne dane'!N255</f>
-        <v>265</v>
-      </c>
-      <c r="M254">
+        <v>445</v>
+      </c>
+      <c r="M256">
         <f>'Kompletne dane'!O255</f>
         <v>80</v>
       </c>
-      <c r="N254">
+      <c r="N256">
         <f>'Kompletne dane'!P255</f>
-        <v>450</v>
-      </c>
-      <c r="O254">
+        <v>497</v>
+      </c>
+      <c r="O256">
         <f>'Kompletne dane'!Q255</f>
-        <v>181</v>
-      </c>
-      <c r="P254">
+        <v>191</v>
+      </c>
+      <c r="P256">
         <f>'Kompletne dane'!R255</f>
-        <v>130</v>
-      </c>
-      <c r="Q254">
+        <v>142</v>
+      </c>
+      <c r="Q256">
         <f>'Kompletne dane'!S255</f>
-        <v>252</v>
-      </c>
-      <c r="R254">
+        <v>292</v>
+      </c>
+      <c r="R256">
         <f>'Kompletne dane'!T255</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="257" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <f>'Kompletne dane'!C256</f>
+        <v>2011</v>
+      </c>
+      <c r="B257">
+        <f>IF('Kompletne dane'!$D256="A",1,IF('Kompletne dane'!$D256="B",2,IF('Kompletne dane'!$D256="C",3,IF('Kompletne dane'!$D256="D",4,IF('Kompletne dane'!$D256="E",5,IF('Kompletne dane'!$D256="F",6,7))))))</f>
+        <v>4</v>
+      </c>
+      <c r="C257">
+        <f>'Kompletne dane'!E256</f>
+        <v>3</v>
+      </c>
+      <c r="D257">
+        <f>'Kompletne dane'!F256</f>
+        <v>6</v>
+      </c>
+      <c r="E257">
+        <f>'Kompletne dane'!G256</f>
+        <v>272</v>
+      </c>
+      <c r="F257">
+        <f>'Kompletne dane'!H256</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="255" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A255">
-        <f>'Kompletne dane'!C256</f>
-        <v>1998</v>
-      </c>
-      <c r="B255">
-        <f>IF('Kompletne dane'!$D256="A",1,IF('Kompletne dane'!$D256="B",2,IF('Kompletne dane'!$D256="C",3,IF('Kompletne dane'!$D256="D",4,IF('Kompletne dane'!$D256="E",5,IF('Kompletne dane'!$D256="F",6,7))))))</f>
-        <v>7</v>
-      </c>
-      <c r="C255">
-        <f>'Kompletne dane'!E256</f>
-        <v>3.2</v>
-      </c>
-      <c r="D255">
-        <f>'Kompletne dane'!F256</f>
-        <v>6</v>
-      </c>
-      <c r="E255">
-        <f>'Kompletne dane'!G256</f>
-        <v>360</v>
-      </c>
-      <c r="F255">
-        <f>'Kompletne dane'!H256</f>
-        <v>4</v>
-      </c>
-      <c r="G255">
+      <c r="G257">
         <f>'Kompletne dane'!I256</f>
-        <v>2</v>
-      </c>
-      <c r="H255">
+        <v>4</v>
+      </c>
+      <c r="H257">
         <f>'Kompletne dane'!J256</f>
-        <v>6</v>
-      </c>
-      <c r="I255">
+        <v>6.1</v>
+      </c>
+      <c r="I257">
         <f>'Kompletne dane'!K256</f>
-        <v>265</v>
-      </c>
-      <c r="J255">
+        <v>250</v>
+      </c>
+      <c r="J257">
         <f>'Kompletne dane'!L256</f>
-        <v>499</v>
-      </c>
-      <c r="K255">
+        <v>320</v>
+      </c>
+      <c r="K257">
         <f>'Kompletne dane'!M256</f>
-        <v>1725</v>
-      </c>
-      <c r="L255">
+        <v>1475</v>
+      </c>
+      <c r="L257">
         <f>'Kompletne dane'!N256</f>
-        <v>178</v>
-      </c>
-      <c r="M255">
+        <v>460</v>
+      </c>
+      <c r="M257">
         <f>'Kompletne dane'!O256</f>
-        <v>89</v>
-      </c>
-      <c r="N255">
+        <v>63</v>
+      </c>
+      <c r="N257">
         <f>'Kompletne dane'!P256</f>
-        <v>463</v>
-      </c>
-      <c r="O255">
+        <v>453</v>
+      </c>
+      <c r="O257">
         <f>'Kompletne dane'!Q256</f>
         <v>182</v>
       </c>
-      <c r="P255">
+      <c r="P257">
         <f>'Kompletne dane'!R256</f>
-        <v>127</v>
-      </c>
-      <c r="Q255">
+        <v>142</v>
+      </c>
+      <c r="Q257">
         <f>'Kompletne dane'!S256</f>
-        <v>259</v>
-      </c>
-      <c r="R255">
+        <v>276</v>
+      </c>
+      <c r="R257">
         <f>'Kompletne dane'!T256</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="256" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A256">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="258" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A258">
         <f>'Kompletne dane'!C257</f>
-        <v>2012</v>
-      </c>
-      <c r="B256">
+        <v>1995</v>
+      </c>
+      <c r="B258">
         <f>IF('Kompletne dane'!$D257="A",1,IF('Kompletne dane'!$D257="B",2,IF('Kompletne dane'!$D257="C",3,IF('Kompletne dane'!$D257="D",4,IF('Kompletne dane'!$D257="E",5,IF('Kompletne dane'!$D257="F",6,7))))))</f>
         <v>5</v>
       </c>
-      <c r="C256">
+      <c r="C258">
         <f>'Kompletne dane'!E257</f>
-        <v>4.8</v>
-      </c>
-      <c r="D256">
+        <v>5.6</v>
+      </c>
+      <c r="D258">
         <f>'Kompletne dane'!F257</f>
-        <v>8</v>
-      </c>
-      <c r="E256">
+        <v>12</v>
+      </c>
+      <c r="E258">
         <f>'Kompletne dane'!G257</f>
-        <v>400</v>
-      </c>
-      <c r="F256">
+        <v>380</v>
+      </c>
+      <c r="F258">
         <f>'Kompletne dane'!H257</f>
         <v>4</v>
       </c>
-      <c r="G256">
+      <c r="G258">
         <f>'Kompletne dane'!I257</f>
-        <v>5</v>
-      </c>
-      <c r="H256">
+        <v>2</v>
+      </c>
+      <c r="H258">
         <f>'Kompletne dane'!J257</f>
-        <v>5.6</v>
-      </c>
-      <c r="I256">
+        <v>6</v>
+      </c>
+      <c r="I258">
         <f>'Kompletne dane'!K257</f>
-        <v>285</v>
-      </c>
-      <c r="J256">
+        <v>250</v>
+      </c>
+      <c r="J258">
         <f>'Kompletne dane'!L257</f>
-        <v>500</v>
-      </c>
-      <c r="K256">
+        <v>550</v>
+      </c>
+      <c r="K258">
         <f>'Kompletne dane'!M257</f>
-        <v>1770</v>
-      </c>
-      <c r="L256">
+        <v>1900</v>
+      </c>
+      <c r="L258">
         <f>'Kompletne dane'!N257</f>
-        <v>445</v>
-      </c>
-      <c r="M256">
+        <v>320</v>
+      </c>
+      <c r="M258">
         <f>'Kompletne dane'!O257</f>
-        <v>80</v>
-      </c>
-      <c r="N256">
+        <v>90</v>
+      </c>
+      <c r="N258">
         <f>'Kompletne dane'!P257</f>
-        <v>497</v>
-      </c>
-      <c r="O256">
+        <v>478</v>
+      </c>
+      <c r="O258">
         <f>'Kompletne dane'!Q257</f>
-        <v>191</v>
-      </c>
-      <c r="P256">
+        <v>186</v>
+      </c>
+      <c r="P258">
         <f>'Kompletne dane'!R257</f>
-        <v>142</v>
-      </c>
-      <c r="Q256">
+        <v>133</v>
+      </c>
+      <c r="Q258">
         <f>'Kompletne dane'!S257</f>
-        <v>292</v>
-      </c>
-      <c r="R256">
+        <v>268</v>
+      </c>
+      <c r="R258">
         <f>'Kompletne dane'!T257</f>
         <v>6</v>
       </c>
     </row>
-    <row r="257" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A257">
+    <row r="259" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A259">
         <f>'Kompletne dane'!C258</f>
         <v>2011</v>
       </c>
-      <c r="B257">
+      <c r="B259">
         <f>IF('Kompletne dane'!$D258="A",1,IF('Kompletne dane'!$D258="B",2,IF('Kompletne dane'!$D258="C",3,IF('Kompletne dane'!$D258="D",4,IF('Kompletne dane'!$D258="E",5,IF('Kompletne dane'!$D258="F",6,7))))))</f>
         <v>4</v>
       </c>
-      <c r="C257">
+      <c r="C259">
         <f>'Kompletne dane'!E258</f>
-        <v>3</v>
-      </c>
-      <c r="D257">
+        <v>3.5</v>
+      </c>
+      <c r="D259">
         <f>'Kompletne dane'!F258</f>
         <v>6</v>
       </c>
-      <c r="E257">
+      <c r="E259">
         <f>'Kompletne dane'!G258</f>
-        <v>272</v>
-      </c>
-      <c r="F257">
+        <v>238</v>
+      </c>
+      <c r="F259">
         <f>'Kompletne dane'!H258</f>
-        <v>5</v>
-      </c>
-      <c r="G257">
+        <v>4</v>
+      </c>
+      <c r="G259">
         <f>'Kompletne dane'!I258</f>
-        <v>4</v>
-      </c>
-      <c r="H257">
+        <v>2</v>
+      </c>
+      <c r="H259">
         <f>'Kompletne dane'!J258</f>
-        <v>6.1</v>
-      </c>
-      <c r="I257">
+        <v>7.4</v>
+      </c>
+      <c r="I259">
         <f>'Kompletne dane'!K258</f>
-        <v>250</v>
-      </c>
-      <c r="J257">
+        <v>245</v>
+      </c>
+      <c r="J259">
         <f>'Kompletne dane'!L258</f>
-        <v>320</v>
-      </c>
-      <c r="K257">
+        <v>330</v>
+      </c>
+      <c r="K259">
         <f>'Kompletne dane'!M258</f>
-        <v>1475</v>
-      </c>
-      <c r="L257">
+        <v>1597</v>
+      </c>
+      <c r="L259">
         <f>'Kompletne dane'!N258</f>
-        <v>460</v>
-      </c>
-      <c r="M257">
+        <v>423</v>
+      </c>
+      <c r="M259">
         <f>'Kompletne dane'!O258</f>
-        <v>63</v>
-      </c>
-      <c r="N257">
+        <v>66</v>
+      </c>
+      <c r="N259">
         <f>'Kompletne dane'!P258</f>
-        <v>453</v>
-      </c>
-      <c r="O257">
+        <v>464</v>
+      </c>
+      <c r="O259">
         <f>'Kompletne dane'!Q258</f>
-        <v>182</v>
-      </c>
-      <c r="P257">
+        <v>181</v>
+      </c>
+      <c r="P259">
         <f>'Kompletne dane'!R258</f>
-        <v>142</v>
-      </c>
-      <c r="Q257">
+        <v>140</v>
+      </c>
+      <c r="Q259">
         <f>'Kompletne dane'!S258</f>
-        <v>276</v>
-      </c>
-      <c r="R257">
+        <v>269</v>
+      </c>
+      <c r="R259">
         <f>'Kompletne dane'!T258</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="258" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A258">
-        <f>'Kompletne dane'!C259</f>
-        <v>1995</v>
-      </c>
-      <c r="B258">
-        <f>IF('Kompletne dane'!$D259="A",1,IF('Kompletne dane'!$D259="B",2,IF('Kompletne dane'!$D259="C",3,IF('Kompletne dane'!$D259="D",4,IF('Kompletne dane'!$D259="E",5,IF('Kompletne dane'!$D259="F",6,7))))))</f>
-        <v>5</v>
-      </c>
-      <c r="C258">
-        <f>'Kompletne dane'!E259</f>
-        <v>5.6</v>
-      </c>
-      <c r="D258">
-        <f>'Kompletne dane'!F259</f>
-        <v>12</v>
-      </c>
-      <c r="E258">
-        <f>'Kompletne dane'!G259</f>
-        <v>380</v>
-      </c>
-      <c r="F258">
-        <f>'Kompletne dane'!H259</f>
-        <v>4</v>
-      </c>
-      <c r="G258">
-        <f>'Kompletne dane'!I259</f>
-        <v>2</v>
-      </c>
-      <c r="H258">
-        <f>'Kompletne dane'!J259</f>
-        <v>6</v>
-      </c>
-      <c r="I258">
-        <f>'Kompletne dane'!K259</f>
-        <v>250</v>
-      </c>
-      <c r="J258">
-        <f>'Kompletne dane'!L259</f>
-        <v>550</v>
-      </c>
-      <c r="K258">
-        <f>'Kompletne dane'!M259</f>
-        <v>1900</v>
-      </c>
-      <c r="L258">
-        <f>'Kompletne dane'!N259</f>
-        <v>320</v>
-      </c>
-      <c r="M258">
-        <f>'Kompletne dane'!O259</f>
-        <v>90</v>
-      </c>
-      <c r="N258">
-        <f>'Kompletne dane'!P259</f>
-        <v>478</v>
-      </c>
-      <c r="O258">
-        <f>'Kompletne dane'!Q259</f>
-        <v>186</v>
-      </c>
-      <c r="P258">
-        <f>'Kompletne dane'!R259</f>
-        <v>133</v>
-      </c>
-      <c r="Q258">
-        <f>'Kompletne dane'!S259</f>
-        <v>268</v>
-      </c>
-      <c r="R258">
-        <f>'Kompletne dane'!T259</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="259" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A259">
-        <f>'Kompletne dane'!C260</f>
-        <v>2011</v>
-      </c>
-      <c r="B259">
-        <f>IF('Kompletne dane'!$D260="A",1,IF('Kompletne dane'!$D260="B",2,IF('Kompletne dane'!$D260="C",3,IF('Kompletne dane'!$D260="D",4,IF('Kompletne dane'!$D260="E",5,IF('Kompletne dane'!$D260="F",6,7))))))</f>
-        <v>4</v>
-      </c>
-      <c r="C259">
-        <f>'Kompletne dane'!E260</f>
-        <v>3.5</v>
-      </c>
-      <c r="D259">
-        <f>'Kompletne dane'!F260</f>
-        <v>6</v>
-      </c>
-      <c r="E259">
-        <f>'Kompletne dane'!G260</f>
-        <v>238</v>
-      </c>
-      <c r="F259">
-        <f>'Kompletne dane'!H260</f>
-        <v>4</v>
-      </c>
-      <c r="G259">
-        <f>'Kompletne dane'!I260</f>
-        <v>2</v>
-      </c>
-      <c r="H259">
-        <f>'Kompletne dane'!J260</f>
-        <v>7.4</v>
-      </c>
-      <c r="I259">
-        <f>'Kompletne dane'!K260</f>
-        <v>245</v>
-      </c>
-      <c r="J259">
-        <f>'Kompletne dane'!L260</f>
-        <v>330</v>
-      </c>
-      <c r="K259">
-        <f>'Kompletne dane'!M260</f>
-        <v>1597</v>
-      </c>
-      <c r="L259">
-        <f>'Kompletne dane'!N260</f>
-        <v>423</v>
-      </c>
-      <c r="M259">
-        <f>'Kompletne dane'!O260</f>
-        <v>66</v>
-      </c>
-      <c r="N259">
-        <f>'Kompletne dane'!P260</f>
-        <v>464</v>
-      </c>
-      <c r="O259">
-        <f>'Kompletne dane'!Q260</f>
-        <v>181</v>
-      </c>
-      <c r="P259">
-        <f>'Kompletne dane'!R260</f>
-        <v>140</v>
-      </c>
-      <c r="Q259">
-        <f>'Kompletne dane'!S260</f>
-        <v>269</v>
-      </c>
-      <c r="R259">
-        <f>'Kompletne dane'!T260</f>
         <v>6</v>
       </c>
     </row>
